--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59B32D-2AB7-F541-9249-D5D8E2FCC70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABFCB0F-510B-0C4D-A970-41D9D1C66685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21480" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20600" yWindow="460" windowWidth="30960" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -942,7 +942,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2773,63 +2773,63 @@
         <v>9</v>
       </c>
       <c r="D20" s="23">
-        <f>C37*$F$3</f>
+        <f t="shared" ref="D20:R20" si="20">C37*$F$3</f>
         <v>14.700000000000001</v>
       </c>
       <c r="E20" s="23">
-        <f>D37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>5.6260959999999942</v>
       </c>
       <c r="F20" s="23">
-        <f>E37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>-2.7497680000019502E-2</v>
       </c>
       <c r="G20" s="23">
-        <f>F37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>-0.13473197360003514</v>
       </c>
       <c r="H20" s="23">
-        <f>G37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>7.5031600199751409</v>
       </c>
       <c r="I20" s="23">
-        <f>H37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>26.769821066449655</v>
       </c>
       <c r="J20" s="23">
-        <f>I37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>51.190315186547217</v>
       </c>
       <c r="K20" s="23">
-        <f>J37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>81.311284649688176</v>
       </c>
       <c r="L20" s="23">
-        <f>K37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>117.73668758500867</v>
       </c>
       <c r="M20" s="23">
-        <f>L37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>161.13361313582237</v>
       </c>
       <c r="N20" s="23">
-        <f>M37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>212.23868279790582</v>
       </c>
       <c r="O20" s="23">
-        <f>N37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>271.86509677478381</v>
       </c>
       <c r="P20" s="23">
-        <f>O37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>340.91039007746213</v>
       </c>
       <c r="Q20" s="23">
-        <f>P37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>420.36496958029477</v>
       </c>
       <c r="R20" s="23">
-        <f>Q37*$F$3</f>
+        <f t="shared" si="20"/>
         <v>511.32151037790044</v>
       </c>
       <c r="S20" s="38"/>
@@ -2942,63 +2942,63 @@
         <v>-567.81799999999998</v>
       </c>
       <c r="D21" s="23">
-        <f t="shared" ref="D21:E21" si="20">D19+D20</f>
+        <f t="shared" ref="D21:E21" si="21">D19+D20</f>
         <v>-453.69520000000028</v>
       </c>
       <c r="E21" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-282.67968400000069</v>
       </c>
       <c r="F21" s="23">
-        <f t="shared" ref="F21" si="21">F19+F20</f>
+        <f t="shared" ref="F21" si="22">F19+F20</f>
         <v>-5.361714680000782</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" ref="G21" si="22">G19+G20</f>
+        <f t="shared" ref="G21" si="23">G19+G20</f>
         <v>424.32733297639862</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21" si="23">H19+H20</f>
+        <f t="shared" ref="H21" si="24">H19+H20</f>
         <v>1070.3700581374731</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" ref="I21" si="24">I19+I20</f>
+        <f t="shared" ref="I21" si="25">I19+I20</f>
         <v>1356.6941177831975</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" ref="J21" si="25">J19+J20</f>
+        <f t="shared" ref="J21" si="26">J19+J20</f>
         <v>1673.3871923967199</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" ref="K21" si="26">K19+K20</f>
+        <f t="shared" ref="K21" si="27">K19+K20</f>
         <v>2023.6334964066939</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" ref="L21" si="27">L19+L20</f>
+        <f t="shared" ref="L21" si="28">L19+L20</f>
         <v>2410.9403083785392</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" ref="M21:N21" si="28">M19+M20</f>
+        <f t="shared" ref="M21:N21" si="29">M19+M20</f>
         <v>2839.1705367824152</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3312.5785542709982</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" ref="O21:R21" si="29">O19+O20</f>
+        <f t="shared" ref="O21:R21" si="30">O19+O20</f>
         <v>3835.8496279265769</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4414.1433057129234</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5053.1411554225342</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5759.0992920719473</v>
       </c>
       <c r="S21" s="38"/>
@@ -3118,51 +3118,51 @@
         <v>0</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" ref="G22:M22" si="30">G21*0.1</f>
+        <f t="shared" ref="G22:M22" si="31">G21*0.1</f>
         <v>42.432733297639864</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107.03700581374731</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>135.66941177831976</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>167.338719239672</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>202.36334964066941</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>241.09403083785392</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>283.91705367824153</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" ref="N22:R22" si="31">N21*0.1</f>
+        <f t="shared" ref="N22:R22" si="32">N21*0.1</f>
         <v>331.25785542709986</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>383.58496279265773</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>441.41433057129234</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>505.31411554225343</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>575.90992920719475</v>
       </c>
       <c r="S22" s="38"/>
@@ -3271,7 +3271,7 @@
         <v>-579.99199999999996</v>
       </c>
       <c r="C23" s="24">
-        <f t="shared" ref="C23:E23" si="32">C21-C22</f>
+        <f t="shared" ref="C23:E23" si="33">C21-C22</f>
         <v>-579.81799999999998</v>
       </c>
       <c r="D23" s="24">
@@ -3279,775 +3279,775 @@
         <v>-453.69520000000028</v>
       </c>
       <c r="E23" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-282.67968400000069</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" ref="F23:M23" si="33">F21-F22</f>
+        <f t="shared" ref="F23:M23" si="34">F21-F22</f>
         <v>-5.361714680000782</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>381.89459967875877</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>963.33305232372572</v>
       </c>
       <c r="I23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1221.0247060048778</v>
       </c>
       <c r="J23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1506.048473157048</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1821.2701467660245</v>
       </c>
       <c r="L23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2169.8462775406852</v>
       </c>
       <c r="M23" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2555.2534831041735</v>
       </c>
       <c r="N23" s="24">
-        <f t="shared" ref="N23:R23" si="34">N21-N22</f>
+        <f t="shared" ref="N23:R23" si="35">N21-N22</f>
         <v>2981.3206988438983</v>
       </c>
       <c r="O23" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3452.2646651339192</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3972.7289751416311</v>
       </c>
       <c r="Q23" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4547.8270398802806</v>
       </c>
       <c r="R23" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5183.1893628647522</v>
       </c>
       <c r="S23" s="24">
-        <f>R23*($F$2+1)</f>
+        <f t="shared" ref="S23:AX23" si="36">R23*($F$2+1)</f>
         <v>5209.1053096790756</v>
       </c>
       <c r="T23" s="24">
-        <f>S23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5235.1508362274708</v>
       </c>
       <c r="U23" s="24">
-        <f>T23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5261.3265904086074</v>
       </c>
       <c r="V23" s="24">
-        <f>U23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5287.6332233606499</v>
       </c>
       <c r="W23" s="24">
-        <f>V23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5314.0713894774526</v>
       </c>
       <c r="X23" s="24">
-        <f>W23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5340.6417464248389</v>
       </c>
       <c r="Y23" s="24">
-        <f>X23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5367.3449551569629</v>
       </c>
       <c r="Z23" s="24">
-        <f>Y23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5394.1816799327471</v>
       </c>
       <c r="AA23" s="24">
-        <f>Z23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5421.1525883324102</v>
       </c>
       <c r="AB23" s="24">
-        <f>AA23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5448.2583512740721</v>
       </c>
       <c r="AC23" s="24">
-        <f>AB23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5475.4996430304418</v>
       </c>
       <c r="AD23" s="24">
-        <f>AC23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5502.8771412455935</v>
       </c>
       <c r="AE23" s="24">
-        <f>AD23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5530.3915269518211</v>
       </c>
       <c r="AF23" s="24">
-        <f>AE23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5558.0434845865793</v>
       </c>
       <c r="AG23" s="24">
-        <f>AF23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5585.8337020095114</v>
       </c>
       <c r="AH23" s="24">
-        <f>AG23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5613.7628705195584</v>
       </c>
       <c r="AI23" s="24">
-        <f>AH23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5641.8316848721552</v>
       </c>
       <c r="AJ23" s="24">
-        <f>AI23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5670.040843296515</v>
       </c>
       <c r="AK23" s="24">
-        <f>AJ23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5698.3910475129969</v>
       </c>
       <c r="AL23" s="24">
-        <f>AK23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5726.883002750561</v>
       </c>
       <c r="AM23" s="24">
-        <f>AL23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5755.517417764313</v>
       </c>
       <c r="AN23" s="24">
-        <f>AM23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5784.2950048531338</v>
       </c>
       <c r="AO23" s="24">
-        <f>AN23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5813.2164798773993</v>
       </c>
       <c r="AP23" s="24">
-        <f>AO23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5842.2825622767859</v>
       </c>
       <c r="AQ23" s="24">
-        <f>AP23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5871.4939750881695</v>
       </c>
       <c r="AR23" s="24">
-        <f>AQ23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5900.8514449636095</v>
       </c>
       <c r="AS23" s="24">
-        <f>AR23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5930.3557021884271</v>
       </c>
       <c r="AT23" s="24">
-        <f>AS23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5960.0074806993689</v>
       </c>
       <c r="AU23" s="24">
-        <f>AT23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>5989.8075181028653</v>
       </c>
       <c r="AV23" s="24">
-        <f>AU23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>6019.7565556933787</v>
       </c>
       <c r="AW23" s="24">
-        <f>AV23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>6049.8553384718452</v>
       </c>
       <c r="AX23" s="24">
-        <f>AW23*($F$2+1)</f>
+        <f t="shared" si="36"/>
         <v>6080.104615164204</v>
       </c>
       <c r="AY23" s="24">
-        <f>AX23*($F$2+1)</f>
+        <f t="shared" ref="AY23:CD23" si="37">AX23*($F$2+1)</f>
         <v>6110.5051382400243</v>
       </c>
       <c r="AZ23" s="24">
-        <f>AY23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6141.0576639312239</v>
       </c>
       <c r="BA23" s="24">
-        <f>AZ23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6171.7629522508796</v>
       </c>
       <c r="BB23" s="24">
-        <f>BA23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6202.6217670121332</v>
       </c>
       <c r="BC23" s="24">
-        <f>BB23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6233.6348758471931</v>
       </c>
       <c r="BD23" s="24">
-        <f>BC23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6264.8030502264282</v>
       </c>
       <c r="BE23" s="24">
-        <f>BD23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6296.1270654775599</v>
       </c>
       <c r="BF23" s="24">
-        <f>BE23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6327.6077008049469</v>
       </c>
       <c r="BG23" s="24">
-        <f>BF23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6359.2457393089708</v>
       </c>
       <c r="BH23" s="24">
-        <f>BG23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6391.0419680055147</v>
       </c>
       <c r="BI23" s="24">
-        <f>BH23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6422.997177845542</v>
       </c>
       <c r="BJ23" s="24">
-        <f>BI23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6455.1121637347687</v>
       </c>
       <c r="BK23" s="24">
-        <f>BJ23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6487.3877245534422</v>
       </c>
       <c r="BL23" s="24">
-        <f>BK23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6519.8246631762086</v>
       </c>
       <c r="BM23" s="24">
-        <f>BL23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6552.4237864920888</v>
       </c>
       <c r="BN23" s="24">
-        <f>BM23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6585.1859054245488</v>
       </c>
       <c r="BO23" s="24">
-        <f>BN23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6618.111834951671</v>
       </c>
       <c r="BP23" s="24">
-        <f>BO23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6651.2023941264288</v>
       </c>
       <c r="BQ23" s="24">
-        <f>BP23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6684.4584060970601</v>
       </c>
       <c r="BR23" s="24">
-        <f>BQ23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6717.8806981275447</v>
       </c>
       <c r="BS23" s="24">
-        <f>BR23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6751.4701016181816</v>
       </c>
       <c r="BT23" s="24">
-        <f>BS23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6785.2274521262716</v>
       </c>
       <c r="BU23" s="24">
-        <f>BT23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6819.1535893869022</v>
       </c>
       <c r="BV23" s="24">
-        <f>BU23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6853.2493573338361</v>
       </c>
       <c r="BW23" s="24">
-        <f>BV23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6887.5156041205046</v>
       </c>
       <c r="BX23" s="24">
-        <f>BW23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6921.9531821411065</v>
       </c>
       <c r="BY23" s="24">
-        <f>BX23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6956.562948051811</v>
       </c>
       <c r="BZ23" s="24">
-        <f>BY23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>6991.3457627920689</v>
       </c>
       <c r="CA23" s="24">
-        <f>BZ23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>7026.3024916060285</v>
       </c>
       <c r="CB23" s="24">
-        <f>CA23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>7061.4340040640582</v>
       </c>
       <c r="CC23" s="24">
-        <f>CB23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>7096.7411740843781</v>
       </c>
       <c r="CD23" s="24">
-        <f>CC23*($F$2+1)</f>
+        <f t="shared" si="37"/>
         <v>7132.2248799547997</v>
       </c>
       <c r="CE23" s="24">
-        <f>CD23*($F$2+1)</f>
+        <f t="shared" ref="CE23:DJ23" si="38">CD23*($F$2+1)</f>
         <v>7167.8860043545728</v>
       </c>
       <c r="CF23" s="24">
-        <f>CE23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7203.7254343763452</v>
       </c>
       <c r="CG23" s="24">
-        <f>CF23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7239.7440615482265</v>
       </c>
       <c r="CH23" s="24">
-        <f>CG23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7275.942781855967</v>
       </c>
       <c r="CI23" s="24">
-        <f>CH23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7312.3224957652465</v>
       </c>
       <c r="CJ23" s="24">
-        <f>CI23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7348.8841082440722</v>
       </c>
       <c r="CK23" s="24">
-        <f>CJ23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7385.6285287852916</v>
       </c>
       <c r="CL23" s="24">
-        <f>CK23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7422.5566714292172</v>
       </c>
       <c r="CM23" s="24">
-        <f>CL23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7459.6694547863626</v>
       </c>
       <c r="CN23" s="24">
-        <f>CM23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7496.9678020602933</v>
       </c>
       <c r="CO23" s="24">
-        <f>CN23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7534.4526410705939</v>
       </c>
       <c r="CP23" s="24">
-        <f>CO23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7572.1249042759464</v>
       </c>
       <c r="CQ23" s="24">
-        <f>CP23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7609.9855287973251</v>
       </c>
       <c r="CR23" s="24">
-        <f>CQ23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7648.035456441311</v>
       </c>
       <c r="CS23" s="24">
-        <f>CR23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7686.2756337235169</v>
       </c>
       <c r="CT23" s="24">
-        <f>CS23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7724.7070118921338</v>
       </c>
       <c r="CU23" s="24">
-        <f>CT23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7763.3305469515935</v>
       </c>
       <c r="CV23" s="24">
-        <f>CU23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7802.1471996863511</v>
       </c>
       <c r="CW23" s="24">
-        <f>CV23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7841.1579356847824</v>
       </c>
       <c r="CX23" s="24">
-        <f>CW23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7880.363725363205</v>
       </c>
       <c r="CY23" s="24">
-        <f>CX23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7919.76554399002</v>
       </c>
       <c r="CZ23" s="24">
-        <f>CY23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7959.3643717099694</v>
       </c>
       <c r="DA23" s="24">
-        <f>CZ23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>7999.1611935685187</v>
       </c>
       <c r="DB23" s="24">
-        <f>DA23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8039.1569995363607</v>
       </c>
       <c r="DC23" s="24">
-        <f>DB23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8079.3527845340413</v>
       </c>
       <c r="DD23" s="24">
-        <f>DC23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8119.7495484567107</v>
       </c>
       <c r="DE23" s="24">
-        <f>DD23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8160.348296198993</v>
       </c>
       <c r="DF23" s="24">
-        <f>DE23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8201.1500376799868</v>
       </c>
       <c r="DG23" s="24">
-        <f>DF23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8242.1557878683852</v>
       </c>
       <c r="DH23" s="24">
-        <f>DG23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8283.3665668077265</v>
       </c>
       <c r="DI23" s="24">
-        <f>DH23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8324.7833996417648</v>
       </c>
       <c r="DJ23" s="24">
-        <f>DI23*($F$2+1)</f>
+        <f t="shared" si="38"/>
         <v>8366.4073166399721</v>
       </c>
       <c r="DK23" s="24">
-        <f>DJ23*($F$2+1)</f>
+        <f t="shared" ref="DK23:EP23" si="39">DJ23*($F$2+1)</f>
         <v>8408.2393532231708</v>
       </c>
       <c r="DL23" s="24">
-        <f>DK23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8450.2805499892856</v>
       </c>
       <c r="DM23" s="24">
-        <f>DL23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8492.5319527392312</v>
       </c>
       <c r="DN23" s="24">
-        <f>DM23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8534.9946125029273</v>
       </c>
       <c r="DO23" s="24">
-        <f>DN23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8577.6695855654416</v>
       </c>
       <c r="DP23" s="24">
-        <f>DO23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8620.5579334932681</v>
       </c>
       <c r="DQ23" s="24">
-        <f>DP23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8663.6607231607341</v>
       </c>
       <c r="DR23" s="24">
-        <f>DQ23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8706.9790267765366</v>
       </c>
       <c r="DS23" s="24">
-        <f>DR23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8750.5139219104185</v>
       </c>
       <c r="DT23" s="24">
-        <f>DS23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8794.2664915199693</v>
       </c>
       <c r="DU23" s="24">
-        <f>DT23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8838.237823977568</v>
       </c>
       <c r="DV23" s="24">
-        <f>DU23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8882.429013097455</v>
       </c>
       <c r="DW23" s="24">
-        <f>DV23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8926.8411581629407</v>
       </c>
       <c r="DX23" s="24">
-        <f>DW23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>8971.4753639537539</v>
       </c>
       <c r="DY23" s="24">
-        <f>DX23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9016.3327407735214</v>
       </c>
       <c r="DZ23" s="24">
-        <f>DY23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9061.4144044773875</v>
       </c>
       <c r="EA23" s="24">
-        <f>DZ23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9106.7214764997734</v>
       </c>
       <c r="EB23" s="24">
-        <f>EA23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9152.2550838822717</v>
       </c>
       <c r="EC23" s="24">
-        <f>EB23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9198.0163593016823</v>
       </c>
       <c r="ED23" s="24">
-        <f>EC23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9244.0064410981904</v>
       </c>
       <c r="EE23" s="24">
-        <f>ED23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9290.2264733036809</v>
       </c>
       <c r="EF23" s="24">
-        <f>EE23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9336.6776056701983</v>
       </c>
       <c r="EG23" s="24">
-        <f>EF23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9383.3609936985486</v>
       </c>
       <c r="EH23" s="24">
-        <f>EG23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9430.2777986670408</v>
       </c>
       <c r="EI23" s="24">
-        <f>EH23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9477.4291876603747</v>
       </c>
       <c r="EJ23" s="24">
-        <f>EI23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9524.8163335986756</v>
       </c>
       <c r="EK23" s="24">
-        <f>EJ23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9572.4404152666684</v>
       </c>
       <c r="EL23" s="24">
-        <f>EK23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9620.3026173430007</v>
       </c>
       <c r="EM23" s="24">
-        <f>EL23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9668.4041304297152</v>
       </c>
       <c r="EN23" s="24">
-        <f>EM23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9716.746151081863</v>
       </c>
       <c r="EO23" s="24">
-        <f>EN23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9765.3298818372714</v>
       </c>
       <c r="EP23" s="24">
-        <f>EO23*($F$2+1)</f>
+        <f t="shared" si="39"/>
         <v>9814.1565312464572</v>
       </c>
       <c r="EQ23" s="24">
-        <f>EP23*($F$2+1)</f>
+        <f t="shared" ref="EQ23:FV23" si="40">EP23*($F$2+1)</f>
         <v>9863.2273139026893</v>
       </c>
       <c r="ER23" s="24">
-        <f>EQ23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>9912.5434504722016</v>
       </c>
       <c r="ES23" s="24">
-        <f>ER23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>9962.1061677245616</v>
       </c>
       <c r="ET23" s="24">
-        <f>ES23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10011.916698563184</v>
       </c>
       <c r="EU23" s="24">
-        <f>ET23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10061.976282055999</v>
       </c>
       <c r="EV23" s="24">
-        <f>EU23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10112.286163466279</v>
       </c>
       <c r="EW23" s="24">
-        <f>EV23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10162.847594283608</v>
       </c>
       <c r="EX23" s="24">
-        <f>EW23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10213.661832255026</v>
       </c>
       <c r="EY23" s="24">
-        <f>EX23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10264.730141416299</v>
       </c>
       <c r="EZ23" s="24">
-        <f>EY23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10316.053792123379</v>
       </c>
       <c r="FA23" s="24">
-        <f>EZ23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10367.634061083994</v>
       </c>
       <c r="FB23" s="24">
-        <f>FA23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10419.472231389413</v>
       </c>
       <c r="FC23" s="24">
-        <f>FB23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10471.569592546359</v>
       </c>
       <c r="FD23" s="24">
-        <f>FC23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10523.927440509089</v>
       </c>
       <c r="FE23" s="24">
-        <f>FD23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10576.547077711633</v>
       </c>
       <c r="FF23" s="24">
-        <f>FE23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10629.429813100191</v>
       </c>
       <c r="FG23" s="24">
-        <f>FF23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10682.576962165691</v>
       </c>
       <c r="FH23" s="24">
-        <f>FG23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10735.989846976518</v>
       </c>
       <c r="FI23" s="24">
-        <f>FH23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10789.669796211399</v>
       </c>
       <c r="FJ23" s="24">
-        <f>FI23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10843.618145192455</v>
       </c>
       <c r="FK23" s="24">
-        <f>FJ23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10897.836235918416</v>
       </c>
       <c r="FL23" s="24">
-        <f>FK23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>10952.325417098007</v>
       </c>
       <c r="FM23" s="24">
-        <f>FL23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11007.087044183496</v>
       </c>
       <c r="FN23" s="24">
-        <f>FM23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11062.122479404412</v>
       </c>
       <c r="FO23" s="24">
-        <f>FN23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11117.433091801433</v>
       </c>
       <c r="FP23" s="24">
-        <f>FO23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11173.020257260439</v>
       </c>
       <c r="FQ23" s="24">
-        <f>FP23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11228.88535854674</v>
       </c>
       <c r="FR23" s="24">
-        <f>FQ23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11285.029785339473</v>
       </c>
       <c r="FS23" s="24">
-        <f>FR23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11341.454934266168</v>
       </c>
       <c r="FT23" s="24">
-        <f>FS23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11398.162208937498</v>
       </c>
       <c r="FU23" s="24">
-        <f>FT23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11455.153019982185</v>
       </c>
       <c r="FV23" s="24">
-        <f>FU23*($F$2+1)</f>
+        <f t="shared" si="40"/>
         <v>11512.428785082095</v>
       </c>
       <c r="FW23" s="24">
-        <f>FV23*($F$2+1)</f>
+        <f t="shared" ref="FW23:GO23" si="41">FV23*($F$2+1)</f>
         <v>11569.990929007505</v>
       </c>
       <c r="FX23" s="24">
-        <f>FW23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11627.840883652541</v>
       </c>
       <c r="FY23" s="24">
-        <f>FX23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11685.980088070803</v>
       </c>
       <c r="FZ23" s="24">
-        <f>FY23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11744.409988511155</v>
       </c>
       <c r="GA23" s="24">
-        <f>FZ23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11803.13203845371</v>
       </c>
       <c r="GB23" s="24">
-        <f>GA23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11862.147698645978</v>
       </c>
       <c r="GC23" s="24">
-        <f>GB23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11921.458437139207</v>
       </c>
       <c r="GD23" s="24">
-        <f>GC23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>11981.065729324901</v>
       </c>
       <c r="GE23" s="24">
-        <f>GD23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12040.971057971523</v>
       </c>
       <c r="GF23" s="24">
-        <f>GE23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12101.175913261379</v>
       </c>
       <c r="GG23" s="24">
-        <f>GF23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12161.681792827685</v>
       </c>
       <c r="GH23" s="24">
-        <f>GG23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12222.490201791823</v>
       </c>
       <c r="GI23" s="24">
-        <f>GH23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12283.602652800781</v>
       </c>
       <c r="GJ23" s="24">
-        <f>GI23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12345.020666064784</v>
       </c>
       <c r="GK23" s="24">
-        <f>GJ23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12406.745769395106</v>
       </c>
       <c r="GL23" s="24">
-        <f>GK23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12468.77949824208</v>
       </c>
       <c r="GM23" s="24">
-        <f>GL23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12531.12339573329</v>
       </c>
       <c r="GN23" s="24">
-        <f>GM23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12593.779012711955</v>
       </c>
       <c r="GO23" s="24">
-        <f>GN23*($F$2+1)</f>
+        <f t="shared" si="41"/>
         <v>12656.747907775514</v>
       </c>
     </row>
@@ -4056,71 +4056,71 @@
         <v>12</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" ref="B24:D24" si="35">B23/B25</f>
+        <f t="shared" ref="B24:D24" si="42">B23/B25</f>
         <v>-1.0661335572421149</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>-1.0049560578492847</v>
       </c>
       <c r="D24" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>-0.78635664925397808</v>
       </c>
       <c r="E24" s="48">
-        <f t="shared" ref="E24" si="36">E23/E25</f>
+        <f t="shared" ref="E24" si="43">E23/E25</f>
         <v>-0.48994798517245447</v>
       </c>
       <c r="F24" s="48">
-        <f t="shared" ref="F24:M24" si="37">F23/F25</f>
+        <f t="shared" ref="F24:M24" si="44">F23/F25</f>
         <v>-9.2930672178618539E-3</v>
       </c>
       <c r="G24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>0.66190992933488801</v>
       </c>
       <c r="H24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1.6696745990279191</v>
       </c>
       <c r="I24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2.1163126620478212</v>
       </c>
       <c r="J24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>2.6103234748038888</v>
       </c>
       <c r="K24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3.156674106310208</v>
       </c>
       <c r="L24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>3.760835574639338</v>
       </c>
       <c r="M24" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>4.4288336463959794</v>
       </c>
       <c r="N24" s="48">
-        <f t="shared" ref="N24:R24" si="38">N23/N25</f>
+        <f t="shared" ref="N24:R24" si="45">N23/N25</f>
         <v>5.1673047347523502</v>
       </c>
       <c r="O24" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>5.9835574068507089</v>
       </c>
       <c r="P24" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>6.8856400625057557</v>
       </c>
       <c r="Q24" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>7.8824154023822448</v>
       </c>
       <c r="R24" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>8.9836423656921767</v>
       </c>
       <c r="S24" s="38"/>
@@ -4231,63 +4231,63 @@
         <v>576.95856000000003</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" ref="D25" si="39">C25</f>
+        <f t="shared" ref="D25" si="46">C25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" ref="E25" si="40">D25</f>
+        <f t="shared" ref="E25" si="47">D25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" ref="F25" si="41">E25</f>
+        <f t="shared" ref="F25" si="48">E25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" ref="G25" si="42">F25</f>
+        <f t="shared" ref="G25" si="49">F25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" ref="H25" si="43">G25</f>
+        <f t="shared" ref="H25" si="50">G25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" ref="I25" si="44">H25</f>
+        <f t="shared" ref="I25" si="51">H25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" ref="J25" si="45">I25</f>
+        <f t="shared" ref="J25" si="52">I25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" ref="K25" si="46">J25</f>
+        <f t="shared" ref="K25" si="53">J25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="L25" si="47">K25</f>
+        <f t="shared" ref="L25" si="54">K25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" ref="M25:R25" si="48">L25</f>
+        <f t="shared" ref="M25:R25" si="55">L25</f>
         <v>576.95856000000003</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>576.95856000000003</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>576.95856000000003</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>576.95856000000003</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>576.95856000000003</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>576.95856000000003</v>
       </c>
       <c r="S25" s="37"/>
@@ -4511,11 +4511,11 @@
         <v>0.72220608019025578</v>
       </c>
       <c r="C27" s="33">
-        <f t="shared" ref="C27:M27" si="49">IFERROR(C14/C12,0)</f>
+        <f t="shared" ref="C27:M27" si="56">IFERROR(C14/C12,0)</f>
         <v>0.67359589525355024</v>
       </c>
       <c r="D27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="E27" s="33">
@@ -4523,55 +4523,55 @@
         <v>0.67359589525355024</v>
       </c>
       <c r="F27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="H27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="I27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="J27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="K27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="L27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="N27" s="33">
-        <f t="shared" ref="N27:R27" si="50">IFERROR(N14/N12,0)</f>
+        <f t="shared" ref="N27:R27" si="57">IFERROR(N14/N12,0)</f>
         <v>0.67359589525355024</v>
       </c>
       <c r="O27" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="Q27" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="R27" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>0.67359589525355024</v>
       </c>
       <c r="S27" s="38"/>
@@ -4680,7 +4680,7 @@
         <v>-1.0463261388390166</v>
       </c>
       <c r="C28" s="35">
-        <f t="shared" ref="C28:M28" si="51">IFERROR(C19/C12,0)</f>
+        <f t="shared" ref="C28:M28" si="58">IFERROR(C19/C12,0)</f>
         <v>-0.77680171839123036</v>
       </c>
       <c r="D28" s="35">
@@ -4688,59 +4688,59 @@
         <v>-0.45056325794048963</v>
       </c>
       <c r="E28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-0.19809278196805102</v>
       </c>
       <c r="F28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-2.6179294902779456E-3</v>
       </c>
       <c r="G28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.14879834918825754</v>
       </c>
       <c r="H28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.26613995337732094</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.30273694917231092</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.33569848830415561</v>
       </c>
       <c r="K28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.36540494136891982</v>
       </c>
       <c r="L28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.39219592147383719</v>
       </c>
       <c r="M28" s="35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.41637469698676149</v>
       </c>
       <c r="N28" s="35">
-        <f t="shared" ref="N28:R28" si="52">IFERROR(N19/N12,0)</f>
+        <f t="shared" ref="N28:R28" si="59">IFERROR(N19/N12,0)</f>
         <v>0.43821212441849677</v>
       </c>
       <c r="O28" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>0.45795015371789016</v>
       </c>
       <c r="P28" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>0.47580495255945188</v>
       </c>
       <c r="Q28" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>0.49196969112485001</v>
       </c>
       <c r="R28" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>0.5066170243550705</v>
       </c>
       <c r="S28" s="38"/>
@@ -4849,67 +4849,67 @@
         <v>-1.5762042200240984E-2</v>
       </c>
       <c r="C29" s="35">
-        <f t="shared" ref="C29:M29" si="53">IFERROR(C22/C21,0)</f>
+        <f t="shared" ref="C29:M29" si="60">IFERROR(C22/C21,0)</f>
         <v>-2.113353222335326E-2</v>
       </c>
       <c r="D29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="H29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="I29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="J29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="L29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="M29" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.1</v>
       </c>
       <c r="N29" s="35">
-        <f t="shared" ref="N29:R29" si="54">IFERROR(N22/N21,0)</f>
+        <f t="shared" ref="N29:R29" si="61">IFERROR(N22/N21,0)</f>
         <v>0.1</v>
       </c>
       <c r="O29" s="35">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.1</v>
       </c>
       <c r="P29" s="35">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.1</v>
       </c>
       <c r="Q29" s="35">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.1</v>
       </c>
       <c r="R29" s="35">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.1</v>
       </c>
       <c r="S29" s="38"/>
@@ -5134,63 +5134,63 @@
         <v>0.24713432279323944</v>
       </c>
       <c r="D31" s="49">
-        <f t="shared" ref="D31:R31" si="55">D12/C12-1</f>
+        <f t="shared" ref="D31:R31" si="62">D12/C12-1</f>
         <v>0.39999999999999969</v>
       </c>
       <c r="E31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="F31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="G31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="J31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R31" s="49">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S31" s="38"/>
@@ -5296,67 +5296,67 @@
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35">
-        <f t="shared" ref="C32:R32" si="56">C15/B15-1</f>
+        <f t="shared" ref="C32:R32" si="63">C15/B15-1</f>
         <v>7.3684210526315796E-2</v>
       </c>
       <c r="D32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="E32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="F32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="G32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="H32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S32" s="38"/>
@@ -5462,67 +5462,67 @@
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="35">
-        <f t="shared" ref="C33:R33" si="57">C16/B16-1</f>
+        <f t="shared" ref="C33:R33" si="64">C16/B16-1</f>
         <v>-2.5974025974025983E-2</v>
       </c>
       <c r="D33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="E33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="F33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="G33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="H33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="I33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="J33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="K33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="L33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="Q33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="S33" s="38"/>
@@ -5628,67 +5628,67 @@
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35">
-        <f t="shared" ref="C34:R34" si="58">C17/B17-1</f>
+        <f t="shared" ref="C34:R34" si="65">C17/B17-1</f>
         <v>4.9019607843137303E-2</v>
       </c>
       <c r="D34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="F34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="G34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="H34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="J34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="L34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S34" s="38"/>
@@ -5794,27 +5794,27 @@
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44">
-        <f t="shared" ref="C35:R35" si="59">C18/B18-1</f>
+        <f t="shared" ref="C35:R35" si="66">C18/B18-1</f>
         <v>2.2792022792022859E-2</v>
       </c>
       <c r="D35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.5097493036211835E-2</v>
       </c>
       <c r="E35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.5579514824797975E-2</v>
       </c>
       <c r="F35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.6052141527001691E-2</v>
       </c>
       <c r="G35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.6515148917199802E-2</v>
       </c>
       <c r="H35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.6968342179995606E-2</v>
       </c>
       <c r="I35" s="44">
@@ -5822,39 +5822,39 @@
         <v>1.1998814175655514E-3</v>
       </c>
       <c r="J35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>2.2331982869663314E-3</v>
       </c>
       <c r="K35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>3.2928406694328061E-3</v>
       </c>
       <c r="L35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>4.377212426419641E-3</v>
       </c>
       <c r="M35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>5.4845218818777575E-3</v>
       </c>
       <c r="N35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>6.6127895493504063E-3</v>
       </c>
       <c r="O35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>7.7598589218483838E-3</v>
       </c>
       <c r="P35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>8.9234102845934249E-3</v>
       </c>
       <c r="Q35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1.0100977427272229E-2</v>
       </c>
       <c r="R35" s="44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1.1289967047786176E-2</v>
       </c>
       <c r="S35" s="38"/>
@@ -6090,55 +6090,55 @@
         <v>-1.374884000000975</v>
       </c>
       <c r="F37" s="50">
-        <f t="shared" ref="F37:R37" si="60">E37+F23</f>
+        <f t="shared" ref="F37:R37" si="67">E37+F23</f>
         <v>-6.736598680001757</v>
       </c>
       <c r="G37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>375.15800099875702</v>
       </c>
       <c r="H37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1338.4910533224827</v>
       </c>
       <c r="I37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>2559.5157593273607</v>
       </c>
       <c r="J37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4065.5642324844084</v>
       </c>
       <c r="K37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5886.8343792504329</v>
       </c>
       <c r="L37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>8056.6806567911181</v>
       </c>
       <c r="M37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>10611.934139895291</v>
       </c>
       <c r="N37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>13593.254838739189</v>
       </c>
       <c r="O37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>17045.519503873107</v>
       </c>
       <c r="P37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>21018.248479014739</v>
       </c>
       <c r="Q37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>25566.075518895021</v>
       </c>
       <c r="R37" s="50">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>30749.264881759773</v>
       </c>
       <c r="S37" s="38"/>
@@ -8068,27 +8068,27 @@
       </c>
       <c r="B53" s="56"/>
       <c r="C53" s="56">
-        <f>C10/B10-1</f>
+        <f t="shared" ref="C53:H53" si="68">C10/B10-1</f>
         <v>0.24713432279323944</v>
       </c>
       <c r="D53" s="56">
-        <f>D10/C10-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999969</v>
       </c>
       <c r="E53" s="56">
-        <f>E10/D10-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="F53" s="56">
-        <f>F10/E10-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="G53" s="56">
-        <f>G10/F10-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H53" s="56">
-        <f>H10/G10-1</f>
+        <f t="shared" si="68"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I53" s="38"/>
@@ -8219,7 +8219,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9782,7 +9782,7 @@
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABFCB0F-510B-0C4D-A970-41D9D1C66685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A839212-FBEE-4444-B8AA-991C00E429E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20600" yWindow="460" windowWidth="30960" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44480" yWindow="-5320" windowWidth="32760" windowHeight="27060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>Revenue</t>
   </si>
@@ -276,6 +276,51 @@
   <si>
     <t>Data safety and security</t>
   </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Government y/y</t>
+  </si>
+  <si>
+    <t>Commercial y/y</t>
+  </si>
+  <si>
+    <t>US Army Research Lab</t>
+  </si>
+  <si>
+    <t>NCATS</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>Army Vantage</t>
+  </si>
+  <si>
+    <t>NHS</t>
+  </si>
+  <si>
+    <t>Japan Business</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>Contracts USD M</t>
+  </si>
+  <si>
+    <t>Commercial TAM</t>
+  </si>
+  <si>
+    <t>Government TAM</t>
+  </si>
+  <si>
+    <t>10% of TAM</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +330,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +388,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -383,7 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -479,9 +532,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -512,9 +562,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -540,6 +587,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -565,13 +616,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -629,7 +680,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -645,8 +696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20647660" y="152400"/>
-          <a:ext cx="0" cy="8963660"/>
+          <a:off x="10790767" y="152400"/>
+          <a:ext cx="0" cy="9160933"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -936,13 +987,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GO53"/>
+  <dimension ref="A1:GS53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -951,233 +1002,241 @@
     <col min="2" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A1" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D2" s="66">
-        <v>44152</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="4">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="H2" s="64">
+        <v>44224</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7">
+      <c r="J2" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="M2" s="16"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8">
-        <f>Reports!L19</f>
+      <c r="G3" s="8">
+        <f>Reports!L22</f>
         <v>905.46200999999996</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="H3" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7">
+      <c r="J3" s="7">
         <v>0.02</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="A4" s="68" t="s">
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="10">
-        <f>C2*C3</f>
-        <v>16162.4968785</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="10">
+        <f>G2*G3</f>
+        <v>33004.090264500002</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7">
+      <c r="J4" s="7">
         <f>7%</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="19"/>
+      <c r="P4" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
-        <f>Reports!L31</f>
+      <c r="G5" s="8">
+        <f>Reports!L34</f>
         <v>1646</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="H5" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11">
-        <f>NPV(F4,D23:GO23)</f>
-        <v>42879.823427663599</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="11">
+        <f>NPV(J4,H23:GS23)</f>
+        <v>70718.299070527559</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="10">
-        <f>C4-C5</f>
-        <v>14516.4968785</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="10">
+        <f>G4-G5</f>
+        <v>31358.090264500002</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="13">
-        <f>F5+C5</f>
-        <v>44525.823427663599</v>
-      </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="A7" s="68" t="s">
+      <c r="J6" s="13">
+        <f>J5+G5</f>
+        <v>72364.299070527559</v>
+      </c>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A7" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="43">
-        <f>C6/C3</f>
-        <v>16.032143500421405</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="43">
+        <f>G6/G3</f>
+        <v>34.632143500421407</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="42">
-        <f>F6/C3</f>
-        <v>49.174700800162341</v>
-      </c>
-      <c r="G7" s="19">
-        <f>F7/C2-1</f>
-        <v>1.7548851988886462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="A8" s="68" t="s">
+      <c r="J7" s="42">
+        <f>J6/G3</f>
+        <v>79.919751763552796</v>
+      </c>
+      <c r="K7" s="19">
+        <f>J7/G2-1</f>
+        <v>1.1925857822648229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A8" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="F8" s="6"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:118" x14ac:dyDescent="0.15">
       <c r="B9" s="38">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="38">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="38">
+        <v>2016</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="38">
         <f>2018</f>
         <v>2018</v>
       </c>
-      <c r="C9" s="38">
-        <f t="shared" ref="C9:R9" si="0">B9+1</f>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:V9" si="0">F9+1</f>
         <v>2019</v>
       </c>
-      <c r="D9" s="38">
+      <c r="H9" s="38">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="E9" s="38">
+      <c r="I9" s="38">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="F9" s="38">
+      <c r="J9" s="38">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G9" s="38">
+      <c r="K9" s="38">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="H9" s="38">
+      <c r="L9" s="38">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="I9" s="38">
+      <c r="M9" s="38">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="J9" s="38">
+      <c r="N9" s="38">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="K9" s="38">
+      <c r="O9" s="38">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="L9" s="38">
+      <c r="P9" s="38">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="M9" s="38">
+      <c r="Q9" s="38">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="N9" s="38">
+      <c r="R9" s="38">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="O9" s="38">
+      <c r="S9" s="38">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="P9" s="38">
+      <c r="T9" s="38">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="U9" s="38">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="R9" s="38">
+      <c r="V9" s="38">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
@@ -1270,41 +1329,53 @@
       <c r="DH9" s="38"/>
       <c r="DI9" s="38"/>
       <c r="DJ9" s="38"/>
-    </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK9" s="38"/>
+      <c r="DL9" s="38"/>
+      <c r="DM9" s="38"/>
+      <c r="DN9" s="38"/>
+    </row>
+    <row r="10" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="37">
+        <v>235</v>
+      </c>
+      <c r="C10" s="37">
+        <v>364</v>
+      </c>
+      <c r="D10" s="37">
+        <v>466</v>
+      </c>
+      <c r="E10" s="37">
+        <v>515</v>
+      </c>
+      <c r="F10" s="37">
         <v>595.40899999999999</v>
       </c>
-      <c r="C10" s="37">
+      <c r="G10" s="37">
         <v>742.55499999999995</v>
       </c>
-      <c r="D10" s="37">
-        <f>C10*1.4</f>
+      <c r="H10" s="37">
+        <f>G10*1.4</f>
         <v>1039.5769999999998</v>
       </c>
-      <c r="E10" s="37">
-        <f t="shared" ref="E10:H10" si="1">D10*1.4</f>
+      <c r="I10" s="37">
+        <f t="shared" ref="I10:L10" si="1">H10*1.4</f>
         <v>1455.4077999999995</v>
       </c>
-      <c r="F10" s="37">
+      <c r="J10" s="37">
         <f t="shared" si="1"/>
         <v>2037.5709199999992</v>
       </c>
-      <c r="G10" s="37">
+      <c r="K10" s="37">
         <f t="shared" si="1"/>
         <v>2852.5992879999985</v>
       </c>
-      <c r="H10" s="37">
+      <c r="L10" s="37">
         <f t="shared" si="1"/>
         <v>3993.6390031999977</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -1314,7 +1385,6 @@
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
@@ -1407,92 +1477,110 @@
       <c r="DH10" s="37"/>
       <c r="DI10" s="37"/>
       <c r="DJ10" s="37"/>
-    </row>
-    <row r="11" spans="1:114" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="47"/>
-      <c r="D11" s="47">
+      <c r="DK10" s="37"/>
+      <c r="DL10" s="37"/>
+      <c r="DM10" s="37"/>
+      <c r="DN10" s="37"/>
+    </row>
+    <row r="11" spans="1:118" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37">
         <v>1070</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="V11" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="24">
-        <f t="shared" ref="B12:H12" si="2">SUM(B10:B10)</f>
+        <f t="shared" ref="B12" si="2">SUM(B10:B10)</f>
+        <v>235</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" ref="C12" si="3">SUM(C10:C10)</f>
+        <v>364</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" ref="D12:L12" si="4">SUM(D10:D10)</f>
+        <v>466</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="4"/>
+        <v>515</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="4"/>
         <v>595.40899999999999</v>
       </c>
-      <c r="C12" s="24">
-        <f t="shared" si="2"/>
+      <c r="G12" s="24">
+        <f t="shared" si="4"/>
         <v>742.55499999999995</v>
       </c>
-      <c r="D12" s="45">
-        <f t="shared" si="2"/>
+      <c r="H12" s="45">
+        <f t="shared" si="4"/>
         <v>1039.5769999999998</v>
       </c>
-      <c r="E12" s="45">
-        <f t="shared" si="2"/>
+      <c r="I12" s="45">
+        <f>SUM(I10:I10)</f>
         <v>1455.4077999999995</v>
       </c>
-      <c r="F12" s="45">
-        <f t="shared" si="2"/>
+      <c r="J12" s="45">
+        <f t="shared" si="4"/>
         <v>2037.5709199999992</v>
       </c>
-      <c r="G12" s="45">
-        <f t="shared" si="2"/>
+      <c r="K12" s="45">
+        <f t="shared" si="4"/>
         <v>2852.5992879999985</v>
       </c>
-      <c r="H12" s="45">
-        <f t="shared" si="2"/>
+      <c r="L12" s="45">
+        <f t="shared" si="4"/>
         <v>3993.6390031999977</v>
       </c>
-      <c r="I12" s="45">
-        <f>H12*1.1</f>
-        <v>4393.0029035199977</v>
-      </c>
-      <c r="J12" s="45">
-        <f t="shared" ref="J12:R12" si="3">I12*1.1</f>
-        <v>4832.3031938719978</v>
-      </c>
-      <c r="K12" s="45">
-        <f t="shared" si="3"/>
-        <v>5315.5335132591981</v>
-      </c>
-      <c r="L12" s="45">
-        <f t="shared" si="3"/>
-        <v>5847.0868645851187</v>
-      </c>
       <c r="M12" s="45">
-        <f t="shared" si="3"/>
-        <v>6431.7955510436313</v>
+        <f>L12*1.2</f>
+        <v>4792.3668038399974</v>
       </c>
       <c r="N12" s="45">
-        <f t="shared" si="3"/>
-        <v>7074.9751061479947</v>
+        <f t="shared" ref="N12:Q12" si="5">M12*1.2</f>
+        <v>5750.8401646079965</v>
       </c>
       <c r="O12" s="45">
-        <f t="shared" si="3"/>
-        <v>7782.472616762795</v>
+        <f t="shared" si="5"/>
+        <v>6901.0081975295952</v>
       </c>
       <c r="P12" s="45">
-        <f t="shared" si="3"/>
-        <v>8560.7198784390748</v>
+        <f t="shared" si="5"/>
+        <v>8281.2098370355143</v>
       </c>
       <c r="Q12" s="45">
-        <f t="shared" si="3"/>
-        <v>9416.7918662829834</v>
+        <f t="shared" si="5"/>
+        <v>9937.4518044426168</v>
       </c>
       <c r="R12" s="45">
-        <f t="shared" si="3"/>
-        <v>10358.471052911282</v>
-      </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
+        <f t="shared" ref="R12:V12" si="6">Q12*1.1</f>
+        <v>10931.196984886879</v>
+      </c>
+      <c r="S12" s="45">
+        <f t="shared" si="6"/>
+        <v>12024.316683375568</v>
+      </c>
+      <c r="T12" s="45">
+        <f t="shared" si="6"/>
+        <v>13226.748351713126</v>
+      </c>
+      <c r="U12" s="45">
+        <f t="shared" si="6"/>
+        <v>14549.42318688444</v>
+      </c>
+      <c r="V12" s="45">
+        <f t="shared" si="6"/>
+        <v>16004.365505572885</v>
+      </c>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
@@ -1584,81 +1672,85 @@
       <c r="DH12" s="38"/>
       <c r="DI12" s="38"/>
       <c r="DJ12" s="38"/>
-    </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK12" s="38"/>
+      <c r="DL12" s="38"/>
+      <c r="DM12" s="38"/>
+      <c r="DN12" s="38"/>
+    </row>
+    <row r="13" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="37">
         <v>165.40100000000001</v>
       </c>
-      <c r="C13" s="37">
+      <c r="G13" s="37">
         <v>242.37299999999999</v>
-      </c>
-      <c r="D13" s="23">
-        <f>D12-D14</f>
-        <v>339.32219999999995</v>
-      </c>
-      <c r="E13" s="23">
-        <f t="shared" ref="E13" si="4">E12-E14</f>
-        <v>475.05107999999984</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" ref="F13:M13" si="5">F12-F14</f>
-        <v>665.07151199999976</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" si="5"/>
-        <v>931.10011679999957</v>
       </c>
       <c r="H13" s="23">
         <f>H12-H14</f>
+        <v>339.32219999999995</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" ref="I13" si="7">I12-I14</f>
+        <v>475.05107999999984</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" ref="J13:Q13" si="8">J12-J14</f>
+        <v>665.07151199999976</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="8"/>
+        <v>931.10011679999957</v>
+      </c>
+      <c r="L13" s="23">
+        <f>L12-L14</f>
         <v>1303.5401635199992</v>
       </c>
-      <c r="I13" s="23">
-        <f t="shared" si="5"/>
-        <v>1433.8941798719993</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="5"/>
-        <v>1577.2835978591993</v>
-      </c>
-      <c r="K13" s="23">
-        <f t="shared" si="5"/>
-        <v>1735.0119576451193</v>
-      </c>
-      <c r="L13" s="23">
-        <f t="shared" si="5"/>
-        <v>1908.5131534096317</v>
-      </c>
       <c r="M13" s="23">
-        <f t="shared" si="5"/>
-        <v>2099.3644687505948</v>
+        <f t="shared" si="8"/>
+        <v>1564.248196223999</v>
       </c>
       <c r="N13" s="23">
-        <f t="shared" ref="N13:R13" si="6">N12-N14</f>
-        <v>2309.3009156256549</v>
+        <f t="shared" si="8"/>
+        <v>1877.0978354687991</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" si="6"/>
-        <v>2540.2310071882202</v>
+        <f t="shared" si="8"/>
+        <v>2252.5174025625583</v>
       </c>
       <c r="P13" s="23">
-        <f t="shared" si="6"/>
-        <v>2794.2541079070425</v>
+        <f t="shared" si="8"/>
+        <v>2703.0208830750698</v>
       </c>
       <c r="Q13" s="23">
-        <f t="shared" si="6"/>
-        <v>3073.679518697747</v>
+        <f t="shared" si="8"/>
+        <v>3243.6250596900845</v>
       </c>
       <c r="R13" s="23">
-        <f t="shared" si="6"/>
-        <v>3381.0474705675215</v>
-      </c>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+        <f t="shared" ref="R13:V13" si="9">R12-R14</f>
+        <v>3567.987565659093</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" si="9"/>
+        <v>3924.7863222250026</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="9"/>
+        <v>4317.2649544475025</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="9"/>
+        <v>4748.9914498922535</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="9"/>
+        <v>5223.890594881479</v>
+      </c>
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -1751,83 +1843,87 @@
       <c r="DH13" s="38"/>
       <c r="DI13" s="38"/>
       <c r="DJ13" s="38"/>
-    </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK13" s="38"/>
+      <c r="DL13" s="38"/>
+      <c r="DM13" s="38"/>
+      <c r="DN13" s="38"/>
+    </row>
+    <row r="14" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="26">
-        <f>B12-B13</f>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26">
+        <f>F12-F13</f>
         <v>430.00799999999998</v>
       </c>
-      <c r="C14" s="26">
-        <f>C12-C13</f>
+      <c r="G14" s="26">
+        <f>G12-G13</f>
         <v>500.18199999999996</v>
-      </c>
-      <c r="D14" s="23">
-        <f>D12*C27</f>
-        <v>700.25479999999982</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" ref="E14:R14" si="7">E12*D27</f>
-        <v>980.35671999999965</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="7"/>
-        <v>1372.4994079999994</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" si="7"/>
-        <v>1921.499171199999</v>
       </c>
       <c r="H14" s="23">
         <f>H12*G27</f>
+        <v>700.25479999999982</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" ref="I14:V14" si="10">I12*H27</f>
+        <v>980.35671999999965</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="10"/>
+        <v>1372.4994079999994</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="10"/>
+        <v>1921.499171199999</v>
+      </c>
+      <c r="L14" s="23">
+        <f>L12*K27</f>
         <v>2690.0988396799985</v>
       </c>
-      <c r="I14" s="23">
-        <f t="shared" si="7"/>
-        <v>2959.1087236479984</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="7"/>
-        <v>3255.0195960127985</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="7"/>
-        <v>3580.5215556140788</v>
-      </c>
-      <c r="L14" s="23">
-        <f t="shared" si="7"/>
-        <v>3938.573711175487</v>
-      </c>
       <c r="M14" s="23">
-        <f t="shared" si="7"/>
-        <v>4332.4310822930365</v>
+        <f t="shared" si="10"/>
+        <v>3228.1186076159984</v>
       </c>
       <c r="N14" s="23">
-        <f t="shared" si="7"/>
-        <v>4765.6741905223398</v>
+        <f t="shared" si="10"/>
+        <v>3873.7423291391974</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" si="7"/>
-        <v>5242.2416095745748</v>
+        <f t="shared" si="10"/>
+        <v>4648.4907949670369</v>
       </c>
       <c r="P14" s="23">
-        <f t="shared" si="7"/>
-        <v>5766.4657705320324</v>
+        <f t="shared" si="10"/>
+        <v>5578.1889539604445</v>
       </c>
       <c r="Q14" s="23">
-        <f t="shared" si="7"/>
-        <v>6343.1123475852364</v>
+        <f t="shared" si="10"/>
+        <v>6693.8267447525322</v>
       </c>
       <c r="R14" s="23">
-        <f t="shared" si="7"/>
-        <v>6977.4235823437602</v>
-      </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+        <f t="shared" si="10"/>
+        <v>7363.2094192277864</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" si="10"/>
+        <v>8099.5303611505651</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" si="10"/>
+        <v>8909.4833972656234</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" si="10"/>
+        <v>9800.4317369921864</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="10"/>
+        <v>10780.474910691406</v>
+      </c>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -1920,81 +2016,85 @@
       <c r="DH14" s="38"/>
       <c r="DI14" s="38"/>
       <c r="DJ14" s="38"/>
-    </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK14" s="38"/>
+      <c r="DL14" s="38"/>
+      <c r="DM14" s="38"/>
+      <c r="DN14" s="38"/>
+    </row>
+    <row r="15" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="37">
         <v>285</v>
       </c>
-      <c r="C15" s="37">
+      <c r="G15" s="37">
         <v>306</v>
       </c>
-      <c r="D15" s="23">
-        <f>C15*1.1</f>
+      <c r="H15" s="23">
+        <f>G15*1.1</f>
         <v>336.6</v>
       </c>
-      <c r="E15" s="23">
-        <f t="shared" ref="E15:H15" si="8">D15*1.1</f>
+      <c r="I15" s="23">
+        <f t="shared" ref="I15:L15" si="11">H15*1.1</f>
         <v>370.26000000000005</v>
       </c>
-      <c r="F15" s="23">
-        <f t="shared" si="8"/>
+      <c r="J15" s="23">
+        <f t="shared" si="11"/>
         <v>407.28600000000006</v>
       </c>
-      <c r="G15" s="23">
-        <f t="shared" si="8"/>
+      <c r="K15" s="23">
+        <f t="shared" si="11"/>
         <v>448.01460000000009</v>
       </c>
-      <c r="H15" s="23">
-        <f t="shared" si="8"/>
+      <c r="L15" s="23">
+        <f t="shared" si="11"/>
         <v>492.81606000000016</v>
       </c>
-      <c r="I15" s="23">
-        <f>H15*1.05</f>
+      <c r="M15" s="23">
+        <f>L15*1.05</f>
         <v>517.45686300000023</v>
       </c>
-      <c r="J15" s="23">
-        <f t="shared" ref="J15:R15" si="9">I15*1.05</f>
+      <c r="N15" s="23">
+        <f t="shared" ref="N15:V16" si="12">M15*1.05</f>
         <v>543.32970615000022</v>
       </c>
-      <c r="K15" s="23">
-        <f t="shared" si="9"/>
+      <c r="O15" s="23">
+        <f t="shared" si="12"/>
         <v>570.49619145750023</v>
       </c>
-      <c r="L15" s="23">
-        <f t="shared" si="9"/>
+      <c r="P15" s="23">
+        <f t="shared" si="12"/>
         <v>599.02100103037526</v>
       </c>
-      <c r="M15" s="23">
-        <f t="shared" si="9"/>
+      <c r="Q15" s="23">
+        <f t="shared" si="12"/>
         <v>628.97205108189405</v>
       </c>
-      <c r="N15" s="23">
-        <f t="shared" si="9"/>
+      <c r="R15" s="23">
+        <f t="shared" si="12"/>
         <v>660.42065363598874</v>
       </c>
-      <c r="O15" s="23">
-        <f t="shared" si="9"/>
+      <c r="S15" s="23">
+        <f t="shared" si="12"/>
         <v>693.44168631778825</v>
       </c>
-      <c r="P15" s="23">
-        <f t="shared" si="9"/>
+      <c r="T15" s="23">
+        <f t="shared" si="12"/>
         <v>728.11377063367775</v>
       </c>
-      <c r="Q15" s="23">
-        <f t="shared" si="9"/>
+      <c r="U15" s="23">
+        <f t="shared" si="12"/>
         <v>764.5194591653617</v>
       </c>
-      <c r="R15" s="23">
-        <f t="shared" si="9"/>
+      <c r="V15" s="23">
+        <f t="shared" si="12"/>
         <v>802.74543212362983</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -2087,81 +2187,85 @@
       <c r="DH15" s="38"/>
       <c r="DI15" s="38"/>
       <c r="DJ15" s="38"/>
-    </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="38"/>
+      <c r="DM15" s="38"/>
+      <c r="DN15" s="38"/>
+    </row>
+    <row r="16" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="37">
         <v>462</v>
       </c>
-      <c r="C16" s="37">
+      <c r="G16" s="37">
         <v>450</v>
       </c>
-      <c r="D16" s="23">
-        <f t="shared" ref="D16:H16" si="10">C16*1.1</f>
+      <c r="H16" s="23">
+        <f t="shared" ref="H16:L16" si="13">G16*1.1</f>
         <v>495.00000000000006</v>
       </c>
-      <c r="E16" s="23">
-        <f t="shared" si="10"/>
+      <c r="I16" s="23">
+        <f t="shared" si="13"/>
         <v>544.50000000000011</v>
       </c>
-      <c r="F16" s="23">
-        <f t="shared" si="10"/>
+      <c r="J16" s="23">
+        <f t="shared" si="13"/>
         <v>598.95000000000016</v>
       </c>
-      <c r="G16" s="23">
-        <f t="shared" si="10"/>
+      <c r="K16" s="23">
+        <f t="shared" si="13"/>
         <v>658.84500000000025</v>
       </c>
-      <c r="H16" s="23">
-        <f t="shared" si="10"/>
+      <c r="L16" s="23">
+        <f t="shared" si="13"/>
         <v>724.72950000000037</v>
       </c>
-      <c r="I16" s="23">
-        <f t="shared" ref="I16:R16" si="11">H16*0.98</f>
-        <v>710.23491000000035</v>
-      </c>
-      <c r="J16" s="23">
-        <f t="shared" si="11"/>
-        <v>696.0302118000003</v>
-      </c>
-      <c r="K16" s="23">
-        <f t="shared" si="11"/>
-        <v>682.10960756400027</v>
-      </c>
-      <c r="L16" s="23">
-        <f t="shared" si="11"/>
-        <v>668.46741541272024</v>
-      </c>
       <c r="M16" s="23">
-        <f t="shared" si="11"/>
-        <v>655.09806710446583</v>
+        <f>L16*1.05</f>
+        <v>760.96597500000041</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="11"/>
-        <v>641.99610576237649</v>
+        <f t="shared" si="12"/>
+        <v>799.01427375000048</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="11"/>
-        <v>629.15618364712896</v>
+        <f t="shared" si="12"/>
+        <v>838.96498743750055</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="11"/>
-        <v>616.57305997418632</v>
+        <f t="shared" si="12"/>
+        <v>880.91323680937558</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" si="11"/>
-        <v>604.24159877470254</v>
+        <f t="shared" si="12"/>
+        <v>924.9588986498444</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" si="11"/>
-        <v>592.15676679920853</v>
-      </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+        <f t="shared" ref="R16:V16" si="14">Q16*0.98</f>
+        <v>906.4597206768475</v>
+      </c>
+      <c r="S16" s="23">
+        <f t="shared" si="14"/>
+        <v>888.3305262633105</v>
+      </c>
+      <c r="T16" s="23">
+        <f t="shared" si="14"/>
+        <v>870.56391573804433</v>
+      </c>
+      <c r="U16" s="23">
+        <f t="shared" si="14"/>
+        <v>853.15263742328341</v>
+      </c>
+      <c r="V16" s="23">
+        <f t="shared" si="14"/>
+        <v>836.08958467481773</v>
+      </c>
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
@@ -2254,81 +2358,85 @@
       <c r="DH16" s="38"/>
       <c r="DI16" s="38"/>
       <c r="DJ16" s="38"/>
-    </row>
-    <row r="17" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK16" s="38"/>
+      <c r="DL16" s="38"/>
+      <c r="DM16" s="38"/>
+      <c r="DN16" s="38"/>
+    </row>
+    <row r="17" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="37">
         <v>306</v>
       </c>
-      <c r="C17" s="37">
+      <c r="G17" s="37">
         <v>321</v>
       </c>
-      <c r="D17" s="23">
-        <f>C17*1.05</f>
+      <c r="H17" s="23">
+        <f>G17*1.05</f>
         <v>337.05</v>
       </c>
-      <c r="E17" s="23">
-        <f t="shared" ref="E17:H17" si="12">D17*1.05</f>
+      <c r="I17" s="23">
+        <f t="shared" ref="I17:L17" si="15">H17*1.05</f>
         <v>353.90250000000003</v>
       </c>
-      <c r="F17" s="23">
-        <f t="shared" si="12"/>
+      <c r="J17" s="23">
+        <f t="shared" si="15"/>
         <v>371.59762500000005</v>
       </c>
-      <c r="G17" s="23">
-        <f t="shared" si="12"/>
+      <c r="K17" s="23">
+        <f t="shared" si="15"/>
         <v>390.17750625000008</v>
       </c>
-      <c r="H17" s="23">
-        <f t="shared" si="12"/>
+      <c r="L17" s="23">
+        <f t="shared" si="15"/>
         <v>409.68638156250012</v>
       </c>
-      <c r="I17" s="23">
-        <f t="shared" ref="I17:R17" si="13">H17*0.98</f>
+      <c r="M17" s="23">
+        <f t="shared" ref="M17:V17" si="16">L17*0.98</f>
         <v>401.49265393125012</v>
       </c>
-      <c r="J17" s="23">
-        <f t="shared" si="13"/>
+      <c r="N17" s="23">
+        <f t="shared" si="16"/>
         <v>393.46280085262509</v>
       </c>
-      <c r="K17" s="23">
-        <f t="shared" si="13"/>
+      <c r="O17" s="23">
+        <f t="shared" si="16"/>
         <v>385.59354483557257</v>
       </c>
-      <c r="L17" s="23">
-        <f t="shared" si="13"/>
+      <c r="P17" s="23">
+        <f t="shared" si="16"/>
         <v>377.88167393886113</v>
       </c>
-      <c r="M17" s="23">
-        <f t="shared" si="13"/>
+      <c r="Q17" s="23">
+        <f t="shared" si="16"/>
         <v>370.32404046008389</v>
       </c>
-      <c r="N17" s="23">
-        <f t="shared" si="13"/>
+      <c r="R17" s="23">
+        <f t="shared" si="16"/>
         <v>362.9175596508822</v>
       </c>
-      <c r="O17" s="23">
-        <f t="shared" si="13"/>
+      <c r="S17" s="23">
+        <f t="shared" si="16"/>
         <v>355.65920845786457</v>
       </c>
-      <c r="P17" s="23">
-        <f t="shared" si="13"/>
+      <c r="T17" s="23">
+        <f t="shared" si="16"/>
         <v>348.54602428870726</v>
       </c>
-      <c r="Q17" s="23">
-        <f t="shared" si="13"/>
+      <c r="U17" s="23">
+        <f t="shared" si="16"/>
         <v>341.57510380293309</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" si="13"/>
+      <c r="V17" s="23">
+        <f t="shared" si="16"/>
         <v>334.74360172687443</v>
       </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
@@ -2421,83 +2529,87 @@
       <c r="DH17" s="38"/>
       <c r="DI17" s="38"/>
       <c r="DJ17" s="38"/>
-    </row>
-    <row r="18" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK17" s="38"/>
+      <c r="DL17" s="38"/>
+      <c r="DM17" s="38"/>
+      <c r="DN17" s="38"/>
+    </row>
+    <row r="18" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="26">
-        <f>SUM(B15:B17)</f>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26">
+        <f>SUM(F15:F17)</f>
         <v>1053</v>
       </c>
-      <c r="C18" s="26">
-        <f>SUM(C15:C17)</f>
+      <c r="G18" s="26">
+        <f>SUM(G15:G17)</f>
         <v>1077</v>
       </c>
-      <c r="D18" s="23">
-        <f t="shared" ref="D18:E18" si="14">SUM(D15:D17)</f>
+      <c r="H18" s="23">
+        <f t="shared" ref="H18:I18" si="17">SUM(H15:H17)</f>
         <v>1168.6500000000001</v>
       </c>
-      <c r="E18" s="23">
-        <f t="shared" si="14"/>
+      <c r="I18" s="23">
+        <f t="shared" si="17"/>
         <v>1268.6625000000004</v>
       </c>
-      <c r="F18" s="23">
-        <f t="shared" ref="F18:M18" si="15">SUM(F15:F17)</f>
+      <c r="J18" s="23">
+        <f t="shared" ref="J18:Q18" si="18">SUM(J15:J17)</f>
         <v>1377.8336250000002</v>
       </c>
-      <c r="G18" s="23">
-        <f t="shared" si="15"/>
+      <c r="K18" s="23">
+        <f t="shared" si="18"/>
         <v>1497.0371062500003</v>
       </c>
-      <c r="H18" s="23">
-        <f t="shared" si="15"/>
+      <c r="L18" s="23">
+        <f t="shared" si="18"/>
         <v>1627.2319415625007</v>
       </c>
-      <c r="I18" s="23">
-        <f t="shared" si="15"/>
-        <v>1629.1844269312505</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="15"/>
-        <v>1632.8227188026258</v>
-      </c>
-      <c r="K18" s="23">
-        <f t="shared" si="15"/>
-        <v>1638.199343857073</v>
-      </c>
-      <c r="L18" s="23">
-        <f t="shared" si="15"/>
-        <v>1645.3700903819567</v>
-      </c>
       <c r="M18" s="23">
-        <f t="shared" si="15"/>
-        <v>1654.3941586464439</v>
+        <f t="shared" si="18"/>
+        <v>1679.9154919312507</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" ref="N18:R18" si="16">SUM(N15:N17)</f>
-        <v>1665.3343190492474</v>
+        <f t="shared" si="18"/>
+        <v>1735.8067807526259</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="16"/>
-        <v>1678.2570784227819</v>
+        <f t="shared" si="18"/>
+        <v>1795.0547237305734</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="16"/>
-        <v>1693.2328548965713</v>
+        <f t="shared" si="18"/>
+        <v>1857.8159117786122</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" si="16"/>
-        <v>1710.3361617429973</v>
+        <f t="shared" si="18"/>
+        <v>1924.2549901918223</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="16"/>
-        <v>1729.6458006497128</v>
-      </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+        <f t="shared" ref="R18:V18" si="19">SUM(R15:R17)</f>
+        <v>1929.7979339637184</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" si="19"/>
+        <v>1937.4314210389634</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="19"/>
+        <v>1947.2237106604293</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="19"/>
+        <v>1959.2472003915782</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="19"/>
+        <v>1973.5786185253221</v>
+      </c>
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
@@ -2590,83 +2702,87 @@
       <c r="DH18" s="38"/>
       <c r="DI18" s="38"/>
       <c r="DJ18" s="38"/>
-    </row>
-    <row r="19" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK18" s="38"/>
+      <c r="DL18" s="38"/>
+      <c r="DM18" s="38"/>
+      <c r="DN18" s="38"/>
+    </row>
+    <row r="19" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="26">
-        <f>B14-B18</f>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="26">
+        <f>F14-F18</f>
         <v>-622.99199999999996</v>
       </c>
-      <c r="C19" s="26">
-        <f>C14-C18</f>
+      <c r="G19" s="26">
+        <f>G14-G18</f>
         <v>-576.81799999999998</v>
       </c>
-      <c r="D19" s="23">
-        <f t="shared" ref="D19:E19" si="17">D14-D18</f>
+      <c r="H19" s="23">
+        <f t="shared" ref="H19:I19" si="20">H14-H18</f>
         <v>-468.39520000000027</v>
       </c>
-      <c r="E19" s="23">
-        <f t="shared" si="17"/>
+      <c r="I19" s="23">
+        <f t="shared" si="20"/>
         <v>-288.30578000000071</v>
       </c>
-      <c r="F19" s="23">
-        <f t="shared" ref="F19:M19" si="18">F14-F18</f>
+      <c r="J19" s="23">
+        <f t="shared" ref="J19:Q19" si="21">J14-J18</f>
         <v>-5.3342170000007627</v>
       </c>
-      <c r="G19" s="23">
-        <f t="shared" si="18"/>
+      <c r="K19" s="23">
+        <f t="shared" si="21"/>
         <v>424.46206494999865</v>
       </c>
-      <c r="H19" s="23">
-        <f t="shared" si="18"/>
+      <c r="L19" s="23">
+        <f t="shared" si="21"/>
         <v>1062.8668981174978</v>
       </c>
-      <c r="I19" s="23">
-        <f t="shared" si="18"/>
-        <v>1329.9242967167479</v>
-      </c>
-      <c r="J19" s="23">
-        <f t="shared" si="18"/>
-        <v>1622.1968772101727</v>
-      </c>
-      <c r="K19" s="23">
-        <f t="shared" si="18"/>
-        <v>1942.3222117570058</v>
-      </c>
-      <c r="L19" s="23">
-        <f t="shared" si="18"/>
-        <v>2293.2036207935303</v>
-      </c>
       <c r="M19" s="23">
-        <f t="shared" si="18"/>
-        <v>2678.0369236465926</v>
+        <f t="shared" si="21"/>
+        <v>1548.2031156847477</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" ref="N19:R19" si="19">N14-N18</f>
-        <v>3100.3398714730924</v>
+        <f t="shared" si="21"/>
+        <v>2137.9355483865716</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="19"/>
-        <v>3563.9845311517929</v>
+        <f t="shared" si="21"/>
+        <v>2853.4360712364632</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="19"/>
-        <v>4073.2329156354608</v>
+        <f t="shared" si="21"/>
+        <v>3720.3730421818323</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" si="19"/>
-        <v>4632.7761858422391</v>
+        <f t="shared" si="21"/>
+        <v>4769.5717545607095</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="19"/>
-        <v>5247.777781694047</v>
-      </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
+        <f t="shared" ref="R19:V19" si="22">R14-R18</f>
+        <v>5433.4114852640678</v>
+      </c>
+      <c r="S19" s="23">
+        <f t="shared" si="22"/>
+        <v>6162.0989401116021</v>
+      </c>
+      <c r="T19" s="23">
+        <f t="shared" si="22"/>
+        <v>6962.2596866051936</v>
+      </c>
+      <c r="U19" s="23">
+        <f t="shared" si="22"/>
+        <v>7841.1845366006082</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="22"/>
+        <v>8806.8962921660841</v>
+      </c>
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -2759,83 +2875,87 @@
       <c r="DH19" s="38"/>
       <c r="DI19" s="38"/>
       <c r="DJ19" s="38"/>
-    </row>
-    <row r="20" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK19" s="38"/>
+      <c r="DL19" s="38"/>
+      <c r="DM19" s="38"/>
+      <c r="DN19" s="38"/>
+    </row>
+    <row r="20" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
         <f>10-3+48-3</f>
         <v>52</v>
       </c>
-      <c r="C20" s="37">
+      <c r="G20" s="37">
         <f>15-3-3</f>
         <v>9</v>
       </c>
-      <c r="D20" s="23">
-        <f t="shared" ref="D20:R20" si="20">C37*$F$3</f>
+      <c r="H20" s="23">
+        <f t="shared" ref="H20:V20" si="23">G37*$J$3</f>
         <v>14.700000000000001</v>
       </c>
-      <c r="E20" s="23">
-        <f t="shared" si="20"/>
+      <c r="I20" s="23">
+        <f t="shared" si="23"/>
         <v>5.6260959999999942</v>
       </c>
-      <c r="F20" s="23">
-        <f t="shared" si="20"/>
+      <c r="J20" s="23">
+        <f t="shared" si="23"/>
         <v>-2.7497680000019502E-2</v>
       </c>
-      <c r="G20" s="23">
-        <f t="shared" si="20"/>
+      <c r="K20" s="23">
+        <f t="shared" si="23"/>
         <v>-0.13473197360003514</v>
       </c>
-      <c r="H20" s="23">
-        <f t="shared" si="20"/>
+      <c r="L20" s="23">
+        <f t="shared" si="23"/>
         <v>7.5031600199751409</v>
       </c>
-      <c r="I20" s="23">
-        <f t="shared" si="20"/>
+      <c r="M20" s="23">
+        <f t="shared" si="23"/>
         <v>26.769821066449655</v>
       </c>
-      <c r="J20" s="23">
-        <f t="shared" si="20"/>
-        <v>51.190315186547217</v>
-      </c>
-      <c r="K20" s="23">
-        <f t="shared" si="20"/>
-        <v>81.311284649688176</v>
-      </c>
-      <c r="L20" s="23">
-        <f t="shared" si="20"/>
-        <v>117.73668758500867</v>
-      </c>
-      <c r="M20" s="23">
-        <f t="shared" si="20"/>
-        <v>161.13361313582237</v>
-      </c>
       <c r="N20" s="23">
-        <f t="shared" si="20"/>
-        <v>212.23868279790582</v>
+        <f t="shared" si="23"/>
+        <v>55.119333927971205</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="20"/>
-        <v>271.86509677478381</v>
+        <f t="shared" si="23"/>
+        <v>94.594321809632973</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="20"/>
-        <v>340.91039007746213</v>
+        <f t="shared" si="23"/>
+        <v>147.65886888446269</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" si="20"/>
-        <v>420.36496958029477</v>
+        <f t="shared" si="23"/>
+        <v>217.28344328365603</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" si="20"/>
-        <v>511.32151037790044</v>
-      </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
+        <f t="shared" si="23"/>
+        <v>307.04683684485457</v>
+      </c>
+      <c r="S20" s="23">
+        <f t="shared" si="23"/>
+        <v>410.37508664281518</v>
+      </c>
+      <c r="T20" s="23">
+        <f t="shared" si="23"/>
+        <v>528.67961912439466</v>
+      </c>
+      <c r="U20" s="23">
+        <f t="shared" si="23"/>
+        <v>663.51652662752724</v>
+      </c>
+      <c r="V20" s="23">
+        <f t="shared" si="23"/>
+        <v>816.60114576563376</v>
+      </c>
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
@@ -2928,83 +3048,87 @@
       <c r="DH20" s="38"/>
       <c r="DI20" s="38"/>
       <c r="DJ20" s="38"/>
-    </row>
-    <row r="21" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK20" s="38"/>
+      <c r="DL20" s="38"/>
+      <c r="DM20" s="38"/>
+      <c r="DN20" s="38"/>
+    </row>
+    <row r="21" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="26">
-        <f>B19+B20</f>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26">
+        <f>F19+F20</f>
         <v>-570.99199999999996</v>
       </c>
-      <c r="C21" s="26">
-        <f>C19+C20</f>
+      <c r="G21" s="26">
+        <f>G19+G20</f>
         <v>-567.81799999999998</v>
       </c>
-      <c r="D21" s="23">
-        <f t="shared" ref="D21:E21" si="21">D19+D20</f>
+      <c r="H21" s="23">
+        <f t="shared" ref="H21:I21" si="24">H19+H20</f>
         <v>-453.69520000000028</v>
       </c>
-      <c r="E21" s="23">
-        <f t="shared" si="21"/>
+      <c r="I21" s="23">
+        <f t="shared" si="24"/>
         <v>-282.67968400000069</v>
       </c>
-      <c r="F21" s="23">
-        <f t="shared" ref="F21" si="22">F19+F20</f>
+      <c r="J21" s="23">
+        <f t="shared" ref="J21" si="25">J19+J20</f>
         <v>-5.361714680000782</v>
       </c>
-      <c r="G21" s="23">
-        <f t="shared" ref="G21" si="23">G19+G20</f>
+      <c r="K21" s="23">
+        <f t="shared" ref="K21" si="26">K19+K20</f>
         <v>424.32733297639862</v>
       </c>
-      <c r="H21" s="23">
-        <f t="shared" ref="H21" si="24">H19+H20</f>
+      <c r="L21" s="23">
+        <f t="shared" ref="L21" si="27">L19+L20</f>
         <v>1070.3700581374731</v>
       </c>
-      <c r="I21" s="23">
-        <f t="shared" ref="I21" si="25">I19+I20</f>
-        <v>1356.6941177831975</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" ref="J21" si="26">J19+J20</f>
-        <v>1673.3871923967199</v>
-      </c>
-      <c r="K21" s="23">
-        <f t="shared" ref="K21" si="27">K19+K20</f>
-        <v>2023.6334964066939</v>
-      </c>
-      <c r="L21" s="23">
-        <f t="shared" ref="L21" si="28">L19+L20</f>
-        <v>2410.9403083785392</v>
-      </c>
       <c r="M21" s="23">
-        <f t="shared" ref="M21:N21" si="29">M19+M20</f>
-        <v>2839.1705367824152</v>
+        <f t="shared" ref="M21" si="28">M19+M20</f>
+        <v>1574.9729367511973</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="29"/>
-        <v>3312.5785542709982</v>
+        <f t="shared" ref="N21" si="29">N19+N20</f>
+        <v>2193.0548823145427</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" ref="O21:R21" si="30">O19+O20</f>
-        <v>3835.8496279265769</v>
+        <f t="shared" ref="O21" si="30">O19+O20</f>
+        <v>2948.0303930460964</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="30"/>
-        <v>4414.1433057129234</v>
+        <f t="shared" ref="P21" si="31">P19+P20</f>
+        <v>3868.0319110662949</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="30"/>
-        <v>5053.1411554225342</v>
+        <f t="shared" ref="Q21:R21" si="32">Q19+Q20</f>
+        <v>4986.8551978443656</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="30"/>
-        <v>5759.0992920719473</v>
-      </c>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
+        <f t="shared" si="32"/>
+        <v>5740.4583221089224</v>
+      </c>
+      <c r="S21" s="23">
+        <f t="shared" ref="S21:V21" si="33">S19+S20</f>
+        <v>6572.4740267544175</v>
+      </c>
+      <c r="T21" s="23">
+        <f t="shared" si="33"/>
+        <v>7490.9393057295883</v>
+      </c>
+      <c r="U21" s="23">
+        <f t="shared" si="33"/>
+        <v>8504.7010632281363</v>
+      </c>
+      <c r="V21" s="23">
+        <f t="shared" si="33"/>
+        <v>9623.4974379317173</v>
+      </c>
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
@@ -3097,78 +3221,82 @@
       <c r="DH21" s="38"/>
       <c r="DI21" s="38"/>
       <c r="DJ21" s="38"/>
-    </row>
-    <row r="22" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK21" s="38"/>
+      <c r="DL21" s="38"/>
+      <c r="DM21" s="38"/>
+      <c r="DN21" s="38"/>
+    </row>
+    <row r="22" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
         <v>9</v>
       </c>
-      <c r="C22" s="37">
+      <c r="G22" s="37">
         <v>12</v>
       </c>
-      <c r="D22" s="23">
+      <c r="H22" s="23">
         <v>0</v>
       </c>
-      <c r="E22" s="23">
+      <c r="I22" s="23">
         <v>0</v>
       </c>
-      <c r="F22" s="23">
+      <c r="J22" s="23">
         <v>0</v>
       </c>
-      <c r="G22" s="23">
-        <f t="shared" ref="G22:M22" si="31">G21*0.1</f>
+      <c r="K22" s="23">
+        <f t="shared" ref="K22:Q22" si="34">K21*0.1</f>
         <v>42.432733297639864</v>
       </c>
-      <c r="H22" s="23">
-        <f t="shared" si="31"/>
+      <c r="L22" s="23">
+        <f t="shared" si="34"/>
         <v>107.03700581374731</v>
       </c>
-      <c r="I22" s="23">
-        <f t="shared" si="31"/>
-        <v>135.66941177831976</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="31"/>
-        <v>167.338719239672</v>
-      </c>
-      <c r="K22" s="23">
-        <f t="shared" si="31"/>
-        <v>202.36334964066941</v>
-      </c>
-      <c r="L22" s="23">
-        <f t="shared" si="31"/>
-        <v>241.09403083785392</v>
-      </c>
       <c r="M22" s="23">
-        <f t="shared" si="31"/>
-        <v>283.91705367824153</v>
+        <f t="shared" si="34"/>
+        <v>157.49729367511975</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" ref="N22:R22" si="32">N21*0.1</f>
-        <v>331.25785542709986</v>
+        <f t="shared" si="34"/>
+        <v>219.30548823145429</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="32"/>
-        <v>383.58496279265773</v>
+        <f t="shared" si="34"/>
+        <v>294.80303930460963</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="32"/>
-        <v>441.41433057129234</v>
+        <f t="shared" si="34"/>
+        <v>386.80319110662953</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="32"/>
-        <v>505.31411554225343</v>
+        <f t="shared" si="34"/>
+        <v>498.68551978443656</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="32"/>
-        <v>575.90992920719475</v>
-      </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
+        <f t="shared" ref="R22:V22" si="35">R21*0.1</f>
+        <v>574.04583221089229</v>
+      </c>
+      <c r="S22" s="23">
+        <f t="shared" si="35"/>
+        <v>657.24740267544178</v>
+      </c>
+      <c r="T22" s="23">
+        <f t="shared" si="35"/>
+        <v>749.09393057295893</v>
+      </c>
+      <c r="U22" s="23">
+        <f t="shared" si="35"/>
+        <v>850.47010632281365</v>
+      </c>
+      <c r="V22" s="23">
+        <f t="shared" si="35"/>
+        <v>962.3497437931718</v>
+      </c>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
@@ -3261,872 +3389,880 @@
       <c r="DH22" s="38"/>
       <c r="DI22" s="38"/>
       <c r="DJ22" s="38"/>
-    </row>
-    <row r="23" spans="1:197" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="DK22" s="38"/>
+      <c r="DL22" s="38"/>
+      <c r="DM22" s="38"/>
+      <c r="DN22" s="38"/>
+    </row>
+    <row r="23" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="24">
-        <f>B21-B22</f>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24">
+        <f>F21-F22</f>
         <v>-579.99199999999996</v>
       </c>
-      <c r="C23" s="24">
-        <f t="shared" ref="C23:E23" si="33">C21-C22</f>
+      <c r="G23" s="24">
+        <f t="shared" ref="G23:I23" si="36">G21-G22</f>
         <v>-579.81799999999998</v>
       </c>
-      <c r="D23" s="24">
-        <f>D21-D22</f>
+      <c r="H23" s="24">
+        <f>H21-H22</f>
         <v>-453.69520000000028</v>
       </c>
-      <c r="E23" s="24">
-        <f t="shared" si="33"/>
+      <c r="I23" s="24">
+        <f t="shared" si="36"/>
         <v>-282.67968400000069</v>
       </c>
-      <c r="F23" s="24">
-        <f t="shared" ref="F23:M23" si="34">F21-F22</f>
+      <c r="J23" s="24">
+        <f t="shared" ref="J23:Q23" si="37">J21-J22</f>
         <v>-5.361714680000782</v>
       </c>
-      <c r="G23" s="24">
-        <f t="shared" si="34"/>
+      <c r="K23" s="24">
+        <f t="shared" si="37"/>
         <v>381.89459967875877</v>
       </c>
-      <c r="H23" s="24">
-        <f t="shared" si="34"/>
+      <c r="L23" s="24">
+        <f t="shared" si="37"/>
         <v>963.33305232372572</v>
       </c>
-      <c r="I23" s="24">
-        <f t="shared" si="34"/>
-        <v>1221.0247060048778</v>
-      </c>
-      <c r="J23" s="24">
-        <f t="shared" si="34"/>
-        <v>1506.048473157048</v>
-      </c>
-      <c r="K23" s="24">
-        <f t="shared" si="34"/>
-        <v>1821.2701467660245</v>
-      </c>
-      <c r="L23" s="24">
-        <f t="shared" si="34"/>
-        <v>2169.8462775406852</v>
-      </c>
       <c r="M23" s="24">
-        <f t="shared" si="34"/>
-        <v>2555.2534831041735</v>
+        <f t="shared" si="37"/>
+        <v>1417.4756430760776</v>
       </c>
       <c r="N23" s="24">
-        <f t="shared" ref="N23:R23" si="35">N21-N22</f>
-        <v>2981.3206988438983</v>
+        <f t="shared" si="37"/>
+        <v>1973.7493940830884</v>
       </c>
       <c r="O23" s="24">
-        <f t="shared" si="35"/>
-        <v>3452.2646651339192</v>
+        <f t="shared" si="37"/>
+        <v>2653.2273537414867</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" si="35"/>
-        <v>3972.7289751416311</v>
+        <f t="shared" si="37"/>
+        <v>3481.2287199596653</v>
       </c>
       <c r="Q23" s="24">
-        <f t="shared" si="35"/>
-        <v>4547.8270398802806</v>
+        <f t="shared" si="37"/>
+        <v>4488.1696780599286</v>
       </c>
       <c r="R23" s="24">
-        <f t="shared" si="35"/>
-        <v>5183.1893628647522</v>
+        <f t="shared" ref="R23:V23" si="38">R21-R22</f>
+        <v>5166.4124898980299</v>
       </c>
       <c r="S23" s="24">
-        <f t="shared" ref="S23:AX23" si="36">R23*($F$2+1)</f>
-        <v>5209.1053096790756</v>
+        <f t="shared" si="38"/>
+        <v>5915.2266240789759</v>
       </c>
       <c r="T23" s="24">
-        <f t="shared" si="36"/>
-        <v>5235.1508362274708</v>
+        <f t="shared" si="38"/>
+        <v>6741.8453751566294</v>
       </c>
       <c r="U23" s="24">
-        <f t="shared" si="36"/>
-        <v>5261.3265904086074</v>
+        <f t="shared" si="38"/>
+        <v>7654.2309569053223</v>
       </c>
       <c r="V23" s="24">
-        <f t="shared" si="36"/>
-        <v>5287.6332233606499</v>
+        <f t="shared" si="38"/>
+        <v>8661.1476941385463</v>
       </c>
       <c r="W23" s="24">
-        <f t="shared" si="36"/>
-        <v>5314.0713894774526</v>
+        <f t="shared" ref="W23:BB23" si="39">V23*($J$2+1)</f>
+        <v>8704.453432609238</v>
       </c>
       <c r="X23" s="24">
-        <f t="shared" si="36"/>
-        <v>5340.6417464248389</v>
+        <f t="shared" si="39"/>
+        <v>8747.9756997722834</v>
       </c>
       <c r="Y23" s="24">
-        <f t="shared" si="36"/>
-        <v>5367.3449551569629</v>
+        <f t="shared" si="39"/>
+        <v>8791.7155782711434</v>
       </c>
       <c r="Z23" s="24">
-        <f t="shared" si="36"/>
-        <v>5394.1816799327471</v>
+        <f t="shared" si="39"/>
+        <v>8835.6741561624985</v>
       </c>
       <c r="AA23" s="24">
-        <f t="shared" si="36"/>
-        <v>5421.1525883324102</v>
+        <f t="shared" si="39"/>
+        <v>8879.8525269433103</v>
       </c>
       <c r="AB23" s="24">
-        <f t="shared" si="36"/>
-        <v>5448.2583512740721</v>
+        <f t="shared" si="39"/>
+        <v>8924.2517895780256</v>
       </c>
       <c r="AC23" s="24">
-        <f t="shared" si="36"/>
-        <v>5475.4996430304418</v>
+        <f t="shared" si="39"/>
+        <v>8968.8730485259148</v>
       </c>
       <c r="AD23" s="24">
-        <f t="shared" si="36"/>
-        <v>5502.8771412455935</v>
+        <f t="shared" si="39"/>
+        <v>9013.7174137685433</v>
       </c>
       <c r="AE23" s="24">
-        <f t="shared" si="36"/>
-        <v>5530.3915269518211</v>
+        <f t="shared" si="39"/>
+        <v>9058.7860008373846</v>
       </c>
       <c r="AF23" s="24">
-        <f t="shared" si="36"/>
-        <v>5558.0434845865793</v>
+        <f t="shared" si="39"/>
+        <v>9104.0799308415699</v>
       </c>
       <c r="AG23" s="24">
-        <f t="shared" si="36"/>
-        <v>5585.8337020095114</v>
+        <f t="shared" si="39"/>
+        <v>9149.6003304957776</v>
       </c>
       <c r="AH23" s="24">
-        <f t="shared" si="36"/>
-        <v>5613.7628705195584</v>
+        <f t="shared" si="39"/>
+        <v>9195.3483321482563</v>
       </c>
       <c r="AI23" s="24">
-        <f t="shared" si="36"/>
-        <v>5641.8316848721552</v>
+        <f t="shared" si="39"/>
+        <v>9241.3250738089973</v>
       </c>
       <c r="AJ23" s="24">
-        <f t="shared" si="36"/>
-        <v>5670.040843296515</v>
+        <f t="shared" si="39"/>
+        <v>9287.5316991780419</v>
       </c>
       <c r="AK23" s="24">
-        <f t="shared" si="36"/>
-        <v>5698.3910475129969</v>
+        <f t="shared" si="39"/>
+        <v>9333.9693576739319</v>
       </c>
       <c r="AL23" s="24">
-        <f t="shared" si="36"/>
-        <v>5726.883002750561</v>
+        <f t="shared" si="39"/>
+        <v>9380.6392044623008</v>
       </c>
       <c r="AM23" s="24">
-        <f t="shared" si="36"/>
-        <v>5755.517417764313</v>
+        <f t="shared" si="39"/>
+        <v>9427.5424004846118</v>
       </c>
       <c r="AN23" s="24">
-        <f t="shared" si="36"/>
-        <v>5784.2950048531338</v>
+        <f t="shared" si="39"/>
+        <v>9474.6801124870344</v>
       </c>
       <c r="AO23" s="24">
-        <f t="shared" si="36"/>
-        <v>5813.2164798773993</v>
+        <f t="shared" si="39"/>
+        <v>9522.0535130494682</v>
       </c>
       <c r="AP23" s="24">
-        <f t="shared" si="36"/>
-        <v>5842.2825622767859</v>
+        <f t="shared" si="39"/>
+        <v>9569.6637806147137</v>
       </c>
       <c r="AQ23" s="24">
-        <f t="shared" si="36"/>
-        <v>5871.4939750881695</v>
+        <f t="shared" si="39"/>
+        <v>9617.5120995177858</v>
       </c>
       <c r="AR23" s="24">
-        <f t="shared" si="36"/>
-        <v>5900.8514449636095</v>
+        <f t="shared" si="39"/>
+        <v>9665.599660015374</v>
       </c>
       <c r="AS23" s="24">
-        <f t="shared" si="36"/>
-        <v>5930.3557021884271</v>
+        <f t="shared" si="39"/>
+        <v>9713.9276583154497</v>
       </c>
       <c r="AT23" s="24">
-        <f t="shared" si="36"/>
-        <v>5960.0074806993689</v>
+        <f t="shared" si="39"/>
+        <v>9762.4972966070254</v>
       </c>
       <c r="AU23" s="24">
-        <f t="shared" si="36"/>
-        <v>5989.8075181028653</v>
+        <f t="shared" si="39"/>
+        <v>9811.3097830900588</v>
       </c>
       <c r="AV23" s="24">
-        <f t="shared" si="36"/>
-        <v>6019.7565556933787</v>
+        <f t="shared" si="39"/>
+        <v>9860.3663320055075</v>
       </c>
       <c r="AW23" s="24">
-        <f t="shared" si="36"/>
-        <v>6049.8553384718452</v>
+        <f t="shared" si="39"/>
+        <v>9909.6681636655339</v>
       </c>
       <c r="AX23" s="24">
-        <f t="shared" si="36"/>
-        <v>6080.104615164204</v>
+        <f t="shared" si="39"/>
+        <v>9959.2165044838603</v>
       </c>
       <c r="AY23" s="24">
-        <f t="shared" ref="AY23:CD23" si="37">AX23*($F$2+1)</f>
-        <v>6110.5051382400243</v>
+        <f t="shared" si="39"/>
+        <v>10009.012587006278</v>
       </c>
       <c r="AZ23" s="24">
-        <f t="shared" si="37"/>
-        <v>6141.0576639312239</v>
+        <f t="shared" si="39"/>
+        <v>10059.057649941309</v>
       </c>
       <c r="BA23" s="24">
-        <f t="shared" si="37"/>
-        <v>6171.7629522508796</v>
+        <f t="shared" si="39"/>
+        <v>10109.352938191014</v>
       </c>
       <c r="BB23" s="24">
-        <f t="shared" si="37"/>
-        <v>6202.6217670121332</v>
+        <f t="shared" si="39"/>
+        <v>10159.899702881969</v>
       </c>
       <c r="BC23" s="24">
-        <f t="shared" si="37"/>
-        <v>6233.6348758471931</v>
+        <f t="shared" ref="BC23:CH23" si="40">BB23*($J$2+1)</f>
+        <v>10210.699201396377</v>
       </c>
       <c r="BD23" s="24">
-        <f t="shared" si="37"/>
-        <v>6264.8030502264282</v>
+        <f t="shared" si="40"/>
+        <v>10261.752697403357</v>
       </c>
       <c r="BE23" s="24">
-        <f t="shared" si="37"/>
-        <v>6296.1270654775599</v>
+        <f t="shared" si="40"/>
+        <v>10313.061460890372</v>
       </c>
       <c r="BF23" s="24">
-        <f t="shared" si="37"/>
-        <v>6327.6077008049469</v>
+        <f t="shared" si="40"/>
+        <v>10364.626768194823</v>
       </c>
       <c r="BG23" s="24">
-        <f t="shared" si="37"/>
-        <v>6359.2457393089708</v>
+        <f t="shared" si="40"/>
+        <v>10416.449902035796</v>
       </c>
       <c r="BH23" s="24">
-        <f t="shared" si="37"/>
-        <v>6391.0419680055147</v>
+        <f t="shared" si="40"/>
+        <v>10468.532151545975</v>
       </c>
       <c r="BI23" s="24">
-        <f t="shared" si="37"/>
-        <v>6422.997177845542</v>
+        <f t="shared" si="40"/>
+        <v>10520.874812303704</v>
       </c>
       <c r="BJ23" s="24">
-        <f t="shared" si="37"/>
-        <v>6455.1121637347687</v>
+        <f t="shared" si="40"/>
+        <v>10573.479186365221</v>
       </c>
       <c r="BK23" s="24">
-        <f t="shared" si="37"/>
-        <v>6487.3877245534422</v>
+        <f t="shared" si="40"/>
+        <v>10626.346582297047</v>
       </c>
       <c r="BL23" s="24">
-        <f t="shared" si="37"/>
-        <v>6519.8246631762086</v>
+        <f t="shared" si="40"/>
+        <v>10679.478315208531</v>
       </c>
       <c r="BM23" s="24">
-        <f t="shared" si="37"/>
-        <v>6552.4237864920888</v>
+        <f t="shared" si="40"/>
+        <v>10732.875706784573</v>
       </c>
       <c r="BN23" s="24">
-        <f t="shared" si="37"/>
-        <v>6585.1859054245488</v>
+        <f t="shared" si="40"/>
+        <v>10786.540085318495</v>
       </c>
       <c r="BO23" s="24">
-        <f t="shared" si="37"/>
-        <v>6618.111834951671</v>
+        <f t="shared" si="40"/>
+        <v>10840.472785745085</v>
       </c>
       <c r="BP23" s="24">
-        <f t="shared" si="37"/>
-        <v>6651.2023941264288</v>
+        <f t="shared" si="40"/>
+        <v>10894.675149673809</v>
       </c>
       <c r="BQ23" s="24">
-        <f t="shared" si="37"/>
-        <v>6684.4584060970601</v>
+        <f t="shared" si="40"/>
+        <v>10949.148525422177</v>
       </c>
       <c r="BR23" s="24">
-        <f t="shared" si="37"/>
-        <v>6717.8806981275447</v>
+        <f t="shared" si="40"/>
+        <v>11003.894268049287</v>
       </c>
       <c r="BS23" s="24">
-        <f t="shared" si="37"/>
-        <v>6751.4701016181816</v>
+        <f t="shared" si="40"/>
+        <v>11058.913739389533</v>
       </c>
       <c r="BT23" s="24">
-        <f t="shared" si="37"/>
-        <v>6785.2274521262716</v>
+        <f t="shared" si="40"/>
+        <v>11114.20830808648</v>
       </c>
       <c r="BU23" s="24">
-        <f t="shared" si="37"/>
-        <v>6819.1535893869022</v>
+        <f t="shared" si="40"/>
+        <v>11169.779349626911</v>
       </c>
       <c r="BV23" s="24">
-        <f t="shared" si="37"/>
-        <v>6853.2493573338361</v>
+        <f t="shared" si="40"/>
+        <v>11225.628246375045</v>
       </c>
       <c r="BW23" s="24">
-        <f t="shared" si="37"/>
-        <v>6887.5156041205046</v>
+        <f t="shared" si="40"/>
+        <v>11281.75638760692</v>
       </c>
       <c r="BX23" s="24">
-        <f t="shared" si="37"/>
-        <v>6921.9531821411065</v>
+        <f t="shared" si="40"/>
+        <v>11338.165169544953</v>
       </c>
       <c r="BY23" s="24">
-        <f t="shared" si="37"/>
-        <v>6956.562948051811</v>
+        <f t="shared" si="40"/>
+        <v>11394.855995392676</v>
       </c>
       <c r="BZ23" s="24">
-        <f t="shared" si="37"/>
-        <v>6991.3457627920689</v>
+        <f t="shared" si="40"/>
+        <v>11451.830275369639</v>
       </c>
       <c r="CA23" s="24">
-        <f t="shared" si="37"/>
-        <v>7026.3024916060285</v>
+        <f t="shared" si="40"/>
+        <v>11509.089426746486</v>
       </c>
       <c r="CB23" s="24">
-        <f t="shared" si="37"/>
-        <v>7061.4340040640582</v>
+        <f t="shared" si="40"/>
+        <v>11566.634873880217</v>
       </c>
       <c r="CC23" s="24">
-        <f t="shared" si="37"/>
-        <v>7096.7411740843781</v>
+        <f t="shared" si="40"/>
+        <v>11624.468048249617</v>
       </c>
       <c r="CD23" s="24">
-        <f t="shared" si="37"/>
-        <v>7132.2248799547997</v>
+        <f t="shared" si="40"/>
+        <v>11682.590388490864</v>
       </c>
       <c r="CE23" s="24">
-        <f t="shared" ref="CE23:DJ23" si="38">CD23*($F$2+1)</f>
-        <v>7167.8860043545728</v>
+        <f t="shared" si="40"/>
+        <v>11741.003340433317</v>
       </c>
       <c r="CF23" s="24">
-        <f t="shared" si="38"/>
-        <v>7203.7254343763452</v>
+        <f t="shared" si="40"/>
+        <v>11799.708357135483</v>
       </c>
       <c r="CG23" s="24">
-        <f t="shared" si="38"/>
-        <v>7239.7440615482265</v>
+        <f t="shared" si="40"/>
+        <v>11858.70689892116</v>
       </c>
       <c r="CH23" s="24">
-        <f t="shared" si="38"/>
-        <v>7275.942781855967</v>
+        <f t="shared" si="40"/>
+        <v>11918.000433415766</v>
       </c>
       <c r="CI23" s="24">
-        <f t="shared" si="38"/>
-        <v>7312.3224957652465</v>
+        <f t="shared" ref="CI23:DN23" si="41">CH23*($J$2+1)</f>
+        <v>11977.590435582842</v>
       </c>
       <c r="CJ23" s="24">
-        <f t="shared" si="38"/>
-        <v>7348.8841082440722</v>
+        <f t="shared" si="41"/>
+        <v>12037.478387760755</v>
       </c>
       <c r="CK23" s="24">
-        <f t="shared" si="38"/>
-        <v>7385.6285287852916</v>
+        <f t="shared" si="41"/>
+        <v>12097.665779699557</v>
       </c>
       <c r="CL23" s="24">
-        <f t="shared" si="38"/>
-        <v>7422.5566714292172</v>
+        <f t="shared" si="41"/>
+        <v>12158.154108598053</v>
       </c>
       <c r="CM23" s="24">
-        <f t="shared" si="38"/>
-        <v>7459.6694547863626</v>
+        <f t="shared" si="41"/>
+        <v>12218.944879141043</v>
       </c>
       <c r="CN23" s="24">
-        <f t="shared" si="38"/>
-        <v>7496.9678020602933</v>
+        <f t="shared" si="41"/>
+        <v>12280.039603536747</v>
       </c>
       <c r="CO23" s="24">
-        <f t="shared" si="38"/>
-        <v>7534.4526410705939</v>
+        <f t="shared" si="41"/>
+        <v>12341.439801554428</v>
       </c>
       <c r="CP23" s="24">
-        <f t="shared" si="38"/>
-        <v>7572.1249042759464</v>
+        <f t="shared" si="41"/>
+        <v>12403.1470005622</v>
       </c>
       <c r="CQ23" s="24">
-        <f t="shared" si="38"/>
-        <v>7609.9855287973251</v>
+        <f t="shared" si="41"/>
+        <v>12465.162735565009</v>
       </c>
       <c r="CR23" s="24">
-        <f t="shared" si="38"/>
-        <v>7648.035456441311</v>
+        <f t="shared" si="41"/>
+        <v>12527.488549242833</v>
       </c>
       <c r="CS23" s="24">
-        <f t="shared" si="38"/>
-        <v>7686.2756337235169</v>
+        <f t="shared" si="41"/>
+        <v>12590.125991989045</v>
       </c>
       <c r="CT23" s="24">
-        <f t="shared" si="38"/>
-        <v>7724.7070118921338</v>
+        <f t="shared" si="41"/>
+        <v>12653.076621948989</v>
       </c>
       <c r="CU23" s="24">
-        <f t="shared" si="38"/>
-        <v>7763.3305469515935</v>
+        <f t="shared" si="41"/>
+        <v>12716.342005058732</v>
       </c>
       <c r="CV23" s="24">
-        <f t="shared" si="38"/>
-        <v>7802.1471996863511</v>
+        <f t="shared" si="41"/>
+        <v>12779.923715084024</v>
       </c>
       <c r="CW23" s="24">
-        <f t="shared" si="38"/>
-        <v>7841.1579356847824</v>
+        <f t="shared" si="41"/>
+        <v>12843.823333659442</v>
       </c>
       <c r="CX23" s="24">
-        <f t="shared" si="38"/>
-        <v>7880.363725363205</v>
+        <f t="shared" si="41"/>
+        <v>12908.042450327737</v>
       </c>
       <c r="CY23" s="24">
-        <f t="shared" si="38"/>
-        <v>7919.76554399002</v>
+        <f t="shared" si="41"/>
+        <v>12972.582662579374</v>
       </c>
       <c r="CZ23" s="24">
-        <f t="shared" si="38"/>
-        <v>7959.3643717099694</v>
+        <f t="shared" si="41"/>
+        <v>13037.44557589227</v>
       </c>
       <c r="DA23" s="24">
-        <f t="shared" si="38"/>
-        <v>7999.1611935685187</v>
+        <f t="shared" si="41"/>
+        <v>13102.63280377173</v>
       </c>
       <c r="DB23" s="24">
-        <f t="shared" si="38"/>
-        <v>8039.1569995363607</v>
+        <f t="shared" si="41"/>
+        <v>13168.145967790588</v>
       </c>
       <c r="DC23" s="24">
-        <f t="shared" si="38"/>
-        <v>8079.3527845340413</v>
+        <f t="shared" si="41"/>
+        <v>13233.98669762954</v>
       </c>
       <c r="DD23" s="24">
-        <f t="shared" si="38"/>
-        <v>8119.7495484567107</v>
+        <f t="shared" si="41"/>
+        <v>13300.156631117687</v>
       </c>
       <c r="DE23" s="24">
-        <f t="shared" si="38"/>
-        <v>8160.348296198993</v>
+        <f t="shared" si="41"/>
+        <v>13366.657414273273</v>
       </c>
       <c r="DF23" s="24">
-        <f t="shared" si="38"/>
-        <v>8201.1500376799868</v>
+        <f t="shared" si="41"/>
+        <v>13433.490701344639</v>
       </c>
       <c r="DG23" s="24">
-        <f t="shared" si="38"/>
-        <v>8242.1557878683852</v>
+        <f t="shared" si="41"/>
+        <v>13500.65815485136</v>
       </c>
       <c r="DH23" s="24">
-        <f t="shared" si="38"/>
-        <v>8283.3665668077265</v>
+        <f t="shared" si="41"/>
+        <v>13568.161445625616</v>
       </c>
       <c r="DI23" s="24">
-        <f t="shared" si="38"/>
-        <v>8324.7833996417648</v>
+        <f t="shared" si="41"/>
+        <v>13636.002252853743</v>
       </c>
       <c r="DJ23" s="24">
-        <f t="shared" si="38"/>
-        <v>8366.4073166399721</v>
+        <f t="shared" si="41"/>
+        <v>13704.18226411801</v>
       </c>
       <c r="DK23" s="24">
-        <f t="shared" ref="DK23:EP23" si="39">DJ23*($F$2+1)</f>
-        <v>8408.2393532231708</v>
+        <f t="shared" si="41"/>
+        <v>13772.703175438599</v>
       </c>
       <c r="DL23" s="24">
-        <f t="shared" si="39"/>
-        <v>8450.2805499892856</v>
+        <f t="shared" si="41"/>
+        <v>13841.566691315791</v>
       </c>
       <c r="DM23" s="24">
-        <f t="shared" si="39"/>
-        <v>8492.5319527392312</v>
+        <f t="shared" si="41"/>
+        <v>13910.774524772369</v>
       </c>
       <c r="DN23" s="24">
-        <f t="shared" si="39"/>
-        <v>8534.9946125029273</v>
+        <f t="shared" si="41"/>
+        <v>13980.32839739623</v>
       </c>
       <c r="DO23" s="24">
-        <f t="shared" si="39"/>
-        <v>8577.6695855654416</v>
+        <f t="shared" ref="DO23:ET23" si="42">DN23*($J$2+1)</f>
+        <v>14050.23003938321</v>
       </c>
       <c r="DP23" s="24">
-        <f t="shared" si="39"/>
-        <v>8620.5579334932681</v>
+        <f t="shared" si="42"/>
+        <v>14120.481189580125</v>
       </c>
       <c r="DQ23" s="24">
-        <f t="shared" si="39"/>
-        <v>8663.6607231607341</v>
+        <f t="shared" si="42"/>
+        <v>14191.083595528024</v>
       </c>
       <c r="DR23" s="24">
-        <f t="shared" si="39"/>
-        <v>8706.9790267765366</v>
+        <f t="shared" si="42"/>
+        <v>14262.039013505662</v>
       </c>
       <c r="DS23" s="24">
-        <f t="shared" si="39"/>
-        <v>8750.5139219104185</v>
+        <f t="shared" si="42"/>
+        <v>14333.349208573189</v>
       </c>
       <c r="DT23" s="24">
-        <f t="shared" si="39"/>
-        <v>8794.2664915199693</v>
+        <f t="shared" si="42"/>
+        <v>14405.015954616054</v>
       </c>
       <c r="DU23" s="24">
-        <f t="shared" si="39"/>
-        <v>8838.237823977568</v>
+        <f t="shared" si="42"/>
+        <v>14477.041034389133</v>
       </c>
       <c r="DV23" s="24">
-        <f t="shared" si="39"/>
-        <v>8882.429013097455</v>
+        <f t="shared" si="42"/>
+        <v>14549.426239561077</v>
       </c>
       <c r="DW23" s="24">
-        <f t="shared" si="39"/>
-        <v>8926.8411581629407</v>
+        <f t="shared" si="42"/>
+        <v>14622.173370758881</v>
       </c>
       <c r="DX23" s="24">
-        <f t="shared" si="39"/>
-        <v>8971.4753639537539</v>
+        <f t="shared" si="42"/>
+        <v>14695.284237612674</v>
       </c>
       <c r="DY23" s="24">
-        <f t="shared" si="39"/>
-        <v>9016.3327407735214</v>
+        <f t="shared" si="42"/>
+        <v>14768.760658800735</v>
       </c>
       <c r="DZ23" s="24">
-        <f t="shared" si="39"/>
-        <v>9061.4144044773875</v>
+        <f t="shared" si="42"/>
+        <v>14842.604462094736</v>
       </c>
       <c r="EA23" s="24">
-        <f t="shared" si="39"/>
-        <v>9106.7214764997734</v>
+        <f t="shared" si="42"/>
+        <v>14916.817484405208</v>
       </c>
       <c r="EB23" s="24">
-        <f t="shared" si="39"/>
-        <v>9152.2550838822717</v>
+        <f t="shared" si="42"/>
+        <v>14991.401571827233</v>
       </c>
       <c r="EC23" s="24">
-        <f t="shared" si="39"/>
-        <v>9198.0163593016823</v>
+        <f t="shared" si="42"/>
+        <v>15066.358579686368</v>
       </c>
       <c r="ED23" s="24">
-        <f t="shared" si="39"/>
-        <v>9244.0064410981904</v>
+        <f t="shared" si="42"/>
+        <v>15141.690372584799</v>
       </c>
       <c r="EE23" s="24">
-        <f t="shared" si="39"/>
-        <v>9290.2264733036809</v>
+        <f t="shared" si="42"/>
+        <v>15217.39882444772</v>
       </c>
       <c r="EF23" s="24">
-        <f t="shared" si="39"/>
-        <v>9336.6776056701983</v>
+        <f t="shared" si="42"/>
+        <v>15293.485818569958</v>
       </c>
       <c r="EG23" s="24">
-        <f t="shared" si="39"/>
-        <v>9383.3609936985486</v>
+        <f t="shared" si="42"/>
+        <v>15369.953247662806</v>
       </c>
       <c r="EH23" s="24">
-        <f t="shared" si="39"/>
-        <v>9430.2777986670408</v>
+        <f t="shared" si="42"/>
+        <v>15446.803013901119</v>
       </c>
       <c r="EI23" s="24">
-        <f t="shared" si="39"/>
-        <v>9477.4291876603747</v>
+        <f t="shared" si="42"/>
+        <v>15524.037028970622</v>
       </c>
       <c r="EJ23" s="24">
-        <f t="shared" si="39"/>
-        <v>9524.8163335986756</v>
+        <f t="shared" si="42"/>
+        <v>15601.657214115474</v>
       </c>
       <c r="EK23" s="24">
-        <f t="shared" si="39"/>
-        <v>9572.4404152666684</v>
+        <f t="shared" si="42"/>
+        <v>15679.665500186049</v>
       </c>
       <c r="EL23" s="24">
-        <f t="shared" si="39"/>
-        <v>9620.3026173430007</v>
+        <f t="shared" si="42"/>
+        <v>15758.063827686978</v>
       </c>
       <c r="EM23" s="24">
-        <f t="shared" si="39"/>
-        <v>9668.4041304297152</v>
+        <f t="shared" si="42"/>
+        <v>15836.854146825412</v>
       </c>
       <c r="EN23" s="24">
-        <f t="shared" si="39"/>
-        <v>9716.746151081863</v>
+        <f t="shared" si="42"/>
+        <v>15916.038417559537</v>
       </c>
       <c r="EO23" s="24">
-        <f t="shared" si="39"/>
-        <v>9765.3298818372714</v>
+        <f t="shared" si="42"/>
+        <v>15995.618609647334</v>
       </c>
       <c r="EP23" s="24">
-        <f t="shared" si="39"/>
-        <v>9814.1565312464572</v>
+        <f t="shared" si="42"/>
+        <v>16075.59670269557</v>
       </c>
       <c r="EQ23" s="24">
-        <f t="shared" ref="EQ23:FV23" si="40">EP23*($F$2+1)</f>
-        <v>9863.2273139026893</v>
+        <f t="shared" si="42"/>
+        <v>16155.974686209045</v>
       </c>
       <c r="ER23" s="24">
-        <f t="shared" si="40"/>
-        <v>9912.5434504722016</v>
+        <f t="shared" si="42"/>
+        <v>16236.754559640089</v>
       </c>
       <c r="ES23" s="24">
-        <f t="shared" si="40"/>
-        <v>9962.1061677245616</v>
+        <f t="shared" si="42"/>
+        <v>16317.938332438287</v>
       </c>
       <c r="ET23" s="24">
-        <f t="shared" si="40"/>
-        <v>10011.916698563184</v>
+        <f t="shared" si="42"/>
+        <v>16399.528024100477</v>
       </c>
       <c r="EU23" s="24">
-        <f t="shared" si="40"/>
-        <v>10061.976282055999</v>
+        <f t="shared" ref="EU23:FZ23" si="43">ET23*($J$2+1)</f>
+        <v>16481.525664220979</v>
       </c>
       <c r="EV23" s="24">
-        <f t="shared" si="40"/>
-        <v>10112.286163466279</v>
+        <f t="shared" si="43"/>
+        <v>16563.933292542082</v>
       </c>
       <c r="EW23" s="24">
-        <f t="shared" si="40"/>
-        <v>10162.847594283608</v>
+        <f t="shared" si="43"/>
+        <v>16646.752959004793</v>
       </c>
       <c r="EX23" s="24">
-        <f t="shared" si="40"/>
-        <v>10213.661832255026</v>
+        <f t="shared" si="43"/>
+        <v>16729.986723799815</v>
       </c>
       <c r="EY23" s="24">
-        <f t="shared" si="40"/>
-        <v>10264.730141416299</v>
+        <f t="shared" si="43"/>
+        <v>16813.636657418814</v>
       </c>
       <c r="EZ23" s="24">
-        <f t="shared" si="40"/>
-        <v>10316.053792123379</v>
+        <f t="shared" si="43"/>
+        <v>16897.704840705905</v>
       </c>
       <c r="FA23" s="24">
-        <f t="shared" si="40"/>
-        <v>10367.634061083994</v>
+        <f t="shared" si="43"/>
+        <v>16982.193364909432</v>
       </c>
       <c r="FB23" s="24">
-        <f t="shared" si="40"/>
-        <v>10419.472231389413</v>
+        <f t="shared" si="43"/>
+        <v>17067.104331733975</v>
       </c>
       <c r="FC23" s="24">
-        <f t="shared" si="40"/>
-        <v>10471.569592546359</v>
+        <f t="shared" si="43"/>
+        <v>17152.439853392643</v>
       </c>
       <c r="FD23" s="24">
-        <f t="shared" si="40"/>
-        <v>10523.927440509089</v>
+        <f t="shared" si="43"/>
+        <v>17238.202052659606</v>
       </c>
       <c r="FE23" s="24">
-        <f t="shared" si="40"/>
-        <v>10576.547077711633</v>
+        <f t="shared" si="43"/>
+        <v>17324.393062922903</v>
       </c>
       <c r="FF23" s="24">
-        <f t="shared" si="40"/>
-        <v>10629.429813100191</v>
+        <f t="shared" si="43"/>
+        <v>17411.015028237514</v>
       </c>
       <c r="FG23" s="24">
-        <f t="shared" si="40"/>
-        <v>10682.576962165691</v>
+        <f t="shared" si="43"/>
+        <v>17498.070103378701</v>
       </c>
       <c r="FH23" s="24">
-        <f t="shared" si="40"/>
-        <v>10735.989846976518</v>
+        <f t="shared" si="43"/>
+        <v>17585.560453895592</v>
       </c>
       <c r="FI23" s="24">
-        <f t="shared" si="40"/>
-        <v>10789.669796211399</v>
+        <f t="shared" si="43"/>
+        <v>17673.488256165067</v>
       </c>
       <c r="FJ23" s="24">
-        <f t="shared" si="40"/>
-        <v>10843.618145192455</v>
+        <f t="shared" si="43"/>
+        <v>17761.855697445892</v>
       </c>
       <c r="FK23" s="24">
-        <f t="shared" si="40"/>
-        <v>10897.836235918416</v>
+        <f t="shared" si="43"/>
+        <v>17850.664975933119</v>
       </c>
       <c r="FL23" s="24">
-        <f t="shared" si="40"/>
-        <v>10952.325417098007</v>
+        <f t="shared" si="43"/>
+        <v>17939.918300812784</v>
       </c>
       <c r="FM23" s="24">
-        <f t="shared" si="40"/>
-        <v>11007.087044183496</v>
+        <f t="shared" si="43"/>
+        <v>18029.617892316845</v>
       </c>
       <c r="FN23" s="24">
-        <f t="shared" si="40"/>
-        <v>11062.122479404412</v>
+        <f t="shared" si="43"/>
+        <v>18119.765981778426</v>
       </c>
       <c r="FO23" s="24">
-        <f t="shared" si="40"/>
-        <v>11117.433091801433</v>
+        <f t="shared" si="43"/>
+        <v>18210.364811687316</v>
       </c>
       <c r="FP23" s="24">
-        <f t="shared" si="40"/>
-        <v>11173.020257260439</v>
+        <f t="shared" si="43"/>
+        <v>18301.416635745751</v>
       </c>
       <c r="FQ23" s="24">
-        <f t="shared" si="40"/>
-        <v>11228.88535854674</v>
+        <f t="shared" si="43"/>
+        <v>18392.923718924478</v>
       </c>
       <c r="FR23" s="24">
-        <f t="shared" si="40"/>
-        <v>11285.029785339473</v>
+        <f t="shared" si="43"/>
+        <v>18484.8883375191</v>
       </c>
       <c r="FS23" s="24">
-        <f t="shared" si="40"/>
-        <v>11341.454934266168</v>
+        <f t="shared" si="43"/>
+        <v>18577.312779206692</v>
       </c>
       <c r="FT23" s="24">
-        <f t="shared" si="40"/>
-        <v>11398.162208937498</v>
+        <f t="shared" si="43"/>
+        <v>18670.199343102722</v>
       </c>
       <c r="FU23" s="24">
-        <f t="shared" si="40"/>
-        <v>11455.153019982185</v>
+        <f t="shared" si="43"/>
+        <v>18763.550339818234</v>
       </c>
       <c r="FV23" s="24">
-        <f t="shared" si="40"/>
-        <v>11512.428785082095</v>
+        <f t="shared" si="43"/>
+        <v>18857.368091517325</v>
       </c>
       <c r="FW23" s="24">
-        <f t="shared" ref="FW23:GO23" si="41">FV23*($F$2+1)</f>
-        <v>11569.990929007505</v>
+        <f t="shared" si="43"/>
+        <v>18951.65493197491</v>
       </c>
       <c r="FX23" s="24">
-        <f t="shared" si="41"/>
-        <v>11627.840883652541</v>
+        <f t="shared" si="43"/>
+        <v>19046.413206634781</v>
       </c>
       <c r="FY23" s="24">
-        <f t="shared" si="41"/>
-        <v>11685.980088070803</v>
+        <f t="shared" si="43"/>
+        <v>19141.645272667953</v>
       </c>
       <c r="FZ23" s="24">
-        <f t="shared" si="41"/>
-        <v>11744.409988511155</v>
+        <f t="shared" si="43"/>
+        <v>19237.353499031291</v>
       </c>
       <c r="GA23" s="24">
-        <f t="shared" si="41"/>
-        <v>11803.13203845371</v>
+        <f t="shared" ref="GA23:GS23" si="44">FZ23*($J$2+1)</f>
+        <v>19333.540266526445</v>
       </c>
       <c r="GB23" s="24">
-        <f t="shared" si="41"/>
-        <v>11862.147698645978</v>
+        <f t="shared" si="44"/>
+        <v>19430.207967859074</v>
       </c>
       <c r="GC23" s="24">
-        <f t="shared" si="41"/>
-        <v>11921.458437139207</v>
+        <f t="shared" si="44"/>
+        <v>19527.359007698367</v>
       </c>
       <c r="GD23" s="24">
-        <f t="shared" si="41"/>
-        <v>11981.065729324901</v>
+        <f t="shared" si="44"/>
+        <v>19624.995802736856</v>
       </c>
       <c r="GE23" s="24">
-        <f t="shared" si="41"/>
-        <v>12040.971057971523</v>
+        <f t="shared" si="44"/>
+        <v>19723.120781750538</v>
       </c>
       <c r="GF23" s="24">
-        <f t="shared" si="41"/>
-        <v>12101.175913261379</v>
+        <f t="shared" si="44"/>
+        <v>19821.736385659289</v>
       </c>
       <c r="GG23" s="24">
-        <f t="shared" si="41"/>
-        <v>12161.681792827685</v>
+        <f t="shared" si="44"/>
+        <v>19920.845067587583</v>
       </c>
       <c r="GH23" s="24">
-        <f t="shared" si="41"/>
-        <v>12222.490201791823</v>
+        <f t="shared" si="44"/>
+        <v>20020.449292925518</v>
       </c>
       <c r="GI23" s="24">
-        <f t="shared" si="41"/>
-        <v>12283.602652800781</v>
+        <f t="shared" si="44"/>
+        <v>20120.551539390144</v>
       </c>
       <c r="GJ23" s="24">
-        <f t="shared" si="41"/>
-        <v>12345.020666064784</v>
+        <f t="shared" si="44"/>
+        <v>20221.154297087094</v>
       </c>
       <c r="GK23" s="24">
-        <f t="shared" si="41"/>
-        <v>12406.745769395106</v>
+        <f t="shared" si="44"/>
+        <v>20322.260068572527</v>
       </c>
       <c r="GL23" s="24">
-        <f t="shared" si="41"/>
-        <v>12468.77949824208</v>
+        <f t="shared" si="44"/>
+        <v>20423.871368915388</v>
       </c>
       <c r="GM23" s="24">
-        <f t="shared" si="41"/>
-        <v>12531.12339573329</v>
+        <f t="shared" si="44"/>
+        <v>20525.990725759963</v>
       </c>
       <c r="GN23" s="24">
-        <f t="shared" si="41"/>
-        <v>12593.779012711955</v>
+        <f t="shared" si="44"/>
+        <v>20628.620679388761</v>
       </c>
       <c r="GO23" s="24">
-        <f t="shared" si="41"/>
-        <v>12656.747907775514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:197" x14ac:dyDescent="0.15">
+        <f t="shared" si="44"/>
+        <v>20731.763782785703</v>
+      </c>
+      <c r="GP23" s="24">
+        <f t="shared" si="44"/>
+        <v>20835.422601699629</v>
+      </c>
+      <c r="GQ23" s="24">
+        <f t="shared" si="44"/>
+        <v>20939.599714708125</v>
+      </c>
+      <c r="GR23" s="24">
+        <f t="shared" si="44"/>
+        <v>21044.297713281663</v>
+      </c>
+      <c r="GS23" s="24">
+        <f t="shared" si="44"/>
+        <v>21149.51920184807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28">
-        <f t="shared" ref="B24:D24" si="42">B23/B25</f>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="28">
+        <f t="shared" ref="F24:H24" si="45">F23/F25</f>
         <v>-1.0661335572421149</v>
       </c>
-      <c r="C24" s="28">
-        <f t="shared" si="42"/>
+      <c r="G24" s="28">
+        <f t="shared" si="45"/>
         <v>-1.0049560578492847</v>
       </c>
-      <c r="D24" s="48">
-        <f t="shared" si="42"/>
+      <c r="H24" s="47">
+        <f t="shared" si="45"/>
         <v>-0.78635664925397808</v>
       </c>
-      <c r="E24" s="48">
-        <f t="shared" ref="E24" si="43">E23/E25</f>
+      <c r="I24" s="47">
+        <f t="shared" ref="I24" si="46">I23/I25</f>
         <v>-0.48994798517245447</v>
       </c>
-      <c r="F24" s="48">
-        <f t="shared" ref="F24:M24" si="44">F23/F25</f>
+      <c r="J24" s="47">
+        <f t="shared" ref="J24:Q24" si="47">J23/J25</f>
         <v>-9.2930672178618539E-3</v>
       </c>
-      <c r="G24" s="48">
-        <f t="shared" si="44"/>
+      <c r="K24" s="47">
+        <f t="shared" si="47"/>
         <v>0.66190992933488801</v>
       </c>
-      <c r="H24" s="48">
-        <f t="shared" si="44"/>
+      <c r="L24" s="47">
+        <f t="shared" si="47"/>
         <v>1.6696745990279191</v>
       </c>
-      <c r="I24" s="48">
-        <f t="shared" si="44"/>
-        <v>2.1163126620478212</v>
-      </c>
-      <c r="J24" s="48">
-        <f t="shared" si="44"/>
-        <v>2.6103234748038888</v>
-      </c>
-      <c r="K24" s="48">
-        <f t="shared" si="44"/>
-        <v>3.156674106310208</v>
-      </c>
-      <c r="L24" s="48">
-        <f t="shared" si="44"/>
-        <v>3.760835574639338</v>
-      </c>
-      <c r="M24" s="48">
-        <f t="shared" si="44"/>
-        <v>4.4288336463959794</v>
-      </c>
-      <c r="N24" s="48">
-        <f t="shared" ref="N24:R24" si="45">N23/N25</f>
-        <v>5.1673047347523502</v>
-      </c>
-      <c r="O24" s="48">
-        <f t="shared" si="45"/>
-        <v>5.9835574068507089</v>
-      </c>
-      <c r="P24" s="48">
-        <f t="shared" si="45"/>
-        <v>6.8856400625057557</v>
-      </c>
-      <c r="Q24" s="48">
-        <f t="shared" si="45"/>
-        <v>7.8824154023822448</v>
-      </c>
-      <c r="R24" s="48">
-        <f t="shared" si="45"/>
-        <v>8.9836423656921767</v>
-      </c>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
+      <c r="M24" s="47">
+        <f t="shared" si="47"/>
+        <v>2.4568066778939506</v>
+      </c>
+      <c r="N24" s="47">
+        <f t="shared" si="47"/>
+        <v>3.4209552139812058</v>
+      </c>
+      <c r="O24" s="47">
+        <f t="shared" si="47"/>
+        <v>4.5986445781157776</v>
+      </c>
+      <c r="P24" s="47">
+        <f t="shared" si="47"/>
+        <v>6.0337586809695054</v>
+      </c>
+      <c r="Q24" s="47">
+        <f t="shared" si="47"/>
+        <v>7.7790156680575606</v>
+      </c>
+      <c r="R24" s="47">
+        <f t="shared" ref="R24:V24" si="48">R23/R25</f>
+        <v>8.954564240970841</v>
+      </c>
+      <c r="S24" s="47">
+        <f t="shared" si="48"/>
+        <v>10.252428916348819</v>
+      </c>
+      <c r="T24" s="47">
+        <f t="shared" si="48"/>
+        <v>11.685146633679599</v>
+      </c>
+      <c r="U24" s="47">
+        <f t="shared" si="48"/>
+        <v>13.266517714730364</v>
+      </c>
+      <c r="V24" s="47">
+        <f t="shared" si="48"/>
+        <v>15.011732721564172</v>
+      </c>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
@@ -4219,81 +4355,85 @@
       <c r="DH24" s="38"/>
       <c r="DI24" s="38"/>
       <c r="DJ24" s="38"/>
-    </row>
-    <row r="25" spans="1:197" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="DK24" s="38"/>
+      <c r="DL24" s="38"/>
+      <c r="DM24" s="38"/>
+      <c r="DN24" s="38"/>
+    </row>
+    <row r="25" spans="1:201" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23">
         <v>544.01439300000004</v>
       </c>
-      <c r="C25" s="23">
+      <c r="G25" s="23">
         <v>576.95856000000003</v>
       </c>
-      <c r="D25" s="23">
-        <f t="shared" ref="D25" si="46">C25</f>
+      <c r="H25" s="23">
+        <f t="shared" ref="H25" si="49">G25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="E25" s="23">
-        <f t="shared" ref="E25" si="47">D25</f>
+      <c r="I25" s="23">
+        <f t="shared" ref="I25" si="50">H25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="F25" s="23">
-        <f t="shared" ref="F25" si="48">E25</f>
+      <c r="J25" s="23">
+        <f t="shared" ref="J25" si="51">I25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="G25" s="23">
-        <f t="shared" ref="G25" si="49">F25</f>
+      <c r="K25" s="23">
+        <f t="shared" ref="K25" si="52">J25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="H25" s="23">
-        <f t="shared" ref="H25" si="50">G25</f>
+      <c r="L25" s="23">
+        <f t="shared" ref="L25" si="53">K25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="I25" s="23">
-        <f t="shared" ref="I25" si="51">H25</f>
+      <c r="M25" s="23">
+        <f t="shared" ref="M25" si="54">L25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="J25" s="23">
-        <f t="shared" ref="J25" si="52">I25</f>
+      <c r="N25" s="23">
+        <f t="shared" ref="N25" si="55">M25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="K25" s="23">
-        <f t="shared" ref="K25" si="53">J25</f>
+      <c r="O25" s="23">
+        <f t="shared" ref="O25" si="56">N25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="L25" s="23">
-        <f t="shared" ref="L25" si="54">K25</f>
+      <c r="P25" s="23">
+        <f t="shared" ref="P25" si="57">O25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="M25" s="23">
-        <f t="shared" ref="M25:R25" si="55">L25</f>
+      <c r="Q25" s="23">
+        <f t="shared" ref="Q25:V25" si="58">P25</f>
         <v>576.95856000000003</v>
       </c>
-      <c r="N25" s="23">
-        <f t="shared" si="55"/>
+      <c r="R25" s="23">
+        <f t="shared" si="58"/>
         <v>576.95856000000003</v>
       </c>
-      <c r="O25" s="23">
-        <f t="shared" si="55"/>
+      <c r="S25" s="23">
+        <f t="shared" si="58"/>
         <v>576.95856000000003</v>
       </c>
-      <c r="P25" s="23">
-        <f t="shared" si="55"/>
+      <c r="T25" s="23">
+        <f t="shared" si="58"/>
         <v>576.95856000000003</v>
       </c>
-      <c r="Q25" s="23">
-        <f t="shared" si="55"/>
+      <c r="U25" s="23">
+        <f t="shared" si="58"/>
         <v>576.95856000000003</v>
       </c>
-      <c r="R25" s="23">
-        <f t="shared" si="55"/>
+      <c r="V25" s="23">
+        <f t="shared" si="58"/>
         <v>576.95856000000003</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
@@ -4386,8 +4526,12 @@
       <c r="DH25" s="37"/>
       <c r="DI25" s="37"/>
       <c r="DJ25" s="37"/>
-    </row>
-    <row r="26" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK25" s="37"/>
+      <c r="DL25" s="37"/>
+      <c r="DM25" s="37"/>
+      <c r="DN25" s="37"/>
+    </row>
+    <row r="26" spans="1:201" x14ac:dyDescent="0.15">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -4405,10 +4549,10 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
@@ -4501,83 +4645,87 @@
       <c r="DH26" s="38"/>
       <c r="DI26" s="38"/>
       <c r="DJ26" s="38"/>
-    </row>
-    <row r="27" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK26" s="38"/>
+      <c r="DL26" s="38"/>
+      <c r="DM26" s="38"/>
+      <c r="DN26" s="38"/>
+    </row>
+    <row r="27" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="33">
-        <f>IFERROR(B14/B12,0)</f>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33">
+        <f>IFERROR(F14/F12,0)</f>
         <v>0.72220608019025578</v>
       </c>
-      <c r="C27" s="33">
-        <f t="shared" ref="C27:M27" si="56">IFERROR(C14/C12,0)</f>
+      <c r="G27" s="33">
+        <f t="shared" ref="G27:Q27" si="59">IFERROR(G14/G12,0)</f>
         <v>0.67359589525355024</v>
       </c>
-      <c r="D27" s="33">
-        <f t="shared" si="56"/>
+      <c r="H27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="E27" s="33">
-        <f>IFERROR(E14/E12,0)</f>
+      <c r="I27" s="33">
+        <f>IFERROR(I14/I12,0)</f>
         <v>0.67359589525355024</v>
       </c>
-      <c r="F27" s="33">
-        <f t="shared" si="56"/>
+      <c r="J27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="G27" s="33">
-        <f t="shared" si="56"/>
+      <c r="K27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="H27" s="33">
-        <f t="shared" si="56"/>
+      <c r="L27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="I27" s="33">
-        <f t="shared" si="56"/>
+      <c r="M27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="J27" s="33">
-        <f t="shared" si="56"/>
+      <c r="N27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="K27" s="33">
-        <f t="shared" si="56"/>
+      <c r="O27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="L27" s="33">
-        <f t="shared" si="56"/>
+      <c r="P27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="M27" s="33">
-        <f t="shared" si="56"/>
+      <c r="Q27" s="33">
+        <f t="shared" si="59"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="N27" s="33">
-        <f t="shared" ref="N27:R27" si="57">IFERROR(N14/N12,0)</f>
+      <c r="R27" s="33">
+        <f t="shared" ref="R27:V27" si="60">IFERROR(R14/R12,0)</f>
         <v>0.67359589525355024</v>
       </c>
-      <c r="O27" s="33">
-        <f t="shared" si="57"/>
+      <c r="S27" s="33">
+        <f t="shared" si="60"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="P27" s="33">
-        <f t="shared" si="57"/>
+      <c r="T27" s="33">
+        <f t="shared" si="60"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="Q27" s="33">
-        <f t="shared" si="57"/>
+      <c r="U27" s="33">
+        <f t="shared" si="60"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="R27" s="33">
-        <f t="shared" si="57"/>
+      <c r="V27" s="33">
+        <f t="shared" si="60"/>
         <v>0.67359589525355024</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
@@ -4670,83 +4818,87 @@
       <c r="DH27" s="38"/>
       <c r="DI27" s="38"/>
       <c r="DJ27" s="38"/>
-    </row>
-    <row r="28" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK27" s="38"/>
+      <c r="DL27" s="38"/>
+      <c r="DM27" s="38"/>
+      <c r="DN27" s="38"/>
+    </row>
+    <row r="28" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="35">
-        <f>IFERROR(B19/B12,0)</f>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35">
+        <f>IFERROR(F19/F12,0)</f>
         <v>-1.0463261388390166</v>
       </c>
-      <c r="C28" s="35">
-        <f t="shared" ref="C28:M28" si="58">IFERROR(C19/C12,0)</f>
+      <c r="G28" s="35">
+        <f t="shared" ref="G28:Q28" si="61">IFERROR(G19/G12,0)</f>
         <v>-0.77680171839123036</v>
       </c>
-      <c r="D28" s="35">
-        <f>IFERROR(D19/D12,0)</f>
+      <c r="H28" s="35">
+        <f>IFERROR(H19/H12,0)</f>
         <v>-0.45056325794048963</v>
       </c>
-      <c r="E28" s="35">
-        <f t="shared" si="58"/>
+      <c r="I28" s="35">
+        <f t="shared" si="61"/>
         <v>-0.19809278196805102</v>
       </c>
-      <c r="F28" s="35">
-        <f t="shared" si="58"/>
+      <c r="J28" s="35">
+        <f t="shared" si="61"/>
         <v>-2.6179294902779456E-3</v>
       </c>
-      <c r="G28" s="35">
-        <f t="shared" si="58"/>
+      <c r="K28" s="35">
+        <f t="shared" si="61"/>
         <v>0.14879834918825754</v>
       </c>
-      <c r="H28" s="35">
-        <f t="shared" si="58"/>
+      <c r="L28" s="35">
+        <f t="shared" si="61"/>
         <v>0.26613995337732094</v>
       </c>
-      <c r="I28" s="35">
-        <f t="shared" si="58"/>
-        <v>0.30273694917231092</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="58"/>
-        <v>0.33569848830415561</v>
-      </c>
-      <c r="K28" s="35">
-        <f t="shared" si="58"/>
-        <v>0.36540494136891982</v>
-      </c>
-      <c r="L28" s="35">
-        <f t="shared" si="58"/>
-        <v>0.39219592147383719</v>
-      </c>
       <c r="M28" s="35">
-        <f t="shared" si="58"/>
-        <v>0.41637469698676149</v>
+        <f t="shared" si="61"/>
+        <v>0.32305605540131305</v>
       </c>
       <c r="N28" s="35">
-        <f t="shared" ref="N28:R28" si="59">IFERROR(N19/N12,0)</f>
-        <v>0.43821212441849677</v>
+        <f t="shared" si="61"/>
+        <v>0.37176055796923768</v>
       </c>
       <c r="O28" s="35">
-        <f t="shared" si="59"/>
-        <v>0.45795015371789016</v>
+        <f t="shared" si="61"/>
+        <v>0.41348104357533277</v>
       </c>
       <c r="P28" s="35">
-        <f t="shared" si="59"/>
-        <v>0.47580495255945188</v>
+        <f t="shared" si="61"/>
+        <v>0.44925477259898072</v>
       </c>
       <c r="Q28" s="35">
-        <f t="shared" si="59"/>
-        <v>0.49196969112485001</v>
+        <f t="shared" si="61"/>
+        <v>0.47995923385796291</v>
       </c>
       <c r="R28" s="35">
-        <f t="shared" si="59"/>
-        <v>0.5066170243550705</v>
-      </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
+        <f t="shared" ref="R28:V28" si="62">IFERROR(R19/R12,0)</f>
+        <v>0.49705549106617758</v>
+      </c>
+      <c r="S28" s="35">
+        <f t="shared" si="62"/>
+        <v>0.51246978122516695</v>
+      </c>
+      <c r="T28" s="35">
+        <f t="shared" si="62"/>
+        <v>0.5263772698679523</v>
+      </c>
+      <c r="U28" s="35">
+        <f t="shared" si="62"/>
+        <v>0.5389343918231092</v>
+      </c>
+      <c r="V28" s="35">
+        <f t="shared" si="62"/>
+        <v>0.5502808773705794</v>
+      </c>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
@@ -4839,83 +4991,87 @@
       <c r="DH28" s="38"/>
       <c r="DI28" s="38"/>
       <c r="DJ28" s="38"/>
-    </row>
-    <row r="29" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK28" s="38"/>
+      <c r="DL28" s="38"/>
+      <c r="DM28" s="38"/>
+      <c r="DN28" s="38"/>
+    </row>
+    <row r="29" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="35">
-        <f>IFERROR(B22/B21,0)</f>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <f>IFERROR(F22/F21,0)</f>
         <v>-1.5762042200240984E-2</v>
       </c>
-      <c r="C29" s="35">
-        <f t="shared" ref="C29:M29" si="60">IFERROR(C22/C21,0)</f>
+      <c r="G29" s="35">
+        <f t="shared" ref="G29:Q29" si="63">IFERROR(G22/G21,0)</f>
         <v>-2.113353222335326E-2</v>
       </c>
-      <c r="D29" s="35">
-        <f t="shared" si="60"/>
+      <c r="H29" s="35">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="E29" s="35">
-        <f t="shared" si="60"/>
+      <c r="I29" s="35">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="F29" s="35">
-        <f t="shared" si="60"/>
+      <c r="J29" s="35">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="G29" s="35">
-        <f t="shared" si="60"/>
+      <c r="K29" s="35">
+        <f t="shared" si="63"/>
         <v>0.1</v>
       </c>
-      <c r="H29" s="35">
-        <f t="shared" si="60"/>
+      <c r="L29" s="35">
+        <f t="shared" si="63"/>
         <v>0.1</v>
       </c>
-      <c r="I29" s="35">
-        <f t="shared" si="60"/>
+      <c r="M29" s="35">
+        <f t="shared" si="63"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="63"/>
         <v>0.1</v>
       </c>
-      <c r="J29" s="35">
-        <f t="shared" si="60"/>
+      <c r="O29" s="35">
+        <f t="shared" si="63"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="63"/>
         <v>0.1</v>
       </c>
-      <c r="K29" s="35">
-        <f t="shared" si="60"/>
+      <c r="Q29" s="35">
+        <f t="shared" si="63"/>
         <v>0.1</v>
       </c>
-      <c r="L29" s="35">
-        <f t="shared" si="60"/>
+      <c r="R29" s="35">
+        <f t="shared" ref="R29:V29" si="64">IFERROR(R22/R21,0)</f>
         <v>0.1</v>
       </c>
-      <c r="M29" s="35">
-        <f t="shared" si="60"/>
+      <c r="S29" s="35">
+        <f t="shared" si="64"/>
         <v>0.1</v>
       </c>
-      <c r="N29" s="35">
-        <f t="shared" ref="N29:R29" si="61">IFERROR(N22/N21,0)</f>
+      <c r="T29" s="35">
+        <f t="shared" si="64"/>
         <v>0.1</v>
       </c>
-      <c r="O29" s="35">
-        <f t="shared" si="61"/>
+      <c r="U29" s="35">
+        <f t="shared" si="64"/>
         <v>0.1</v>
       </c>
-      <c r="P29" s="35">
-        <f t="shared" si="61"/>
+      <c r="V29" s="35">
+        <f t="shared" si="64"/>
         <v>0.1</v>
       </c>
-      <c r="Q29" s="35">
-        <f t="shared" si="61"/>
-        <v>0.1</v>
-      </c>
-      <c r="R29" s="35">
-        <f t="shared" si="61"/>
-        <v>0.1</v>
-      </c>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
@@ -5008,15 +5164,21 @@
       <c r="DH29" s="38"/>
       <c r="DI29" s="38"/>
       <c r="DJ29" s="38"/>
-    </row>
-    <row r="30" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK29" s="38"/>
+      <c r="DL29" s="38"/>
+      <c r="DM29" s="38"/>
+      <c r="DN29" s="38"/>
+    </row>
+    <row r="30" spans="1:201" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="H30" s="35">
+        <v>0.44</v>
+      </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
@@ -5027,10 +5189,10 @@
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
@@ -5123,80 +5285,96 @@
       <c r="DH30" s="38"/>
       <c r="DI30" s="38"/>
       <c r="DJ30" s="38"/>
-    </row>
-    <row r="31" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK30" s="38"/>
+      <c r="DL30" s="38"/>
+      <c r="DM30" s="38"/>
+      <c r="DN30" s="38"/>
+    </row>
+    <row r="31" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49">
+      <c r="B31" s="35"/>
+      <c r="C31" s="48">
         <f>C12/B12-1</f>
+        <v>0.54893617021276597</v>
+      </c>
+      <c r="D31" s="48">
+        <f>D12/C12-1</f>
+        <v>0.28021978021978011</v>
+      </c>
+      <c r="E31" s="48">
+        <f>E12/D12-1</f>
+        <v>0.10515021459227469</v>
+      </c>
+      <c r="F31" s="48">
+        <f>F12/E12-1</f>
+        <v>0.15613398058252415</v>
+      </c>
+      <c r="G31" s="48">
+        <f>G12/F12-1</f>
         <v>0.24713432279323944</v>
       </c>
-      <c r="D31" s="49">
-        <f t="shared" ref="D31:R31" si="62">D12/C12-1</f>
+      <c r="H31" s="48">
+        <f t="shared" ref="H31:V31" si="65">H12/G12-1</f>
         <v>0.39999999999999969</v>
       </c>
-      <c r="E31" s="49">
-        <f t="shared" si="62"/>
+      <c r="I31" s="48">
+        <f t="shared" si="65"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="F31" s="49">
-        <f t="shared" si="62"/>
+      <c r="J31" s="48">
+        <f t="shared" si="65"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="G31" s="49">
-        <f t="shared" si="62"/>
+      <c r="K31" s="48">
+        <f t="shared" si="65"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="H31" s="49">
-        <f t="shared" si="62"/>
+      <c r="L31" s="48">
+        <f t="shared" si="65"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I31" s="49">
-        <f t="shared" si="62"/>
+      <c r="M31" s="48">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="N31" s="48">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O31" s="48">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="P31" s="48">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Q31" s="48">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="R31" s="48">
+        <f t="shared" si="65"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J31" s="49">
-        <f t="shared" si="62"/>
+      <c r="S31" s="48">
+        <f t="shared" si="65"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K31" s="49">
-        <f t="shared" si="62"/>
+      <c r="T31" s="48">
+        <f t="shared" si="65"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L31" s="49">
-        <f t="shared" si="62"/>
+      <c r="U31" s="48">
+        <f t="shared" si="65"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M31" s="49">
-        <f t="shared" si="62"/>
+      <c r="V31" s="48">
+        <f t="shared" si="65"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N31" s="49">
-        <f t="shared" si="62"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O31" s="49">
-        <f t="shared" si="62"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="P31" s="49">
-        <f t="shared" si="62"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Q31" s="49">
-        <f t="shared" si="62"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="R31" s="49">
-        <f t="shared" si="62"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
@@ -5289,80 +5467,84 @@
       <c r="DH31" s="38"/>
       <c r="DI31" s="38"/>
       <c r="DJ31" s="38"/>
-    </row>
-    <row r="32" spans="1:197" x14ac:dyDescent="0.15">
+      <c r="DK31" s="38"/>
+      <c r="DL31" s="38"/>
+      <c r="DM31" s="38"/>
+      <c r="DN31" s="38"/>
+    </row>
+    <row r="32" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="35"/>
-      <c r="C32" s="35">
-        <f t="shared" ref="C32:R32" si="63">C15/B15-1</f>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
+        <f t="shared" ref="G32:V32" si="66">G15/F15-1</f>
         <v>7.3684210526315796E-2</v>
       </c>
-      <c r="D32" s="35">
-        <f t="shared" si="63"/>
+      <c r="H32" s="35">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="E32" s="35">
-        <f t="shared" si="63"/>
+      <c r="I32" s="35">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F32" s="35">
-        <f t="shared" si="63"/>
+      <c r="J32" s="35">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="G32" s="35">
-        <f t="shared" si="63"/>
+      <c r="K32" s="35">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H32" s="35">
-        <f t="shared" si="63"/>
+      <c r="L32" s="35">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="I32" s="35">
-        <f t="shared" si="63"/>
+      <c r="M32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J32" s="35">
-        <f t="shared" si="63"/>
+      <c r="N32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="K32" s="35">
-        <f t="shared" si="63"/>
+      <c r="O32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="L32" s="35">
-        <f t="shared" si="63"/>
+      <c r="P32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M32" s="35">
-        <f t="shared" si="63"/>
+      <c r="Q32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N32" s="35">
-        <f t="shared" si="63"/>
+      <c r="R32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O32" s="35">
-        <f t="shared" si="63"/>
+      <c r="S32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P32" s="35">
-        <f t="shared" si="63"/>
+      <c r="T32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q32" s="35">
-        <f t="shared" si="63"/>
+      <c r="U32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R32" s="35">
-        <f t="shared" si="63"/>
+      <c r="V32" s="35">
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
@@ -5455,80 +5637,84 @@
       <c r="DH32" s="38"/>
       <c r="DI32" s="38"/>
       <c r="DJ32" s="38"/>
-    </row>
-    <row r="33" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK32" s="38"/>
+      <c r="DL32" s="38"/>
+      <c r="DM32" s="38"/>
+      <c r="DN32" s="38"/>
+    </row>
+    <row r="33" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="35"/>
-      <c r="C33" s="35">
-        <f t="shared" ref="C33:R33" si="64">C16/B16-1</f>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35">
+        <f t="shared" ref="G33:V33" si="67">G16/F16-1</f>
         <v>-2.5974025974025983E-2</v>
       </c>
-      <c r="D33" s="35">
-        <f t="shared" si="64"/>
+      <c r="H33" s="35">
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="E33" s="35">
-        <f t="shared" si="64"/>
+      <c r="I33" s="35">
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="F33" s="35">
-        <f t="shared" si="64"/>
+      <c r="J33" s="35">
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="G33" s="35">
-        <f t="shared" si="64"/>
+      <c r="K33" s="35">
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H33" s="35">
-        <f t="shared" si="64"/>
+      <c r="L33" s="35">
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="I33" s="35">
-        <f t="shared" si="64"/>
+      <c r="M33" s="35">
+        <f t="shared" si="67"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="N33" s="35">
+        <f t="shared" si="67"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="O33" s="35">
+        <f t="shared" si="67"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P33" s="35">
+        <f t="shared" si="67"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q33" s="35">
+        <f t="shared" si="67"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="R33" s="35">
+        <f t="shared" si="67"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="J33" s="35">
-        <f t="shared" si="64"/>
+      <c r="S33" s="35">
+        <f t="shared" si="67"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="K33" s="35">
-        <f t="shared" si="64"/>
+      <c r="T33" s="35">
+        <f t="shared" si="67"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="U33" s="35">
+        <f t="shared" si="67"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="L33" s="35">
-        <f t="shared" si="64"/>
+      <c r="V33" s="35">
+        <f t="shared" si="67"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M33" s="35">
-        <f t="shared" si="64"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="N33" s="35">
-        <f t="shared" si="64"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="O33" s="35">
-        <f t="shared" si="64"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="P33" s="35">
-        <f t="shared" si="64"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="Q33" s="35">
-        <f t="shared" si="64"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="R33" s="35">
-        <f t="shared" si="64"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
@@ -5621,80 +5807,84 @@
       <c r="DH33" s="38"/>
       <c r="DI33" s="38"/>
       <c r="DJ33" s="38"/>
-    </row>
-    <row r="34" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK33" s="38"/>
+      <c r="DL33" s="38"/>
+      <c r="DM33" s="38"/>
+      <c r="DN33" s="38"/>
+    </row>
+    <row r="34" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="35"/>
-      <c r="C34" s="35">
-        <f t="shared" ref="C34:R34" si="65">C17/B17-1</f>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35">
+        <f t="shared" ref="G34:V34" si="68">G17/F17-1</f>
         <v>4.9019607843137303E-2</v>
       </c>
-      <c r="D34" s="35">
-        <f t="shared" si="65"/>
+      <c r="H34" s="35">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="E34" s="35">
-        <f t="shared" si="65"/>
+      <c r="I34" s="35">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F34" s="35">
-        <f t="shared" si="65"/>
+      <c r="J34" s="35">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="G34" s="35">
-        <f t="shared" si="65"/>
+      <c r="K34" s="35">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="H34" s="35">
-        <f t="shared" si="65"/>
+      <c r="L34" s="35">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="I34" s="35">
-        <f t="shared" si="65"/>
+      <c r="M34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="J34" s="35">
-        <f t="shared" si="65"/>
+      <c r="N34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="K34" s="35">
-        <f t="shared" si="65"/>
+      <c r="O34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="L34" s="35">
-        <f t="shared" si="65"/>
+      <c r="P34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M34" s="35">
-        <f t="shared" si="65"/>
+      <c r="Q34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N34" s="35">
-        <f t="shared" si="65"/>
+      <c r="R34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="O34" s="35">
-        <f t="shared" si="65"/>
+      <c r="S34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P34" s="35">
-        <f t="shared" si="65"/>
+      <c r="T34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="Q34" s="35">
-        <f t="shared" si="65"/>
+      <c r="U34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000129E-2</v>
       </c>
-      <c r="R34" s="35">
-        <f t="shared" si="65"/>
+      <c r="V34" s="35">
+        <f t="shared" si="68"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
       <c r="Y34" s="38"/>
@@ -5787,80 +5977,84 @@
       <c r="DH34" s="38"/>
       <c r="DI34" s="38"/>
       <c r="DJ34" s="38"/>
-    </row>
-    <row r="35" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK34" s="38"/>
+      <c r="DL34" s="38"/>
+      <c r="DM34" s="38"/>
+      <c r="DN34" s="38"/>
+    </row>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="44"/>
-      <c r="C35" s="44">
-        <f t="shared" ref="C35:R35" si="66">C18/B18-1</f>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44">
+        <f t="shared" ref="G35:V35" si="69">G18/F18-1</f>
         <v>2.2792022792022859E-2</v>
       </c>
-      <c r="D35" s="44">
-        <f t="shared" si="66"/>
+      <c r="H35" s="44">
+        <f t="shared" si="69"/>
         <v>8.5097493036211835E-2</v>
       </c>
-      <c r="E35" s="44">
-        <f t="shared" si="66"/>
+      <c r="I35" s="44">
+        <f t="shared" si="69"/>
         <v>8.5579514824797975E-2</v>
       </c>
-      <c r="F35" s="44">
-        <f t="shared" si="66"/>
+      <c r="J35" s="44">
+        <f t="shared" si="69"/>
         <v>8.6052141527001691E-2</v>
       </c>
-      <c r="G35" s="44">
-        <f t="shared" si="66"/>
+      <c r="K35" s="44">
+        <f t="shared" si="69"/>
         <v>8.6515148917199802E-2</v>
       </c>
-      <c r="H35" s="44">
-        <f t="shared" si="66"/>
+      <c r="L35" s="44">
+        <f t="shared" si="69"/>
         <v>8.6968342179995606E-2</v>
       </c>
-      <c r="I35" s="44">
-        <f>I18/H18-1</f>
-        <v>1.1998814175655514E-3</v>
-      </c>
-      <c r="J35" s="44">
-        <f t="shared" si="66"/>
-        <v>2.2331982869663314E-3</v>
-      </c>
-      <c r="K35" s="44">
-        <f t="shared" si="66"/>
-        <v>3.2928406694328061E-3</v>
-      </c>
-      <c r="L35" s="44">
-        <f t="shared" si="66"/>
-        <v>4.377212426419641E-3</v>
-      </c>
       <c r="M35" s="44">
-        <f t="shared" si="66"/>
-        <v>5.4845218818777575E-3</v>
+        <f>M18/L18-1</f>
+        <v>3.2376177619867885E-2</v>
       </c>
       <c r="N35" s="44">
-        <f t="shared" si="66"/>
-        <v>6.6127895493504063E-3</v>
+        <f t="shared" si="69"/>
+        <v>3.3270297874997246E-2</v>
       </c>
       <c r="O35" s="44">
-        <f t="shared" si="66"/>
-        <v>7.7598589218483838E-3</v>
+        <f t="shared" si="69"/>
+        <v>3.4132798439846068E-2</v>
       </c>
       <c r="P35" s="44">
-        <f t="shared" si="66"/>
-        <v>8.9234102845934249E-3</v>
+        <f t="shared" si="69"/>
+        <v>3.4963384245804585E-2</v>
       </c>
       <c r="Q35" s="44">
-        <f t="shared" si="66"/>
-        <v>1.0100977427272229E-2</v>
+        <f t="shared" si="69"/>
+        <v>3.5761927751821077E-2</v>
       </c>
       <c r="R35" s="44">
-        <f t="shared" si="66"/>
-        <v>1.1289967047786176E-2</v>
-      </c>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
+        <f t="shared" si="69"/>
+        <v>2.8805661412594219E-3</v>
+      </c>
+      <c r="S35" s="44">
+        <f t="shared" si="69"/>
+        <v>3.9555887903590659E-3</v>
+      </c>
+      <c r="T35" s="44">
+        <f t="shared" si="69"/>
+        <v>5.0542638645834082E-3</v>
+      </c>
+      <c r="U35" s="44">
+        <f t="shared" si="69"/>
+        <v>6.1746833018332392E-3</v>
+      </c>
+      <c r="V35" s="44">
+        <f t="shared" si="69"/>
+        <v>7.3147574899581347E-3</v>
+      </c>
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
@@ -5953,8 +6147,12 @@
       <c r="DH35" s="38"/>
       <c r="DI35" s="38"/>
       <c r="DJ35" s="38"/>
-    </row>
-    <row r="36" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK35" s="38"/>
+      <c r="DL35" s="38"/>
+      <c r="DM35" s="38"/>
+      <c r="DN35" s="38"/>
+    </row>
+    <row r="36" spans="1:118" x14ac:dyDescent="0.15">
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
@@ -5972,10 +6170,10 @@
       <c r="P36" s="44"/>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
@@ -6068,83 +6266,87 @@
       <c r="DH36" s="38"/>
       <c r="DI36" s="38"/>
       <c r="DJ36" s="38"/>
-    </row>
-    <row r="37" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK36" s="38"/>
+      <c r="DL36" s="38"/>
+      <c r="DM36" s="38"/>
+      <c r="DN36" s="38"/>
+    </row>
+    <row r="37" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="24">
-        <f>B38-B39</f>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="24">
+        <f>F38-F39</f>
         <v>1126</v>
       </c>
-      <c r="C37" s="24">
-        <f>C38-C39</f>
+      <c r="G37" s="24">
+        <f>G38-G39</f>
         <v>735</v>
       </c>
-      <c r="D37" s="50">
-        <f>C37+D23</f>
+      <c r="H37" s="49">
+        <f>G37+H23</f>
         <v>281.30479999999972</v>
       </c>
-      <c r="E37" s="50">
-        <f>D37+E23</f>
+      <c r="I37" s="49">
+        <f>H37+I23</f>
         <v>-1.374884000000975</v>
       </c>
-      <c r="F37" s="50">
-        <f t="shared" ref="F37:R37" si="67">E37+F23</f>
+      <c r="J37" s="49">
+        <f t="shared" ref="J37:V37" si="70">I37+J23</f>
         <v>-6.736598680001757</v>
       </c>
-      <c r="G37" s="50">
-        <f t="shared" si="67"/>
+      <c r="K37" s="49">
+        <f t="shared" si="70"/>
         <v>375.15800099875702</v>
       </c>
-      <c r="H37" s="50">
-        <f t="shared" si="67"/>
+      <c r="L37" s="49">
+        <f t="shared" si="70"/>
         <v>1338.4910533224827</v>
       </c>
-      <c r="I37" s="50">
-        <f t="shared" si="67"/>
-        <v>2559.5157593273607</v>
-      </c>
-      <c r="J37" s="50">
-        <f t="shared" si="67"/>
-        <v>4065.5642324844084</v>
-      </c>
-      <c r="K37" s="50">
-        <f t="shared" si="67"/>
-        <v>5886.8343792504329</v>
-      </c>
-      <c r="L37" s="50">
-        <f t="shared" si="67"/>
-        <v>8056.6806567911181</v>
-      </c>
-      <c r="M37" s="50">
-        <f t="shared" si="67"/>
-        <v>10611.934139895291</v>
-      </c>
-      <c r="N37" s="50">
-        <f t="shared" si="67"/>
-        <v>13593.254838739189</v>
-      </c>
-      <c r="O37" s="50">
-        <f t="shared" si="67"/>
-        <v>17045.519503873107</v>
-      </c>
-      <c r="P37" s="50">
-        <f t="shared" si="67"/>
-        <v>21018.248479014739</v>
-      </c>
-      <c r="Q37" s="50">
-        <f t="shared" si="67"/>
-        <v>25566.075518895021</v>
-      </c>
-      <c r="R37" s="50">
-        <f t="shared" si="67"/>
-        <v>30749.264881759773</v>
-      </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
+      <c r="M37" s="49">
+        <f t="shared" si="70"/>
+        <v>2755.9666963985601</v>
+      </c>
+      <c r="N37" s="49">
+        <f t="shared" si="70"/>
+        <v>4729.7160904816483</v>
+      </c>
+      <c r="O37" s="49">
+        <f t="shared" si="70"/>
+        <v>7382.943444223135</v>
+      </c>
+      <c r="P37" s="49">
+        <f t="shared" si="70"/>
+        <v>10864.172164182801</v>
+      </c>
+      <c r="Q37" s="49">
+        <f t="shared" si="70"/>
+        <v>15352.341842242729</v>
+      </c>
+      <c r="R37" s="49">
+        <f t="shared" si="70"/>
+        <v>20518.754332140757</v>
+      </c>
+      <c r="S37" s="49">
+        <f t="shared" si="70"/>
+        <v>26433.980956219733</v>
+      </c>
+      <c r="T37" s="49">
+        <f t="shared" si="70"/>
+        <v>33175.82633137636</v>
+      </c>
+      <c r="U37" s="49">
+        <f t="shared" si="70"/>
+        <v>40830.057288281685</v>
+      </c>
+      <c r="V37" s="49">
+        <f t="shared" si="70"/>
+        <v>49491.204982420233</v>
+      </c>
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
@@ -6237,34 +6439,38 @@
       <c r="DH37" s="38"/>
       <c r="DI37" s="38"/>
       <c r="DJ37" s="38"/>
-    </row>
-    <row r="38" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK37" s="38"/>
+      <c r="DL37" s="38"/>
+      <c r="DM37" s="38"/>
+      <c r="DN37" s="38"/>
+    </row>
+    <row r="38" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="51">
-        <f>Reports!E32</f>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50">
+        <f>Reports!E35</f>
         <v>1126</v>
       </c>
-      <c r="C38" s="51">
-        <f>Reports!I32</f>
+      <c r="G38" s="50">
+        <f>Reports!I35</f>
         <v>1131</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="23"/>
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
       <c r="U38" s="38"/>
@@ -6361,34 +6567,38 @@
       <c r="DH38" s="38"/>
       <c r="DI38" s="38"/>
       <c r="DJ38" s="38"/>
-    </row>
-    <row r="39" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK38" s="38"/>
+      <c r="DL38" s="38"/>
+      <c r="DM38" s="38"/>
+      <c r="DN38" s="38"/>
+    </row>
+    <row r="39" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="51">
-        <f>Reports!E33</f>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50">
+        <f>Reports!E36</f>
         <v>0</v>
       </c>
-      <c r="C39" s="51">
-        <f>Reports!I33</f>
+      <c r="G39" s="50">
+        <f>Reports!I36</f>
         <v>396</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="23"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
       <c r="U39" s="38"/>
@@ -6485,25 +6695,29 @@
       <c r="DH39" s="38"/>
       <c r="DI39" s="38"/>
       <c r="DJ39" s="38"/>
-    </row>
-    <row r="40" spans="1:114" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
+      <c r="DK39" s="38"/>
+      <c r="DL39" s="38"/>
+      <c r="DM39" s="38"/>
+      <c r="DN39" s="38"/>
+    </row>
+    <row r="40" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="52"/>
       <c r="S40" s="38"/>
       <c r="T40" s="38"/>
       <c r="U40" s="38"/>
@@ -6600,33 +6814,37 @@
       <c r="DH40" s="38"/>
       <c r="DI40" s="38"/>
       <c r="DJ40" s="38"/>
-    </row>
-    <row r="41" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK40" s="38"/>
+      <c r="DL40" s="38"/>
+      <c r="DM40" s="38"/>
+      <c r="DN40" s="38"/>
+    </row>
+    <row r="41" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="51">
-        <f>Reports!E35</f>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="50">
+        <f>Reports!E38</f>
         <v>23</v>
       </c>
-      <c r="C41" s="51">
-        <f>Reports!I35</f>
+      <c r="G41" s="50">
+        <f>Reports!I38</f>
         <v>51</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
@@ -6724,33 +6942,37 @@
       <c r="DH41" s="37"/>
       <c r="DI41" s="37"/>
       <c r="DJ41" s="37"/>
-    </row>
-    <row r="42" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK41" s="37"/>
+      <c r="DL41" s="37"/>
+      <c r="DM41" s="37"/>
+      <c r="DN41" s="37"/>
+    </row>
+    <row r="42" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="51">
-        <f>Reports!E36</f>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="50">
+        <f>Reports!E39</f>
         <v>1431</v>
       </c>
-      <c r="C42" s="51">
-        <f>Reports!I36</f>
+      <c r="G42" s="50">
+        <f>Reports!I39</f>
         <v>1594</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
@@ -6848,33 +7070,37 @@
       <c r="DH42" s="37"/>
       <c r="DI42" s="37"/>
       <c r="DJ42" s="37"/>
-    </row>
-    <row r="43" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK42" s="37"/>
+      <c r="DL42" s="37"/>
+      <c r="DM42" s="37"/>
+      <c r="DN42" s="37"/>
+    </row>
+    <row r="43" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="51">
-        <f>Reports!E37</f>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="50">
+        <f>Reports!E40</f>
         <v>923</v>
       </c>
-      <c r="C43" s="51">
-        <f>Reports!I37</f>
+      <c r="G43" s="50">
+        <f>Reports!I40</f>
         <v>1447</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
@@ -6972,8 +7198,12 @@
       <c r="DH43" s="37"/>
       <c r="DI43" s="37"/>
       <c r="DJ43" s="37"/>
-    </row>
-    <row r="44" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK43" s="37"/>
+      <c r="DL43" s="37"/>
+      <c r="DM43" s="37"/>
+      <c r="DN43" s="37"/>
+    </row>
+    <row r="44" spans="1:118" x14ac:dyDescent="0.15">
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
@@ -7087,23 +7317,27 @@
       <c r="DH44" s="38"/>
       <c r="DI44" s="38"/>
       <c r="DJ44" s="38"/>
-    </row>
-    <row r="45" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK44" s="38"/>
+      <c r="DL44" s="38"/>
+      <c r="DM44" s="38"/>
+      <c r="DN44" s="38"/>
+    </row>
+    <row r="45" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="55">
-        <f>B42-B41-B38</f>
-        <v>282</v>
-      </c>
-      <c r="C45" s="55">
-        <f>C42-C41-C38</f>
-        <v>412</v>
-      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
+      <c r="F45" s="54">
+        <f>F42-F41-F38</f>
+        <v>282</v>
+      </c>
+      <c r="G45" s="54">
+        <f>G42-G41-G38</f>
+        <v>412</v>
+      </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
@@ -7211,23 +7445,27 @@
       <c r="DH45" s="37"/>
       <c r="DI45" s="37"/>
       <c r="DJ45" s="37"/>
-    </row>
-    <row r="46" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK45" s="37"/>
+      <c r="DL45" s="37"/>
+      <c r="DM45" s="37"/>
+      <c r="DN45" s="37"/>
+    </row>
+    <row r="46" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="55">
-        <f>B42-B43</f>
-        <v>508</v>
-      </c>
-      <c r="C46" s="55">
-        <f>C42-C43</f>
-        <v>147</v>
-      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="F46" s="54">
+        <f>F42-F43</f>
+        <v>508</v>
+      </c>
+      <c r="G46" s="54">
+        <f>G42-G43</f>
+        <v>147</v>
+      </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
@@ -7335,8 +7573,12 @@
       <c r="DH46" s="37"/>
       <c r="DI46" s="37"/>
       <c r="DJ46" s="37"/>
-    </row>
-    <row r="47" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK46" s="37"/>
+      <c r="DL46" s="37"/>
+      <c r="DM46" s="37"/>
+      <c r="DN46" s="37"/>
+    </row>
+    <row r="47" spans="1:118" x14ac:dyDescent="0.15">
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -7450,23 +7692,27 @@
       <c r="DH47" s="38"/>
       <c r="DI47" s="38"/>
       <c r="DJ47" s="38"/>
-    </row>
-    <row r="48" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK47" s="38"/>
+      <c r="DL47" s="38"/>
+      <c r="DM47" s="38"/>
+      <c r="DN47" s="38"/>
+    </row>
+    <row r="48" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="56">
-        <f>B23/B46</f>
-        <v>-1.1417165354330707</v>
-      </c>
-      <c r="C48" s="56">
-        <f>C23/C46</f>
-        <v>-3.9443401360544215</v>
-      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
+      <c r="F48" s="55">
+        <f>F23/F46</f>
+        <v>-1.1417165354330707</v>
+      </c>
+      <c r="G48" s="55">
+        <f>G23/G46</f>
+        <v>-3.9443401360544215</v>
+      </c>
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -7574,23 +7820,27 @@
       <c r="DH48" s="38"/>
       <c r="DI48" s="38"/>
       <c r="DJ48" s="38"/>
-    </row>
-    <row r="49" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK48" s="38"/>
+      <c r="DL48" s="38"/>
+      <c r="DM48" s="38"/>
+      <c r="DN48" s="38"/>
+    </row>
+    <row r="49" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="56">
-        <f>B23/B42</f>
-        <v>-0.40530538085255063</v>
-      </c>
-      <c r="C49" s="56">
-        <f>C23/C42</f>
-        <v>-0.36375031367628607</v>
-      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
+      <c r="F49" s="55">
+        <f>F23/F42</f>
+        <v>-0.40530538085255063</v>
+      </c>
+      <c r="G49" s="55">
+        <f>G23/G42</f>
+        <v>-0.36375031367628607</v>
+      </c>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -7698,23 +7948,27 @@
       <c r="DH49" s="38"/>
       <c r="DI49" s="38"/>
       <c r="DJ49" s="38"/>
-    </row>
-    <row r="50" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK49" s="38"/>
+      <c r="DL49" s="38"/>
+      <c r="DM49" s="38"/>
+      <c r="DN49" s="38"/>
+    </row>
+    <row r="50" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="56">
-        <f>B23/(B46-B41)</f>
-        <v>-1.1958597938144329</v>
-      </c>
-      <c r="C50" s="56">
-        <f>C23/(C46-C41)</f>
-        <v>-6.0397708333333329</v>
-      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
+      <c r="F50" s="55">
+        <f>F23/(F46-F41)</f>
+        <v>-1.1958597938144329</v>
+      </c>
+      <c r="G50" s="55">
+        <f>G23/(G46-G41)</f>
+        <v>-6.0397708333333329</v>
+      </c>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -7822,23 +8076,27 @@
       <c r="DH50" s="38"/>
       <c r="DI50" s="38"/>
       <c r="DJ50" s="38"/>
-    </row>
-    <row r="51" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK50" s="38"/>
+      <c r="DL50" s="38"/>
+      <c r="DM50" s="38"/>
+      <c r="DN50" s="38"/>
+    </row>
+    <row r="51" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="56">
-        <f>B23/B45</f>
-        <v>-2.0567092198581558</v>
-      </c>
-      <c r="C51" s="56">
-        <f>C23/C45</f>
-        <v>-1.4073252427184466</v>
-      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="F51" s="55">
+        <f>F23/F45</f>
+        <v>-2.0567092198581558</v>
+      </c>
+      <c r="G51" s="55">
+        <f>G23/G45</f>
+        <v>-1.4073252427184466</v>
+      </c>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -7946,8 +8204,12 @@
       <c r="DH51" s="38"/>
       <c r="DI51" s="38"/>
       <c r="DJ51" s="38"/>
-    </row>
-    <row r="52" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK51" s="38"/>
+      <c r="DL51" s="38"/>
+      <c r="DM51" s="38"/>
+      <c r="DN51" s="38"/>
+    </row>
+    <row r="52" spans="1:118" x14ac:dyDescent="0.15">
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -8061,40 +8323,44 @@
       <c r="DH52" s="38"/>
       <c r="DI52" s="38"/>
       <c r="DJ52" s="38"/>
-    </row>
-    <row r="53" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="DK52" s="38"/>
+      <c r="DL52" s="38"/>
+      <c r="DM52" s="38"/>
+      <c r="DN52" s="38"/>
+    </row>
+    <row r="53" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56">
-        <f t="shared" ref="C53:H53" si="68">C10/B10-1</f>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55">
+        <f t="shared" ref="G53:L53" si="71">G10/F10-1</f>
         <v>0.24713432279323944</v>
       </c>
-      <c r="D53" s="56">
-        <f t="shared" si="68"/>
+      <c r="H53" s="55">
+        <f>H10/G10-1</f>
         <v>0.39999999999999969</v>
       </c>
-      <c r="E53" s="56">
-        <f t="shared" si="68"/>
+      <c r="I53" s="55">
+        <f t="shared" si="71"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="F53" s="56">
-        <f t="shared" si="68"/>
+      <c r="J53" s="55">
+        <f t="shared" si="71"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="G53" s="56">
-        <f t="shared" si="68"/>
+      <c r="K53" s="55">
+        <f t="shared" si="71"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="H53" s="56">
-        <f t="shared" si="68"/>
+      <c r="L53" s="55">
+        <f t="shared" si="71"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" s="38"/>
       <c r="O53" s="38"/>
@@ -8197,11 +8463,15 @@
       <c r="DH53" s="38"/>
       <c r="DI53" s="38"/>
       <c r="DJ53" s="38"/>
+      <c r="DK53" s="38"/>
+      <c r="DL53" s="38"/>
+      <c r="DM53" s="38"/>
+      <c r="DN53" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L4" r:id="rId2" xr:uid="{CBCA994A-BC74-CB48-8009-AD2DE8254A02}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{CBCA994A-BC74-CB48-8009-AD2DE8254A02}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{741A8B4D-19A2-5A48-9F00-2808126CAB69}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{5AAA0731-2696-3C4C-85B5-10147C1B3A1B}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{F2473224-43D8-9D42-9A8B-40E31A9FA9BD}"/>
@@ -8213,13 +8483,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8235,7 +8505,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -8278,1227 +8548,1165 @@
     <row r="2" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="21"/>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>43465</v>
       </c>
       <c r="F2" s="21"/>
-      <c r="H2" s="59">
+      <c r="H2" s="57">
         <v>43738</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="57">
         <v>43830</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="59">
+      <c r="J2" s="58"/>
+      <c r="K2" s="57">
         <v>44012</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="57">
         <v>44104</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
       <c r="H3" s="23">
-        <v>190.541</v>
-      </c>
-      <c r="I3" s="23">
-        <v>229</v>
+        <v>96.801000000000002</v>
       </c>
       <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
       <c r="L3" s="23">
-        <v>289.36599999999999</v>
-      </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="M4" s="39">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="24">
-        <f t="shared" ref="E5:L5" si="0">SUM(E3:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <f t="shared" si="0"/>
-        <v>190.541</v>
-      </c>
-      <c r="I5" s="24">
-        <f t="shared" si="0"/>
-        <v>229</v>
-      </c>
-      <c r="J5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <f t="shared" si="0"/>
-        <v>289.36599999999999</v>
-      </c>
-      <c r="M5" s="50">
-        <v>299</v>
-      </c>
+        <v>162.56100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="23">
+        <v>93.74</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="L4" s="23">
+        <v>126.80500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="68"/>
+      <c r="B5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="23">
-        <v>359.26100000000002</v>
-      </c>
-      <c r="F6" s="22">
-        <v>397.286</v>
-      </c>
-      <c r="G6" s="23">
-        <v>407.488</v>
-      </c>
-      <c r="H6" s="51">
-        <v>65.072999999999993</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="22">
-        <v>452</v>
-      </c>
-      <c r="K6" s="51">
-        <v>415</v>
-      </c>
-      <c r="L6" s="51">
-        <v>149.34</v>
-      </c>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="26">
-        <f t="shared" ref="E7:F7" si="1">E5-E6</f>
-        <v>-359.26100000000002</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" si="1"/>
-        <v>-397.286</v>
-      </c>
-      <c r="G7" s="26">
-        <f t="shared" ref="G7:L7" si="2">G5-G6</f>
-        <v>-407.488</v>
-      </c>
-      <c r="H7" s="26">
-        <f t="shared" si="2"/>
-        <v>125.468</v>
-      </c>
-      <c r="I7" s="26">
-        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
+        <v>190.541</v>
+      </c>
+      <c r="I6" s="23">
         <v>229</v>
       </c>
-      <c r="J7" s="27">
-        <f t="shared" ref="J7" si="3">J5-J6</f>
-        <v>-452</v>
-      </c>
-      <c r="K7" s="26">
-        <f t="shared" si="2"/>
-        <v>-415</v>
-      </c>
-      <c r="L7" s="26">
-        <f t="shared" si="2"/>
-        <v>140.02599999999998</v>
-      </c>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23">
+        <v>289.36599999999999</v>
+      </c>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="M7" s="39">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="23">
-        <v>415.95800000000003</v>
-      </c>
-      <c r="F8" s="22">
-        <v>464.637</v>
-      </c>
-      <c r="G8" s="23">
-        <v>475.95800000000003</v>
-      </c>
-      <c r="H8" s="51">
-        <v>76</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="22">
-        <v>532</v>
-      </c>
-      <c r="K8" s="51">
-        <v>532</v>
-      </c>
-      <c r="L8" s="51">
-        <v>314</v>
-      </c>
-      <c r="M8" s="51"/>
+      <c r="E8" s="24">
+        <f t="shared" ref="E8:K8" si="0">SUM(E6:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <f>SUM(H3:H4)</f>
+        <v>190.541</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="24">
+        <f>SUM(L3:L4)</f>
+        <v>289.36599999999999</v>
+      </c>
+      <c r="M8" s="49">
+        <v>299</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="23">
-        <v>723.57299999999998</v>
+        <v>359.26100000000002</v>
       </c>
       <c r="F9" s="22">
-        <v>781.51800000000003</v>
+        <v>397.286</v>
       </c>
       <c r="G9" s="23">
-        <v>848.92700000000002</v>
-      </c>
-      <c r="H9" s="51">
-        <v>120</v>
-      </c>
-      <c r="I9" s="51"/>
+        <v>407.488</v>
+      </c>
+      <c r="H9" s="50">
+        <v>65.072999999999993</v>
+      </c>
+      <c r="I9" s="50"/>
       <c r="J9" s="22">
-        <v>857</v>
-      </c>
-      <c r="K9" s="51">
-        <v>901</v>
-      </c>
-      <c r="L9" s="51">
-        <v>335</v>
-      </c>
-      <c r="M9" s="51"/>
+        <v>452</v>
+      </c>
+      <c r="K9" s="50">
+        <v>415</v>
+      </c>
+      <c r="L9" s="50">
+        <v>149.34</v>
+      </c>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="23">
-        <f>212.355+32.932</f>
-        <v>245.28699999999998</v>
-      </c>
-      <c r="F10" s="22">
-        <f>216.109+46.566</f>
-        <v>262.67500000000001</v>
-      </c>
-      <c r="G10" s="23">
-        <f>219.334+43.026</f>
-        <v>262.36</v>
-      </c>
-      <c r="H10" s="51">
-        <v>74</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="22">
-        <f>271+42</f>
-        <v>313</v>
-      </c>
-      <c r="K10" s="51">
-        <f>224+40</f>
-        <v>264</v>
-      </c>
-      <c r="L10" s="51">
-        <v>339</v>
-      </c>
-      <c r="M10" s="51"/>
+      <c r="E10" s="26">
+        <f t="shared" ref="E10:F10" si="1">E8-E9</f>
+        <v>-359.26100000000002</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="1"/>
+        <v>-397.286</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" ref="G10:L10" si="2">G8-G9</f>
+        <v>-407.488</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="2"/>
+        <v>125.468</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" ref="J10" si="3">J8-J9</f>
+        <v>-452</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="2"/>
+        <v>-415</v>
+      </c>
+      <c r="L10" s="26">
+        <f t="shared" si="2"/>
+        <v>140.02599999999998</v>
+      </c>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="26">
-        <f t="shared" ref="E11:G11" si="4">SUM(E8:E10)</f>
-        <v>1384.818</v>
-      </c>
-      <c r="F11" s="27">
-        <f t="shared" si="4"/>
-        <v>1508.83</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="4"/>
-        <v>1587.2449999999999</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" ref="H11:I11" si="5">SUM(H8:H10)</f>
-        <v>270</v>
-      </c>
-      <c r="I11" s="26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <f t="shared" ref="J11:L11" si="6">SUM(J8:J10)</f>
-        <v>1702</v>
-      </c>
-      <c r="K11" s="26">
-        <f t="shared" si="6"/>
-        <v>1697</v>
-      </c>
-      <c r="L11" s="26">
-        <f t="shared" si="6"/>
-        <v>988</v>
-      </c>
-      <c r="M11" s="51"/>
+      <c r="E11" s="23">
+        <v>415.95800000000003</v>
+      </c>
+      <c r="F11" s="22">
+        <v>464.637</v>
+      </c>
+      <c r="G11" s="23">
+        <v>475.95800000000003</v>
+      </c>
+      <c r="H11" s="50">
+        <v>76</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="22">
+        <v>532</v>
+      </c>
+      <c r="K11" s="50">
+        <v>532</v>
+      </c>
+      <c r="L11" s="50">
+        <v>314</v>
+      </c>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="26">
-        <f t="shared" ref="E12:G12" si="7">E7-E11</f>
-        <v>-1744.079</v>
-      </c>
-      <c r="F12" s="27">
-        <f t="shared" si="7"/>
-        <v>-1906.116</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="7"/>
-        <v>-1994.7329999999999</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" ref="H12:I12" si="8">H7-H11</f>
-        <v>-144.53199999999998</v>
-      </c>
-      <c r="I12" s="26">
-        <f t="shared" si="8"/>
-        <v>229</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" ref="J12:L12" si="9">J7-J11</f>
-        <v>-2154</v>
-      </c>
-      <c r="K12" s="26">
-        <f t="shared" si="9"/>
-        <v>-2112</v>
-      </c>
-      <c r="L12" s="26">
-        <f t="shared" si="9"/>
-        <v>-847.97400000000005</v>
-      </c>
-      <c r="M12" s="51"/>
+      <c r="E12" s="23">
+        <v>723.57299999999998</v>
+      </c>
+      <c r="F12" s="22">
+        <v>781.51800000000003</v>
+      </c>
+      <c r="G12" s="23">
+        <v>848.92700000000002</v>
+      </c>
+      <c r="H12" s="50">
+        <v>120</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="22">
+        <v>857</v>
+      </c>
+      <c r="K12" s="50">
+        <v>901</v>
+      </c>
+      <c r="L12" s="50">
+        <v>335</v>
+      </c>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="23">
-        <v>-21.329000000000001</v>
+        <f>212.355+32.932</f>
+        <v>245.28699999999998</v>
       </c>
       <c r="F13" s="22">
-        <v>7.5039999999999996</v>
+        <f>216.109+46.566</f>
+        <v>262.67500000000001</v>
       </c>
       <c r="G13" s="23">
-        <v>-38.774999999999999</v>
-      </c>
-      <c r="H13" s="51">
-        <f>3+1+2</f>
-        <v>6</v>
-      </c>
-      <c r="I13" s="51"/>
+        <f>219.334+43.026</f>
+        <v>262.36</v>
+      </c>
+      <c r="H13" s="50">
+        <v>74</v>
+      </c>
+      <c r="I13" s="50"/>
       <c r="J13" s="22">
-        <v>-18</v>
-      </c>
-      <c r="K13" s="51">
-        <f>-28+12</f>
-        <v>-16</v>
-      </c>
-      <c r="L13" s="51">
-        <f>-2-9-3</f>
-        <v>-14</v>
-      </c>
-      <c r="M13" s="51"/>
+        <f>271+42</f>
+        <v>313</v>
+      </c>
+      <c r="K13" s="50">
+        <f>224+40</f>
+        <v>264</v>
+      </c>
+      <c r="L13" s="50">
+        <v>339</v>
+      </c>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="26">
-        <f t="shared" ref="E14:H14" si="10">E12+E13</f>
-        <v>-1765.4079999999999</v>
+        <f t="shared" ref="E14:G14" si="4">SUM(E11:E13)</f>
+        <v>1384.818</v>
       </c>
       <c r="F14" s="27">
-        <f t="shared" si="10"/>
-        <v>-1898.6120000000001</v>
+        <f t="shared" si="4"/>
+        <v>1508.83</v>
       </c>
       <c r="G14" s="26">
-        <f t="shared" si="10"/>
-        <v>-2033.508</v>
+        <f t="shared" si="4"/>
+        <v>1587.2449999999999</v>
       </c>
       <c r="H14" s="26">
-        <f t="shared" si="10"/>
-        <v>-138.53199999999998</v>
+        <f t="shared" ref="H14:I14" si="5">SUM(H11:H13)</f>
+        <v>270</v>
       </c>
       <c r="I14" s="26">
-        <f t="shared" ref="I14" si="11">I12+I13</f>
-        <v>229</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J14" s="27">
-        <f t="shared" ref="J14:L14" si="12">J12+J13</f>
-        <v>-2172</v>
+        <f t="shared" ref="J14:L14" si="6">SUM(J11:J13)</f>
+        <v>1702</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="12"/>
-        <v>-2128</v>
+        <f t="shared" si="6"/>
+        <v>1697</v>
       </c>
       <c r="L14" s="26">
-        <f t="shared" si="12"/>
-        <v>-861.97400000000005</v>
-      </c>
-      <c r="M14" s="51"/>
+        <f t="shared" si="6"/>
+        <v>988</v>
+      </c>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="23">
-        <v>20.977</v>
-      </c>
-      <c r="F15" s="22">
-        <v>28.093</v>
-      </c>
-      <c r="G15" s="23">
-        <v>78.179000000000002</v>
-      </c>
-      <c r="H15" s="23">
-        <v>2</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22">
-        <v>-36</v>
-      </c>
-      <c r="K15" s="23">
-        <v>-100</v>
-      </c>
-      <c r="L15" s="23">
-        <v>-9</v>
-      </c>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="46" t="s">
-        <v>56</v>
+      <c r="E15" s="26">
+        <f t="shared" ref="E15:G15" si="7">E10-E14</f>
+        <v>-1744.079</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" si="7"/>
+        <v>-1906.116</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="7"/>
+        <v>-1994.7329999999999</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" ref="H15:I15" si="8">H10-H14</f>
+        <v>-144.53199999999998</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" ref="J15:L15" si="9">J10-J14</f>
+        <v>-2154</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="9"/>
+        <v>-2112</v>
+      </c>
+      <c r="L15" s="26">
+        <f t="shared" si="9"/>
+        <v>-847.97400000000005</v>
+      </c>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-    </row>
-    <row r="17" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>11</v>
+      <c r="E16" s="23">
+        <v>-21.329000000000001</v>
+      </c>
+      <c r="F16" s="22">
+        <v>7.5039999999999996</v>
+      </c>
+      <c r="G16" s="23">
+        <v>-38.774999999999999</v>
+      </c>
+      <c r="H16" s="50">
+        <f>3+1+2</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="22">
+        <v>-18</v>
+      </c>
+      <c r="K16" s="50">
+        <f>-28+12</f>
+        <v>-16</v>
+      </c>
+      <c r="L16" s="50">
+        <f>-2-9-3</f>
+        <v>-14</v>
+      </c>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="24">
-        <f t="shared" ref="E17:G17" si="13">E14-E15</f>
-        <v>-1786.385</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="13"/>
-        <v>-1926.7050000000002</v>
-      </c>
-      <c r="G17" s="24">
-        <f t="shared" si="13"/>
-        <v>-2111.6869999999999</v>
-      </c>
-      <c r="H17" s="24">
-        <f t="shared" ref="H17:I17" si="14">H14-H15</f>
-        <v>-140.53199999999998</v>
-      </c>
-      <c r="I17" s="24">
-        <f t="shared" si="14"/>
+      <c r="E17" s="26">
+        <f t="shared" ref="E17:H17" si="10">E15+E16</f>
+        <v>-1765.4079999999999</v>
+      </c>
+      <c r="F17" s="27">
+        <f t="shared" si="10"/>
+        <v>-1898.6120000000001</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="10"/>
+        <v>-2033.508</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="10"/>
+        <v>-138.53199999999998</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" ref="I17" si="11">I15+I16</f>
         <v>229</v>
       </c>
-      <c r="J17" s="25">
-        <f t="shared" ref="J17:L17" si="15">J14-J15</f>
-        <v>-2136</v>
-      </c>
-      <c r="K17" s="24">
-        <f t="shared" si="15"/>
-        <v>-2028</v>
-      </c>
-      <c r="L17" s="24">
-        <f t="shared" si="15"/>
-        <v>-852.97400000000005</v>
+      <c r="J17" s="27">
+        <f t="shared" ref="J17:L17" si="12">J15+J16</f>
+        <v>-2172</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" si="12"/>
+        <v>-2128</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="12"/>
+        <v>-861.97400000000005</v>
       </c>
       <c r="M17" s="50"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="61">
-        <f t="shared" ref="E18:G18" si="16">IFERROR(E17/E19,0)</f>
-        <v>-3.6074884690259053</v>
-      </c>
-      <c r="F18" s="62">
-        <f t="shared" si="16"/>
-        <v>-3.8987288238484146</v>
-      </c>
-      <c r="G18" s="61">
-        <f t="shared" si="16"/>
-        <v>-4.2901981260107434</v>
-      </c>
-      <c r="H18" s="61">
-        <f t="shared" ref="H18:I18" si="17">IFERROR(H17/H19,0)</f>
-        <v>-0.24225275994332926</v>
-      </c>
-      <c r="I18" s="61">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="62">
-        <f t="shared" ref="J18:L18" si="18">IFERROR(J17/J19,0)</f>
-        <v>-4.3770491803278686</v>
-      </c>
-      <c r="K18" s="61">
-        <f t="shared" si="18"/>
-        <v>-4.1814432989690724</v>
-      </c>
-      <c r="L18" s="61">
-        <f t="shared" si="18"/>
-        <v>-0.94203179214553689</v>
-      </c>
-      <c r="M18" s="63"/>
-    </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
+      <c r="E18" s="23">
+        <v>20.977</v>
+      </c>
+      <c r="F18" s="22">
+        <v>28.093</v>
+      </c>
+      <c r="G18" s="23">
+        <v>78.179000000000002</v>
+      </c>
+      <c r="H18" s="23">
+        <v>2</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22">
+        <v>-36</v>
+      </c>
+      <c r="K18" s="23">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="23">
+        <v>-9</v>
+      </c>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="23">
-        <v>495.18799999999999</v>
-      </c>
-      <c r="F19" s="22">
-        <v>494.18799999999999</v>
-      </c>
-      <c r="G19" s="23">
-        <v>492.21199999999999</v>
-      </c>
-      <c r="H19" s="51">
-        <v>580.10484599999995</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="22">
-        <v>488</v>
-      </c>
-      <c r="K19" s="51">
-        <v>485</v>
-      </c>
-      <c r="L19" s="51">
-        <v>905.46200999999996</v>
-      </c>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="57"/>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
+      <c r="E20" s="24">
+        <f t="shared" ref="E20:G20" si="13">E17-E18</f>
+        <v>-1786.385</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="13"/>
+        <v>-1926.7050000000002</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="13"/>
+        <v>-2111.6869999999999</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" ref="H20:I20" si="14">H17-H18</f>
+        <v>-140.53199999999998</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="14"/>
+        <v>229</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" ref="J20:L20" si="15">J17-J18</f>
+        <v>-2136</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="15"/>
+        <v>-2028</v>
+      </c>
+      <c r="L20" s="24">
+        <f t="shared" si="15"/>
+        <v>-852.97400000000005</v>
+      </c>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="33">
-        <f t="shared" ref="E21" si="19">IFERROR(E7/E5,0)</f>
+      <c r="E21" s="59">
+        <f t="shared" ref="E21:G21" si="16">IFERROR(E20/E22,0)</f>
+        <v>-3.6074884690259053</v>
+      </c>
+      <c r="F21" s="60">
+        <f t="shared" si="16"/>
+        <v>-3.8987288238484146</v>
+      </c>
+      <c r="G21" s="59">
+        <f t="shared" si="16"/>
+        <v>-4.2901981260107434</v>
+      </c>
+      <c r="H21" s="59">
+        <f t="shared" ref="H21:I21" si="17">IFERROR(H20/H22,0)</f>
+        <v>-0.24225275994332926</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F21" s="34">
-        <f t="shared" ref="F21:G21" si="20">IFERROR(F7/F5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="33">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="33">
-        <f t="shared" ref="H21:J21" si="21">IFERROR(H7/H5,0)</f>
-        <v>0.65848295117586242</v>
-      </c>
-      <c r="I21" s="33">
-        <f t="shared" ref="I21" si="22">IFERROR(I7/I5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="34">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="33">
-        <f t="shared" ref="K21:L21" si="23">IFERROR(K7/K5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="33">
-        <f t="shared" si="23"/>
-        <v>0.48390619492269304</v>
-      </c>
-      <c r="M21" s="33"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
+      <c r="J21" s="60">
+        <f t="shared" ref="J21:L21" si="18">IFERROR(J20/J22,0)</f>
+        <v>-4.3770491803278686</v>
+      </c>
+      <c r="K21" s="59">
+        <f t="shared" si="18"/>
+        <v>-4.1814432989690724</v>
+      </c>
+      <c r="L21" s="59">
+        <f t="shared" si="18"/>
+        <v>-0.94203179214553689</v>
+      </c>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="35">
-        <f t="shared" ref="E22" si="24">IFERROR(E12/E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="36">
-        <f t="shared" ref="F22:G22" si="25">IFERROR(F12/F5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="35">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="35">
-        <f t="shared" ref="H22:J22" si="26">IFERROR(H12/H5,0)</f>
-        <v>-0.7585349084973837</v>
-      </c>
-      <c r="I22" s="35">
-        <f t="shared" ref="I22" si="27">IFERROR(I12/I5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="35">
-        <f t="shared" ref="K22:L22" si="28">IFERROR(K12/K5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="35">
-        <f t="shared" si="28"/>
-        <v>-2.9304548564793378</v>
-      </c>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="E22" s="23">
+        <v>495.18799999999999</v>
+      </c>
+      <c r="F22" s="22">
+        <v>494.18799999999999</v>
+      </c>
+      <c r="G22" s="23">
+        <v>492.21199999999999</v>
+      </c>
+      <c r="H22" s="50">
+        <v>580.10484599999995</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="22">
+        <v>488</v>
+      </c>
+      <c r="K22" s="50">
+        <v>485</v>
+      </c>
+      <c r="L22" s="50">
+        <v>905.46200999999996</v>
+      </c>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="23" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="35">
-        <f t="shared" ref="E23" si="29">IFERROR(E15/E14,0)</f>
-        <v>-1.1882239119795537E-2</v>
-      </c>
-      <c r="F23" s="36">
-        <f t="shared" ref="F23:G23" si="30">IFERROR(F15/F14,0)</f>
-        <v>-1.4796598778476064E-2</v>
-      </c>
-      <c r="G23" s="35">
-        <f t="shared" si="30"/>
-        <v>-3.8445386002907291E-2</v>
-      </c>
-      <c r="H23" s="35">
-        <f t="shared" ref="H23:J23" si="31">IFERROR(H15/H14,0)</f>
-        <v>-1.4437097565905352E-2</v>
-      </c>
-      <c r="I23" s="35">
-        <f t="shared" ref="I23" si="32">IFERROR(I15/I14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="36">
-        <f t="shared" si="31"/>
-        <v>1.6574585635359115E-2</v>
-      </c>
-      <c r="K23" s="35">
-        <f t="shared" ref="K23:L23" si="33">IFERROR(K15/K14,0)</f>
-        <v>4.6992481203007516E-2</v>
-      </c>
-      <c r="L23" s="35">
-        <f t="shared" si="33"/>
-        <v>1.0441150197105713E-2</v>
-      </c>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="39"/>
+      <c r="F23" s="56"/>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="57"/>
-      <c r="J24" s="57"/>
-    </row>
-    <row r="25" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>14</v>
+      <c r="E24" s="33">
+        <f t="shared" ref="E24" si="19">IFERROR(E10/E8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" ref="F24:G24" si="20">IFERROR(F10/F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="33">
+        <f t="shared" ref="H24:J24" si="21">IFERROR(H10/H8,0)</f>
+        <v>0.65848295117586242</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" ref="I24" si="22">IFERROR(I10/I8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
+        <f t="shared" ref="K24:L24" si="23">IFERROR(K10/K8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="23"/>
+        <v>0.48390619492269304</v>
+      </c>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="29">
-        <f>IFERROR((E5/#REF!)-1,0)</f>
+      <c r="E25" s="35">
+        <f t="shared" ref="E25" si="24">IFERROR(E15/E8,0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="30">
-        <f t="shared" ref="F25:L25" si="34">IFERROR((F5/B5)-1,0)</f>
+      <c r="F25" s="36">
+        <f t="shared" ref="F25:G25" si="25">IFERROR(F15/F8,0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="29">
-        <f t="shared" si="34"/>
+      <c r="G25" s="35">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H25" s="29">
-        <f t="shared" si="34"/>
+      <c r="H25" s="35">
+        <f t="shared" ref="H25:J25" si="26">IFERROR(H15/H8,0)</f>
+        <v>-0.7585349084973837</v>
+      </c>
+      <c r="I25" s="35">
+        <f t="shared" ref="I25" si="27">IFERROR(I15/I8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="36">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I25" s="29">
-        <f t="shared" si="34"/>
+      <c r="K25" s="35">
+        <f t="shared" ref="K25:L25" si="28">IFERROR(K15/K8,0)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="30">
-        <f t="shared" ref="J25" si="35">IFERROR((J5/F5)-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="29">
-        <f t="shared" si="34"/>
-        <v>0.51865477771188351</v>
-      </c>
-      <c r="M25" s="29">
-        <f>IFERROR((M5/I5)-1,0)</f>
-        <v>0.30567685589519655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L25" s="35">
+        <f t="shared" si="28"/>
+        <v>-2.9304548564793378</v>
+      </c>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="31" t="e">
-        <f>E8/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" s="32" t="e">
-        <f t="shared" ref="F26:L29" si="36">F8/B8-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="31" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="31" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="31">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="J26" s="32">
-        <f t="shared" ref="J26:J28" si="37">J8/F8-1</f>
-        <v>0.14497984448074508</v>
-      </c>
-      <c r="K26" s="31">
-        <f t="shared" si="36"/>
-        <v>0.11774568344265668</v>
-      </c>
-      <c r="L26" s="31">
-        <f t="shared" si="36"/>
-        <v>3.1315789473684212</v>
-      </c>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="E26" s="35">
+        <f t="shared" ref="E26" si="29">IFERROR(E18/E17,0)</f>
+        <v>-1.1882239119795537E-2</v>
+      </c>
+      <c r="F26" s="36">
+        <f t="shared" ref="F26:G26" si="30">IFERROR(F18/F17,0)</f>
+        <v>-1.4796598778476064E-2</v>
+      </c>
+      <c r="G26" s="35">
+        <f t="shared" si="30"/>
+        <v>-3.8445386002907291E-2</v>
+      </c>
+      <c r="H26" s="35">
+        <f t="shared" ref="H26:J26" si="31">IFERROR(H18/H17,0)</f>
+        <v>-1.4437097565905352E-2</v>
+      </c>
+      <c r="I26" s="35">
+        <f t="shared" ref="I26" si="32">IFERROR(I18/I17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="36">
+        <f t="shared" si="31"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+      <c r="K26" s="35">
+        <f t="shared" ref="K26:L26" si="33">IFERROR(K18/K17,0)</f>
+        <v>4.6992481203007516E-2</v>
+      </c>
+      <c r="L26" s="35">
+        <f t="shared" si="33"/>
+        <v>1.0441150197105713E-2</v>
+      </c>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="31" t="e">
-        <f>E9/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="32" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="31" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="31" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="31">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="32">
-        <f t="shared" si="37"/>
-        <v>9.6583827883682805E-2</v>
-      </c>
-      <c r="K27" s="31">
-        <f t="shared" si="36"/>
-        <v>6.1339785399686875E-2</v>
-      </c>
-      <c r="L27" s="31">
-        <f t="shared" si="36"/>
-        <v>1.7916666666666665</v>
-      </c>
-      <c r="M27" s="31"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>32</v>
+      <c r="A28" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="31" t="e">
-        <f>E10/#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="32" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="31" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="31" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="31">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="J28" s="32">
-        <f t="shared" si="37"/>
-        <v>0.19158656134005891</v>
-      </c>
-      <c r="K28" s="31">
-        <f t="shared" si="36"/>
-        <v>6.2509528891598887E-3</v>
-      </c>
-      <c r="L28" s="31">
-        <f t="shared" si="36"/>
-        <v>3.5810810810810807</v>
-      </c>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E28" s="29">
+        <f>IFERROR((E8/#REF!)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="30">
+        <f t="shared" ref="F28:L28" si="34">IFERROR((F8/B8)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="30">
+        <f t="shared" ref="J28" si="35">IFERROR((J8/F8)-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="29">
+        <f t="shared" si="34"/>
+        <v>0.51865477771188351</v>
+      </c>
+      <c r="M28" s="29">
+        <f>IFERROR((M8/I8)-1,0)</f>
+        <v>0.30567685589519655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="33" t="e">
+      <c r="E29" s="31" t="e">
         <f>E11/#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="34" t="e">
-        <f>F11/B11-1</f>
+      <c r="F29" s="32" t="e">
+        <f t="shared" ref="F29:L32" si="36">F11/B11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="33" t="e">
+      <c r="G29" s="31" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="33" t="e">
+      <c r="H29" s="31" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <f t="shared" si="36"/>
         <v>-1</v>
       </c>
-      <c r="J29" s="34">
-        <f>J11/F11-1</f>
-        <v>0.12802635154391151</v>
-      </c>
-      <c r="K29" s="33">
+      <c r="J29" s="32">
+        <f t="shared" ref="J29:J31" si="37">J11/F11-1</f>
+        <v>0.14497984448074508</v>
+      </c>
+      <c r="K29" s="31">
         <f t="shared" si="36"/>
-        <v>6.9148115130304388E-2</v>
-      </c>
-      <c r="L29" s="33">
+        <v>0.11774568344265668</v>
+      </c>
+      <c r="L29" s="31">
         <f t="shared" si="36"/>
-        <v>2.6592592592592594</v>
-      </c>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3.1315789473684212</v>
+      </c>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="44"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
-        <v>18</v>
+      <c r="E30" s="31" t="e">
+        <f>E12/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="32" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="31" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="31" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="J30" s="32">
+        <f t="shared" si="37"/>
+        <v>9.6583827883682805E-2</v>
+      </c>
+      <c r="K30" s="31">
+        <f t="shared" si="36"/>
+        <v>6.1339785399686875E-2</v>
+      </c>
+      <c r="L30" s="31">
+        <f t="shared" si="36"/>
+        <v>1.7916666666666665</v>
+      </c>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="24">
-        <f t="shared" ref="E31:G31" si="38">E32-E33</f>
-        <v>1126</v>
-      </c>
-      <c r="F31" s="25">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="24">
-        <f t="shared" ref="H31" si="39">H32-H33</f>
-        <v>735</v>
-      </c>
-      <c r="I31" s="24">
-        <f t="shared" ref="I31" si="40">I32-I33</f>
-        <v>735</v>
-      </c>
-      <c r="J31" s="25">
-        <f t="shared" ref="J31:L31" si="41">J32-J33</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="24">
-        <f t="shared" si="41"/>
-        <v>1237</v>
-      </c>
-      <c r="L31" s="24">
-        <f t="shared" si="41"/>
-        <v>1646</v>
-      </c>
-      <c r="M31" s="45"/>
-    </row>
-    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>19</v>
+      <c r="E31" s="31" t="e">
+        <f>E13/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="32" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="31" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="31" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="32">
+        <f t="shared" si="37"/>
+        <v>0.19158656134005891</v>
+      </c>
+      <c r="K31" s="31">
+        <f t="shared" si="36"/>
+        <v>6.2509528891598887E-3</v>
+      </c>
+      <c r="L31" s="31">
+        <f t="shared" si="36"/>
+        <v>3.5810810810810807</v>
+      </c>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="23">
-        <f>1116+10</f>
-        <v>1126</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23">
-        <f>1079+52</f>
-        <v>1131</v>
-      </c>
-      <c r="I32" s="23">
-        <f>1079+52</f>
-        <v>1131</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23">
-        <f>1498+37</f>
-        <v>1535</v>
-      </c>
-      <c r="L32" s="23">
-        <f>1800+44</f>
-        <v>1844</v>
-      </c>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="E32" s="33" t="e">
+        <f>E14/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="34" t="e">
+        <f>F14/B14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="33" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="33" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="33">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="J32" s="34">
+        <f>J14/F14-1</f>
+        <v>0.12802635154391151</v>
+      </c>
+      <c r="K32" s="33">
+        <f t="shared" si="36"/>
+        <v>6.9148115130304388E-2</v>
+      </c>
+      <c r="L32" s="33">
+        <f t="shared" si="36"/>
+        <v>2.6592592592592594</v>
+      </c>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23">
-        <v>396</v>
-      </c>
-      <c r="I33" s="23">
-        <v>396</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23">
-        <v>298</v>
-      </c>
-      <c r="L33" s="23">
-        <v>198</v>
-      </c>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="44"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34:G34" si="38">E35-E36</f>
+        <v>1126</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" ref="H34" si="39">H35-H36</f>
+        <v>735</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" ref="I34" si="40">I35-I36</f>
+        <v>735</v>
+      </c>
+      <c r="J34" s="25">
+        <f t="shared" ref="J34:L34" si="41">J35-J36</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="41"/>
+        <v>1237</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="41"/>
+        <v>1646</v>
+      </c>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64" t="s">
-        <v>44</v>
+      <c r="A35" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="23">
-        <v>23</v>
+        <f>1116+10</f>
+        <v>1126</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23">
-        <v>78</v>
+        <f>1079+52</f>
+        <v>1131</v>
       </c>
       <c r="I35" s="23">
-        <v>51</v>
+        <f>1079+52</f>
+        <v>1131</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23">
-        <v>55</v>
+        <f>1498+37</f>
+        <v>1535</v>
       </c>
       <c r="L35" s="23">
-        <v>94</v>
+        <f>1800+44</f>
+        <v>1844</v>
       </c>
       <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="64" t="s">
-        <v>45</v>
+      <c r="A36" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="23">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23">
-        <v>1594</v>
+        <v>396</v>
       </c>
       <c r="I36" s="23">
-        <v>1594</v>
+        <v>396</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="23">
-        <v>1892</v>
+        <v>298</v>
       </c>
       <c r="L36" s="23">
-        <v>2604</v>
+        <v>198</v>
       </c>
       <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64" t="s">
-        <v>46</v>
-      </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="23">
-        <v>923</v>
-      </c>
+      <c r="E37" s="23"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="23">
-        <v>1447</v>
-      </c>
-      <c r="I37" s="23">
-        <v>1447</v>
-      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="23">
-        <v>1163</v>
-      </c>
-      <c r="L37" s="23">
-        <v>1352</v>
-      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="23"/>
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="62" t="s">
+        <v>44</v>
+      </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="23">
+        <v>23</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="H38" s="23">
+        <v>78</v>
+      </c>
+      <c r="I38" s="23">
+        <v>51</v>
+      </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="K38" s="23">
+        <v>55</v>
+      </c>
+      <c r="L38" s="23">
+        <v>94</v>
+      </c>
       <c r="M38" s="23"/>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64" t="s">
-        <v>47</v>
+      <c r="A39" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="26">
-        <f t="shared" ref="E39:J39" si="42">E36-E32-E35</f>
-        <v>282</v>
-      </c>
-      <c r="F39" s="27">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="26">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="26">
-        <f t="shared" si="42"/>
-        <v>385</v>
-      </c>
-      <c r="I39" s="26">
-        <f t="shared" si="42"/>
-        <v>412</v>
-      </c>
-      <c r="J39" s="27">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="26">
-        <f t="shared" ref="K39:L39" si="43">K36-K32-K35</f>
-        <v>302</v>
-      </c>
-      <c r="L39" s="26">
-        <f t="shared" si="43"/>
-        <v>666</v>
+      <c r="E39" s="23">
+        <v>1431</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23">
+        <v>1594</v>
+      </c>
+      <c r="I39" s="23">
+        <v>1594</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23">
+        <v>1892</v>
+      </c>
+      <c r="L39" s="23">
+        <v>2604</v>
       </c>
       <c r="M39" s="23"/>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="64" t="s">
-        <v>48</v>
+      <c r="A40" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="26">
-        <f t="shared" ref="E40:G40" si="44">E36-E37</f>
-        <v>508</v>
-      </c>
-      <c r="F40" s="27">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="26">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="26">
-        <f>H36-H37</f>
-        <v>147</v>
-      </c>
-      <c r="I40" s="26">
-        <f>I36-I37</f>
-        <v>147</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" ref="J40" si="45">J36-J37</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="26">
-        <f>K36-K37</f>
-        <v>729</v>
-      </c>
-      <c r="L40" s="26">
-        <f>L36-L37</f>
-        <v>1252</v>
+      <c r="E40" s="23">
+        <v>923</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23">
+        <v>1447</v>
+      </c>
+      <c r="I40" s="23">
+        <v>1447</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23">
+        <v>1163</v>
+      </c>
+      <c r="L40" s="23">
+        <v>1352</v>
       </c>
       <c r="M40" s="23"/>
     </row>
@@ -9516,257 +9724,393 @@
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
     </row>
-    <row r="42" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65" t="s">
-        <v>49</v>
+    <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="62" t="s">
+        <v>47</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="24">
-        <f t="shared" ref="E42:I42" si="46">SUM(B17:E17)</f>
-        <v>-1786.385</v>
-      </c>
-      <c r="F42" s="25">
-        <f t="shared" si="46"/>
-        <v>-3713.09</v>
-      </c>
-      <c r="G42" s="24">
-        <f t="shared" si="46"/>
-        <v>-5824.777</v>
-      </c>
-      <c r="H42" s="24">
-        <f t="shared" si="46"/>
-        <v>-5965.3090000000002</v>
-      </c>
-      <c r="I42" s="24">
-        <f t="shared" si="46"/>
-        <v>-3949.924</v>
-      </c>
-      <c r="J42" s="25">
-        <f t="shared" ref="J42" si="47">SUM(G17:J17)</f>
-        <v>-4159.2190000000001</v>
-      </c>
-      <c r="K42" s="24">
-        <f>SUM(H17:K17)</f>
-        <v>-4075.5320000000002</v>
-      </c>
-      <c r="L42" s="24">
-        <f>SUM(I17:L17)</f>
-        <v>-4787.9740000000002</v>
-      </c>
-      <c r="M42" s="45"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
-        <v>50</v>
+      <c r="E42" s="26">
+        <f t="shared" ref="E42:J42" si="42">E39-E35-E38</f>
+        <v>282</v>
+      </c>
+      <c r="F42" s="27">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="26">
+        <f t="shared" si="42"/>
+        <v>385</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="42"/>
+        <v>412</v>
+      </c>
+      <c r="J42" s="27">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="26">
+        <f t="shared" ref="K42:L42" si="43">K39-K35-K38</f>
+        <v>302</v>
+      </c>
+      <c r="L42" s="26">
+        <f t="shared" si="43"/>
+        <v>666</v>
+      </c>
+      <c r="M42" s="23"/>
+    </row>
+    <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="62" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="33">
-        <f t="shared" ref="E43:J43" si="48">E42/E40</f>
-        <v>-3.5165059055118109</v>
-      </c>
-      <c r="F43" s="34" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="33" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="33">
-        <f t="shared" si="48"/>
-        <v>-40.580333333333336</v>
-      </c>
-      <c r="I43" s="33">
-        <f t="shared" si="48"/>
-        <v>-26.870231292517008</v>
-      </c>
-      <c r="J43" s="34" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="33">
-        <f t="shared" ref="K43:L43" si="49">K42/K40</f>
-        <v>-5.5905788751714676</v>
-      </c>
-      <c r="L43" s="33">
-        <f t="shared" si="49"/>
-        <v>-3.8242603833865818</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="E43" s="26">
+        <f t="shared" ref="E43:G43" si="44">E39-E40</f>
+        <v>508</v>
+      </c>
+      <c r="F43" s="27">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="26">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="26">
+        <f>H39-H40</f>
+        <v>147</v>
+      </c>
+      <c r="I43" s="26">
+        <f>I39-I40</f>
+        <v>147</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" ref="J43" si="45">J39-J40</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="26">
+        <f>K39-K40</f>
+        <v>729</v>
+      </c>
+      <c r="L43" s="26">
+        <f>L39-L40</f>
+        <v>1252</v>
+      </c>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="33">
-        <f t="shared" ref="E44:J44" si="50">E42/E36</f>
-        <v>-1.2483473095737248</v>
-      </c>
-      <c r="F44" s="34" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="33" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="33">
-        <f t="shared" si="50"/>
-        <v>-3.7423519447929738</v>
-      </c>
-      <c r="I44" s="33">
-        <f t="shared" si="50"/>
-        <v>-2.4779949811794229</v>
-      </c>
-      <c r="J44" s="34" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="33">
-        <f t="shared" ref="K44:L44" si="51">K42/K36</f>
-        <v>-2.1540866807610994</v>
-      </c>
-      <c r="L44" s="33">
-        <f t="shared" si="51"/>
-        <v>-1.8386996927803381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>52</v>
+      <c r="E44" s="23"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="63" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="33">
-        <f t="shared" ref="E45:J45" si="52">E42/(E40-E35)</f>
-        <v>-3.6832680412371133</v>
-      </c>
-      <c r="F45" s="34" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="33" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="33">
-        <f t="shared" si="52"/>
-        <v>-86.453753623188405</v>
-      </c>
-      <c r="I45" s="33">
-        <f t="shared" si="52"/>
-        <v>-41.145041666666664</v>
-      </c>
-      <c r="J45" s="34" t="e">
-        <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="33">
-        <f t="shared" ref="K45:L45" si="53">K42/(K40-K35)</f>
-        <v>-6.046783382789318</v>
-      </c>
-      <c r="L45" s="33">
-        <f t="shared" si="53"/>
-        <v>-4.1346925734024182</v>
-      </c>
+      <c r="E45" s="24">
+        <f t="shared" ref="E45:I45" si="46">SUM(B20:E20)</f>
+        <v>-1786.385</v>
+      </c>
+      <c r="F45" s="25">
+        <f t="shared" si="46"/>
+        <v>-3713.09</v>
+      </c>
+      <c r="G45" s="24">
+        <f t="shared" si="46"/>
+        <v>-5824.777</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="46"/>
+        <v>-5965.3090000000002</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" si="46"/>
+        <v>-3949.924</v>
+      </c>
+      <c r="J45" s="25">
+        <f t="shared" ref="J45" si="47">SUM(G20:J20)</f>
+        <v>-4159.2190000000001</v>
+      </c>
+      <c r="K45" s="24">
+        <f>SUM(H20:K20)</f>
+        <v>-4075.5320000000002</v>
+      </c>
+      <c r="L45" s="24">
+        <f>SUM(I20:L20)</f>
+        <v>-4787.9740000000002</v>
+      </c>
+      <c r="M45" s="45"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="33">
-        <f t="shared" ref="E46:J46" si="54">E42/E39</f>
-        <v>-6.3346985815602839</v>
+        <f t="shared" ref="E46:J46" si="48">E45/E43</f>
+        <v>-3.5165059055118109</v>
       </c>
       <c r="F46" s="34" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="33" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="33">
-        <f t="shared" si="54"/>
-        <v>-15.494309090909091</v>
+        <f t="shared" si="48"/>
+        <v>-40.580333333333336</v>
       </c>
       <c r="I46" s="33">
-        <f t="shared" si="54"/>
-        <v>-9.5871941747572809</v>
+        <f t="shared" si="48"/>
+        <v>-26.870231292517008</v>
       </c>
       <c r="J46" s="34" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="33">
-        <f t="shared" ref="K46:L46" si="55">K42/K39</f>
-        <v>-13.495139072847683</v>
+        <f t="shared" ref="K46:L46" si="49">K45/K43</f>
+        <v>-5.5905788751714676</v>
       </c>
       <c r="L46" s="33">
-        <f t="shared" si="55"/>
-        <v>-7.1891501501501507</v>
+        <f t="shared" si="49"/>
+        <v>-3.8242603833865818</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
+      <c r="E47" s="33">
+        <f t="shared" ref="E47:J47" si="50">E45/E39</f>
+        <v>-1.2483473095737248</v>
+      </c>
+      <c r="F47" s="34" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="33" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="33">
+        <f t="shared" si="50"/>
+        <v>-3.7423519447929738</v>
+      </c>
+      <c r="I47" s="33">
+        <f t="shared" si="50"/>
+        <v>-2.4779949811794229</v>
+      </c>
+      <c r="J47" s="34" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="33">
+        <f t="shared" ref="K47:L47" si="51">K45/K39</f>
+        <v>-2.1540866807610994</v>
+      </c>
+      <c r="L47" s="33">
+        <f t="shared" si="51"/>
+        <v>-1.8386996927803381</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
-        <v>58</v>
+      <c r="A48" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="33" t="e">
-        <f>E3/#REF!-1</f>
-        <v>#REF!</v>
+      <c r="E48" s="33">
+        <f t="shared" ref="E48:J48" si="52">E45/(E43-E38)</f>
+        <v>-3.6832680412371133</v>
       </c>
       <c r="F48" s="34" t="e">
-        <f t="shared" ref="F48:L48" si="56">F3/B3-1</f>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G48" s="33" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="33" t="e">
-        <f t="shared" si="56"/>
+      <c r="H48" s="33">
+        <f t="shared" si="52"/>
+        <v>-86.453753623188405</v>
+      </c>
+      <c r="I48" s="33">
+        <f t="shared" si="52"/>
+        <v>-41.145041666666664</v>
+      </c>
+      <c r="J48" s="34" t="e">
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="33" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="34" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="33" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+      <c r="K48" s="33">
+        <f t="shared" ref="K48:L48" si="53">K45/(K43-K38)</f>
+        <v>-6.046783382789318</v>
       </c>
       <c r="L48" s="33">
-        <f t="shared" si="56"/>
-        <v>0.51865477771188351</v>
-      </c>
-      <c r="M48" s="33"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+        <f t="shared" si="53"/>
+        <v>-4.1346925734024182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
+      <c r="E49" s="33">
+        <f t="shared" ref="E49:J49" si="54">E45/E42</f>
+        <v>-6.3346985815602839</v>
+      </c>
+      <c r="F49" s="34" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="33" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="33">
+        <f t="shared" si="54"/>
+        <v>-15.494309090909091</v>
+      </c>
+      <c r="I49" s="33">
+        <f t="shared" si="54"/>
+        <v>-9.5871941747572809</v>
+      </c>
+      <c r="J49" s="34" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="33">
+        <f t="shared" ref="K49:L49" si="55">K45/K42</f>
+        <v>-13.495139072847683</v>
+      </c>
+      <c r="L49" s="33">
+        <f t="shared" si="55"/>
+        <v>-7.1891501501501507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="33" t="e">
+        <f>E6/#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F51" s="34" t="e">
+        <f t="shared" ref="F51:L51" si="56">F6/B6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="33" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="33" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="33" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="34" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="33" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="33">
+        <f t="shared" si="56"/>
+        <v>0.51865477771188351</v>
+      </c>
+      <c r="M51" s="33"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33">
+        <f>L3/H3-1</f>
+        <v>0.67933182508445156</v>
+      </c>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33">
+        <f>L4/H4-1</f>
+        <v>0.35273095796885023</v>
+      </c>
+      <c r="M54" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9779,23 +10123,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:D7"/>
+  <dimension ref="B3:D25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="70" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9827,6 +10171,104 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="16">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="16">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3">
+        <v>91</v>
+      </c>
+      <c r="D19" s="71">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3">
+        <v>36</v>
+      </c>
+      <c r="D20" s="71">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44</v>
+      </c>
+      <c r="D21" s="71">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="3">
+        <v>114</v>
+      </c>
+      <c r="D22" s="71">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="3">
+        <v>32</v>
+      </c>
+      <c r="D23" s="71">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="71">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
+      <c r="D25" s="71">
+        <v>44202</v>
       </c>
     </row>
   </sheetData>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A839212-FBEE-4444-B8AA-991C00E429E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA382D-4C3A-6D4B-B248-9C74DA2DC8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44480" yWindow="-5320" windowWidth="32760" windowHeight="27060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-61040" yWindow="-5940" windowWidth="32760" windowHeight="27060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -990,10 +990,10 @@
   <dimension ref="A1:GS53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8489,7 +8489,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBEDB8-5BBB-1949-BEC8-2A6E8DAAFF2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D123D2F6-F3C9-674B-92C4-482A8373F9C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56540" yWindow="-5940" windowWidth="28260" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51300" yWindow="-5940" windowWidth="25640" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>Revenue</t>
   </si>
@@ -334,7 +334,7 @@
     <t>US Air Force</t>
   </si>
   <si>
-    <t>Quarterly operational cost include one-time stock compensation from direct listing</t>
+    <t>Stock-based anomaly</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,6 +613,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -646,7 +650,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -702,7 +706,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>239184</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1009,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GS59"/>
+  <dimension ref="A1:GS60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1061,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!M21</f>
+        <f>Reports!M22</f>
         <v>1763.5139220000001</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -1109,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!M33</f>
+        <f>Reports!M34</f>
         <v>1850</v>
       </c>
       <c r="D5" s="62" t="s">
@@ -1119,8 +1123,8 @@
         <v>24</v>
       </c>
       <c r="F5" s="11">
-        <f>NPV(F4,I26:GS26)</f>
-        <v>86228.043562508785</v>
+        <f>NPV(F4,I27:GS27)</f>
+        <v>100874.29580296055</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>63</v>
@@ -1144,7 +1148,7 @@
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>88078.043562508785</v>
+        <v>102724.29580296055</v>
       </c>
       <c r="I6" s="19"/>
     </row>
@@ -1165,11 +1169,11 @@
       </c>
       <c r="F7" s="42">
         <f>F6/C3</f>
-        <v>49.944626160149348</v>
+        <v>58.249778763561437</v>
       </c>
       <c r="G7" s="19">
         <f>F7/C2-1</f>
-        <v>0.72520297617096197</v>
+        <v>1.0120821679986678</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
@@ -1716,7 +1720,7 @@
         <v>364</v>
       </c>
       <c r="D15" s="24">
-        <f t="shared" ref="D15:L15" si="5">SUM(D13:D13)</f>
+        <f t="shared" ref="D15:F15" si="5">SUM(D13:D13)</f>
         <v>466</v>
       </c>
       <c r="E15" s="24">
@@ -1760,7 +1764,7 @@
         <v>7051.9891626239996</v>
       </c>
       <c r="O15" s="45">
-        <f t="shared" ref="N15:R15" si="6">N15*1.2</f>
+        <f t="shared" ref="O15:R15" si="6">N15*1.2</f>
         <v>8462.3869951487995</v>
       </c>
       <c r="P15" s="45">
@@ -1776,7 +1780,7 @@
         <v>14623.004727617124</v>
       </c>
       <c r="S15" s="45">
-        <f t="shared" ref="R15:W15" si="7">R15*1.1</f>
+        <f t="shared" ref="S15:W15" si="7">R15*1.1</f>
         <v>16085.305200378838</v>
       </c>
       <c r="T15" s="45">
@@ -1951,7 +1955,7 @@
         <v>4718.0597010333695</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" ref="R16:V16" si="11">S15-S17</f>
+        <f t="shared" ref="S16:V16" si="11">S15-S17</f>
         <v>5189.8656711367057</v>
       </c>
       <c r="T16" s="23">
@@ -2087,11 +2091,11 @@
         <v>740.12599999999998</v>
       </c>
       <c r="I17" s="23">
-        <f>I15*H30</f>
+        <f>I15*H31</f>
         <v>1036.1763999999998</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" ref="I17:W17" si="13">J15*I30</f>
+        <f t="shared" ref="J17:W17" si="13">J15*I31</f>
         <v>1450.6469599999998</v>
       </c>
       <c r="K17" s="23">
@@ -2099,7 +2103,7 @@
         <v>2030.9057439999999</v>
       </c>
       <c r="L17" s="23">
-        <f>L15*K30</f>
+        <f>L15*K31</f>
         <v>2843.2680415999998</v>
       </c>
       <c r="M17" s="23">
@@ -2262,64 +2266,64 @@
         <v>561</v>
       </c>
       <c r="I18" s="23">
-        <f>H18*0.8</f>
-        <v>448.8</v>
+        <f>H18*0.7</f>
+        <v>392.7</v>
       </c>
       <c r="J18" s="23">
         <f>I18*1.25</f>
-        <v>561</v>
+        <v>490.875</v>
       </c>
       <c r="K18" s="23">
         <f t="shared" ref="K18:M18" si="14">J18*1.25</f>
-        <v>701.25</v>
+        <v>613.59375</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="14"/>
-        <v>876.5625</v>
+        <v>766.9921875</v>
       </c>
       <c r="M18" s="23">
         <f t="shared" si="14"/>
-        <v>1095.703125</v>
+        <v>958.740234375</v>
       </c>
       <c r="N18" s="23">
         <f>M18*1.2</f>
-        <v>1314.84375</v>
+        <v>1150.48828125</v>
       </c>
       <c r="O18" s="23">
         <f t="shared" ref="O18:R18" si="15">N18*1.2</f>
-        <v>1577.8125</v>
+        <v>1380.5859375</v>
       </c>
       <c r="P18" s="23">
         <f t="shared" si="15"/>
-        <v>1893.375</v>
+        <v>1656.703125</v>
       </c>
       <c r="Q18" s="23">
         <f t="shared" si="15"/>
-        <v>2272.0499999999997</v>
+        <v>1988.0437499999998</v>
       </c>
       <c r="R18" s="23">
         <f t="shared" si="15"/>
-        <v>2726.4599999999996</v>
+        <v>2385.6524999999997</v>
       </c>
       <c r="S18" s="23">
         <f>R18*1.1</f>
-        <v>2999.1059999999998</v>
+        <v>2624.2177499999998</v>
       </c>
       <c r="T18" s="23">
         <f t="shared" ref="T18:W18" si="16">S18*1.1</f>
-        <v>3299.0165999999999</v>
+        <v>2886.639525</v>
       </c>
       <c r="U18" s="23">
         <f t="shared" si="16"/>
-        <v>3628.9182600000004</v>
+        <v>3175.3034775000001</v>
       </c>
       <c r="V18" s="23">
         <f t="shared" si="16"/>
-        <v>3991.8100860000009</v>
+        <v>3492.8338252500002</v>
       </c>
       <c r="W18" s="23">
         <f t="shared" si="16"/>
-        <v>4390.9910946000009</v>
+        <v>3842.1172077750007</v>
       </c>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
@@ -2437,64 +2441,64 @@
         <v>685</v>
       </c>
       <c r="I19" s="23">
-        <f>H19*0.8</f>
-        <v>548</v>
+        <f>H19*0.7</f>
+        <v>479.49999999999994</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" ref="J19:M19" si="17">I19*1.2</f>
-        <v>657.6</v>
+        <v>575.39999999999986</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="17"/>
-        <v>789.12</v>
+        <v>690.47999999999979</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="17"/>
-        <v>946.94399999999996</v>
+        <v>828.57599999999968</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="17"/>
-        <v>1136.3327999999999</v>
+        <v>994.29119999999955</v>
       </c>
       <c r="N19" s="23">
         <f>M19*1.1</f>
-        <v>1249.9660799999999</v>
+        <v>1093.7203199999997</v>
       </c>
       <c r="O19" s="23">
         <f t="shared" ref="O19:R19" si="18">N19*1.1</f>
-        <v>1374.9626880000001</v>
+        <v>1203.0923519999997</v>
       </c>
       <c r="P19" s="23">
         <f t="shared" si="18"/>
-        <v>1512.4589568000001</v>
+        <v>1323.4015871999998</v>
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="18"/>
-        <v>1663.7048524800002</v>
+        <v>1455.7417459199999</v>
       </c>
       <c r="R19" s="23">
         <f t="shared" si="18"/>
-        <v>1830.0753377280005</v>
+        <v>1601.315920512</v>
       </c>
       <c r="S19" s="23">
         <f>R19*0.95</f>
-        <v>1738.5715708416003</v>
+        <v>1521.2501244864</v>
       </c>
       <c r="T19" s="23">
         <f t="shared" ref="T19:W19" si="19">S19*0.95</f>
-        <v>1651.6429922995203</v>
+        <v>1445.1876182620799</v>
       </c>
       <c r="U19" s="23">
         <f t="shared" si="19"/>
-        <v>1569.0608426845442</v>
+        <v>1372.9282373489759</v>
       </c>
       <c r="V19" s="23">
         <f t="shared" si="19"/>
-        <v>1490.6078005503171</v>
+        <v>1304.281825481527</v>
       </c>
       <c r="W19" s="23">
         <f t="shared" si="19"/>
-        <v>1416.0774105228011</v>
+        <v>1239.0677342074505</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -2612,64 +2616,64 @@
         <v>669</v>
       </c>
       <c r="I20" s="23">
-        <f>H20*0.7</f>
-        <v>468.29999999999995</v>
+        <f>H20*0.5</f>
+        <v>334.5</v>
       </c>
       <c r="J20" s="23">
         <f>I20*1.15</f>
-        <v>538.54499999999996</v>
+        <v>384.67499999999995</v>
       </c>
       <c r="K20" s="23">
         <f t="shared" ref="K20:M20" si="20">J20*1.15</f>
-        <v>619.32674999999995</v>
+        <v>442.37624999999991</v>
       </c>
       <c r="L20" s="23">
         <f t="shared" si="20"/>
-        <v>712.22576249999986</v>
+        <v>508.73268749999988</v>
       </c>
       <c r="M20" s="23">
         <f t="shared" si="20"/>
-        <v>819.05962687499982</v>
+        <v>585.04259062499978</v>
       </c>
       <c r="N20" s="23">
         <f>M20*1.05</f>
-        <v>860.01260821874985</v>
+        <v>614.29472015624981</v>
       </c>
       <c r="O20" s="23">
         <f t="shared" ref="O20:R20" si="21">N20*1.05</f>
-        <v>903.01323862968741</v>
+        <v>645.00945616406227</v>
       </c>
       <c r="P20" s="23">
         <f t="shared" si="21"/>
-        <v>948.16390056117177</v>
+        <v>677.25992897226547</v>
       </c>
       <c r="Q20" s="23">
         <f t="shared" si="21"/>
-        <v>995.57209558923046</v>
+        <v>711.1229254208788</v>
       </c>
       <c r="R20" s="23">
         <f t="shared" si="21"/>
-        <v>1045.3507003686921</v>
+        <v>746.67907169192279</v>
       </c>
       <c r="S20" s="23">
-        <f t="shared" ref="M20:W20" si="22">R20*0.98</f>
-        <v>1024.4436863613182</v>
+        <f t="shared" ref="S20:W20" si="22">R20*0.98</f>
+        <v>731.74549025808437</v>
       </c>
       <c r="T20" s="23">
         <f t="shared" si="22"/>
-        <v>1003.9548126340918</v>
+        <v>717.1105804529227</v>
       </c>
       <c r="U20" s="23">
         <f t="shared" si="22"/>
-        <v>983.87571638140992</v>
+        <v>702.76836884386421</v>
       </c>
       <c r="V20" s="23">
         <f t="shared" si="22"/>
-        <v>964.19820205378176</v>
+        <v>688.71300146698695</v>
       </c>
       <c r="W20" s="23">
         <f t="shared" si="22"/>
-        <v>944.91423801270605</v>
+        <v>674.9387414376472</v>
       </c>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
@@ -2767,261 +2771,210 @@
       <c r="DM20" s="38"/>
       <c r="DN20" s="38"/>
     </row>
-    <row r="21" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="26">
-        <f>SUM(F18:F20)</f>
-        <v>1053</v>
-      </c>
-      <c r="G21" s="26">
-        <f>SUM(G18:G20)</f>
-        <v>1078</v>
-      </c>
-      <c r="H21" s="26">
-        <f>SUM(H18:H20)</f>
-        <v>1915</v>
-      </c>
-      <c r="I21" s="23">
-        <f>SUM(I18:I20)</f>
-        <v>1465.1</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" ref="J21:Q21" si="23">SUM(J18:J20)</f>
-        <v>1757.145</v>
-      </c>
-      <c r="K21" s="23">
-        <f t="shared" si="23"/>
-        <v>2109.6967500000001</v>
-      </c>
-      <c r="L21" s="23">
-        <f t="shared" si="23"/>
-        <v>2535.7322624999997</v>
-      </c>
-      <c r="M21" s="23">
-        <f t="shared" si="23"/>
-        <v>3051.0955518749997</v>
-      </c>
-      <c r="N21" s="23">
-        <f t="shared" si="23"/>
-        <v>3424.82243821875</v>
-      </c>
-      <c r="O21" s="23">
-        <f t="shared" si="23"/>
-        <v>3855.7884266296874</v>
-      </c>
-      <c r="P21" s="23">
-        <f t="shared" si="23"/>
-        <v>4353.9978573611716</v>
-      </c>
-      <c r="Q21" s="23">
-        <f t="shared" si="23"/>
-        <v>4931.3269480692306</v>
-      </c>
-      <c r="R21" s="23">
-        <f t="shared" ref="R21" si="24">SUM(R18:R20)</f>
-        <v>5601.8860380966917</v>
-      </c>
-      <c r="S21" s="23">
-        <f t="shared" ref="R21:V21" si="25">SUM(S18:S20)</f>
-        <v>5762.1212572029181</v>
-      </c>
-      <c r="T21" s="23">
-        <f t="shared" si="25"/>
-        <v>5954.6144049336117</v>
-      </c>
-      <c r="U21" s="23">
-        <f t="shared" si="25"/>
-        <v>6181.8548190659549</v>
-      </c>
-      <c r="V21" s="23">
-        <f t="shared" si="25"/>
-        <v>6446.6160886040998</v>
-      </c>
-      <c r="W21" s="23">
-        <f t="shared" ref="W21" si="26">SUM(W18:W20)</f>
-        <v>6751.9827431355079</v>
-      </c>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="38"/>
-      <c r="BJ21" s="38"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="38"/>
-      <c r="BN21" s="38"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="38"/>
-      <c r="BQ21" s="38"/>
-      <c r="BR21" s="38"/>
-      <c r="BS21" s="38"/>
-      <c r="BT21" s="38"/>
-      <c r="BU21" s="38"/>
-      <c r="BV21" s="38"/>
-      <c r="BW21" s="38"/>
-      <c r="BX21" s="38"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="38"/>
-      <c r="CA21" s="38"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="38"/>
-      <c r="CK21" s="38"/>
-      <c r="CL21" s="38"/>
-      <c r="CM21" s="38"/>
-      <c r="CN21" s="38"/>
-      <c r="CO21" s="38"/>
-      <c r="CP21" s="38"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="38"/>
-      <c r="CS21" s="38"/>
-      <c r="CT21" s="38"/>
-      <c r="CU21" s="38"/>
-      <c r="CV21" s="38"/>
-      <c r="CW21" s="38"/>
-      <c r="CX21" s="38"/>
-      <c r="CY21" s="38"/>
-      <c r="CZ21" s="38"/>
-      <c r="DA21" s="38"/>
-      <c r="DB21" s="38"/>
-      <c r="DC21" s="38"/>
-      <c r="DD21" s="38"/>
-      <c r="DE21" s="38"/>
-      <c r="DF21" s="38"/>
-      <c r="DG21" s="38"/>
-      <c r="DH21" s="38"/>
-      <c r="DI21" s="38"/>
-      <c r="DJ21" s="38"/>
-      <c r="DK21" s="38"/>
-      <c r="DL21" s="38"/>
-      <c r="DM21" s="38"/>
-      <c r="DN21" s="38"/>
+    <row r="21" spans="1:201" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70">
+        <f>SUM(Reports!J14:M14)</f>
+        <v>778</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
+      <c r="BP21" s="68"/>
+      <c r="BQ21" s="68"/>
+      <c r="BR21" s="68"/>
+      <c r="BS21" s="68"/>
+      <c r="BT21" s="68"/>
+      <c r="BU21" s="68"/>
+      <c r="BV21" s="68"/>
+      <c r="BW21" s="68"/>
+      <c r="BX21" s="68"/>
+      <c r="BY21" s="68"/>
+      <c r="BZ21" s="68"/>
+      <c r="CA21" s="68"/>
+      <c r="CB21" s="68"/>
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="68"/>
+      <c r="CE21" s="68"/>
+      <c r="CF21" s="68"/>
+      <c r="CG21" s="68"/>
+      <c r="CH21" s="68"/>
+      <c r="CI21" s="68"/>
+      <c r="CJ21" s="68"/>
+      <c r="CK21" s="68"/>
+      <c r="CL21" s="68"/>
+      <c r="CM21" s="68"/>
+      <c r="CN21" s="68"/>
+      <c r="CO21" s="68"/>
+      <c r="CP21" s="68"/>
+      <c r="CQ21" s="68"/>
+      <c r="CR21" s="68"/>
+      <c r="CS21" s="68"/>
+      <c r="CT21" s="68"/>
+      <c r="CU21" s="68"/>
+      <c r="CV21" s="68"/>
+      <c r="CW21" s="68"/>
+      <c r="CX21" s="68"/>
+      <c r="CY21" s="68"/>
+      <c r="CZ21" s="68"/>
+      <c r="DA21" s="68"/>
+      <c r="DB21" s="68"/>
+      <c r="DC21" s="68"/>
+      <c r="DD21" s="68"/>
+      <c r="DE21" s="68"/>
+      <c r="DF21" s="68"/>
+      <c r="DG21" s="68"/>
+      <c r="DH21" s="68"/>
+      <c r="DI21" s="68"/>
+      <c r="DJ21" s="68"/>
+      <c r="DK21" s="68"/>
+      <c r="DL21" s="68"/>
+      <c r="DM21" s="68"/>
+      <c r="DN21" s="68"/>
     </row>
     <row r="22" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26">
-        <f>F17-F21</f>
-        <v>-622.99199999999996</v>
+        <f>SUM(F18:F20)</f>
+        <v>1053</v>
       </c>
       <c r="G22" s="26">
-        <f>G17-G21</f>
-        <v>-577.81799999999998</v>
+        <f>SUM(G18:G20)</f>
+        <v>1078</v>
       </c>
       <c r="H22" s="26">
-        <f>H17-H21</f>
-        <v>-1174.874</v>
+        <f>SUM(H18:H20)-H21</f>
+        <v>1137</v>
       </c>
       <c r="I22" s="23">
-        <f>I17-I21</f>
-        <v>-428.92360000000008</v>
+        <f>SUM(I18:I20)</f>
+        <v>1206.6999999999998</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" ref="J22:Q22" si="27">J17-J21</f>
-        <v>-306.49804000000017</v>
+        <f t="shared" ref="J22:Q22" si="23">SUM(J18:J20)</f>
+        <v>1450.9499999999998</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="27"/>
-        <v>-78.791006000000152</v>
+        <f t="shared" si="23"/>
+        <v>1746.4499999999998</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="27"/>
-        <v>307.53577910000013</v>
+        <f t="shared" si="23"/>
+        <v>2104.3008749999995</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="27"/>
-        <v>929.47970636499986</v>
+        <f t="shared" si="23"/>
+        <v>2538.0740249999994</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="27"/>
-        <v>1351.8678716692493</v>
+        <f t="shared" si="23"/>
+        <v>2858.5033214062491</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="27"/>
-        <v>1876.2399452359118</v>
+        <f t="shared" si="23"/>
+        <v>3228.6877456640618</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="27"/>
-        <v>2524.4361888775475</v>
+        <f t="shared" si="23"/>
+        <v>3657.3646411722657</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="27"/>
-        <v>3322.7939074172318</v>
+        <f t="shared" si="23"/>
+        <v>4154.9084213408787</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" ref="R22" si="28">R17-R21</f>
-        <v>4303.0589884870633</v>
+        <f t="shared" ref="R22" si="24">SUM(R18:R20)</f>
+        <v>4733.6474922039224</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" ref="R22:V22" si="29">S17-S21</f>
-        <v>5133.3182720392142</v>
+        <f t="shared" ref="S22:V22" si="25">SUM(S18:S20)</f>
+        <v>4877.2133647444844</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="29"/>
-        <v>6030.3690772327327</v>
+        <f t="shared" si="25"/>
+        <v>5048.9377237150029</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="29"/>
-        <v>7001.6270113170267</v>
+        <f t="shared" si="25"/>
+        <v>5251.0000836928411</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="29"/>
-        <v>8055.2139248171807</v>
+        <f t="shared" si="25"/>
+        <v>5485.8286521985137</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" ref="W22" si="30">W17-W21</f>
-        <v>9200.0302716279039</v>
+        <f t="shared" ref="W22" si="26">SUM(W18:W20)</f>
+        <v>5756.1236834200981</v>
       </c>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
@@ -3121,83 +3074,83 @@
     </row>
     <row r="23" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="23">
-        <f>10-3+48-3</f>
-        <v>52</v>
-      </c>
-      <c r="G23" s="37">
-        <f>SUM(Reports!F16:I16)</f>
-        <v>7</v>
-      </c>
-      <c r="H23" s="37">
-        <f>SUM(Reports!J16:M16)</f>
-        <v>-7</v>
+      <c r="F23" s="26">
+        <f>F17-F22</f>
+        <v>-622.99199999999996</v>
+      </c>
+      <c r="G23" s="26">
+        <f>G17-G22</f>
+        <v>-577.81799999999998</v>
+      </c>
+      <c r="H23" s="26">
+        <f>H17-H22</f>
+        <v>-396.87400000000002</v>
       </c>
       <c r="I23" s="23">
-        <f>H40*$F$3</f>
-        <v>92.5</v>
+        <f>I17-I22</f>
+        <v>-170.52359999999999</v>
       </c>
       <c r="J23" s="23">
-        <f>I40*$F$3</f>
-        <v>75.678820000000002</v>
+        <f t="shared" ref="J23:Q23" si="27">J17-J22</f>
+        <v>-0.30304000000000997</v>
       </c>
       <c r="K23" s="23">
-        <f>J40*$F$3</f>
-        <v>64.137858999999992</v>
+        <f t="shared" si="27"/>
+        <v>284.4557440000001</v>
       </c>
       <c r="L23" s="23">
-        <f>K40*$F$3</f>
-        <v>63.405201649999981</v>
+        <f t="shared" si="27"/>
+        <v>738.96716660000038</v>
       </c>
       <c r="M23" s="23">
-        <f>L40*$F$3</f>
-        <v>80.097545783749979</v>
+        <f t="shared" si="27"/>
+        <v>1442.5012332400001</v>
       </c>
       <c r="N23" s="23">
-        <f>M40*$F$3</f>
-        <v>125.52852213044372</v>
+        <f t="shared" si="27"/>
+        <v>1918.1869884817502</v>
       </c>
       <c r="O23" s="23">
-        <f>N40*$F$3</f>
-        <v>192.01135985142992</v>
+        <f t="shared" si="27"/>
+        <v>2503.3406262015374</v>
       </c>
       <c r="P23" s="23">
-        <f>O40*$F$3</f>
-        <v>285.08266858036029</v>
+        <f t="shared" si="27"/>
+        <v>3221.0694050664533</v>
       </c>
       <c r="Q23" s="23">
-        <f>P40*$F$3</f>
-        <v>411.51101716596617</v>
+        <f t="shared" si="27"/>
+        <v>4099.2124341455838</v>
       </c>
       <c r="R23" s="23">
-        <f>Q40*$F$3</f>
-        <v>579.55473877221004</v>
+        <f t="shared" ref="R23" si="28">R17-R22</f>
+        <v>5171.2975343798325</v>
       </c>
       <c r="S23" s="23">
-        <f>R40*$F$3</f>
-        <v>799.27235649887734</v>
+        <f t="shared" ref="S23:V23" si="29">S17-S22</f>
+        <v>6018.2261644976479</v>
       </c>
       <c r="T23" s="23">
-        <f>S40*$F$3</f>
-        <v>1066.2389347830915</v>
+        <f t="shared" si="29"/>
+        <v>6936.0457584513415</v>
       </c>
       <c r="U23" s="23">
-        <f>T40*$F$3</f>
-        <v>1385.5862953238038</v>
+        <f t="shared" si="29"/>
+        <v>7932.4817466901404</v>
       </c>
       <c r="V23" s="23">
-        <f>U40*$F$3</f>
-        <v>1763.0108941226413</v>
+        <f t="shared" si="29"/>
+        <v>9016.0013612227667</v>
       </c>
       <c r="W23" s="23">
-        <f>V40*$F$3</f>
-        <v>2204.8310109749332</v>
+        <f t="shared" ref="W23" si="30">W17-W22</f>
+        <v>10195.889331343315</v>
       </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
@@ -3297,83 +3250,83 @@
     </row>
     <row r="24" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="26">
-        <f>F22+F23</f>
-        <v>-570.99199999999996</v>
-      </c>
-      <c r="G24" s="26">
-        <f>G22+G23</f>
-        <v>-570.81799999999998</v>
-      </c>
-      <c r="H24" s="26">
-        <f>H22+H23</f>
-        <v>-1181.874</v>
+      <c r="F24" s="23">
+        <f>10-3+48-3</f>
+        <v>52</v>
+      </c>
+      <c r="G24" s="37">
+        <f>SUM(Reports!F17:I17)</f>
+        <v>7</v>
+      </c>
+      <c r="H24" s="37">
+        <f>SUM(Reports!J17:M17)</f>
+        <v>-7</v>
       </c>
       <c r="I24" s="23">
-        <f>I22+I23</f>
-        <v>-336.42360000000008</v>
+        <f t="shared" ref="I24:W24" si="31">H41*$F$3</f>
+        <v>92.5</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" ref="J24" si="31">J22+J23</f>
-        <v>-230.81922000000017</v>
+        <f t="shared" si="31"/>
+        <v>88.598820000000003</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" ref="K24" si="32">K22+K23</f>
-        <v>-14.65314700000016</v>
+        <f t="shared" si="31"/>
+        <v>93.013609000000002</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" ref="L24" si="33">L22+L23</f>
-        <v>370.94098075000011</v>
+        <f t="shared" si="31"/>
+        <v>111.88707665</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" ref="M24" si="34">M22+M23</f>
-        <v>1009.5772521487498</v>
+        <f t="shared" si="31"/>
+        <v>150.17551759625002</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" ref="N24" si="35">N22+N23</f>
-        <v>1477.396393799693</v>
+        <f t="shared" si="31"/>
+        <v>221.84597138388128</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" ref="O24" si="36">O22+O23</f>
-        <v>2068.2513050873417</v>
+        <f t="shared" si="31"/>
+        <v>318.14745457783465</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" ref="P24" si="37">P22+P23</f>
-        <v>2809.5188574579079</v>
+        <f t="shared" si="31"/>
+        <v>445.1144182129064</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" ref="Q24:R24" si="38">Q22+Q23</f>
-        <v>3734.304924583198</v>
+        <f t="shared" si="31"/>
+        <v>610.09269026047753</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" ref="R24" si="39">R22+R23</f>
-        <v>4882.6137272592732</v>
+        <f t="shared" si="31"/>
+        <v>822.0114208587504</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" ref="S24:V24" si="40">S22+S23</f>
-        <v>5932.5906285380916</v>
+        <f t="shared" si="31"/>
+        <v>1091.7103238444868</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="40"/>
-        <v>7096.608012015824</v>
+        <f t="shared" si="31"/>
+        <v>1411.6574658198829</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="40"/>
-        <v>8387.2133066408314</v>
+        <f t="shared" si="31"/>
+        <v>1787.3041109120882</v>
       </c>
       <c r="V24" s="23">
-        <f t="shared" si="40"/>
-        <v>9818.2248189398215</v>
+        <f t="shared" si="31"/>
+        <v>2224.6944745041883</v>
       </c>
       <c r="W24" s="23">
-        <f t="shared" ref="W24" si="41">W22+W23</f>
-        <v>11404.861282602837</v>
+        <f t="shared" si="31"/>
+        <v>2730.5257871119011</v>
       </c>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
@@ -3473,79 +3426,83 @@
     </row>
     <row r="25" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="23">
-        <v>9</v>
-      </c>
-      <c r="G25" s="37">
-        <f>SUM(Reports!F18:I18)</f>
-        <v>12</v>
-      </c>
-      <c r="H25" s="37">
-        <f>SUM(Reports!J18:M18)</f>
-        <v>-13</v>
+      <c r="F25" s="26">
+        <f>F23+F24</f>
+        <v>-570.99199999999996</v>
+      </c>
+      <c r="G25" s="26">
+        <f>G23+G24</f>
+        <v>-570.81799999999998</v>
+      </c>
+      <c r="H25" s="26">
+        <f>H23+H24</f>
+        <v>-403.87400000000002</v>
       </c>
       <c r="I25" s="23">
-        <v>0</v>
+        <f>I23+I24</f>
+        <v>-78.023599999999988</v>
       </c>
       <c r="J25" s="23">
-        <v>0</v>
+        <f t="shared" ref="J25" si="32">J23+J24</f>
+        <v>88.295779999999993</v>
       </c>
       <c r="K25" s="23">
-        <v>0</v>
+        <f t="shared" ref="K25" si="33">K23+K24</f>
+        <v>377.46935300000007</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="K25:Q25" si="42">L24*0.1</f>
-        <v>37.094098075000012</v>
+        <f t="shared" ref="L25" si="34">L23+L24</f>
+        <v>850.85424325000042</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="42"/>
-        <v>100.95772521487498</v>
+        <f t="shared" ref="M25" si="35">M23+M24</f>
+        <v>1592.6767508362502</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="42"/>
-        <v>147.7396393799693</v>
+        <f t="shared" ref="N25" si="36">N23+N24</f>
+        <v>2140.0329598656313</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="42"/>
-        <v>206.82513050873419</v>
+        <f t="shared" ref="O25" si="37">O23+O24</f>
+        <v>2821.488080779372</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="42"/>
-        <v>280.95188574579078</v>
+        <f t="shared" ref="P25" si="38">P23+P24</f>
+        <v>3666.1838232793598</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="42"/>
-        <v>373.4304924583198</v>
+        <f t="shared" ref="Q25" si="39">Q23+Q24</f>
+        <v>4709.3051244060616</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25" si="43">R24*0.1</f>
-        <v>488.26137272592734</v>
+        <f t="shared" ref="R25" si="40">R23+R24</f>
+        <v>5993.3089552385827</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" ref="R25:V25" si="44">S24*0.1</f>
-        <v>593.25906285380916</v>
+        <f t="shared" ref="S25:V25" si="41">S23+S24</f>
+        <v>7109.9364883421349</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" si="44"/>
-        <v>709.66080120158244</v>
+        <f t="shared" si="41"/>
+        <v>8347.7032242712248</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="44"/>
-        <v>838.72133066408321</v>
+        <f t="shared" si="41"/>
+        <v>9719.7858576022281</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" si="44"/>
-        <v>981.82248189398217</v>
+        <f t="shared" si="41"/>
+        <v>11240.695835726954</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" ref="W25" si="45">W24*0.1</f>
-        <v>1140.4861282602837</v>
+        <f t="shared" ref="W25" si="42">W23+W24</f>
+        <v>12926.415118455216</v>
       </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
@@ -3643,1348 +3600,1344 @@
       <c r="DM25" s="38"/>
       <c r="DN25" s="38"/>
     </row>
-    <row r="26" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
+    <row r="26" spans="1:201" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="24">
-        <f>F24-F25</f>
+      <c r="F26" s="23">
+        <v>9</v>
+      </c>
+      <c r="G26" s="37">
+        <f>SUM(Reports!F19:I19)</f>
+        <v>12</v>
+      </c>
+      <c r="H26" s="37">
+        <f>SUM(Reports!J19:M19)</f>
+        <v>-13</v>
+      </c>
+      <c r="I26" s="23">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23">
+        <v>0</v>
+      </c>
+      <c r="K26" s="23">
+        <v>0</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" ref="L26:Q26" si="43">L25*0.1</f>
+        <v>85.085424325000048</v>
+      </c>
+      <c r="M26" s="23">
+        <f t="shared" si="43"/>
+        <v>159.26767508362502</v>
+      </c>
+      <c r="N26" s="23">
+        <f t="shared" si="43"/>
+        <v>214.00329598656313</v>
+      </c>
+      <c r="O26" s="23">
+        <f t="shared" si="43"/>
+        <v>282.14880807793719</v>
+      </c>
+      <c r="P26" s="23">
+        <f t="shared" si="43"/>
+        <v>366.61838232793599</v>
+      </c>
+      <c r="Q26" s="23">
+        <f t="shared" si="43"/>
+        <v>470.93051244060621</v>
+      </c>
+      <c r="R26" s="23">
+        <f t="shared" ref="R26" si="44">R25*0.1</f>
+        <v>599.33089552385832</v>
+      </c>
+      <c r="S26" s="23">
+        <f t="shared" ref="S26:V26" si="45">S25*0.1</f>
+        <v>710.99364883421356</v>
+      </c>
+      <c r="T26" s="23">
+        <f t="shared" si="45"/>
+        <v>834.77032242712255</v>
+      </c>
+      <c r="U26" s="23">
+        <f t="shared" si="45"/>
+        <v>971.97858576022281</v>
+      </c>
+      <c r="V26" s="23">
+        <f t="shared" si="45"/>
+        <v>1124.0695835726954</v>
+      </c>
+      <c r="W26" s="23">
+        <f t="shared" ref="W26" si="46">W25*0.1</f>
+        <v>1292.6415118455216</v>
+      </c>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+      <c r="BO26" s="38"/>
+      <c r="BP26" s="38"/>
+      <c r="BQ26" s="38"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="38"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="38"/>
+      <c r="BW26" s="38"/>
+      <c r="BX26" s="38"/>
+      <c r="BY26" s="38"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="38"/>
+      <c r="CB26" s="38"/>
+      <c r="CC26" s="38"/>
+      <c r="CD26" s="38"/>
+      <c r="CE26" s="38"/>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="38"/>
+      <c r="CH26" s="38"/>
+      <c r="CI26" s="38"/>
+      <c r="CJ26" s="38"/>
+      <c r="CK26" s="38"/>
+      <c r="CL26" s="38"/>
+      <c r="CM26" s="38"/>
+      <c r="CN26" s="38"/>
+      <c r="CO26" s="38"/>
+      <c r="CP26" s="38"/>
+      <c r="CQ26" s="38"/>
+      <c r="CR26" s="38"/>
+      <c r="CS26" s="38"/>
+      <c r="CT26" s="38"/>
+      <c r="CU26" s="38"/>
+      <c r="CV26" s="38"/>
+      <c r="CW26" s="38"/>
+      <c r="CX26" s="38"/>
+      <c r="CY26" s="38"/>
+      <c r="CZ26" s="38"/>
+      <c r="DA26" s="38"/>
+      <c r="DB26" s="38"/>
+      <c r="DC26" s="38"/>
+      <c r="DD26" s="38"/>
+      <c r="DE26" s="38"/>
+      <c r="DF26" s="38"/>
+      <c r="DG26" s="38"/>
+      <c r="DH26" s="38"/>
+      <c r="DI26" s="38"/>
+      <c r="DJ26" s="38"/>
+      <c r="DK26" s="38"/>
+      <c r="DL26" s="38"/>
+      <c r="DM26" s="38"/>
+      <c r="DN26" s="38"/>
+    </row>
+    <row r="27" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24">
+        <f>F25-F26</f>
         <v>-579.99199999999996</v>
       </c>
-      <c r="G26" s="24">
-        <f t="shared" ref="G26:I26" si="46">G24-G25</f>
+      <c r="G27" s="24">
+        <f t="shared" ref="G27:I27" si="47">G25-G26</f>
         <v>-582.81799999999998</v>
       </c>
-      <c r="H26" s="24">
-        <f>H24-H25</f>
-        <v>-1168.874</v>
-      </c>
-      <c r="I26" s="24">
-        <f t="shared" si="46"/>
-        <v>-336.42360000000008</v>
-      </c>
-      <c r="J26" s="24">
-        <f t="shared" ref="J26:Q26" si="47">J24-J25</f>
-        <v>-230.81922000000017</v>
-      </c>
-      <c r="K26" s="24">
+      <c r="H27" s="24">
+        <f>H25-H26</f>
+        <v>-390.87400000000002</v>
+      </c>
+      <c r="I27" s="24">
         <f t="shared" si="47"/>
-        <v>-14.65314700000016</v>
-      </c>
-      <c r="L26" s="24">
-        <f t="shared" si="47"/>
-        <v>333.84688267500007</v>
-      </c>
-      <c r="M26" s="24">
-        <f t="shared" si="47"/>
-        <v>908.61952693387479</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" si="47"/>
-        <v>1329.6567544197237</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="47"/>
-        <v>1861.4261745786075</v>
-      </c>
-      <c r="P26" s="24">
-        <f t="shared" si="47"/>
-        <v>2528.5669717121173</v>
-      </c>
-      <c r="Q26" s="24">
-        <f t="shared" si="47"/>
-        <v>3360.8744321248782</v>
-      </c>
-      <c r="R26" s="24">
-        <f t="shared" ref="R26" si="48">R24-R25</f>
-        <v>4394.3523545333455</v>
-      </c>
-      <c r="S26" s="24">
-        <f t="shared" ref="R26:V26" si="49">S24-S25</f>
-        <v>5339.3315656842824</v>
-      </c>
-      <c r="T26" s="24">
-        <f t="shared" si="49"/>
-        <v>6386.9472108142418</v>
-      </c>
-      <c r="U26" s="24">
-        <f t="shared" si="49"/>
-        <v>7548.4919759767481</v>
-      </c>
-      <c r="V26" s="24">
-        <f t="shared" si="49"/>
-        <v>8836.4023370458399</v>
-      </c>
-      <c r="W26" s="24">
-        <f t="shared" ref="W26" si="50">W24-W25</f>
-        <v>10264.375154342553</v>
-      </c>
-      <c r="X26" s="24">
-        <f>W26*($F$2+1)</f>
-        <v>10367.01890588598</v>
-      </c>
-      <c r="Y26" s="24">
-        <f>X26*($F$2+1)</f>
-        <v>10470.689094944839</v>
-      </c>
-      <c r="Z26" s="24">
-        <f>Y26*($F$2+1)</f>
-        <v>10575.395985894287</v>
-      </c>
-      <c r="AA26" s="24">
-        <f>Z26*($F$2+1)</f>
-        <v>10681.14994575323</v>
-      </c>
-      <c r="AB26" s="24">
-        <f>AA26*($F$2+1)</f>
-        <v>10787.961445210762</v>
-      </c>
-      <c r="AC26" s="24">
-        <f>AB26*($F$2+1)</f>
-        <v>10895.841059662869</v>
-      </c>
-      <c r="AD26" s="24">
-        <f>AC26*($F$2+1)</f>
-        <v>11004.799470259499</v>
-      </c>
-      <c r="AE26" s="24">
-        <f>AD26*($F$2+1)</f>
-        <v>11114.847464962093</v>
-      </c>
-      <c r="AF26" s="24">
-        <f>AE26*($F$2+1)</f>
-        <v>11225.995939611714</v>
-      </c>
-      <c r="AG26" s="24">
-        <f>AF26*($F$2+1)</f>
-        <v>11338.255899007831</v>
-      </c>
-      <c r="AH26" s="24">
-        <f>AG26*($F$2+1)</f>
-        <v>11451.638457997909</v>
-      </c>
-      <c r="AI26" s="24">
-        <f>AH26*($F$2+1)</f>
-        <v>11566.154842577889</v>
-      </c>
-      <c r="AJ26" s="24">
-        <f>AI26*($F$2+1)</f>
-        <v>11681.816391003667</v>
-      </c>
-      <c r="AK26" s="24">
-        <f>AJ26*($F$2+1)</f>
-        <v>11798.634554913704</v>
-      </c>
-      <c r="AL26" s="24">
-        <f>AK26*($F$2+1)</f>
-        <v>11916.620900462842</v>
-      </c>
-      <c r="AM26" s="24">
-        <f>AL26*($F$2+1)</f>
-        <v>12035.78710946747</v>
-      </c>
-      <c r="AN26" s="24">
-        <f>AM26*($F$2+1)</f>
-        <v>12156.144980562145</v>
-      </c>
-      <c r="AO26" s="24">
-        <f>AN26*($F$2+1)</f>
-        <v>12277.706430367767</v>
-      </c>
-      <c r="AP26" s="24">
-        <f>AO26*($F$2+1)</f>
-        <v>12400.483494671445</v>
-      </c>
-      <c r="AQ26" s="24">
-        <f>AP26*($F$2+1)</f>
-        <v>12524.48832961816</v>
-      </c>
-      <c r="AR26" s="24">
-        <f>AQ26*($F$2+1)</f>
-        <v>12649.733212914341</v>
-      </c>
-      <c r="AS26" s="24">
-        <f>AR26*($F$2+1)</f>
-        <v>12776.230545043485</v>
-      </c>
-      <c r="AT26" s="24">
-        <f>AS26*($F$2+1)</f>
-        <v>12903.99285049392</v>
-      </c>
-      <c r="AU26" s="24">
-        <f>AT26*($F$2+1)</f>
-        <v>13033.032778998859</v>
-      </c>
-      <c r="AV26" s="24">
-        <f>AU26*($F$2+1)</f>
-        <v>13163.363106788847</v>
-      </c>
-      <c r="AW26" s="24">
-        <f>AV26*($F$2+1)</f>
-        <v>13294.996737856736</v>
-      </c>
-      <c r="AX26" s="24">
-        <f>AW26*($F$2+1)</f>
-        <v>13427.946705235303</v>
-      </c>
-      <c r="AY26" s="24">
-        <f>AX26*($F$2+1)</f>
-        <v>13562.226172287656</v>
-      </c>
-      <c r="AZ26" s="24">
-        <f>AY26*($F$2+1)</f>
-        <v>13697.848434010531</v>
-      </c>
-      <c r="BA26" s="24">
-        <f>AZ26*($F$2+1)</f>
-        <v>13834.826918350636</v>
-      </c>
-      <c r="BB26" s="24">
-        <f>BA26*($F$2+1)</f>
-        <v>13973.175187534143</v>
-      </c>
-      <c r="BC26" s="24">
-        <f>BB26*($F$2+1)</f>
-        <v>14112.906939409484</v>
-      </c>
-      <c r="BD26" s="24">
-        <f>BC26*($F$2+1)</f>
-        <v>14254.03600880358</v>
-      </c>
-      <c r="BE26" s="24">
-        <f>BD26*($F$2+1)</f>
-        <v>14396.576368891616</v>
-      </c>
-      <c r="BF26" s="24">
-        <f>BE26*($F$2+1)</f>
-        <v>14540.542132580533</v>
-      </c>
-      <c r="BG26" s="24">
-        <f>BF26*($F$2+1)</f>
-        <v>14685.947553906339</v>
-      </c>
-      <c r="BH26" s="24">
-        <f>BG26*($F$2+1)</f>
-        <v>14832.807029445403</v>
-      </c>
-      <c r="BI26" s="24">
-        <f>BH26*($F$2+1)</f>
-        <v>14981.135099739857</v>
-      </c>
-      <c r="BJ26" s="24">
-        <f>BI26*($F$2+1)</f>
-        <v>15130.946450737256</v>
-      </c>
-      <c r="BK26" s="24">
-        <f>BJ26*($F$2+1)</f>
-        <v>15282.255915244628</v>
-      </c>
-      <c r="BL26" s="24">
-        <f>BK26*($F$2+1)</f>
-        <v>15435.078474397074</v>
-      </c>
-      <c r="BM26" s="24">
-        <f>BL26*($F$2+1)</f>
-        <v>15589.429259141045</v>
-      </c>
-      <c r="BN26" s="24">
-        <f>BM26*($F$2+1)</f>
-        <v>15745.323551732456</v>
-      </c>
-      <c r="BO26" s="24">
-        <f>BN26*($F$2+1)</f>
-        <v>15902.776787249781</v>
-      </c>
-      <c r="BP26" s="24">
-        <f>BO26*($F$2+1)</f>
-        <v>16061.804555122279</v>
-      </c>
-      <c r="BQ26" s="24">
-        <f>BP26*($F$2+1)</f>
-        <v>16222.422600673501</v>
-      </c>
-      <c r="BR26" s="24">
-        <f>BQ26*($F$2+1)</f>
-        <v>16384.646826680237</v>
-      </c>
-      <c r="BS26" s="24">
-        <f>BR26*($F$2+1)</f>
-        <v>16548.493294947039</v>
-      </c>
-      <c r="BT26" s="24">
-        <f>BS26*($F$2+1)</f>
-        <v>16713.97822789651</v>
-      </c>
-      <c r="BU26" s="24">
-        <f>BT26*($F$2+1)</f>
-        <v>16881.118010175476</v>
-      </c>
-      <c r="BV26" s="24">
-        <f>BU26*($F$2+1)</f>
-        <v>17049.929190277231</v>
-      </c>
-      <c r="BW26" s="24">
-        <f>BV26*($F$2+1)</f>
-        <v>17220.428482180003</v>
-      </c>
-      <c r="BX26" s="24">
-        <f>BW26*($F$2+1)</f>
-        <v>17392.632767001804</v>
-      </c>
-      <c r="BY26" s="24">
-        <f>BX26*($F$2+1)</f>
-        <v>17566.559094671822</v>
-      </c>
-      <c r="BZ26" s="24">
-        <f>BY26*($F$2+1)</f>
-        <v>17742.224685618541</v>
-      </c>
-      <c r="CA26" s="24">
-        <f>BZ26*($F$2+1)</f>
-        <v>17919.646932474727</v>
-      </c>
-      <c r="CB26" s="24">
-        <f>CA26*($F$2+1)</f>
-        <v>18098.843401799473</v>
-      </c>
-      <c r="CC26" s="24">
-        <f>CB26*($F$2+1)</f>
-        <v>18279.831835817469</v>
-      </c>
-      <c r="CD26" s="24">
-        <f>CC26*($F$2+1)</f>
-        <v>18462.630154175644</v>
-      </c>
-      <c r="CE26" s="24">
-        <f>CD26*($F$2+1)</f>
-        <v>18647.256455717401</v>
-      </c>
-      <c r="CF26" s="24">
-        <f>CE26*($F$2+1)</f>
-        <v>18833.729020274575</v>
-      </c>
-      <c r="CG26" s="24">
-        <f>CF26*($F$2+1)</f>
-        <v>19022.066310477323</v>
-      </c>
-      <c r="CH26" s="24">
-        <f>CG26*($F$2+1)</f>
-        <v>19212.286973582097</v>
-      </c>
-      <c r="CI26" s="24">
-        <f>CH26*($F$2+1)</f>
-        <v>19404.409843317917</v>
-      </c>
-      <c r="CJ26" s="24">
-        <f>CI26*($F$2+1)</f>
-        <v>19598.453941751097</v>
-      </c>
-      <c r="CK26" s="24">
-        <f>CJ26*($F$2+1)</f>
-        <v>19794.438481168607</v>
-      </c>
-      <c r="CL26" s="24">
-        <f>CK26*($F$2+1)</f>
-        <v>19992.382865980293</v>
-      </c>
-      <c r="CM26" s="24">
-        <f>CL26*($F$2+1)</f>
-        <v>20192.306694640098</v>
-      </c>
-      <c r="CN26" s="24">
-        <f>CM26*($F$2+1)</f>
-        <v>20394.229761586499</v>
-      </c>
-      <c r="CO26" s="24">
-        <f>CN26*($F$2+1)</f>
-        <v>20598.172059202363</v>
-      </c>
-      <c r="CP26" s="24">
-        <f>CO26*($F$2+1)</f>
-        <v>20804.153779794386</v>
-      </c>
-      <c r="CQ26" s="24">
-        <f>CP26*($F$2+1)</f>
-        <v>21012.19531759233</v>
-      </c>
-      <c r="CR26" s="24">
-        <f>CQ26*($F$2+1)</f>
-        <v>21222.317270768253</v>
-      </c>
-      <c r="CS26" s="24">
-        <f>CR26*($F$2+1)</f>
-        <v>21434.540443475937</v>
-      </c>
-      <c r="CT26" s="24">
-        <f>CS26*($F$2+1)</f>
-        <v>21648.885847910697</v>
-      </c>
-      <c r="CU26" s="24">
-        <f>CT26*($F$2+1)</f>
-        <v>21865.374706389804</v>
-      </c>
-      <c r="CV26" s="24">
-        <f>CU26*($F$2+1)</f>
-        <v>22084.028453453702</v>
-      </c>
-      <c r="CW26" s="24">
-        <f>CV26*($F$2+1)</f>
-        <v>22304.868737988239</v>
-      </c>
-      <c r="CX26" s="24">
-        <f>CW26*($F$2+1)</f>
-        <v>22527.917425368123</v>
-      </c>
-      <c r="CY26" s="24">
-        <f>CX26*($F$2+1)</f>
-        <v>22753.196599621806</v>
-      </c>
-      <c r="CZ26" s="24">
-        <f>CY26*($F$2+1)</f>
-        <v>22980.728565618025</v>
-      </c>
-      <c r="DA26" s="24">
-        <f>CZ26*($F$2+1)</f>
-        <v>23210.535851274206</v>
-      </c>
-      <c r="DB26" s="24">
-        <f>DA26*($F$2+1)</f>
-        <v>23442.641209786947</v>
-      </c>
-      <c r="DC26" s="24">
-        <f>DB26*($F$2+1)</f>
-        <v>23677.067621884817</v>
-      </c>
-      <c r="DD26" s="24">
-        <f>DC26*($F$2+1)</f>
-        <v>23913.838298103667</v>
-      </c>
-      <c r="DE26" s="24">
-        <f>DD26*($F$2+1)</f>
-        <v>24152.976681084703</v>
-      </c>
-      <c r="DF26" s="24">
-        <f>DE26*($F$2+1)</f>
-        <v>24394.50644789555</v>
-      </c>
-      <c r="DG26" s="24">
-        <f>DF26*($F$2+1)</f>
-        <v>24638.451512374504</v>
-      </c>
-      <c r="DH26" s="24">
-        <f>DG26*($F$2+1)</f>
-        <v>24884.836027498248</v>
-      </c>
-      <c r="DI26" s="24">
-        <f>DH26*($F$2+1)</f>
-        <v>25133.684387773232</v>
-      </c>
-      <c r="DJ26" s="24">
-        <f>DI26*($F$2+1)</f>
-        <v>25385.021231650964</v>
-      </c>
-      <c r="DK26" s="24">
-        <f>DJ26*($F$2+1)</f>
-        <v>25638.871443967473</v>
-      </c>
-      <c r="DL26" s="24">
-        <f>DK26*($F$2+1)</f>
-        <v>25895.260158407149</v>
-      </c>
-      <c r="DM26" s="24">
-        <f>DL26*($F$2+1)</f>
-        <v>26154.21275999122</v>
-      </c>
-      <c r="DN26" s="24">
-        <f>DM26*($F$2+1)</f>
-        <v>26415.754887591134</v>
-      </c>
-      <c r="DO26" s="24">
-        <f>DN26*($F$2+1)</f>
-        <v>26679.912436467046</v>
-      </c>
-      <c r="DP26" s="24">
-        <f>DO26*($F$2+1)</f>
-        <v>26946.711560831718</v>
-      </c>
-      <c r="DQ26" s="24">
-        <f>DP26*($F$2+1)</f>
-        <v>27216.178676440035</v>
-      </c>
-      <c r="DR26" s="24">
-        <f>DQ26*($F$2+1)</f>
-        <v>27488.340463204437</v>
-      </c>
-      <c r="DS26" s="24">
-        <f>DR26*($F$2+1)</f>
-        <v>27763.223867836481</v>
-      </c>
-      <c r="DT26" s="24">
-        <f>DS26*($F$2+1)</f>
-        <v>28040.856106514846</v>
-      </c>
-      <c r="DU26" s="24">
-        <f>DT26*($F$2+1)</f>
-        <v>28321.264667579995</v>
-      </c>
-      <c r="DV26" s="24">
-        <f>DU26*($F$2+1)</f>
-        <v>28604.477314255797</v>
-      </c>
-      <c r="DW26" s="24">
-        <f>DV26*($F$2+1)</f>
-        <v>28890.522087398356</v>
-      </c>
-      <c r="DX26" s="24">
-        <f>DW26*($F$2+1)</f>
-        <v>29179.427308272341</v>
-      </c>
-      <c r="DY26" s="24">
-        <f>DX26*($F$2+1)</f>
-        <v>29471.221581355065</v>
-      </c>
-      <c r="DZ26" s="24">
-        <f>DY26*($F$2+1)</f>
-        <v>29765.933797168615</v>
-      </c>
-      <c r="EA26" s="24">
-        <f>DZ26*($F$2+1)</f>
-        <v>30063.593135140301</v>
-      </c>
-      <c r="EB26" s="24">
-        <f>EA26*($F$2+1)</f>
-        <v>30364.229066491705</v>
-      </c>
-      <c r="EC26" s="24">
-        <f>EB26*($F$2+1)</f>
-        <v>30667.871357156622</v>
-      </c>
-      <c r="ED26" s="24">
-        <f>EC26*($F$2+1)</f>
-        <v>30974.55007072819</v>
-      </c>
-      <c r="EE26" s="24">
-        <f>ED26*($F$2+1)</f>
-        <v>31284.295571435472</v>
-      </c>
-      <c r="EF26" s="24">
-        <f>EE26*($F$2+1)</f>
-        <v>31597.138527149826</v>
-      </c>
-      <c r="EG26" s="24">
-        <f>EF26*($F$2+1)</f>
-        <v>31913.109912421325</v>
-      </c>
-      <c r="EH26" s="24">
-        <f>EG26*($F$2+1)</f>
-        <v>32232.241011545539</v>
-      </c>
-      <c r="EI26" s="24">
-        <f>EH26*($F$2+1)</f>
-        <v>32554.563421660994</v>
-      </c>
-      <c r="EJ26" s="24">
-        <f>EI26*($F$2+1)</f>
-        <v>32880.109055877605</v>
-      </c>
-      <c r="EK26" s="24">
-        <f>EJ26*($F$2+1)</f>
-        <v>33208.910146436385</v>
-      </c>
-      <c r="EL26" s="24">
-        <f>EK26*($F$2+1)</f>
-        <v>33540.999247900749</v>
-      </c>
-      <c r="EM26" s="24">
-        <f>EL26*($F$2+1)</f>
-        <v>33876.409240379755</v>
-      </c>
-      <c r="EN26" s="24">
-        <f>EM26*($F$2+1)</f>
-        <v>34215.173332783554</v>
-      </c>
-      <c r="EO26" s="24">
-        <f>EN26*($F$2+1)</f>
-        <v>34557.325066111393</v>
-      </c>
-      <c r="EP26" s="24">
-        <f>EO26*($F$2+1)</f>
-        <v>34902.898316772509</v>
-      </c>
-      <c r="EQ26" s="24">
-        <f>EP26*($F$2+1)</f>
-        <v>35251.927299940231</v>
-      </c>
-      <c r="ER26" s="24">
-        <f>EQ26*($F$2+1)</f>
-        <v>35604.446572939632</v>
-      </c>
-      <c r="ES26" s="24">
-        <f>ER26*($F$2+1)</f>
-        <v>35960.491038669032</v>
-      </c>
-      <c r="ET26" s="24">
-        <f>ES26*($F$2+1)</f>
-        <v>36320.095949055722</v>
-      </c>
-      <c r="EU26" s="24">
-        <f>ET26*($F$2+1)</f>
-        <v>36683.296908546276</v>
-      </c>
-      <c r="EV26" s="24">
-        <f>EU26*($F$2+1)</f>
-        <v>37050.129877631742</v>
-      </c>
-      <c r="EW26" s="24">
-        <f>EV26*($F$2+1)</f>
-        <v>37420.63117640806</v>
-      </c>
-      <c r="EX26" s="24">
-        <f>EW26*($F$2+1)</f>
-        <v>37794.837488172139</v>
-      </c>
-      <c r="EY26" s="24">
-        <f>EX26*($F$2+1)</f>
-        <v>38172.785863053861</v>
-      </c>
-      <c r="EZ26" s="24">
-        <f>EY26*($F$2+1)</f>
-        <v>38554.513721684401</v>
-      </c>
-      <c r="FA26" s="24">
-        <f>EZ26*($F$2+1)</f>
-        <v>38940.058858901248</v>
-      </c>
-      <c r="FB26" s="24">
-        <f>FA26*($F$2+1)</f>
-        <v>39329.459447490262</v>
-      </c>
-      <c r="FC26" s="24">
-        <f>FB26*($F$2+1)</f>
-        <v>39722.754041965163</v>
-      </c>
-      <c r="FD26" s="24">
-        <f>FC26*($F$2+1)</f>
-        <v>40119.981582384818</v>
-      </c>
-      <c r="FE26" s="24">
-        <f>FD26*($F$2+1)</f>
-        <v>40521.181398208668</v>
-      </c>
-      <c r="FF26" s="24">
-        <f>FE26*($F$2+1)</f>
-        <v>40926.393212190756</v>
-      </c>
-      <c r="FG26" s="24">
-        <f>FF26*($F$2+1)</f>
-        <v>41335.657144312667</v>
-      </c>
-      <c r="FH26" s="24">
-        <f>FG26*($F$2+1)</f>
-        <v>41749.013715755791</v>
-      </c>
-      <c r="FI26" s="24">
-        <f>FH26*($F$2+1)</f>
-        <v>42166.503852913353</v>
-      </c>
-      <c r="FJ26" s="24">
-        <f>FI26*($F$2+1)</f>
-        <v>42588.168891442489</v>
-      </c>
-      <c r="FK26" s="24">
-        <f>FJ26*($F$2+1)</f>
-        <v>43014.05058035691</v>
-      </c>
-      <c r="FL26" s="24">
-        <f>FK26*($F$2+1)</f>
-        <v>43444.191086160477</v>
-      </c>
-      <c r="FM26" s="24">
-        <f>FL26*($F$2+1)</f>
-        <v>43878.632997022083</v>
-      </c>
-      <c r="FN26" s="24">
-        <f>FM26*($F$2+1)</f>
-        <v>44317.419326992305</v>
-      </c>
-      <c r="FO26" s="24">
-        <f>FN26*($F$2+1)</f>
-        <v>44760.593520262228</v>
-      </c>
-      <c r="FP26" s="24">
-        <f>FO26*($F$2+1)</f>
-        <v>45208.199455464848</v>
-      </c>
-      <c r="FQ26" s="24">
-        <f>FP26*($F$2+1)</f>
-        <v>45660.281450019495</v>
-      </c>
-      <c r="FR26" s="24">
-        <f>FQ26*($F$2+1)</f>
-        <v>46116.884264519693</v>
-      </c>
-      <c r="FS26" s="24">
-        <f>FR26*($F$2+1)</f>
-        <v>46578.053107164887</v>
-      </c>
-      <c r="FT26" s="24">
-        <f>FS26*($F$2+1)</f>
-        <v>47043.833638236538</v>
-      </c>
-      <c r="FU26" s="24">
-        <f>FT26*($F$2+1)</f>
-        <v>47514.271974618903</v>
-      </c>
-      <c r="FV26" s="24">
-        <f>FU26*($F$2+1)</f>
-        <v>47989.414694365092</v>
-      </c>
-      <c r="FW26" s="24">
-        <f>FV26*($F$2+1)</f>
-        <v>48469.308841308746</v>
-      </c>
-      <c r="FX26" s="24">
-        <f>FW26*($F$2+1)</f>
-        <v>48954.001929721831</v>
-      </c>
-      <c r="FY26" s="24">
-        <f>FX26*($F$2+1)</f>
-        <v>49443.541949019047</v>
-      </c>
-      <c r="FZ26" s="24">
-        <f>FY26*($F$2+1)</f>
-        <v>49937.977368509237</v>
-      </c>
-      <c r="GA26" s="24">
-        <f>FZ26*($F$2+1)</f>
-        <v>50437.357142194327</v>
-      </c>
-      <c r="GB26" s="24">
-        <f>GA26*($F$2+1)</f>
-        <v>50941.730713616271</v>
-      </c>
-      <c r="GC26" s="24">
-        <f>GB26*($F$2+1)</f>
-        <v>51451.148020752436</v>
-      </c>
-      <c r="GD26" s="24">
-        <f>GC26*($F$2+1)</f>
-        <v>51965.659500959962</v>
-      </c>
-      <c r="GE26" s="24">
-        <f>GD26*($F$2+1)</f>
-        <v>52485.31609596956</v>
-      </c>
-      <c r="GF26" s="24">
-        <f>GE26*($F$2+1)</f>
-        <v>53010.169256929257</v>
-      </c>
-      <c r="GG26" s="24">
-        <f>GF26*($F$2+1)</f>
-        <v>53540.270949498554</v>
-      </c>
-      <c r="GH26" s="24">
-        <f>GG26*($F$2+1)</f>
-        <v>54075.673658993539</v>
-      </c>
-      <c r="GI26" s="24">
-        <f>GH26*($F$2+1)</f>
-        <v>54616.430395583477</v>
-      </c>
-      <c r="GJ26" s="24">
-        <f>GI26*($F$2+1)</f>
-        <v>55162.59469953931</v>
-      </c>
-      <c r="GK26" s="24">
-        <f>GJ26*($F$2+1)</f>
-        <v>55714.220646534704</v>
-      </c>
-      <c r="GL26" s="24">
-        <f>GK26*($F$2+1)</f>
-        <v>56271.36285300005</v>
-      </c>
-      <c r="GM26" s="24">
-        <f>GL26*($F$2+1)</f>
-        <v>56834.07648153005</v>
-      </c>
-      <c r="GN26" s="24">
-        <f>GM26*($F$2+1)</f>
-        <v>57402.417246345351</v>
-      </c>
-      <c r="GO26" s="24">
-        <f>GN26*($F$2+1)</f>
-        <v>57976.441418808805</v>
-      </c>
-      <c r="GP26" s="24">
-        <f>GO26*($F$2+1)</f>
-        <v>58556.205832996893</v>
-      </c>
-      <c r="GQ26" s="24">
-        <f>GP26*($F$2+1)</f>
-        <v>59141.767891326861</v>
-      </c>
-      <c r="GR26" s="24">
-        <f>GQ26*($F$2+1)</f>
-        <v>59733.18557024013</v>
-      </c>
-      <c r="GS26" s="24">
-        <f>GR26*($F$2+1)</f>
-        <v>60330.517425942533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+        <v>-78.023599999999988</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" ref="J27:Q27" si="48">J25-J26</f>
+        <v>88.295779999999993</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" si="48"/>
+        <v>377.46935300000007</v>
+      </c>
+      <c r="L27" s="24">
+        <f t="shared" si="48"/>
+        <v>765.76881892500035</v>
+      </c>
+      <c r="M27" s="24">
+        <f t="shared" si="48"/>
+        <v>1433.4090757526251</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="48"/>
+        <v>1926.029663879068</v>
+      </c>
+      <c r="O27" s="24">
+        <f t="shared" si="48"/>
+        <v>2539.3392727014348</v>
+      </c>
+      <c r="P27" s="24">
+        <f t="shared" si="48"/>
+        <v>3299.5654409514236</v>
+      </c>
+      <c r="Q27" s="24">
+        <f t="shared" si="48"/>
+        <v>4238.3746119654552</v>
+      </c>
+      <c r="R27" s="24">
+        <f t="shared" ref="R27" si="49">R25-R26</f>
+        <v>5393.9780597147246</v>
+      </c>
+      <c r="S27" s="24">
+        <f t="shared" ref="S27:V27" si="50">S25-S26</f>
+        <v>6398.9428395079212</v>
+      </c>
+      <c r="T27" s="24">
+        <f t="shared" si="50"/>
+        <v>7512.9329018441022</v>
+      </c>
+      <c r="U27" s="24">
+        <f t="shared" si="50"/>
+        <v>8747.8072718420044</v>
+      </c>
+      <c r="V27" s="24">
+        <f t="shared" si="50"/>
+        <v>10116.626252154259</v>
+      </c>
+      <c r="W27" s="24">
+        <f t="shared" ref="W27" si="51">W25-W26</f>
+        <v>11633.773606609695</v>
+      </c>
+      <c r="X27" s="24">
+        <f t="shared" ref="X27:BC27" si="52">W27*($F$2+1)</f>
+        <v>11750.111342675793</v>
+      </c>
+      <c r="Y27" s="24">
+        <f t="shared" si="52"/>
+        <v>11867.612456102552</v>
+      </c>
+      <c r="Z27" s="24">
+        <f t="shared" si="52"/>
+        <v>11986.288580663577</v>
+      </c>
+      <c r="AA27" s="24">
+        <f t="shared" si="52"/>
+        <v>12106.151466470214</v>
+      </c>
+      <c r="AB27" s="24">
+        <f t="shared" si="52"/>
+        <v>12227.212981134915</v>
+      </c>
+      <c r="AC27" s="24">
+        <f t="shared" si="52"/>
+        <v>12349.485110946263</v>
+      </c>
+      <c r="AD27" s="24">
+        <f t="shared" si="52"/>
+        <v>12472.979962055726</v>
+      </c>
+      <c r="AE27" s="24">
+        <f t="shared" si="52"/>
+        <v>12597.709761676284</v>
+      </c>
+      <c r="AF27" s="24">
+        <f t="shared" si="52"/>
+        <v>12723.686859293048</v>
+      </c>
+      <c r="AG27" s="24">
+        <f t="shared" si="52"/>
+        <v>12850.923727885978</v>
+      </c>
+      <c r="AH27" s="24">
+        <f t="shared" si="52"/>
+        <v>12979.432965164839</v>
+      </c>
+      <c r="AI27" s="24">
+        <f t="shared" si="52"/>
+        <v>13109.227294816486</v>
+      </c>
+      <c r="AJ27" s="24">
+        <f t="shared" si="52"/>
+        <v>13240.319567764651</v>
+      </c>
+      <c r="AK27" s="24">
+        <f t="shared" si="52"/>
+        <v>13372.722763442298</v>
+      </c>
+      <c r="AL27" s="24">
+        <f t="shared" si="52"/>
+        <v>13506.449991076721</v>
+      </c>
+      <c r="AM27" s="24">
+        <f t="shared" si="52"/>
+        <v>13641.514490987489</v>
+      </c>
+      <c r="AN27" s="24">
+        <f t="shared" si="52"/>
+        <v>13777.929635897364</v>
+      </c>
+      <c r="AO27" s="24">
+        <f t="shared" si="52"/>
+        <v>13915.708932256339</v>
+      </c>
+      <c r="AP27" s="24">
+        <f t="shared" si="52"/>
+        <v>14054.866021578902</v>
+      </c>
+      <c r="AQ27" s="24">
+        <f t="shared" si="52"/>
+        <v>14195.414681794691</v>
+      </c>
+      <c r="AR27" s="24">
+        <f t="shared" si="52"/>
+        <v>14337.368828612638</v>
+      </c>
+      <c r="AS27" s="24">
+        <f t="shared" si="52"/>
+        <v>14480.742516898765</v>
+      </c>
+      <c r="AT27" s="24">
+        <f t="shared" si="52"/>
+        <v>14625.549942067753</v>
+      </c>
+      <c r="AU27" s="24">
+        <f t="shared" si="52"/>
+        <v>14771.805441488432</v>
+      </c>
+      <c r="AV27" s="24">
+        <f t="shared" si="52"/>
+        <v>14919.523495903317</v>
+      </c>
+      <c r="AW27" s="24">
+        <f t="shared" si="52"/>
+        <v>15068.718730862351</v>
+      </c>
+      <c r="AX27" s="24">
+        <f t="shared" si="52"/>
+        <v>15219.405918170974</v>
+      </c>
+      <c r="AY27" s="24">
+        <f t="shared" si="52"/>
+        <v>15371.599977352684</v>
+      </c>
+      <c r="AZ27" s="24">
+        <f t="shared" si="52"/>
+        <v>15525.315977126211</v>
+      </c>
+      <c r="BA27" s="24">
+        <f t="shared" si="52"/>
+        <v>15680.569136897473</v>
+      </c>
+      <c r="BB27" s="24">
+        <f t="shared" si="52"/>
+        <v>15837.374828266447</v>
+      </c>
+      <c r="BC27" s="24">
+        <f t="shared" si="52"/>
+        <v>15995.748576549113</v>
+      </c>
+      <c r="BD27" s="24">
+        <f t="shared" ref="BD27:CI27" si="53">BC27*($F$2+1)</f>
+        <v>16155.706062314604</v>
+      </c>
+      <c r="BE27" s="24">
+        <f t="shared" si="53"/>
+        <v>16317.263122937751</v>
+      </c>
+      <c r="BF27" s="24">
+        <f t="shared" si="53"/>
+        <v>16480.435754167127</v>
+      </c>
+      <c r="BG27" s="24">
+        <f t="shared" si="53"/>
+        <v>16645.240111708797</v>
+      </c>
+      <c r="BH27" s="24">
+        <f t="shared" si="53"/>
+        <v>16811.692512825884</v>
+      </c>
+      <c r="BI27" s="24">
+        <f t="shared" si="53"/>
+        <v>16979.809437954144</v>
+      </c>
+      <c r="BJ27" s="24">
+        <f t="shared" si="53"/>
+        <v>17149.607532333685</v>
+      </c>
+      <c r="BK27" s="24">
+        <f t="shared" si="53"/>
+        <v>17321.10360765702</v>
+      </c>
+      <c r="BL27" s="24">
+        <f t="shared" si="53"/>
+        <v>17494.314643733589</v>
+      </c>
+      <c r="BM27" s="24">
+        <f t="shared" si="53"/>
+        <v>17669.257790170926</v>
+      </c>
+      <c r="BN27" s="24">
+        <f t="shared" si="53"/>
+        <v>17845.950368072638</v>
+      </c>
+      <c r="BO27" s="24">
+        <f t="shared" si="53"/>
+        <v>18024.409871753363</v>
+      </c>
+      <c r="BP27" s="24">
+        <f t="shared" si="53"/>
+        <v>18204.653970470896</v>
+      </c>
+      <c r="BQ27" s="24">
+        <f t="shared" si="53"/>
+        <v>18386.700510175604</v>
+      </c>
+      <c r="BR27" s="24">
+        <f t="shared" si="53"/>
+        <v>18570.567515277362</v>
+      </c>
+      <c r="BS27" s="24">
+        <f t="shared" si="53"/>
+        <v>18756.273190430136</v>
+      </c>
+      <c r="BT27" s="24">
+        <f t="shared" si="53"/>
+        <v>18943.835922334438</v>
+      </c>
+      <c r="BU27" s="24">
+        <f t="shared" si="53"/>
+        <v>19133.274281557784</v>
+      </c>
+      <c r="BV27" s="24">
+        <f t="shared" si="53"/>
+        <v>19324.607024373363</v>
+      </c>
+      <c r="BW27" s="24">
+        <f t="shared" si="53"/>
+        <v>19517.853094617098</v>
+      </c>
+      <c r="BX27" s="24">
+        <f t="shared" si="53"/>
+        <v>19713.031625563268</v>
+      </c>
+      <c r="BY27" s="24">
+        <f t="shared" si="53"/>
+        <v>19910.1619418189</v>
+      </c>
+      <c r="BZ27" s="24">
+        <f t="shared" si="53"/>
+        <v>20109.26356123709</v>
+      </c>
+      <c r="CA27" s="24">
+        <f t="shared" si="53"/>
+        <v>20310.356196849461</v>
+      </c>
+      <c r="CB27" s="24">
+        <f t="shared" si="53"/>
+        <v>20513.459758817957</v>
+      </c>
+      <c r="CC27" s="24">
+        <f t="shared" si="53"/>
+        <v>20718.594356406138</v>
+      </c>
+      <c r="CD27" s="24">
+        <f t="shared" si="53"/>
+        <v>20925.7802999702</v>
+      </c>
+      <c r="CE27" s="24">
+        <f t="shared" si="53"/>
+        <v>21135.038102969902</v>
+      </c>
+      <c r="CF27" s="24">
+        <f t="shared" si="53"/>
+        <v>21346.388483999603</v>
+      </c>
+      <c r="CG27" s="24">
+        <f t="shared" si="53"/>
+        <v>21559.852368839598</v>
+      </c>
+      <c r="CH27" s="24">
+        <f t="shared" si="53"/>
+        <v>21775.450892527995</v>
+      </c>
+      <c r="CI27" s="24">
+        <f t="shared" si="53"/>
+        <v>21993.205401453277</v>
+      </c>
+      <c r="CJ27" s="24">
+        <f t="shared" ref="CJ27:DO27" si="54">CI27*($F$2+1)</f>
+        <v>22213.137455467811</v>
+      </c>
+      <c r="CK27" s="24">
+        <f t="shared" si="54"/>
+        <v>22435.268830022491</v>
+      </c>
+      <c r="CL27" s="24">
+        <f t="shared" si="54"/>
+        <v>22659.621518322718</v>
+      </c>
+      <c r="CM27" s="24">
+        <f t="shared" si="54"/>
+        <v>22886.217733505946</v>
+      </c>
+      <c r="CN27" s="24">
+        <f t="shared" si="54"/>
+        <v>23115.079910841006</v>
+      </c>
+      <c r="CO27" s="24">
+        <f t="shared" si="54"/>
+        <v>23346.230709949417</v>
+      </c>
+      <c r="CP27" s="24">
+        <f t="shared" si="54"/>
+        <v>23579.69301704891</v>
+      </c>
+      <c r="CQ27" s="24">
+        <f t="shared" si="54"/>
+        <v>23815.489947219401</v>
+      </c>
+      <c r="CR27" s="24">
+        <f t="shared" si="54"/>
+        <v>24053.644846691594</v>
+      </c>
+      <c r="CS27" s="24">
+        <f t="shared" si="54"/>
+        <v>24294.181295158509</v>
+      </c>
+      <c r="CT27" s="24">
+        <f t="shared" si="54"/>
+        <v>24537.123108110096</v>
+      </c>
+      <c r="CU27" s="24">
+        <f t="shared" si="54"/>
+        <v>24782.494339191198</v>
+      </c>
+      <c r="CV27" s="24">
+        <f t="shared" si="54"/>
+        <v>25030.31928258311</v>
+      </c>
+      <c r="CW27" s="24">
+        <f t="shared" si="54"/>
+        <v>25280.622475408942</v>
+      </c>
+      <c r="CX27" s="24">
+        <f t="shared" si="54"/>
+        <v>25533.428700163033</v>
+      </c>
+      <c r="CY27" s="24">
+        <f t="shared" si="54"/>
+        <v>25788.762987164664</v>
+      </c>
+      <c r="CZ27" s="24">
+        <f t="shared" si="54"/>
+        <v>26046.65061703631</v>
+      </c>
+      <c r="DA27" s="24">
+        <f t="shared" si="54"/>
+        <v>26307.117123206674</v>
+      </c>
+      <c r="DB27" s="24">
+        <f t="shared" si="54"/>
+        <v>26570.18829443874</v>
+      </c>
+      <c r="DC27" s="24">
+        <f t="shared" si="54"/>
+        <v>26835.890177383128</v>
+      </c>
+      <c r="DD27" s="24">
+        <f t="shared" si="54"/>
+        <v>27104.249079156958</v>
+      </c>
+      <c r="DE27" s="24">
+        <f t="shared" si="54"/>
+        <v>27375.291569948527</v>
+      </c>
+      <c r="DF27" s="24">
+        <f t="shared" si="54"/>
+        <v>27649.044485648014</v>
+      </c>
+      <c r="DG27" s="24">
+        <f t="shared" si="54"/>
+        <v>27925.534930504495</v>
+      </c>
+      <c r="DH27" s="24">
+        <f t="shared" si="54"/>
+        <v>28204.790279809538</v>
+      </c>
+      <c r="DI27" s="24">
+        <f t="shared" si="54"/>
+        <v>28486.838182607633</v>
+      </c>
+      <c r="DJ27" s="24">
+        <f t="shared" si="54"/>
+        <v>28771.706564433709</v>
+      </c>
+      <c r="DK27" s="24">
+        <f t="shared" si="54"/>
+        <v>29059.423630078047</v>
+      </c>
+      <c r="DL27" s="24">
+        <f t="shared" si="54"/>
+        <v>29350.017866378828</v>
+      </c>
+      <c r="DM27" s="24">
+        <f t="shared" si="54"/>
+        <v>29643.518045042616</v>
+      </c>
+      <c r="DN27" s="24">
+        <f t="shared" si="54"/>
+        <v>29939.953225493042</v>
+      </c>
+      <c r="DO27" s="24">
+        <f t="shared" si="54"/>
+        <v>30239.352757747973</v>
+      </c>
+      <c r="DP27" s="24">
+        <f t="shared" ref="DP27:EU27" si="55">DO27*($F$2+1)</f>
+        <v>30541.746285325451</v>
+      </c>
+      <c r="DQ27" s="24">
+        <f t="shared" si="55"/>
+        <v>30847.163748178707</v>
+      </c>
+      <c r="DR27" s="24">
+        <f t="shared" si="55"/>
+        <v>31155.635385660495</v>
+      </c>
+      <c r="DS27" s="24">
+        <f t="shared" si="55"/>
+        <v>31467.1917395171</v>
+      </c>
+      <c r="DT27" s="24">
+        <f t="shared" si="55"/>
+        <v>31781.863656912272</v>
+      </c>
+      <c r="DU27" s="24">
+        <f t="shared" si="55"/>
+        <v>32099.682293481394</v>
+      </c>
+      <c r="DV27" s="24">
+        <f t="shared" si="55"/>
+        <v>32420.67911641621</v>
+      </c>
+      <c r="DW27" s="24">
+        <f t="shared" si="55"/>
+        <v>32744.88590758037</v>
+      </c>
+      <c r="DX27" s="24">
+        <f t="shared" si="55"/>
+        <v>33072.334766656175</v>
+      </c>
+      <c r="DY27" s="24">
+        <f t="shared" si="55"/>
+        <v>33403.058114322739</v>
+      </c>
+      <c r="DZ27" s="24">
+        <f t="shared" si="55"/>
+        <v>33737.088695465965</v>
+      </c>
+      <c r="EA27" s="24">
+        <f t="shared" si="55"/>
+        <v>34074.459582420626</v>
+      </c>
+      <c r="EB27" s="24">
+        <f t="shared" si="55"/>
+        <v>34415.204178244836</v>
+      </c>
+      <c r="EC27" s="24">
+        <f t="shared" si="55"/>
+        <v>34759.356220027286</v>
+      </c>
+      <c r="ED27" s="24">
+        <f t="shared" si="55"/>
+        <v>35106.949782227559</v>
+      </c>
+      <c r="EE27" s="24">
+        <f t="shared" si="55"/>
+        <v>35458.019280049833</v>
+      </c>
+      <c r="EF27" s="24">
+        <f t="shared" si="55"/>
+        <v>35812.599472850336</v>
+      </c>
+      <c r="EG27" s="24">
+        <f t="shared" si="55"/>
+        <v>36170.725467578843</v>
+      </c>
+      <c r="EH27" s="24">
+        <f t="shared" si="55"/>
+        <v>36532.432722254634</v>
+      </c>
+      <c r="EI27" s="24">
+        <f t="shared" si="55"/>
+        <v>36897.757049477179</v>
+      </c>
+      <c r="EJ27" s="24">
+        <f t="shared" si="55"/>
+        <v>37266.734619971954</v>
+      </c>
+      <c r="EK27" s="24">
+        <f t="shared" si="55"/>
+        <v>37639.401966171674</v>
+      </c>
+      <c r="EL27" s="24">
+        <f t="shared" si="55"/>
+        <v>38015.795985833392</v>
+      </c>
+      <c r="EM27" s="24">
+        <f t="shared" si="55"/>
+        <v>38395.953945691726</v>
+      </c>
+      <c r="EN27" s="24">
+        <f t="shared" si="55"/>
+        <v>38779.913485148645</v>
+      </c>
+      <c r="EO27" s="24">
+        <f t="shared" si="55"/>
+        <v>39167.712620000129</v>
+      </c>
+      <c r="EP27" s="24">
+        <f t="shared" si="55"/>
+        <v>39559.389746200133</v>
+      </c>
+      <c r="EQ27" s="24">
+        <f t="shared" si="55"/>
+        <v>39954.983643662134</v>
+      </c>
+      <c r="ER27" s="24">
+        <f t="shared" si="55"/>
+        <v>40354.533480098755</v>
+      </c>
+      <c r="ES27" s="24">
+        <f t="shared" si="55"/>
+        <v>40758.078814899745</v>
+      </c>
+      <c r="ET27" s="24">
+        <f t="shared" si="55"/>
+        <v>41165.659603048742</v>
+      </c>
+      <c r="EU27" s="24">
+        <f t="shared" si="55"/>
+        <v>41577.316199079229</v>
+      </c>
+      <c r="EV27" s="24">
+        <f t="shared" ref="EV27:GA27" si="56">EU27*($F$2+1)</f>
+        <v>41993.089361070022</v>
+      </c>
+      <c r="EW27" s="24">
+        <f t="shared" si="56"/>
+        <v>42413.02025468072</v>
+      </c>
+      <c r="EX27" s="24">
+        <f t="shared" si="56"/>
+        <v>42837.15045722753</v>
+      </c>
+      <c r="EY27" s="24">
+        <f t="shared" si="56"/>
+        <v>43265.521961799808</v>
+      </c>
+      <c r="EZ27" s="24">
+        <f t="shared" si="56"/>
+        <v>43698.177181417806</v>
+      </c>
+      <c r="FA27" s="24">
+        <f t="shared" si="56"/>
+        <v>44135.158953231985</v>
+      </c>
+      <c r="FB27" s="24">
+        <f t="shared" si="56"/>
+        <v>44576.510542764307</v>
+      </c>
+      <c r="FC27" s="24">
+        <f t="shared" si="56"/>
+        <v>45022.27564819195</v>
+      </c>
+      <c r="FD27" s="24">
+        <f t="shared" si="56"/>
+        <v>45472.498404673868</v>
+      </c>
+      <c r="FE27" s="24">
+        <f t="shared" si="56"/>
+        <v>45927.223388720609</v>
+      </c>
+      <c r="FF27" s="24">
+        <f t="shared" si="56"/>
+        <v>46386.495622607814</v>
+      </c>
+      <c r="FG27" s="24">
+        <f t="shared" si="56"/>
+        <v>46850.36057883389</v>
+      </c>
+      <c r="FH27" s="24">
+        <f t="shared" si="56"/>
+        <v>47318.864184622231</v>
+      </c>
+      <c r="FI27" s="24">
+        <f t="shared" si="56"/>
+        <v>47792.052826468454</v>
+      </c>
+      <c r="FJ27" s="24">
+        <f t="shared" si="56"/>
+        <v>48269.973354733142</v>
+      </c>
+      <c r="FK27" s="24">
+        <f t="shared" si="56"/>
+        <v>48752.673088280477</v>
+      </c>
+      <c r="FL27" s="24">
+        <f t="shared" si="56"/>
+        <v>49240.199819163281</v>
+      </c>
+      <c r="FM27" s="24">
+        <f t="shared" si="56"/>
+        <v>49732.601817354916</v>
+      </c>
+      <c r="FN27" s="24">
+        <f t="shared" si="56"/>
+        <v>50229.92783552847</v>
+      </c>
+      <c r="FO27" s="24">
+        <f t="shared" si="56"/>
+        <v>50732.227113883753</v>
+      </c>
+      <c r="FP27" s="24">
+        <f t="shared" si="56"/>
+        <v>51239.54938502259</v>
+      </c>
+      <c r="FQ27" s="24">
+        <f t="shared" si="56"/>
+        <v>51751.944878872819</v>
+      </c>
+      <c r="FR27" s="24">
+        <f t="shared" si="56"/>
+        <v>52269.464327661546</v>
+      </c>
+      <c r="FS27" s="24">
+        <f t="shared" si="56"/>
+        <v>52792.158970938159</v>
+      </c>
+      <c r="FT27" s="24">
+        <f t="shared" si="56"/>
+        <v>53320.080560647541</v>
+      </c>
+      <c r="FU27" s="24">
+        <f t="shared" si="56"/>
+        <v>53853.281366254014</v>
+      </c>
+      <c r="FV27" s="24">
+        <f t="shared" si="56"/>
+        <v>54391.814179916553</v>
+      </c>
+      <c r="FW27" s="24">
+        <f t="shared" si="56"/>
+        <v>54935.732321715717</v>
+      </c>
+      <c r="FX27" s="24">
+        <f t="shared" si="56"/>
+        <v>55485.089644932872</v>
+      </c>
+      <c r="FY27" s="24">
+        <f t="shared" si="56"/>
+        <v>56039.940541382202</v>
+      </c>
+      <c r="FZ27" s="24">
+        <f t="shared" si="56"/>
+        <v>56600.339946796026</v>
+      </c>
+      <c r="GA27" s="24">
+        <f t="shared" si="56"/>
+        <v>57166.343346263988</v>
+      </c>
+      <c r="GB27" s="24">
+        <f t="shared" ref="GB27:GS27" si="57">GA27*($F$2+1)</f>
+        <v>57738.006779726631</v>
+      </c>
+      <c r="GC27" s="24">
+        <f t="shared" si="57"/>
+        <v>58315.3868475239</v>
+      </c>
+      <c r="GD27" s="24">
+        <f t="shared" si="57"/>
+        <v>58898.540715999137</v>
+      </c>
+      <c r="GE27" s="24">
+        <f t="shared" si="57"/>
+        <v>59487.526123159128</v>
+      </c>
+      <c r="GF27" s="24">
+        <f t="shared" si="57"/>
+        <v>60082.401384390723</v>
+      </c>
+      <c r="GG27" s="24">
+        <f t="shared" si="57"/>
+        <v>60683.22539823463</v>
+      </c>
+      <c r="GH27" s="24">
+        <f t="shared" si="57"/>
+        <v>61290.057652216979</v>
+      </c>
+      <c r="GI27" s="24">
+        <f t="shared" si="57"/>
+        <v>61902.958228739153</v>
+      </c>
+      <c r="GJ27" s="24">
+        <f t="shared" si="57"/>
+        <v>62521.987811026542</v>
+      </c>
+      <c r="GK27" s="24">
+        <f t="shared" si="57"/>
+        <v>63147.207689136805</v>
+      </c>
+      <c r="GL27" s="24">
+        <f t="shared" si="57"/>
+        <v>63778.679766028174</v>
+      </c>
+      <c r="GM27" s="24">
+        <f t="shared" si="57"/>
+        <v>64416.466563688453</v>
+      </c>
+      <c r="GN27" s="24">
+        <f t="shared" si="57"/>
+        <v>65060.631229325336</v>
+      </c>
+      <c r="GO27" s="24">
+        <f t="shared" si="57"/>
+        <v>65711.237541618597</v>
+      </c>
+      <c r="GP27" s="24">
+        <f t="shared" si="57"/>
+        <v>66368.349917034779</v>
+      </c>
+      <c r="GQ27" s="24">
+        <f t="shared" si="57"/>
+        <v>67032.033416205129</v>
+      </c>
+      <c r="GR27" s="24">
+        <f t="shared" si="57"/>
+        <v>67702.353750367183</v>
+      </c>
+      <c r="GS27" s="24">
+        <f t="shared" si="57"/>
+        <v>68379.377287870855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:201" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="28">
-        <f t="shared" ref="F27:H27" si="51">F26/F28</f>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="28">
+        <f t="shared" ref="F28:H28" si="58">F27/F29</f>
         <v>-1.0661335572421149</v>
       </c>
-      <c r="G27" s="28">
-        <f t="shared" si="51"/>
+      <c r="G28" s="28">
+        <f t="shared" si="58"/>
         <v>-1.0101557380481536</v>
       </c>
-      <c r="H27" s="46">
-        <f t="shared" si="51"/>
-        <v>-0.66280962424973699</v>
-      </c>
-      <c r="I27" s="46">
-        <f t="shared" ref="I27" si="52">I26/I28</f>
-        <v>-0.19076889374281905</v>
-      </c>
-      <c r="J27" s="46">
-        <f t="shared" ref="J27:Q27" si="53">J26/J28</f>
-        <v>-0.130885964165357</v>
-      </c>
-      <c r="K27" s="46">
-        <f t="shared" si="53"/>
-        <v>-8.309062274587567E-3</v>
-      </c>
-      <c r="L27" s="46">
-        <f t="shared" si="53"/>
-        <v>0.18930776701574578</v>
-      </c>
-      <c r="M27" s="46">
-        <f t="shared" si="53"/>
-        <v>0.51523240933840198</v>
-      </c>
-      <c r="N27" s="46">
-        <f t="shared" si="53"/>
-        <v>0.75398143322382216</v>
-      </c>
-      <c r="O27" s="46">
-        <f t="shared" si="53"/>
-        <v>1.0555211112070866</v>
-      </c>
-      <c r="P27" s="46">
-        <f t="shared" si="53"/>
-        <v>1.4338230847899804</v>
-      </c>
-      <c r="Q27" s="46">
-        <f t="shared" si="53"/>
-        <v>1.9057827614501124</v>
-      </c>
-      <c r="R27" s="46">
-        <f t="shared" ref="R27" si="54">R26/R28</f>
-        <v>2.4918160836233789</v>
-      </c>
-      <c r="S27" s="46">
-        <f t="shared" ref="R27:V27" si="55">S26/S28</f>
-        <v>3.0276662401558756</v>
-      </c>
-      <c r="T27" s="46">
-        <f t="shared" si="55"/>
-        <v>3.6217163534330417</v>
-      </c>
-      <c r="U27" s="46">
-        <f t="shared" si="55"/>
-        <v>4.2803699374349184</v>
-      </c>
-      <c r="V27" s="46">
-        <f t="shared" si="55"/>
-        <v>5.0106790917899202</v>
-      </c>
-      <c r="W27" s="46">
-        <f t="shared" ref="W27" si="56">W26/W28</f>
-        <v>5.8204106167201282</v>
-      </c>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="38"/>
-      <c r="AZ27" s="38"/>
-      <c r="BA27" s="38"/>
-      <c r="BB27" s="38"/>
-      <c r="BC27" s="38"/>
-      <c r="BD27" s="38"/>
-      <c r="BE27" s="38"/>
-      <c r="BF27" s="38"/>
-      <c r="BG27" s="38"/>
-      <c r="BH27" s="38"/>
-      <c r="BI27" s="38"/>
-      <c r="BJ27" s="38"/>
-      <c r="BK27" s="38"/>
-      <c r="BL27" s="38"/>
-      <c r="BM27" s="38"/>
-      <c r="BN27" s="38"/>
-      <c r="BO27" s="38"/>
-      <c r="BP27" s="38"/>
-      <c r="BQ27" s="38"/>
-      <c r="BR27" s="38"/>
-      <c r="BS27" s="38"/>
-      <c r="BT27" s="38"/>
-      <c r="BU27" s="38"/>
-      <c r="BV27" s="38"/>
-      <c r="BW27" s="38"/>
-      <c r="BX27" s="38"/>
-      <c r="BY27" s="38"/>
-      <c r="BZ27" s="38"/>
-      <c r="CA27" s="38"/>
-      <c r="CB27" s="38"/>
-      <c r="CC27" s="38"/>
-      <c r="CD27" s="38"/>
-      <c r="CE27" s="38"/>
-      <c r="CF27" s="38"/>
-      <c r="CG27" s="38"/>
-      <c r="CH27" s="38"/>
-      <c r="CI27" s="38"/>
-      <c r="CJ27" s="38"/>
-      <c r="CK27" s="38"/>
-      <c r="CL27" s="38"/>
-      <c r="CM27" s="38"/>
-      <c r="CN27" s="38"/>
-      <c r="CO27" s="38"/>
-      <c r="CP27" s="38"/>
-      <c r="CQ27" s="38"/>
-      <c r="CR27" s="38"/>
-      <c r="CS27" s="38"/>
-      <c r="CT27" s="38"/>
-      <c r="CU27" s="38"/>
-      <c r="CV27" s="38"/>
-      <c r="CW27" s="38"/>
-      <c r="CX27" s="38"/>
-      <c r="CY27" s="38"/>
-      <c r="CZ27" s="38"/>
-      <c r="DA27" s="38"/>
-      <c r="DB27" s="38"/>
-      <c r="DC27" s="38"/>
-      <c r="DD27" s="38"/>
-      <c r="DE27" s="38"/>
-      <c r="DF27" s="38"/>
-      <c r="DG27" s="38"/>
-      <c r="DH27" s="38"/>
-      <c r="DI27" s="38"/>
-      <c r="DJ27" s="38"/>
-      <c r="DK27" s="38"/>
-      <c r="DL27" s="38"/>
-      <c r="DM27" s="38"/>
-      <c r="DN27" s="38"/>
-    </row>
-    <row r="28" spans="1:201" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="H28" s="46">
+        <f t="shared" si="58"/>
+        <v>-0.22164497547981366</v>
+      </c>
+      <c r="I28" s="46">
+        <f t="shared" ref="I28" si="59">I27/I29</f>
+        <v>-4.4243257184787894E-2</v>
+      </c>
+      <c r="J28" s="46">
+        <f t="shared" ref="J28:Q28" si="60">J27/J29</f>
+        <v>5.0068093536717762E-2</v>
+      </c>
+      <c r="K28" s="46">
+        <f t="shared" si="60"/>
+        <v>0.21404387472706329</v>
+      </c>
+      <c r="L28" s="46">
+        <f t="shared" si="60"/>
+        <v>0.43422896149101131</v>
+      </c>
+      <c r="M28" s="46">
+        <f t="shared" si="60"/>
+        <v>0.81281415353216868</v>
+      </c>
+      <c r="N28" s="46">
+        <f t="shared" si="60"/>
+        <v>1.0921544989532936</v>
+      </c>
+      <c r="O28" s="46">
+        <f t="shared" si="60"/>
+        <v>1.439931514587405</v>
+      </c>
+      <c r="P28" s="46">
+        <f t="shared" si="60"/>
+        <v>1.8710175178029718</v>
+      </c>
+      <c r="Q28" s="46">
+        <f t="shared" si="60"/>
+        <v>2.403368955068252</v>
+      </c>
+      <c r="R28" s="46">
+        <f t="shared" ref="R28" si="61">R27/R29</f>
+        <v>3.0586535169495104</v>
+      </c>
+      <c r="S28" s="46">
+        <f t="shared" ref="S28:V28" si="62">S27/S29</f>
+        <v>3.6285184708101901</v>
+      </c>
+      <c r="T28" s="46">
+        <f t="shared" si="62"/>
+        <v>4.2602061759306613</v>
+      </c>
+      <c r="U28" s="46">
+        <f t="shared" si="62"/>
+        <v>4.9604412886750113</v>
+      </c>
+      <c r="V28" s="46">
+        <f t="shared" si="62"/>
+        <v>5.7366296494450122</v>
+      </c>
+      <c r="W28" s="46">
+        <f t="shared" ref="W28" si="63">W27/W29</f>
+        <v>6.596927566875026</v>
+      </c>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="38"/>
+      <c r="CB28" s="38"/>
+      <c r="CC28" s="38"/>
+      <c r="CD28" s="38"/>
+      <c r="CE28" s="38"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="38"/>
+      <c r="CH28" s="38"/>
+      <c r="CI28" s="38"/>
+      <c r="CJ28" s="38"/>
+      <c r="CK28" s="38"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="38"/>
+      <c r="CO28" s="38"/>
+      <c r="CP28" s="38"/>
+      <c r="CQ28" s="38"/>
+      <c r="CR28" s="38"/>
+      <c r="CS28" s="38"/>
+      <c r="CT28" s="38"/>
+      <c r="CU28" s="38"/>
+      <c r="CV28" s="38"/>
+      <c r="CW28" s="38"/>
+      <c r="CX28" s="38"/>
+      <c r="CY28" s="38"/>
+      <c r="CZ28" s="38"/>
+      <c r="DA28" s="38"/>
+      <c r="DB28" s="38"/>
+      <c r="DC28" s="38"/>
+      <c r="DD28" s="38"/>
+      <c r="DE28" s="38"/>
+      <c r="DF28" s="38"/>
+      <c r="DG28" s="38"/>
+      <c r="DH28" s="38"/>
+      <c r="DI28" s="38"/>
+      <c r="DJ28" s="38"/>
+      <c r="DK28" s="38"/>
+      <c r="DL28" s="38"/>
+      <c r="DM28" s="38"/>
+      <c r="DN28" s="38"/>
+    </row>
+    <row r="29" spans="1:201" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23">
         <v>544.01439300000004</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G29" s="23">
         <v>576.95856000000003</v>
       </c>
-      <c r="H28" s="23">
-        <f>Reports!M21</f>
+      <c r="H29" s="23">
+        <f>Reports!M22</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="I28" s="23">
-        <f t="shared" ref="I28" si="57">H28</f>
+      <c r="I29" s="23">
+        <f t="shared" ref="I29" si="64">H29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="J28" s="23">
-        <f t="shared" ref="J28" si="58">I28</f>
+      <c r="J29" s="23">
+        <f t="shared" ref="J29" si="65">I29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="K28" s="23">
-        <f t="shared" ref="K28" si="59">J28</f>
+      <c r="K29" s="23">
+        <f t="shared" ref="K29" si="66">J29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="L28" s="23">
-        <f t="shared" ref="L28" si="60">K28</f>
+      <c r="L29" s="23">
+        <f t="shared" ref="L29" si="67">K29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="M28" s="23">
-        <f t="shared" ref="M28" si="61">L28</f>
+      <c r="M29" s="23">
+        <f t="shared" ref="M29" si="68">L29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="N28" s="23">
-        <f t="shared" ref="N28" si="62">M28</f>
+      <c r="N29" s="23">
+        <f t="shared" ref="N29" si="69">M29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="O28" s="23">
-        <f t="shared" ref="O28" si="63">N28</f>
+      <c r="O29" s="23">
+        <f t="shared" ref="O29" si="70">N29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="P28" s="23">
-        <f t="shared" ref="P28" si="64">O28</f>
+      <c r="P29" s="23">
+        <f t="shared" ref="P29" si="71">O29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="Q28" s="23">
-        <f t="shared" ref="Q28:W28" si="65">P28</f>
+      <c r="Q29" s="23">
+        <f t="shared" ref="Q29:W29" si="72">P29</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="R28" s="23">
-        <f t="shared" si="65"/>
+      <c r="R29" s="23">
+        <f t="shared" si="72"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="S28" s="23">
-        <f t="shared" si="65"/>
+      <c r="S29" s="23">
+        <f t="shared" si="72"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="T28" s="23">
-        <f t="shared" si="65"/>
+      <c r="T29" s="23">
+        <f t="shared" si="72"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="U28" s="23">
-        <f t="shared" si="65"/>
+      <c r="U29" s="23">
+        <f t="shared" si="72"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="V28" s="23">
-        <f t="shared" si="65"/>
+      <c r="V29" s="23">
+        <f t="shared" si="72"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="W28" s="23">
-        <f t="shared" si="65"/>
+      <c r="W29" s="23">
+        <f t="shared" si="72"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="37"/>
-      <c r="BL28" s="37"/>
-      <c r="BM28" s="37"/>
-      <c r="BN28" s="37"/>
-      <c r="BO28" s="37"/>
-      <c r="BP28" s="37"/>
-      <c r="BQ28" s="37"/>
-      <c r="BR28" s="37"/>
-      <c r="BS28" s="37"/>
-      <c r="BT28" s="37"/>
-      <c r="BU28" s="37"/>
-      <c r="BV28" s="37"/>
-      <c r="BW28" s="37"/>
-      <c r="BX28" s="37"/>
-      <c r="BY28" s="37"/>
-      <c r="BZ28" s="37"/>
-      <c r="CA28" s="37"/>
-      <c r="CB28" s="37"/>
-      <c r="CC28" s="37"/>
-      <c r="CD28" s="37"/>
-      <c r="CE28" s="37"/>
-      <c r="CF28" s="37"/>
-      <c r="CG28" s="37"/>
-      <c r="CH28" s="37"/>
-      <c r="CI28" s="37"/>
-      <c r="CJ28" s="37"/>
-      <c r="CK28" s="37"/>
-      <c r="CL28" s="37"/>
-      <c r="CM28" s="37"/>
-      <c r="CN28" s="37"/>
-      <c r="CO28" s="37"/>
-      <c r="CP28" s="37"/>
-      <c r="CQ28" s="37"/>
-      <c r="CR28" s="37"/>
-      <c r="CS28" s="37"/>
-      <c r="CT28" s="37"/>
-      <c r="CU28" s="37"/>
-      <c r="CV28" s="37"/>
-      <c r="CW28" s="37"/>
-      <c r="CX28" s="37"/>
-      <c r="CY28" s="37"/>
-      <c r="CZ28" s="37"/>
-      <c r="DA28" s="37"/>
-      <c r="DB28" s="37"/>
-      <c r="DC28" s="37"/>
-      <c r="DD28" s="37"/>
-      <c r="DE28" s="37"/>
-      <c r="DF28" s="37"/>
-      <c r="DG28" s="37"/>
-      <c r="DH28" s="37"/>
-      <c r="DI28" s="37"/>
-      <c r="DJ28" s="37"/>
-      <c r="DK28" s="37"/>
-      <c r="DL28" s="37"/>
-      <c r="DM28" s="37"/>
-      <c r="DN28" s="37"/>
-    </row>
-    <row r="29" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
-      <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
-      <c r="BM29" s="38"/>
-      <c r="BN29" s="38"/>
-      <c r="BO29" s="38"/>
-      <c r="BP29" s="38"/>
-      <c r="BQ29" s="38"/>
-      <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
-      <c r="BT29" s="38"/>
-      <c r="BU29" s="38"/>
-      <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
-      <c r="BX29" s="38"/>
-      <c r="BY29" s="38"/>
-      <c r="BZ29" s="38"/>
-      <c r="CA29" s="38"/>
-      <c r="CB29" s="38"/>
-      <c r="CC29" s="38"/>
-      <c r="CD29" s="38"/>
-      <c r="CE29" s="38"/>
-      <c r="CF29" s="38"/>
-      <c r="CG29" s="38"/>
-      <c r="CH29" s="38"/>
-      <c r="CI29" s="38"/>
-      <c r="CJ29" s="38"/>
-      <c r="CK29" s="38"/>
-      <c r="CL29" s="38"/>
-      <c r="CM29" s="38"/>
-      <c r="CN29" s="38"/>
-      <c r="CO29" s="38"/>
-      <c r="CP29" s="38"/>
-      <c r="CQ29" s="38"/>
-      <c r="CR29" s="38"/>
-      <c r="CS29" s="38"/>
-      <c r="CT29" s="38"/>
-      <c r="CU29" s="38"/>
-      <c r="CV29" s="38"/>
-      <c r="CW29" s="38"/>
-      <c r="CX29" s="38"/>
-      <c r="CY29" s="38"/>
-      <c r="CZ29" s="38"/>
-      <c r="DA29" s="38"/>
-      <c r="DB29" s="38"/>
-      <c r="DC29" s="38"/>
-      <c r="DD29" s="38"/>
-      <c r="DE29" s="38"/>
-      <c r="DF29" s="38"/>
-      <c r="DG29" s="38"/>
-      <c r="DH29" s="38"/>
-      <c r="DI29" s="38"/>
-      <c r="DJ29" s="38"/>
-      <c r="DK29" s="38"/>
-      <c r="DL29" s="38"/>
-      <c r="DM29" s="38"/>
-      <c r="DN29" s="38"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="37"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="37"/>
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="37"/>
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="37"/>
+      <c r="CE29" s="37"/>
+      <c r="CF29" s="37"/>
+      <c r="CG29" s="37"/>
+      <c r="CH29" s="37"/>
+      <c r="CI29" s="37"/>
+      <c r="CJ29" s="37"/>
+      <c r="CK29" s="37"/>
+      <c r="CL29" s="37"/>
+      <c r="CM29" s="37"/>
+      <c r="CN29" s="37"/>
+      <c r="CO29" s="37"/>
+      <c r="CP29" s="37"/>
+      <c r="CQ29" s="37"/>
+      <c r="CR29" s="37"/>
+      <c r="CS29" s="37"/>
+      <c r="CT29" s="37"/>
+      <c r="CU29" s="37"/>
+      <c r="CV29" s="37"/>
+      <c r="CW29" s="37"/>
+      <c r="CX29" s="37"/>
+      <c r="CY29" s="37"/>
+      <c r="CZ29" s="37"/>
+      <c r="DA29" s="37"/>
+      <c r="DB29" s="37"/>
+      <c r="DC29" s="37"/>
+      <c r="DD29" s="37"/>
+      <c r="DE29" s="37"/>
+      <c r="DF29" s="37"/>
+      <c r="DG29" s="37"/>
+      <c r="DH29" s="37"/>
+      <c r="DI29" s="37"/>
+      <c r="DJ29" s="37"/>
+      <c r="DK29" s="37"/>
+      <c r="DL29" s="37"/>
+      <c r="DM29" s="37"/>
+      <c r="DN29" s="37"/>
     </row>
     <row r="30" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33">
-        <f>IFERROR(F17/F15,0)</f>
-        <v>0.72220608019025578</v>
-      </c>
-      <c r="G30" s="33">
-        <f t="shared" ref="G30:Q30" si="66">IFERROR(G17/G15,0)</f>
-        <v>0.67359589525355024</v>
-      </c>
-      <c r="H30" s="33">
-        <f>IFERROR(H17/H15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="I30" s="33">
-        <f>IFERROR(I17/I15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="J30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="K30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="L30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="M30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="N30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="O30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="P30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="Q30" s="33">
-        <f t="shared" si="66"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="R30" s="33">
-        <f t="shared" ref="R30" si="67">IFERROR(R17/R15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="S30" s="33">
-        <f t="shared" ref="R30:V30" si="68">IFERROR(S17/S15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="T30" s="33">
-        <f t="shared" si="68"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="U30" s="33">
-        <f t="shared" si="68"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="V30" s="33">
-        <f t="shared" si="68"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="W30" s="33">
-        <f t="shared" ref="W30" si="69">IFERROR(W17/W15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
@@ -5083,83 +5036,83 @@
     </row>
     <row r="31" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35">
-        <f>IFERROR(F22/F15,0)</f>
-        <v>-1.0463261388390166</v>
-      </c>
-      <c r="G31" s="35">
-        <f t="shared" ref="G31:Q31" si="70">IFERROR(G22/G15,0)</f>
-        <v>-0.77814841998235817</v>
-      </c>
-      <c r="H31" s="35">
-        <f>IFERROR(H22/H15,0)</f>
-        <v>-1.0752292771945495</v>
-      </c>
-      <c r="I31" s="35">
-        <f t="shared" si="70"/>
-        <v>-0.28038946693109473</v>
-      </c>
-      <c r="J31" s="35">
-        <f t="shared" si="70"/>
-        <v>-0.14311376873081724</v>
-      </c>
-      <c r="K31" s="35">
-        <f t="shared" si="70"/>
-        <v>-2.6278606197268361E-2</v>
-      </c>
-      <c r="L31" s="35">
-        <f t="shared" si="70"/>
-        <v>7.3264450210209109E-2</v>
-      </c>
-      <c r="M31" s="35">
-        <f t="shared" si="70"/>
-        <v>0.15816468544074958</v>
-      </c>
-      <c r="N31" s="35">
-        <f t="shared" si="70"/>
-        <v>0.19170021968187881</v>
-      </c>
-      <c r="O31" s="35">
-        <f t="shared" si="70"/>
-        <v>0.22171521419565152</v>
-      </c>
-      <c r="P31" s="35">
-        <f t="shared" si="70"/>
-        <v>0.24859378627692177</v>
-      </c>
-      <c r="Q31" s="35">
-        <f t="shared" si="70"/>
-        <v>0.2726767010729424</v>
-      </c>
-      <c r="R31" s="35">
-        <f t="shared" ref="R31" si="71">IFERROR(R22/R15,0)</f>
-        <v>0.29426640205896065</v>
-      </c>
-      <c r="S31" s="35">
-        <f t="shared" ref="R31:V31" si="72">IFERROR(S22/S15,0)</f>
-        <v>0.31913092155182204</v>
-      </c>
-      <c r="T31" s="35">
-        <f t="shared" si="72"/>
-        <v>0.3408175125235483</v>
-      </c>
-      <c r="U31" s="35">
-        <f t="shared" si="72"/>
-        <v>0.35973632656083854</v>
-      </c>
-      <c r="V31" s="35">
-        <f t="shared" si="72"/>
-        <v>0.37624411664884666</v>
-      </c>
-      <c r="W31" s="35">
-        <f t="shared" ref="W31" si="73">IFERROR(W22/W15,0)</f>
-        <v>0.39065124267208984</v>
+        <v>15</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33">
+        <f>IFERROR(F17/F15,0)</f>
+        <v>0.72220608019025578</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" ref="G31:Q31" si="73">IFERROR(G17/G15,0)</f>
+        <v>0.67359589525355024</v>
+      </c>
+      <c r="H31" s="33">
+        <f>IFERROR(H17/H15,0)</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="I31" s="33">
+        <f>IFERROR(I17/I15,0)</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="J31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="K31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="L31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="N31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="O31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="P31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="Q31" s="33">
+        <f t="shared" si="73"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="R31" s="33">
+        <f t="shared" ref="R31" si="74">IFERROR(R17/R15,0)</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="S31" s="33">
+        <f t="shared" ref="S31:V31" si="75">IFERROR(S17/S15,0)</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="T31" s="33">
+        <f t="shared" si="75"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="U31" s="33">
+        <f t="shared" si="75"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="V31" s="33">
+        <f t="shared" si="75"/>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="W31" s="33">
+        <f t="shared" ref="W31" si="76">IFERROR(W17/W15,0)</f>
+        <v>0.67735360899372454</v>
       </c>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
@@ -5259,83 +5212,83 @@
     </row>
     <row r="32" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35">
-        <f>IFERROR(F25/F24,0)</f>
-        <v>-1.5762042200240984E-2</v>
+        <f>IFERROR(F23/F15,0)</f>
+        <v>-1.0463261388390166</v>
       </c>
       <c r="G32" s="35">
-        <f t="shared" ref="G32:Q32" si="74">IFERROR(G25/G24,0)</f>
-        <v>-2.1022462501182514E-2</v>
+        <f t="shared" ref="G32:Q32" si="77">IFERROR(G23/G15,0)</f>
+        <v>-0.77814841998235817</v>
       </c>
       <c r="H32" s="35">
-        <f t="shared" si="74"/>
-        <v>1.0999480486075503E-2</v>
+        <f>IFERROR(H23/H15,0)</f>
+        <v>-0.36321388009038386</v>
       </c>
       <c r="I32" s="35">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>-0.11147211602059484</v>
       </c>
       <c r="J32" s="35">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>-1.4149909890512924E-4</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>9.4872509650745798E-2</v>
       </c>
       <c r="L32" s="35">
-        <f t="shared" si="74"/>
-        <v>0.1</v>
+        <f t="shared" si="77"/>
+        <v>0.17604463240922788</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" si="74"/>
-        <v>0.1</v>
+        <f t="shared" si="77"/>
+        <v>0.2454628672804009</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" si="74"/>
-        <v>0.1</v>
+        <f t="shared" si="77"/>
+        <v>0.27200651394194786</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="74"/>
-        <v>0.1</v>
+        <f t="shared" si="77"/>
+        <v>0.2958196815669879</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" si="74"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="77"/>
+        <v>0.31719472363540213</v>
       </c>
       <c r="Q32" s="35">
-        <f t="shared" si="74"/>
-        <v>0.1</v>
+        <f t="shared" si="77"/>
+        <v>0.33639152914206022</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" ref="R32" si="75">IFERROR(R25/R24,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="R32" si="78">IFERROR(R23/R15,0)</f>
+        <v>0.35364124068244868</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" ref="R32:V32" si="76">IFERROR(S25/S24,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="S32:V32" si="79">IFERROR(S23/S15,0)</f>
+        <v>0.37414435657434142</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" si="76"/>
-        <v>0.1</v>
+        <f t="shared" si="79"/>
+        <v>0.39200351286453478</v>
       </c>
       <c r="U32" s="35">
-        <f t="shared" si="76"/>
-        <v>0.1</v>
+        <f t="shared" si="79"/>
+        <v>0.40756267642546762</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" si="76"/>
-        <v>0.1</v>
+        <f t="shared" si="79"/>
+        <v>0.42112071752769098</v>
       </c>
       <c r="W32" s="35">
-        <f t="shared" ref="W32" si="77">IFERROR(W25/W24,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="W32" si="80">IFERROR(W23/W15,0)</f>
+        <v>0.43293736214322132</v>
       </c>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
@@ -5433,389 +5386,392 @@
       <c r="DM32" s="38"/>
       <c r="DN32" s="38"/>
     </row>
-    <row r="33" spans="1:118" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35">
+        <f>IFERROR(F26/F25,0)</f>
+        <v>-1.5762042200240984E-2</v>
+      </c>
+      <c r="G33" s="35">
+        <f t="shared" ref="G33:Q33" si="81">IFERROR(G26/G25,0)</f>
+        <v>-2.1022462501182514E-2</v>
+      </c>
+      <c r="H33" s="35">
+        <f t="shared" si="81"/>
+        <v>3.2188256733535703E-2</v>
+      </c>
+      <c r="I33" s="35">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="35">
+        <f t="shared" si="81"/>
+        <v>0.1</v>
+      </c>
+      <c r="M33" s="35">
+        <f t="shared" si="81"/>
+        <v>0.1</v>
+      </c>
+      <c r="N33" s="35">
+        <f t="shared" si="81"/>
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="35">
+        <f t="shared" si="81"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="P33" s="35">
+        <f t="shared" si="81"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q33" s="35">
+        <f t="shared" si="81"/>
+        <v>0.1</v>
+      </c>
+      <c r="R33" s="35">
+        <f t="shared" ref="R33" si="82">IFERROR(R26/R25,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="35">
+        <f t="shared" ref="S33:V33" si="83">IFERROR(S26/S25,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T33" s="35">
+        <f t="shared" si="83"/>
+        <v>0.1</v>
+      </c>
+      <c r="U33" s="35">
+        <f t="shared" si="83"/>
+        <v>0.1</v>
+      </c>
+      <c r="V33" s="35">
+        <f t="shared" si="83"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="W33" s="35">
+        <f t="shared" ref="W33" si="84">IFERROR(W26/W25,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
+      <c r="AJ33" s="38"/>
+      <c r="AK33" s="38"/>
+      <c r="AL33" s="38"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+      <c r="AX33" s="38"/>
+      <c r="AY33" s="38"/>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="38"/>
+      <c r="BB33" s="38"/>
+      <c r="BC33" s="38"/>
+      <c r="BD33" s="38"/>
+      <c r="BE33" s="38"/>
+      <c r="BF33" s="38"/>
+      <c r="BG33" s="38"/>
+      <c r="BH33" s="38"/>
+      <c r="BI33" s="38"/>
+      <c r="BJ33" s="38"/>
+      <c r="BK33" s="38"/>
+      <c r="BL33" s="38"/>
+      <c r="BM33" s="38"/>
+      <c r="BN33" s="38"/>
+      <c r="BO33" s="38"/>
+      <c r="BP33" s="38"/>
+      <c r="BQ33" s="38"/>
+      <c r="BR33" s="38"/>
+      <c r="BS33" s="38"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="38"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="38"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
+      <c r="CH33" s="38"/>
+      <c r="CI33" s="38"/>
+      <c r="CJ33" s="38"/>
+      <c r="CK33" s="38"/>
+      <c r="CL33" s="38"/>
+      <c r="CM33" s="38"/>
+      <c r="CN33" s="38"/>
+      <c r="CO33" s="38"/>
+      <c r="CP33" s="38"/>
+      <c r="CQ33" s="38"/>
+      <c r="CR33" s="38"/>
+      <c r="CS33" s="38"/>
+      <c r="CT33" s="38"/>
+      <c r="CU33" s="38"/>
+      <c r="CV33" s="38"/>
+      <c r="CW33" s="38"/>
+      <c r="CX33" s="38"/>
+      <c r="CY33" s="38"/>
+      <c r="CZ33" s="38"/>
+      <c r="DA33" s="38"/>
+      <c r="DB33" s="38"/>
+      <c r="DC33" s="38"/>
+      <c r="DD33" s="38"/>
+      <c r="DE33" s="38"/>
+      <c r="DF33" s="38"/>
+      <c r="DG33" s="38"/>
+      <c r="DH33" s="38"/>
+      <c r="DI33" s="38"/>
+      <c r="DJ33" s="38"/>
+      <c r="DK33" s="38"/>
+      <c r="DL33" s="38"/>
+      <c r="DM33" s="38"/>
+      <c r="DN33" s="38"/>
+    </row>
+    <row r="34" spans="1:118" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71">
         <v>0.44</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I34" s="71">
         <v>0.35</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="68"/>
-      <c r="BG33" s="68"/>
-      <c r="BH33" s="68"/>
-      <c r="BI33" s="68"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="68"/>
-      <c r="BL33" s="68"/>
-      <c r="BM33" s="68"/>
-      <c r="BN33" s="68"/>
-      <c r="BO33" s="68"/>
-      <c r="BP33" s="68"/>
-      <c r="BQ33" s="68"/>
-      <c r="BR33" s="68"/>
-      <c r="BS33" s="68"/>
-      <c r="BT33" s="68"/>
-      <c r="BU33" s="68"/>
-      <c r="BV33" s="68"/>
-      <c r="BW33" s="68"/>
-      <c r="BX33" s="68"/>
-      <c r="BY33" s="68"/>
-      <c r="BZ33" s="68"/>
-      <c r="CA33" s="68"/>
-      <c r="CB33" s="68"/>
-      <c r="CC33" s="68"/>
-      <c r="CD33" s="68"/>
-      <c r="CE33" s="68"/>
-      <c r="CF33" s="68"/>
-      <c r="CG33" s="68"/>
-      <c r="CH33" s="68"/>
-      <c r="CI33" s="68"/>
-      <c r="CJ33" s="68"/>
-      <c r="CK33" s="68"/>
-      <c r="CL33" s="68"/>
-      <c r="CM33" s="68"/>
-      <c r="CN33" s="68"/>
-      <c r="CO33" s="68"/>
-      <c r="CP33" s="68"/>
-      <c r="CQ33" s="68"/>
-      <c r="CR33" s="68"/>
-      <c r="CS33" s="68"/>
-      <c r="CT33" s="68"/>
-      <c r="CU33" s="68"/>
-      <c r="CV33" s="68"/>
-      <c r="CW33" s="68"/>
-      <c r="CX33" s="68"/>
-      <c r="CY33" s="68"/>
-      <c r="CZ33" s="68"/>
-      <c r="DA33" s="68"/>
-      <c r="DB33" s="68"/>
-      <c r="DC33" s="68"/>
-      <c r="DD33" s="68"/>
-      <c r="DE33" s="68"/>
-      <c r="DF33" s="68"/>
-      <c r="DG33" s="68"/>
-      <c r="DH33" s="68"/>
-      <c r="DI33" s="68"/>
-      <c r="DJ33" s="68"/>
-      <c r="DK33" s="68"/>
-      <c r="DL33" s="68"/>
-      <c r="DM33" s="68"/>
-      <c r="DN33" s="68"/>
-    </row>
-    <row r="34" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="68"/>
+      <c r="AL34" s="68"/>
+      <c r="AM34" s="68"/>
+      <c r="AN34" s="68"/>
+      <c r="AO34" s="68"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="68"/>
+      <c r="AT34" s="68"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="68"/>
+      <c r="BG34" s="68"/>
+      <c r="BH34" s="68"/>
+      <c r="BI34" s="68"/>
+      <c r="BJ34" s="68"/>
+      <c r="BK34" s="68"/>
+      <c r="BL34" s="68"/>
+      <c r="BM34" s="68"/>
+      <c r="BN34" s="68"/>
+      <c r="BO34" s="68"/>
+      <c r="BP34" s="68"/>
+      <c r="BQ34" s="68"/>
+      <c r="BR34" s="68"/>
+      <c r="BS34" s="68"/>
+      <c r="BT34" s="68"/>
+      <c r="BU34" s="68"/>
+      <c r="BV34" s="68"/>
+      <c r="BW34" s="68"/>
+      <c r="BX34" s="68"/>
+      <c r="BY34" s="68"/>
+      <c r="BZ34" s="68"/>
+      <c r="CA34" s="68"/>
+      <c r="CB34" s="68"/>
+      <c r="CC34" s="68"/>
+      <c r="CD34" s="68"/>
+      <c r="CE34" s="68"/>
+      <c r="CF34" s="68"/>
+      <c r="CG34" s="68"/>
+      <c r="CH34" s="68"/>
+      <c r="CI34" s="68"/>
+      <c r="CJ34" s="68"/>
+      <c r="CK34" s="68"/>
+      <c r="CL34" s="68"/>
+      <c r="CM34" s="68"/>
+      <c r="CN34" s="68"/>
+      <c r="CO34" s="68"/>
+      <c r="CP34" s="68"/>
+      <c r="CQ34" s="68"/>
+      <c r="CR34" s="68"/>
+      <c r="CS34" s="68"/>
+      <c r="CT34" s="68"/>
+      <c r="CU34" s="68"/>
+      <c r="CV34" s="68"/>
+      <c r="CW34" s="68"/>
+      <c r="CX34" s="68"/>
+      <c r="CY34" s="68"/>
+      <c r="CZ34" s="68"/>
+      <c r="DA34" s="68"/>
+      <c r="DB34" s="68"/>
+      <c r="DC34" s="68"/>
+      <c r="DD34" s="68"/>
+      <c r="DE34" s="68"/>
+      <c r="DF34" s="68"/>
+      <c r="DG34" s="68"/>
+      <c r="DH34" s="68"/>
+      <c r="DI34" s="68"/>
+      <c r="DJ34" s="68"/>
+      <c r="DK34" s="68"/>
+      <c r="DL34" s="68"/>
+      <c r="DM34" s="68"/>
+      <c r="DN34" s="68"/>
+    </row>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="47">
+      <c r="B35" s="35"/>
+      <c r="C35" s="47">
         <f>C15/B15-1</f>
         <v>0.54893617021276597</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D35" s="47">
         <f>D15/C15-1</f>
         <v>0.28021978021978011</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E35" s="47">
         <f>E15/D15-1</f>
         <v>0.10515021459227469</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F35" s="47">
         <f>F15/E15-1</f>
         <v>0.15613398058252415</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G35" s="47">
         <f>G15/F15-1</f>
         <v>0.24713432279323966</v>
       </c>
-      <c r="H34" s="47">
-        <f t="shared" ref="H34:W34" si="78">H15/G15-1</f>
+      <c r="H35" s="47">
+        <f t="shared" ref="H35:W35" si="85">H15/G15-1</f>
         <v>0.47150446768252841</v>
       </c>
-      <c r="I34" s="47">
-        <f t="shared" si="78"/>
+      <c r="I35" s="47">
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="J34" s="47">
-        <f t="shared" si="78"/>
+      <c r="J35" s="47">
+        <f t="shared" si="85"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="K34" s="47">
-        <f t="shared" si="78"/>
+      <c r="K35" s="47">
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="L34" s="47">
-        <f t="shared" si="78"/>
+      <c r="L35" s="47">
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="M34" s="47">
-        <f t="shared" si="78"/>
+      <c r="M35" s="47">
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="N34" s="47">
-        <f t="shared" si="78"/>
+      <c r="N35" s="47">
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="O34" s="47">
-        <f t="shared" si="78"/>
+      <c r="O35" s="47">
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="P34" s="47">
-        <f t="shared" si="78"/>
+      <c r="P35" s="47">
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Q34" s="47">
-        <f t="shared" si="78"/>
+      <c r="Q35" s="47">
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="R34" s="47">
-        <f t="shared" si="78"/>
+      <c r="R35" s="47">
+        <f t="shared" si="85"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="S34" s="47">
-        <f t="shared" si="78"/>
+      <c r="S35" s="47">
+        <f t="shared" si="85"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T34" s="47">
-        <f t="shared" si="78"/>
+      <c r="T35" s="47">
+        <f t="shared" si="85"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U34" s="47">
-        <f t="shared" si="78"/>
+      <c r="U35" s="47">
+        <f t="shared" si="85"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V34" s="47">
-        <f t="shared" si="78"/>
+      <c r="V35" s="47">
+        <f t="shared" si="85"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="W34" s="47">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="38"/>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38"/>
-      <c r="AW34" s="38"/>
-      <c r="AX34" s="38"/>
-      <c r="AY34" s="38"/>
-      <c r="AZ34" s="38"/>
-      <c r="BA34" s="38"/>
-      <c r="BB34" s="38"/>
-      <c r="BC34" s="38"/>
-      <c r="BD34" s="38"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="38"/>
-      <c r="BH34" s="38"/>
-      <c r="BI34" s="38"/>
-      <c r="BJ34" s="38"/>
-      <c r="BK34" s="38"/>
-      <c r="BL34" s="38"/>
-      <c r="BM34" s="38"/>
-      <c r="BN34" s="38"/>
-      <c r="BO34" s="38"/>
-      <c r="BP34" s="38"/>
-      <c r="BQ34" s="38"/>
-      <c r="BR34" s="38"/>
-      <c r="BS34" s="38"/>
-      <c r="BT34" s="38"/>
-      <c r="BU34" s="38"/>
-      <c r="BV34" s="38"/>
-      <c r="BW34" s="38"/>
-      <c r="BX34" s="38"/>
-      <c r="BY34" s="38"/>
-      <c r="BZ34" s="38"/>
-      <c r="CA34" s="38"/>
-      <c r="CB34" s="38"/>
-      <c r="CC34" s="38"/>
-      <c r="CD34" s="38"/>
-      <c r="CE34" s="38"/>
-      <c r="CF34" s="38"/>
-      <c r="CG34" s="38"/>
-      <c r="CH34" s="38"/>
-      <c r="CI34" s="38"/>
-      <c r="CJ34" s="38"/>
-      <c r="CK34" s="38"/>
-      <c r="CL34" s="38"/>
-      <c r="CM34" s="38"/>
-      <c r="CN34" s="38"/>
-      <c r="CO34" s="38"/>
-      <c r="CP34" s="38"/>
-      <c r="CQ34" s="38"/>
-      <c r="CR34" s="38"/>
-      <c r="CS34" s="38"/>
-      <c r="CT34" s="38"/>
-      <c r="CU34" s="38"/>
-      <c r="CV34" s="38"/>
-      <c r="CW34" s="38"/>
-      <c r="CX34" s="38"/>
-      <c r="CY34" s="38"/>
-      <c r="CZ34" s="38"/>
-      <c r="DA34" s="38"/>
-      <c r="DB34" s="38"/>
-      <c r="DC34" s="38"/>
-      <c r="DD34" s="38"/>
-      <c r="DE34" s="38"/>
-      <c r="DF34" s="38"/>
-      <c r="DG34" s="38"/>
-      <c r="DH34" s="38"/>
-      <c r="DI34" s="38"/>
-      <c r="DJ34" s="38"/>
-      <c r="DK34" s="38"/>
-      <c r="DL34" s="38"/>
-      <c r="DM34" s="38"/>
-      <c r="DN34" s="38"/>
-    </row>
-    <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35">
-        <f t="shared" ref="G35:W35" si="79">G18/F18-1</f>
-        <v>7.3684210526315796E-2</v>
-      </c>
-      <c r="H35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="I35" s="35">
-        <f t="shared" si="79"/>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="J35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.25</v>
-      </c>
-      <c r="K35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.25</v>
-      </c>
-      <c r="L35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.25</v>
-      </c>
-      <c r="M35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.25</v>
-      </c>
-      <c r="N35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="O35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="P35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Q35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="R35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="T35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="U35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="V35" s="35">
-        <f t="shared" si="79"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="W35" s="35">
-        <f t="shared" si="79"/>
+      <c r="W35" s="47">
+        <f t="shared" si="85"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="X35" s="38"/>
@@ -5916,7 +5872,7 @@
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -5924,72 +5880,72 @@
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
-        <f t="shared" ref="G36:W36" si="80">G19/F19-1</f>
-        <v>-2.3809523809523836E-2</v>
+        <f t="shared" ref="G36:W36" si="86">G18/F18-1</f>
+        <v>7.3684210526315796E-2</v>
       </c>
       <c r="H36" s="35">
-        <f t="shared" si="80"/>
-        <v>0.51884700665188466</v>
+        <f t="shared" si="86"/>
+        <v>0.83333333333333326</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="80"/>
-        <v>-0.19999999999999996</v>
+        <f t="shared" si="86"/>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="K36" s="35">
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="35">
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="35">
+        <f t="shared" si="86"/>
+        <v>0.25</v>
+      </c>
+      <c r="N36" s="35">
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K36" s="35">
-        <f t="shared" si="80"/>
+      <c r="O36" s="35">
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L36" s="35">
-        <f t="shared" si="80"/>
+      <c r="P36" s="35">
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M36" s="35">
-        <f t="shared" si="80"/>
+      <c r="Q36" s="35">
+        <f t="shared" si="86"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N36" s="35">
-        <f t="shared" si="80"/>
+      <c r="R36" s="35">
+        <f t="shared" si="86"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="S36" s="35">
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O36" s="35">
-        <f t="shared" si="80"/>
+      <c r="T36" s="35">
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P36" s="35">
-        <f t="shared" si="80"/>
+      <c r="U36" s="35">
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q36" s="35">
-        <f t="shared" si="80"/>
+      <c r="V36" s="35">
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R36" s="35">
-        <f t="shared" si="80"/>
+      <c r="W36" s="35">
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
-      </c>
-      <c r="S36" s="35">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="T36" s="35">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="U36" s="35">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="V36" s="35">
-        <f t="shared" si="80"/>
-        <v>-4.9999999999999933E-2</v>
-      </c>
-      <c r="W36" s="35">
-        <f t="shared" si="80"/>
-        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
@@ -6089,7 +6045,7 @@
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -6097,72 +6053,72 @@
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35">
-        <f t="shared" ref="G37:W37" si="81">G20/F20-1</f>
-        <v>4.9019607843137303E-2</v>
+        <f t="shared" ref="G37:W37" si="87">G19/F19-1</f>
+        <v>-2.3809523809523836E-2</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" si="81"/>
-        <v>1.0841121495327104</v>
+        <f t="shared" si="87"/>
+        <v>0.51884700665188466</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="81"/>
-        <v>0.15000000000000013</v>
+        <f t="shared" si="87"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K37" s="35">
-        <f t="shared" si="81"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="87"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L37" s="35">
-        <f t="shared" si="81"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="87"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="81"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="87"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="N37" s="35">
-        <f t="shared" si="81"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" si="81"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P37" s="35">
-        <f t="shared" si="81"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q37" s="35">
-        <f t="shared" si="81"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R37" s="35">
-        <f t="shared" si="81"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" si="81"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="87"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T37" s="35">
-        <f t="shared" si="81"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="87"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="U37" s="35">
-        <f t="shared" si="81"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="87"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="V37" s="35">
-        <f t="shared" si="81"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="87"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="W37" s="35">
-        <f t="shared" si="81"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="87"/>
+        <v>-5.0000000000000155E-2</v>
       </c>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
@@ -6261,81 +6217,81 @@
       <c r="DN37" s="38"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44">
-        <f t="shared" ref="G38:W38" si="82">G21/F21-1</f>
-        <v>2.3741690408357163E-2</v>
-      </c>
-      <c r="H38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.77643784786641934</v>
-      </c>
-      <c r="I38" s="44">
-        <f t="shared" si="82"/>
-        <v>-0.23493472584856401</v>
-      </c>
-      <c r="J38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.19933451641526179</v>
-      </c>
-      <c r="K38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.20063896263541148</v>
-      </c>
-      <c r="L38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.20194158828751085</v>
-      </c>
-      <c r="M38" s="44">
-        <f>M21/L21-1</f>
-        <v>0.20324041973851736</v>
-      </c>
-      <c r="N38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.12248940748974002</v>
-      </c>
-      <c r="O38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.12583600936551997</v>
-      </c>
-      <c r="P38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.12921078015864196</v>
-      </c>
-      <c r="Q38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.13259746780352377</v>
-      </c>
-      <c r="R38" s="44">
-        <f t="shared" si="82"/>
-        <v>0.13597944267110629</v>
-      </c>
-      <c r="S38" s="44">
-        <f t="shared" si="82"/>
-        <v>2.8603798437975447E-2</v>
-      </c>
-      <c r="T38" s="44">
-        <f t="shared" si="82"/>
-        <v>3.3406646465495404E-2</v>
-      </c>
-      <c r="U38" s="44">
-        <f t="shared" si="82"/>
-        <v>3.8162070401076997E-2</v>
-      </c>
-      <c r="V38" s="44">
-        <f t="shared" si="82"/>
-        <v>4.2828775066275249E-2</v>
-      </c>
-      <c r="W38" s="44">
-        <f t="shared" si="82"/>
-        <v>4.7368518666904169E-2</v>
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35">
+        <f t="shared" ref="G38:W38" si="88">G20/F20-1</f>
+        <v>4.9019607843137303E-2</v>
+      </c>
+      <c r="H38" s="35">
+        <f t="shared" si="88"/>
+        <v>1.0841121495327104</v>
+      </c>
+      <c r="I38" s="35">
+        <f t="shared" si="88"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J38" s="35">
+        <f t="shared" si="88"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K38" s="35">
+        <f t="shared" si="88"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="L38" s="35">
+        <f t="shared" si="88"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M38" s="35">
+        <f t="shared" si="88"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="N38" s="35">
+        <f t="shared" si="88"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="O38" s="35">
+        <f t="shared" si="88"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P38" s="35">
+        <f t="shared" si="88"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q38" s="35">
+        <f t="shared" si="88"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="R38" s="35">
+        <f t="shared" si="88"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="S38" s="35">
+        <f t="shared" si="88"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="T38" s="35">
+        <f t="shared" si="88"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="U38" s="35">
+        <f t="shared" si="88"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="V38" s="35">
+        <f t="shared" si="88"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="W38" s="35">
+        <f t="shared" si="88"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="X38" s="38"/>
       <c r="Y38" s="38"/>
@@ -6434,28 +6390,82 @@
       <c r="DN38" s="38"/>
     </row>
     <row r="39" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
+      <c r="G39" s="44">
+        <f t="shared" ref="G39:W39" si="89">G22/F22-1</f>
+        <v>2.3741690408357163E-2</v>
+      </c>
+      <c r="H39" s="44">
+        <f t="shared" si="89"/>
+        <v>5.4730983302411884E-2</v>
+      </c>
+      <c r="I39" s="44">
+        <f t="shared" si="89"/>
+        <v>6.1301671064203811E-2</v>
+      </c>
+      <c r="J39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.20241153559293945</v>
+      </c>
+      <c r="K39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.20365967124987083</v>
+      </c>
+      <c r="L39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.20490187236966406</v>
+      </c>
+      <c r="M39" s="44">
+        <f>M22/L22-1</f>
+        <v>0.20613646800864438</v>
+      </c>
+      <c r="N39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.1262489955966708</v>
+      </c>
+      <c r="O39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.12950288407420829</v>
+      </c>
+      <c r="P39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.13277124617699299</v>
+      </c>
+      <c r="Q39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.13603887743857546</v>
+      </c>
+      <c r="R39" s="44">
+        <f t="shared" si="89"/>
+        <v>0.13929045171981724</v>
+      </c>
+      <c r="S39" s="44">
+        <f t="shared" si="89"/>
+        <v>3.0328805171278006E-2</v>
+      </c>
+      <c r="T39" s="44">
+        <f t="shared" si="89"/>
+        <v>3.5209523579970536E-2</v>
+      </c>
+      <c r="U39" s="44">
+        <f t="shared" si="89"/>
+        <v>4.0020766948410946E-2</v>
+      </c>
+      <c r="V39" s="44">
+        <f t="shared" si="89"/>
+        <v>4.4720732196318336E-2</v>
+      </c>
+      <c r="W39" s="44">
+        <f t="shared" si="89"/>
+        <v>4.9271504517965692E-2</v>
+      </c>
       <c r="X39" s="38"/>
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
@@ -6553,85 +6563,28 @@
       <c r="DN39" s="38"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="24">
-        <f>F41-F42</f>
-        <v>1126</v>
-      </c>
-      <c r="G40" s="24">
-        <f>G41-G42</f>
-        <v>735</v>
-      </c>
-      <c r="H40" s="24">
-        <f>H41-H42</f>
-        <v>1850</v>
-      </c>
-      <c r="I40" s="48">
-        <f>H40+I26</f>
-        <v>1513.5763999999999</v>
-      </c>
-      <c r="J40" s="48">
-        <f t="shared" ref="J40:W40" si="83">I40+J26</f>
-        <v>1282.7571799999998</v>
-      </c>
-      <c r="K40" s="48">
-        <f t="shared" si="83"/>
-        <v>1268.1040329999996</v>
-      </c>
-      <c r="L40" s="48">
-        <f t="shared" si="83"/>
-        <v>1601.9509156749996</v>
-      </c>
-      <c r="M40" s="48">
-        <f t="shared" si="83"/>
-        <v>2510.5704426088741</v>
-      </c>
-      <c r="N40" s="48">
-        <f t="shared" si="83"/>
-        <v>3840.2271970285979</v>
-      </c>
-      <c r="O40" s="48">
-        <f t="shared" si="83"/>
-        <v>5701.6533716072054</v>
-      </c>
-      <c r="P40" s="48">
-        <f t="shared" si="83"/>
-        <v>8230.2203433193226</v>
-      </c>
-      <c r="Q40" s="48">
-        <f t="shared" si="83"/>
-        <v>11591.0947754442</v>
-      </c>
-      <c r="R40" s="48">
-        <f t="shared" si="83"/>
-        <v>15985.447129977547</v>
-      </c>
-      <c r="S40" s="48">
-        <f t="shared" si="83"/>
-        <v>21324.778695661829</v>
-      </c>
-      <c r="T40" s="48">
-        <f t="shared" si="83"/>
-        <v>27711.725906476073</v>
-      </c>
-      <c r="U40" s="48">
-        <f t="shared" si="83"/>
-        <v>35260.217882452824</v>
-      </c>
-      <c r="V40" s="48">
-        <f t="shared" si="83"/>
-        <v>44096.620219498662</v>
-      </c>
-      <c r="W40" s="48">
-        <f t="shared" si="83"/>
-        <v>54360.995373841215</v>
-      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
       <c r="X40" s="38"/>
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
@@ -6729,40 +6682,85 @@
       <c r="DN40" s="38"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49">
-        <f>Reports!E34</f>
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="24">
+        <f>F42-F43</f>
         <v>1126</v>
       </c>
-      <c r="G41" s="49">
-        <f>Reports!I34</f>
-        <v>1131</v>
-      </c>
-      <c r="H41" s="49">
-        <f>Reports!M34</f>
-        <v>2048</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
+      <c r="G41" s="24">
+        <f>G42-G43</f>
+        <v>735</v>
+      </c>
+      <c r="H41" s="24">
+        <f>H42-H43</f>
+        <v>1850</v>
+      </c>
+      <c r="I41" s="48">
+        <f>H41+I27</f>
+        <v>1771.9764</v>
+      </c>
+      <c r="J41" s="48">
+        <f t="shared" ref="J41:W41" si="90">I41+J27</f>
+        <v>1860.2721799999999</v>
+      </c>
+      <c r="K41" s="48">
+        <f t="shared" si="90"/>
+        <v>2237.7415329999999</v>
+      </c>
+      <c r="L41" s="48">
+        <f t="shared" si="90"/>
+        <v>3003.5103519250001</v>
+      </c>
+      <c r="M41" s="48">
+        <f t="shared" si="90"/>
+        <v>4436.9194276776252</v>
+      </c>
+      <c r="N41" s="48">
+        <f t="shared" si="90"/>
+        <v>6362.949091556693</v>
+      </c>
+      <c r="O41" s="48">
+        <f t="shared" si="90"/>
+        <v>8902.2883642581273</v>
+      </c>
+      <c r="P41" s="48">
+        <f t="shared" si="90"/>
+        <v>12201.85380520955</v>
+      </c>
+      <c r="Q41" s="48">
+        <f t="shared" si="90"/>
+        <v>16440.228417175007</v>
+      </c>
+      <c r="R41" s="48">
+        <f t="shared" si="90"/>
+        <v>21834.206476889733</v>
+      </c>
+      <c r="S41" s="48">
+        <f t="shared" si="90"/>
+        <v>28233.149316397656</v>
+      </c>
+      <c r="T41" s="48">
+        <f t="shared" si="90"/>
+        <v>35746.082218241761</v>
+      </c>
+      <c r="U41" s="48">
+        <f t="shared" si="90"/>
+        <v>44493.889490083762</v>
+      </c>
+      <c r="V41" s="48">
+        <f t="shared" si="90"/>
+        <v>54610.515742238022</v>
+      </c>
+      <c r="W41" s="48">
+        <f t="shared" si="90"/>
+        <v>66244.289348847713</v>
+      </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
@@ -6861,7 +6859,7 @@
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
@@ -6869,15 +6867,15 @@
       <c r="E42" s="49"/>
       <c r="F42" s="49">
         <f>Reports!E35</f>
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="G42" s="49">
         <f>Reports!I35</f>
-        <v>396</v>
+        <v>1131</v>
       </c>
       <c r="H42" s="49">
         <f>Reports!M35</f>
-        <v>198</v>
+        <v>2048</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
@@ -6991,23 +6989,35 @@
       <c r="DN42" s="38"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49">
+        <f>Reports!E36</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="49">
+        <f>Reports!I36</f>
+        <v>396</v>
+      </c>
+      <c r="H43" s="49">
+        <f>Reports!M36</f>
+        <v>198</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
@@ -7110,139 +7120,127 @@
       <c r="DN43" s="38"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="49">
-        <f>Reports!E37</f>
-        <v>23</v>
-      </c>
-      <c r="G44" s="49">
-        <f>Reports!I37</f>
-        <v>51</v>
-      </c>
-      <c r="H44" s="49">
-        <f>Reports!M37</f>
-        <v>217</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="37"/>
-      <c r="AN44" s="37"/>
-      <c r="AO44" s="37"/>
-      <c r="AP44" s="37"/>
-      <c r="AQ44" s="37"/>
-      <c r="AR44" s="37"/>
-      <c r="AS44" s="37"/>
-      <c r="AT44" s="37"/>
-      <c r="AU44" s="37"/>
-      <c r="AV44" s="37"/>
-      <c r="AW44" s="37"/>
-      <c r="AX44" s="37"/>
-      <c r="AY44" s="37"/>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="37"/>
-      <c r="BB44" s="37"/>
-      <c r="BC44" s="37"/>
-      <c r="BD44" s="37"/>
-      <c r="BE44" s="37"/>
-      <c r="BF44" s="37"/>
-      <c r="BG44" s="37"/>
-      <c r="BH44" s="37"/>
-      <c r="BI44" s="37"/>
-      <c r="BJ44" s="37"/>
-      <c r="BK44" s="37"/>
-      <c r="BL44" s="37"/>
-      <c r="BM44" s="37"/>
-      <c r="BN44" s="37"/>
-      <c r="BO44" s="37"/>
-      <c r="BP44" s="37"/>
-      <c r="BQ44" s="37"/>
-      <c r="BR44" s="37"/>
-      <c r="BS44" s="37"/>
-      <c r="BT44" s="37"/>
-      <c r="BU44" s="37"/>
-      <c r="BV44" s="37"/>
-      <c r="BW44" s="37"/>
-      <c r="BX44" s="37"/>
-      <c r="BY44" s="37"/>
-      <c r="BZ44" s="37"/>
-      <c r="CA44" s="37"/>
-      <c r="CB44" s="37"/>
-      <c r="CC44" s="37"/>
-      <c r="CD44" s="37"/>
-      <c r="CE44" s="37"/>
-      <c r="CF44" s="37"/>
-      <c r="CG44" s="37"/>
-      <c r="CH44" s="37"/>
-      <c r="CI44" s="37"/>
-      <c r="CJ44" s="37"/>
-      <c r="CK44" s="37"/>
-      <c r="CL44" s="37"/>
-      <c r="CM44" s="37"/>
-      <c r="CN44" s="37"/>
-      <c r="CO44" s="37"/>
-      <c r="CP44" s="37"/>
-      <c r="CQ44" s="37"/>
-      <c r="CR44" s="37"/>
-      <c r="CS44" s="37"/>
-      <c r="CT44" s="37"/>
-      <c r="CU44" s="37"/>
-      <c r="CV44" s="37"/>
-      <c r="CW44" s="37"/>
-      <c r="CX44" s="37"/>
-      <c r="CY44" s="37"/>
-      <c r="CZ44" s="37"/>
-      <c r="DA44" s="37"/>
-      <c r="DB44" s="37"/>
-      <c r="DC44" s="37"/>
-      <c r="DD44" s="37"/>
-      <c r="DE44" s="37"/>
-      <c r="DF44" s="37"/>
-      <c r="DG44" s="37"/>
-      <c r="DH44" s="37"/>
-      <c r="DI44" s="37"/>
-      <c r="DJ44" s="37"/>
-      <c r="DK44" s="37"/>
-      <c r="DL44" s="37"/>
-      <c r="DM44" s="37"/>
-      <c r="DN44" s="37"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="38"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="38"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="38"/>
+      <c r="BH44" s="38"/>
+      <c r="BI44" s="38"/>
+      <c r="BJ44" s="38"/>
+      <c r="BK44" s="38"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="38"/>
+      <c r="BP44" s="38"/>
+      <c r="BQ44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="38"/>
+      <c r="BW44" s="38"/>
+      <c r="BX44" s="38"/>
+      <c r="BY44" s="38"/>
+      <c r="BZ44" s="38"/>
+      <c r="CA44" s="38"/>
+      <c r="CB44" s="38"/>
+      <c r="CC44" s="38"/>
+      <c r="CD44" s="38"/>
+      <c r="CE44" s="38"/>
+      <c r="CF44" s="38"/>
+      <c r="CG44" s="38"/>
+      <c r="CH44" s="38"/>
+      <c r="CI44" s="38"/>
+      <c r="CJ44" s="38"/>
+      <c r="CK44" s="38"/>
+      <c r="CL44" s="38"/>
+      <c r="CM44" s="38"/>
+      <c r="CN44" s="38"/>
+      <c r="CO44" s="38"/>
+      <c r="CP44" s="38"/>
+      <c r="CQ44" s="38"/>
+      <c r="CR44" s="38"/>
+      <c r="CS44" s="38"/>
+      <c r="CT44" s="38"/>
+      <c r="CU44" s="38"/>
+      <c r="CV44" s="38"/>
+      <c r="CW44" s="38"/>
+      <c r="CX44" s="38"/>
+      <c r="CY44" s="38"/>
+      <c r="CZ44" s="38"/>
+      <c r="DA44" s="38"/>
+      <c r="DB44" s="38"/>
+      <c r="DC44" s="38"/>
+      <c r="DD44" s="38"/>
+      <c r="DE44" s="38"/>
+      <c r="DF44" s="38"/>
+      <c r="DG44" s="38"/>
+      <c r="DH44" s="38"/>
+      <c r="DI44" s="38"/>
+      <c r="DJ44" s="38"/>
+      <c r="DK44" s="38"/>
+      <c r="DL44" s="38"/>
+      <c r="DM44" s="38"/>
+      <c r="DN44" s="38"/>
     </row>
     <row r="45" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -7250,15 +7248,15 @@
       <c r="E45" s="51"/>
       <c r="F45" s="49">
         <f>Reports!E38</f>
-        <v>1431</v>
+        <v>23</v>
       </c>
       <c r="G45" s="49">
         <f>Reports!I38</f>
-        <v>1594</v>
+        <v>51</v>
       </c>
       <c r="H45" s="49">
         <f>Reports!M38</f>
-        <v>2691</v>
+        <v>217</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
@@ -7373,7 +7371,7 @@
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -7381,15 +7379,15 @@
       <c r="E46" s="51"/>
       <c r="F46" s="49">
         <f>Reports!E39</f>
-        <v>923</v>
+        <v>1431</v>
       </c>
       <c r="G46" s="49">
         <f>Reports!I39</f>
-        <v>1447</v>
+        <v>1594</v>
       </c>
       <c r="H46" s="49">
         <f>Reports!M39</f>
-        <v>1168</v>
+        <v>2691</v>
       </c>
       <c r="I46" s="51"/>
       <c r="J46" s="51"/>
@@ -7503,274 +7501,274 @@
       <c r="DN46" s="37"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
-      <c r="AF47" s="38"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
-      <c r="AL47" s="38"/>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="38"/>
-      <c r="AU47" s="38"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
-      <c r="AZ47" s="38"/>
-      <c r="BA47" s="38"/>
-      <c r="BB47" s="38"/>
-      <c r="BC47" s="38"/>
-      <c r="BD47" s="38"/>
-      <c r="BE47" s="38"/>
-      <c r="BF47" s="38"/>
-      <c r="BG47" s="38"/>
-      <c r="BH47" s="38"/>
-      <c r="BI47" s="38"/>
-      <c r="BJ47" s="38"/>
-      <c r="BK47" s="38"/>
-      <c r="BL47" s="38"/>
-      <c r="BM47" s="38"/>
-      <c r="BN47" s="38"/>
-      <c r="BO47" s="38"/>
-      <c r="BP47" s="38"/>
-      <c r="BQ47" s="38"/>
-      <c r="BR47" s="38"/>
-      <c r="BS47" s="38"/>
-      <c r="BT47" s="38"/>
-      <c r="BU47" s="38"/>
-      <c r="BV47" s="38"/>
-      <c r="BW47" s="38"/>
-      <c r="BX47" s="38"/>
-      <c r="BY47" s="38"/>
-      <c r="BZ47" s="38"/>
-      <c r="CA47" s="38"/>
-      <c r="CB47" s="38"/>
-      <c r="CC47" s="38"/>
-      <c r="CD47" s="38"/>
-      <c r="CE47" s="38"/>
-      <c r="CF47" s="38"/>
-      <c r="CG47" s="38"/>
-      <c r="CH47" s="38"/>
-      <c r="CI47" s="38"/>
-      <c r="CJ47" s="38"/>
-      <c r="CK47" s="38"/>
-      <c r="CL47" s="38"/>
-      <c r="CM47" s="38"/>
-      <c r="CN47" s="38"/>
-      <c r="CO47" s="38"/>
-      <c r="CP47" s="38"/>
-      <c r="CQ47" s="38"/>
-      <c r="CR47" s="38"/>
-      <c r="CS47" s="38"/>
-      <c r="CT47" s="38"/>
-      <c r="CU47" s="38"/>
-      <c r="CV47" s="38"/>
-      <c r="CW47" s="38"/>
-      <c r="CX47" s="38"/>
-      <c r="CY47" s="38"/>
-      <c r="CZ47" s="38"/>
-      <c r="DA47" s="38"/>
-      <c r="DB47" s="38"/>
-      <c r="DC47" s="38"/>
-      <c r="DD47" s="38"/>
-      <c r="DE47" s="38"/>
-      <c r="DF47" s="38"/>
-      <c r="DG47" s="38"/>
-      <c r="DH47" s="38"/>
-      <c r="DI47" s="38"/>
-      <c r="DJ47" s="38"/>
-      <c r="DK47" s="38"/>
-      <c r="DL47" s="38"/>
-      <c r="DM47" s="38"/>
-      <c r="DN47" s="38"/>
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="49">
+        <f>Reports!E40</f>
+        <v>923</v>
+      </c>
+      <c r="G47" s="49">
+        <f>Reports!I40</f>
+        <v>1447</v>
+      </c>
+      <c r="H47" s="49">
+        <f>Reports!M40</f>
+        <v>1168</v>
+      </c>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="37"/>
+      <c r="AL47" s="37"/>
+      <c r="AM47" s="37"/>
+      <c r="AN47" s="37"/>
+      <c r="AO47" s="37"/>
+      <c r="AP47" s="37"/>
+      <c r="AQ47" s="37"/>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="37"/>
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="37"/>
+      <c r="AW47" s="37"/>
+      <c r="AX47" s="37"/>
+      <c r="AY47" s="37"/>
+      <c r="AZ47" s="37"/>
+      <c r="BA47" s="37"/>
+      <c r="BB47" s="37"/>
+      <c r="BC47" s="37"/>
+      <c r="BD47" s="37"/>
+      <c r="BE47" s="37"/>
+      <c r="BF47" s="37"/>
+      <c r="BG47" s="37"/>
+      <c r="BH47" s="37"/>
+      <c r="BI47" s="37"/>
+      <c r="BJ47" s="37"/>
+      <c r="BK47" s="37"/>
+      <c r="BL47" s="37"/>
+      <c r="BM47" s="37"/>
+      <c r="BN47" s="37"/>
+      <c r="BO47" s="37"/>
+      <c r="BP47" s="37"/>
+      <c r="BQ47" s="37"/>
+      <c r="BR47" s="37"/>
+      <c r="BS47" s="37"/>
+      <c r="BT47" s="37"/>
+      <c r="BU47" s="37"/>
+      <c r="BV47" s="37"/>
+      <c r="BW47" s="37"/>
+      <c r="BX47" s="37"/>
+      <c r="BY47" s="37"/>
+      <c r="BZ47" s="37"/>
+      <c r="CA47" s="37"/>
+      <c r="CB47" s="37"/>
+      <c r="CC47" s="37"/>
+      <c r="CD47" s="37"/>
+      <c r="CE47" s="37"/>
+      <c r="CF47" s="37"/>
+      <c r="CG47" s="37"/>
+      <c r="CH47" s="37"/>
+      <c r="CI47" s="37"/>
+      <c r="CJ47" s="37"/>
+      <c r="CK47" s="37"/>
+      <c r="CL47" s="37"/>
+      <c r="CM47" s="37"/>
+      <c r="CN47" s="37"/>
+      <c r="CO47" s="37"/>
+      <c r="CP47" s="37"/>
+      <c r="CQ47" s="37"/>
+      <c r="CR47" s="37"/>
+      <c r="CS47" s="37"/>
+      <c r="CT47" s="37"/>
+      <c r="CU47" s="37"/>
+      <c r="CV47" s="37"/>
+      <c r="CW47" s="37"/>
+      <c r="CX47" s="37"/>
+      <c r="CY47" s="37"/>
+      <c r="CZ47" s="37"/>
+      <c r="DA47" s="37"/>
+      <c r="DB47" s="37"/>
+      <c r="DC47" s="37"/>
+      <c r="DD47" s="37"/>
+      <c r="DE47" s="37"/>
+      <c r="DF47" s="37"/>
+      <c r="DG47" s="37"/>
+      <c r="DH47" s="37"/>
+      <c r="DI47" s="37"/>
+      <c r="DJ47" s="37"/>
+      <c r="DK47" s="37"/>
+      <c r="DL47" s="37"/>
+      <c r="DM47" s="37"/>
+      <c r="DN47" s="37"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="52">
-        <f>F45-F44-F41</f>
-        <v>282</v>
-      </c>
-      <c r="G48" s="52">
-        <f>G45-G44-G41</f>
-        <v>412</v>
-      </c>
-      <c r="H48" s="52">
-        <f>H45-H44-H41</f>
-        <v>426</v>
-      </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
-      <c r="AL48" s="37"/>
-      <c r="AM48" s="37"/>
-      <c r="AN48" s="37"/>
-      <c r="AO48" s="37"/>
-      <c r="AP48" s="37"/>
-      <c r="AQ48" s="37"/>
-      <c r="AR48" s="37"/>
-      <c r="AS48" s="37"/>
-      <c r="AT48" s="37"/>
-      <c r="AU48" s="37"/>
-      <c r="AV48" s="37"/>
-      <c r="AW48" s="37"/>
-      <c r="AX48" s="37"/>
-      <c r="AY48" s="37"/>
-      <c r="AZ48" s="37"/>
-      <c r="BA48" s="37"/>
-      <c r="BB48" s="37"/>
-      <c r="BC48" s="37"/>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="37"/>
-      <c r="BF48" s="37"/>
-      <c r="BG48" s="37"/>
-      <c r="BH48" s="37"/>
-      <c r="BI48" s="37"/>
-      <c r="BJ48" s="37"/>
-      <c r="BK48" s="37"/>
-      <c r="BL48" s="37"/>
-      <c r="BM48" s="37"/>
-      <c r="BN48" s="37"/>
-      <c r="BO48" s="37"/>
-      <c r="BP48" s="37"/>
-      <c r="BQ48" s="37"/>
-      <c r="BR48" s="37"/>
-      <c r="BS48" s="37"/>
-      <c r="BT48" s="37"/>
-      <c r="BU48" s="37"/>
-      <c r="BV48" s="37"/>
-      <c r="BW48" s="37"/>
-      <c r="BX48" s="37"/>
-      <c r="BY48" s="37"/>
-      <c r="BZ48" s="37"/>
-      <c r="CA48" s="37"/>
-      <c r="CB48" s="37"/>
-      <c r="CC48" s="37"/>
-      <c r="CD48" s="37"/>
-      <c r="CE48" s="37"/>
-      <c r="CF48" s="37"/>
-      <c r="CG48" s="37"/>
-      <c r="CH48" s="37"/>
-      <c r="CI48" s="37"/>
-      <c r="CJ48" s="37"/>
-      <c r="CK48" s="37"/>
-      <c r="CL48" s="37"/>
-      <c r="CM48" s="37"/>
-      <c r="CN48" s="37"/>
-      <c r="CO48" s="37"/>
-      <c r="CP48" s="37"/>
-      <c r="CQ48" s="37"/>
-      <c r="CR48" s="37"/>
-      <c r="CS48" s="37"/>
-      <c r="CT48" s="37"/>
-      <c r="CU48" s="37"/>
-      <c r="CV48" s="37"/>
-      <c r="CW48" s="37"/>
-      <c r="CX48" s="37"/>
-      <c r="CY48" s="37"/>
-      <c r="CZ48" s="37"/>
-      <c r="DA48" s="37"/>
-      <c r="DB48" s="37"/>
-      <c r="DC48" s="37"/>
-      <c r="DD48" s="37"/>
-      <c r="DE48" s="37"/>
-      <c r="DF48" s="37"/>
-      <c r="DG48" s="37"/>
-      <c r="DH48" s="37"/>
-      <c r="DI48" s="37"/>
-      <c r="DJ48" s="37"/>
-      <c r="DK48" s="37"/>
-      <c r="DL48" s="37"/>
-      <c r="DM48" s="37"/>
-      <c r="DN48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
+      <c r="BA48" s="38"/>
+      <c r="BB48" s="38"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="38"/>
+      <c r="BH48" s="38"/>
+      <c r="BI48" s="38"/>
+      <c r="BJ48" s="38"/>
+      <c r="BK48" s="38"/>
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="38"/>
+      <c r="BN48" s="38"/>
+      <c r="BO48" s="38"/>
+      <c r="BP48" s="38"/>
+      <c r="BQ48" s="38"/>
+      <c r="BR48" s="38"/>
+      <c r="BS48" s="38"/>
+      <c r="BT48" s="38"/>
+      <c r="BU48" s="38"/>
+      <c r="BV48" s="38"/>
+      <c r="BW48" s="38"/>
+      <c r="BX48" s="38"/>
+      <c r="BY48" s="38"/>
+      <c r="BZ48" s="38"/>
+      <c r="CA48" s="38"/>
+      <c r="CB48" s="38"/>
+      <c r="CC48" s="38"/>
+      <c r="CD48" s="38"/>
+      <c r="CE48" s="38"/>
+      <c r="CF48" s="38"/>
+      <c r="CG48" s="38"/>
+      <c r="CH48" s="38"/>
+      <c r="CI48" s="38"/>
+      <c r="CJ48" s="38"/>
+      <c r="CK48" s="38"/>
+      <c r="CL48" s="38"/>
+      <c r="CM48" s="38"/>
+      <c r="CN48" s="38"/>
+      <c r="CO48" s="38"/>
+      <c r="CP48" s="38"/>
+      <c r="CQ48" s="38"/>
+      <c r="CR48" s="38"/>
+      <c r="CS48" s="38"/>
+      <c r="CT48" s="38"/>
+      <c r="CU48" s="38"/>
+      <c r="CV48" s="38"/>
+      <c r="CW48" s="38"/>
+      <c r="CX48" s="38"/>
+      <c r="CY48" s="38"/>
+      <c r="CZ48" s="38"/>
+      <c r="DA48" s="38"/>
+      <c r="DB48" s="38"/>
+      <c r="DC48" s="38"/>
+      <c r="DD48" s="38"/>
+      <c r="DE48" s="38"/>
+      <c r="DF48" s="38"/>
+      <c r="DG48" s="38"/>
+      <c r="DH48" s="38"/>
+      <c r="DI48" s="38"/>
+      <c r="DJ48" s="38"/>
+      <c r="DK48" s="38"/>
+      <c r="DL48" s="38"/>
+      <c r="DM48" s="38"/>
+      <c r="DN48" s="38"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="52">
-        <f>F45-F46</f>
-        <v>508</v>
+        <f>F46-F45-F42</f>
+        <v>282</v>
       </c>
       <c r="G49" s="52">
-        <f>G45-G46</f>
-        <v>147</v>
+        <f>G46-G45-G42</f>
+        <v>412</v>
       </c>
       <c r="H49" s="52">
-        <f>H45-H46</f>
-        <v>1523</v>
+        <f>H46-H45-H42</f>
+        <v>426</v>
       </c>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
@@ -7884,144 +7882,144 @@
       <c r="DN49" s="37"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="38"/>
-      <c r="AH50" s="38"/>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="38"/>
-      <c r="AK50" s="38"/>
-      <c r="AL50" s="38"/>
-      <c r="AM50" s="38"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="38"/>
-      <c r="AP50" s="38"/>
-      <c r="AQ50" s="38"/>
-      <c r="AR50" s="38"/>
-      <c r="AS50" s="38"/>
-      <c r="AT50" s="38"/>
-      <c r="AU50" s="38"/>
-      <c r="AV50" s="38"/>
-      <c r="AW50" s="38"/>
-      <c r="AX50" s="38"/>
-      <c r="AY50" s="38"/>
-      <c r="AZ50" s="38"/>
-      <c r="BA50" s="38"/>
-      <c r="BB50" s="38"/>
-      <c r="BC50" s="38"/>
-      <c r="BD50" s="38"/>
-      <c r="BE50" s="38"/>
-      <c r="BF50" s="38"/>
-      <c r="BG50" s="38"/>
-      <c r="BH50" s="38"/>
-      <c r="BI50" s="38"/>
-      <c r="BJ50" s="38"/>
-      <c r="BK50" s="38"/>
-      <c r="BL50" s="38"/>
-      <c r="BM50" s="38"/>
-      <c r="BN50" s="38"/>
-      <c r="BO50" s="38"/>
-      <c r="BP50" s="38"/>
-      <c r="BQ50" s="38"/>
-      <c r="BR50" s="38"/>
-      <c r="BS50" s="38"/>
-      <c r="BT50" s="38"/>
-      <c r="BU50" s="38"/>
-      <c r="BV50" s="38"/>
-      <c r="BW50" s="38"/>
-      <c r="BX50" s="38"/>
-      <c r="BY50" s="38"/>
-      <c r="BZ50" s="38"/>
-      <c r="CA50" s="38"/>
-      <c r="CB50" s="38"/>
-      <c r="CC50" s="38"/>
-      <c r="CD50" s="38"/>
-      <c r="CE50" s="38"/>
-      <c r="CF50" s="38"/>
-      <c r="CG50" s="38"/>
-      <c r="CH50" s="38"/>
-      <c r="CI50" s="38"/>
-      <c r="CJ50" s="38"/>
-      <c r="CK50" s="38"/>
-      <c r="CL50" s="38"/>
-      <c r="CM50" s="38"/>
-      <c r="CN50" s="38"/>
-      <c r="CO50" s="38"/>
-      <c r="CP50" s="38"/>
-      <c r="CQ50" s="38"/>
-      <c r="CR50" s="38"/>
-      <c r="CS50" s="38"/>
-      <c r="CT50" s="38"/>
-      <c r="CU50" s="38"/>
-      <c r="CV50" s="38"/>
-      <c r="CW50" s="38"/>
-      <c r="CX50" s="38"/>
-      <c r="CY50" s="38"/>
-      <c r="CZ50" s="38"/>
-      <c r="DA50" s="38"/>
-      <c r="DB50" s="38"/>
-      <c r="DC50" s="38"/>
-      <c r="DD50" s="38"/>
-      <c r="DE50" s="38"/>
-      <c r="DF50" s="38"/>
-      <c r="DG50" s="38"/>
-      <c r="DH50" s="38"/>
-      <c r="DI50" s="38"/>
-      <c r="DJ50" s="38"/>
-      <c r="DK50" s="38"/>
-      <c r="DL50" s="38"/>
-      <c r="DM50" s="38"/>
-      <c r="DN50" s="38"/>
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="52">
+        <f>F46-F47</f>
+        <v>508</v>
+      </c>
+      <c r="G50" s="52">
+        <f>G46-G47</f>
+        <v>147</v>
+      </c>
+      <c r="H50" s="52">
+        <f>H46-H47</f>
+        <v>1523</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="37"/>
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+      <c r="AO50" s="37"/>
+      <c r="AP50" s="37"/>
+      <c r="AQ50" s="37"/>
+      <c r="AR50" s="37"/>
+      <c r="AS50" s="37"/>
+      <c r="AT50" s="37"/>
+      <c r="AU50" s="37"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
+      <c r="AX50" s="37"/>
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="37"/>
+      <c r="BF50" s="37"/>
+      <c r="BG50" s="37"/>
+      <c r="BH50" s="37"/>
+      <c r="BI50" s="37"/>
+      <c r="BJ50" s="37"/>
+      <c r="BK50" s="37"/>
+      <c r="BL50" s="37"/>
+      <c r="BM50" s="37"/>
+      <c r="BN50" s="37"/>
+      <c r="BO50" s="37"/>
+      <c r="BP50" s="37"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37"/>
+      <c r="BS50" s="37"/>
+      <c r="BT50" s="37"/>
+      <c r="BU50" s="37"/>
+      <c r="BV50" s="37"/>
+      <c r="BW50" s="37"/>
+      <c r="BX50" s="37"/>
+      <c r="BY50" s="37"/>
+      <c r="BZ50" s="37"/>
+      <c r="CA50" s="37"/>
+      <c r="CB50" s="37"/>
+      <c r="CC50" s="37"/>
+      <c r="CD50" s="37"/>
+      <c r="CE50" s="37"/>
+      <c r="CF50" s="37"/>
+      <c r="CG50" s="37"/>
+      <c r="CH50" s="37"/>
+      <c r="CI50" s="37"/>
+      <c r="CJ50" s="37"/>
+      <c r="CK50" s="37"/>
+      <c r="CL50" s="37"/>
+      <c r="CM50" s="37"/>
+      <c r="CN50" s="37"/>
+      <c r="CO50" s="37"/>
+      <c r="CP50" s="37"/>
+      <c r="CQ50" s="37"/>
+      <c r="CR50" s="37"/>
+      <c r="CS50" s="37"/>
+      <c r="CT50" s="37"/>
+      <c r="CU50" s="37"/>
+      <c r="CV50" s="37"/>
+      <c r="CW50" s="37"/>
+      <c r="CX50" s="37"/>
+      <c r="CY50" s="37"/>
+      <c r="CZ50" s="37"/>
+      <c r="DA50" s="37"/>
+      <c r="DB50" s="37"/>
+      <c r="DC50" s="37"/>
+      <c r="DD50" s="37"/>
+      <c r="DE50" s="37"/>
+      <c r="DF50" s="37"/>
+      <c r="DG50" s="37"/>
+      <c r="DH50" s="37"/>
+      <c r="DI50" s="37"/>
+      <c r="DJ50" s="37"/>
+      <c r="DK50" s="37"/>
+      <c r="DL50" s="37"/>
+      <c r="DM50" s="37"/>
+      <c r="DN50" s="37"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
-      <c r="F51" s="53">
-        <f>F26/F49</f>
-        <v>-1.1417165354330707</v>
-      </c>
-      <c r="G51" s="53">
-        <f>G26/G49</f>
-        <v>-3.9647482993197278</v>
-      </c>
-      <c r="H51" s="53">
-        <f>H26/H49</f>
-        <v>-0.76748128693368356</v>
-      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
@@ -8135,23 +8133,23 @@
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
       <c r="F52" s="53">
-        <f>F26/F45</f>
-        <v>-0.40530538085255063</v>
+        <f>F27/F50</f>
+        <v>-1.1417165354330707</v>
       </c>
       <c r="G52" s="53">
-        <f>G26/G45</f>
-        <v>-0.3656323713927227</v>
+        <f>G27/G50</f>
+        <v>-3.9647482993197278</v>
       </c>
       <c r="H52" s="53">
-        <f>H26/H45</f>
-        <v>-0.434364176885916</v>
+        <f>H27/H50</f>
+        <v>-0.25664740643466843</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -8266,23 +8264,23 @@
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38"/>
       <c r="F53" s="53">
-        <f>F26/(F49-F44)</f>
-        <v>-1.1958597938144329</v>
+        <f>F27/F46</f>
+        <v>-0.40530538085255063</v>
       </c>
       <c r="G53" s="53">
-        <f>G26/(G49-G44)</f>
-        <v>-6.0710208333333329</v>
+        <f>G27/G46</f>
+        <v>-0.3656323713927227</v>
       </c>
       <c r="H53" s="53">
-        <f>H26/(H49-H44)</f>
-        <v>-0.89500306278713626</v>
+        <f>H27/H46</f>
+        <v>-0.14525232255667039</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -8397,23 +8395,23 @@
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
       <c r="F54" s="53">
-        <f>F26/F48</f>
-        <v>-2.0567092198581558</v>
+        <f>F27/(F50-F45)</f>
+        <v>-1.1958597938144329</v>
       </c>
       <c r="G54" s="53">
-        <f>G26/G48</f>
-        <v>-1.4146067961165047</v>
+        <f>G27/(G50-G45)</f>
+        <v>-6.0710208333333329</v>
       </c>
       <c r="H54" s="53">
-        <f>H26/H48</f>
-        <v>-2.7438356807511739</v>
+        <f>H27/(H50-H45)</f>
+        <v>-0.29929096477794798</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -8527,13 +8525,25 @@
       <c r="DN54" s="38"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A55" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="F55" s="53">
+        <f>F27/F49</f>
+        <v>-2.0567092198581558</v>
+      </c>
+      <c r="G55" s="53">
+        <f>G27/G49</f>
+        <v>-1.4146067961165047</v>
+      </c>
+      <c r="H55" s="53">
+        <f>H27/H49</f>
+        <v>-0.91754460093896717</v>
+      </c>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
@@ -8646,42 +8656,18 @@
       <c r="DN55" s="38"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53">
-        <f t="shared" ref="G56:L56" si="84">G13/F13-1</f>
-        <v>0.24713432279323966</v>
-      </c>
-      <c r="H56" s="53">
-        <f>H13/G13-1</f>
-        <v>0.47150446768252841</v>
-      </c>
-      <c r="I56" s="53">
-        <f t="shared" ref="I56:M56" si="85">I13/H13-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J56" s="53">
-        <f t="shared" si="85"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="K56" s="53">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="L56" s="53">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="M56" s="53">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
       <c r="N56" s="38"/>
       <c r="O56" s="38"/>
       <c r="P56" s="38"/>
@@ -8788,61 +8774,204 @@
       <c r="DM56" s="38"/>
       <c r="DN56" s="38"/>
     </row>
-    <row r="58" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="19" t="s">
+    <row r="57" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53">
+        <f t="shared" ref="G57" si="91">G13/F13-1</f>
+        <v>0.24713432279323966</v>
+      </c>
+      <c r="H57" s="53">
+        <f>H13/G13-1</f>
+        <v>0.47150446768252841</v>
+      </c>
+      <c r="I57" s="53">
+        <f t="shared" ref="I57:M57" si="92">I13/H13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J57" s="53">
+        <f t="shared" si="92"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="K57" s="53">
+        <f t="shared" si="92"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L57" s="53">
+        <f t="shared" si="92"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="M57" s="53">
+        <f t="shared" si="92"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="38"/>
+      <c r="AE57" s="38"/>
+      <c r="AF57" s="38"/>
+      <c r="AG57" s="38"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="38"/>
+      <c r="AJ57" s="38"/>
+      <c r="AK57" s="38"/>
+      <c r="AL57" s="38"/>
+      <c r="AM57" s="38"/>
+      <c r="AN57" s="38"/>
+      <c r="AO57" s="38"/>
+      <c r="AP57" s="38"/>
+      <c r="AQ57" s="38"/>
+      <c r="AR57" s="38"/>
+      <c r="AS57" s="38"/>
+      <c r="AT57" s="38"/>
+      <c r="AU57" s="38"/>
+      <c r="AV57" s="38"/>
+      <c r="AW57" s="38"/>
+      <c r="AX57" s="38"/>
+      <c r="AY57" s="38"/>
+      <c r="AZ57" s="38"/>
+      <c r="BA57" s="38"/>
+      <c r="BB57" s="38"/>
+      <c r="BC57" s="38"/>
+      <c r="BD57" s="38"/>
+      <c r="BE57" s="38"/>
+      <c r="BF57" s="38"/>
+      <c r="BG57" s="38"/>
+      <c r="BH57" s="38"/>
+      <c r="BI57" s="38"/>
+      <c r="BJ57" s="38"/>
+      <c r="BK57" s="38"/>
+      <c r="BL57" s="38"/>
+      <c r="BM57" s="38"/>
+      <c r="BN57" s="38"/>
+      <c r="BO57" s="38"/>
+      <c r="BP57" s="38"/>
+      <c r="BQ57" s="38"/>
+      <c r="BR57" s="38"/>
+      <c r="BS57" s="38"/>
+      <c r="BT57" s="38"/>
+      <c r="BU57" s="38"/>
+      <c r="BV57" s="38"/>
+      <c r="BW57" s="38"/>
+      <c r="BX57" s="38"/>
+      <c r="BY57" s="38"/>
+      <c r="BZ57" s="38"/>
+      <c r="CA57" s="38"/>
+      <c r="CB57" s="38"/>
+      <c r="CC57" s="38"/>
+      <c r="CD57" s="38"/>
+      <c r="CE57" s="38"/>
+      <c r="CF57" s="38"/>
+      <c r="CG57" s="38"/>
+      <c r="CH57" s="38"/>
+      <c r="CI57" s="38"/>
+      <c r="CJ57" s="38"/>
+      <c r="CK57" s="38"/>
+      <c r="CL57" s="38"/>
+      <c r="CM57" s="38"/>
+      <c r="CN57" s="38"/>
+      <c r="CO57" s="38"/>
+      <c r="CP57" s="38"/>
+      <c r="CQ57" s="38"/>
+      <c r="CR57" s="38"/>
+      <c r="CS57" s="38"/>
+      <c r="CT57" s="38"/>
+      <c r="CU57" s="38"/>
+      <c r="CV57" s="38"/>
+      <c r="CW57" s="38"/>
+      <c r="CX57" s="38"/>
+      <c r="CY57" s="38"/>
+      <c r="CZ57" s="38"/>
+      <c r="DA57" s="38"/>
+      <c r="DB57" s="38"/>
+      <c r="DC57" s="38"/>
+      <c r="DD57" s="38"/>
+      <c r="DE57" s="38"/>
+      <c r="DF57" s="38"/>
+      <c r="DG57" s="38"/>
+      <c r="DH57" s="38"/>
+      <c r="DI57" s="38"/>
+      <c r="DJ57" s="38"/>
+      <c r="DK57" s="38"/>
+      <c r="DL57" s="38"/>
+      <c r="DM57" s="38"/>
+      <c r="DN57" s="38"/>
+    </row>
+    <row r="59" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H59" s="19">
         <f>H10/G10-1</f>
         <v>0.76300578034682087</v>
       </c>
-      <c r="I58" s="19">
-        <f t="shared" ref="I58:M58" si="86">I10/H10-1</f>
+      <c r="I59" s="19">
+        <f t="shared" ref="I59:M59" si="93">I10/H10-1</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J58" s="19">
-        <f t="shared" si="86"/>
+      <c r="J59" s="19">
+        <f t="shared" si="93"/>
         <v>0.5</v>
       </c>
-      <c r="K58" s="19">
-        <f t="shared" si="86"/>
+      <c r="K59" s="19">
+        <f t="shared" si="93"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="L58" s="19">
-        <f t="shared" si="86"/>
+      <c r="L59" s="19">
+        <f t="shared" si="93"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="M58" s="19">
-        <f t="shared" si="86"/>
+      <c r="M59" s="19">
+        <f t="shared" si="93"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="19">
         <f>H11/G11-1</f>
         <v>0.21410579345088165</v>
       </c>
-      <c r="I59" s="19">
-        <f t="shared" ref="I59:M59" si="87">I11/H11-1</f>
+      <c r="I60" s="19">
+        <f t="shared" ref="I60:M60" si="94">I11/H11-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J59" s="19">
-        <f t="shared" si="87"/>
+      <c r="J60" s="19">
+        <f t="shared" si="94"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K59" s="19">
-        <f t="shared" si="87"/>
+      <c r="K60" s="19">
+        <f t="shared" si="94"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L59" s="19">
-        <f t="shared" si="87"/>
+      <c r="L60" s="19">
+        <f t="shared" si="94"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M59" s="19">
-        <f t="shared" si="87"/>
+      <c r="M60" s="19">
+        <f t="shared" si="94"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -8861,13 +8990,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9056,7 +9185,7 @@
         <v>146.33600000000001</v>
       </c>
       <c r="G8" s="24">
-        <f t="shared" ref="E8:K8" si="0">SUM(G6:G6)</f>
+        <f t="shared" ref="G8:K8" si="0">SUM(G6:G6)</f>
         <v>176.32</v>
       </c>
       <c r="H8" s="24">
@@ -9129,7 +9258,7 @@
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
       <c r="F10" s="27">
-        <f t="shared" ref="E10:F10" si="1">F8-F9</f>
+        <f t="shared" ref="F10" si="1">F8-F9</f>
         <v>101.52700000000002</v>
       </c>
       <c r="G10" s="26">
@@ -9260,517 +9389,508 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>6</v>
+    <row r="14" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="73" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="27">
-        <f t="shared" ref="E14:G14" si="4">SUM(F11:F13)</f>
-        <v>246</v>
-      </c>
-      <c r="G14" s="26">
-        <f t="shared" si="4"/>
-        <v>261</v>
-      </c>
-      <c r="H14" s="26">
-        <f t="shared" ref="H14:I14" si="5">SUM(H11:H13)</f>
-        <v>270</v>
-      </c>
-      <c r="I14" s="26">
-        <f t="shared" si="5"/>
-        <v>301</v>
-      </c>
-      <c r="J14" s="27">
-        <f t="shared" ref="J14:L14" si="6">SUM(J11:J13)</f>
-        <v>236</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" si="6"/>
-        <v>283</v>
-      </c>
-      <c r="L14" s="26">
-        <f t="shared" si="6"/>
-        <v>988</v>
-      </c>
-      <c r="M14" s="26">
-        <f t="shared" ref="M14" si="7">SUM(M11:M13)</f>
-        <v>408</v>
-      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74">
+        <f>770+8</f>
+        <v>778</v>
+      </c>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="27">
-        <f t="shared" ref="E15:G15" si="8">F10-F14</f>
-        <v>-144.47299999999998</v>
+        <f t="shared" ref="F15:G15" si="4">SUM(F11:F13)</f>
+        <v>246</v>
       </c>
       <c r="G15" s="26">
-        <f t="shared" si="8"/>
-        <v>-141.26900000000001</v>
+        <f t="shared" si="4"/>
+        <v>261</v>
       </c>
       <c r="H15" s="26">
-        <f t="shared" ref="H15:I15" si="9">H10-H14</f>
-        <v>-144.53199999999998</v>
+        <f t="shared" ref="H15:I15" si="5">SUM(H11:H13)</f>
+        <v>270</v>
       </c>
       <c r="I15" s="26">
-        <f t="shared" si="9"/>
-        <v>-147.54399999999998</v>
+        <f t="shared" si="5"/>
+        <v>301</v>
       </c>
       <c r="J15" s="27">
-        <f t="shared" ref="J15:L15" si="10">J10-J14</f>
-        <v>-70.966999999999985</v>
+        <f t="shared" ref="J15:L15" si="6">SUM(J11:J13)</f>
+        <v>236</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="10"/>
-        <v>-99.520999999999987</v>
+        <f t="shared" si="6"/>
+        <v>283</v>
       </c>
       <c r="L15" s="26">
-        <f t="shared" si="10"/>
-        <v>-847.97400000000005</v>
+        <f>SUM(L11:L13)-L14</f>
+        <v>210</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" ref="M15" si="11">M10-M14</f>
-        <v>-156.41199999999998</v>
+        <f t="shared" ref="M15" si="7">SUM(M11:M13)</f>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="22">
-        <f>5-0-2</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="23">
-        <f>4-0+2+1</f>
-        <v>7</v>
-      </c>
-      <c r="H16" s="49">
-        <f>3+1+2</f>
-        <v>6</v>
-      </c>
-      <c r="I16" s="49">
-        <f>2-3-3-5</f>
-        <v>-9</v>
-      </c>
-      <c r="J16" s="22">
-        <f>3-5+14+6</f>
-        <v>18</v>
-      </c>
-      <c r="K16" s="49">
-        <f>1-6-4-2</f>
-        <v>-11</v>
-      </c>
-      <c r="L16" s="49">
-        <f>-2-9-3</f>
-        <v>-14</v>
-      </c>
-      <c r="M16" s="49">
-        <f>0-2+2</f>
-        <v>0</v>
+      <c r="F16" s="27">
+        <f t="shared" ref="F16:G16" si="8">F10-F15</f>
+        <v>-144.47299999999998</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="8"/>
+        <v>-141.26900000000001</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" ref="H16:I16" si="9">H10-H15</f>
+        <v>-144.53199999999998</v>
+      </c>
+      <c r="I16" s="26">
+        <f t="shared" si="9"/>
+        <v>-147.54399999999998</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" ref="J16:L16" si="10">J10-J15</f>
+        <v>-70.966999999999985</v>
+      </c>
+      <c r="K16" s="26">
+        <f t="shared" si="10"/>
+        <v>-99.520999999999987</v>
+      </c>
+      <c r="L16" s="26">
+        <f t="shared" si="10"/>
+        <v>-69.974000000000018</v>
+      </c>
+      <c r="M16" s="26">
+        <f t="shared" ref="M16" si="11">M10-M15</f>
+        <v>-156.41199999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="27">
-        <f t="shared" ref="E17:H17" si="12">F15+F16</f>
-        <v>-141.47299999999998</v>
-      </c>
-      <c r="G17" s="26">
-        <f t="shared" si="12"/>
-        <v>-134.26900000000001</v>
-      </c>
-      <c r="H17" s="26">
-        <f t="shared" si="12"/>
-        <v>-138.53199999999998</v>
-      </c>
-      <c r="I17" s="26">
-        <f t="shared" ref="I17" si="13">I15+I16</f>
-        <v>-156.54399999999998</v>
-      </c>
-      <c r="J17" s="27">
-        <f t="shared" ref="J17:M17" si="14">J15+J16</f>
-        <v>-52.966999999999985</v>
-      </c>
-      <c r="K17" s="26">
-        <f t="shared" si="14"/>
-        <v>-110.52099999999999</v>
-      </c>
-      <c r="L17" s="26">
-        <f t="shared" si="14"/>
-        <v>-861.97400000000005</v>
-      </c>
-      <c r="M17" s="26">
-        <f t="shared" si="14"/>
-        <v>-156.41199999999998</v>
+      <c r="F17" s="22">
+        <f>5-0-2</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="23">
+        <f>4-0+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="49">
+        <f>3+1+2</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="49">
+        <f>2-3-3-5</f>
+        <v>-9</v>
+      </c>
+      <c r="J17" s="22">
+        <f>3-5+14+6</f>
+        <v>18</v>
+      </c>
+      <c r="K17" s="49">
+        <f>1-6-4-2</f>
+        <v>-11</v>
+      </c>
+      <c r="L17" s="49">
+        <f>-2-9-3</f>
+        <v>-14</v>
+      </c>
+      <c r="M17" s="49">
+        <f>0-2+2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="22">
-        <v>5</v>
-      </c>
-      <c r="G18" s="23">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23">
-        <v>2</v>
-      </c>
-      <c r="I18" s="23">
-        <v>4</v>
-      </c>
-      <c r="J18" s="22">
-        <v>3</v>
-      </c>
-      <c r="K18" s="23">
-        <v>1</v>
-      </c>
-      <c r="L18" s="23">
-        <v>-9</v>
-      </c>
-      <c r="M18" s="23">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>11</v>
+      <c r="F18" s="27">
+        <f t="shared" ref="F18:H18" si="12">F16+F17</f>
+        <v>-141.47299999999998</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="12"/>
+        <v>-134.26900000000001</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="12"/>
+        <v>-138.53199999999998</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" ref="I18" si="13">I16+I17</f>
+        <v>-156.54399999999998</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" ref="J18:M18" si="14">J16+J17</f>
+        <v>-52.966999999999985</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="14"/>
+        <v>-110.52099999999999</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="14"/>
+        <v>-83.974000000000018</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" si="14"/>
+        <v>-156.41199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="25">
-        <f>F17-F18</f>
-        <v>-146.47299999999998</v>
-      </c>
-      <c r="G19" s="24">
-        <f>G17-G18</f>
-        <v>-135.26900000000001</v>
-      </c>
-      <c r="H19" s="24">
-        <f>H17-H18</f>
-        <v>-140.53199999999998</v>
-      </c>
-      <c r="I19" s="24">
-        <f>I17-I18</f>
-        <v>-160.54399999999998</v>
-      </c>
-      <c r="J19" s="25">
-        <f>J17-J18</f>
-        <v>-55.966999999999985</v>
-      </c>
-      <c r="K19" s="24">
-        <f>K17-K18</f>
-        <v>-111.52099999999999</v>
-      </c>
-      <c r="L19" s="24">
-        <f>L17-L18</f>
-        <v>-852.97400000000005</v>
-      </c>
-      <c r="M19" s="24">
-        <f>M17-M18</f>
-        <v>-148.41199999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
+      <c r="F19" s="22">
+        <v>5</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2</v>
+      </c>
+      <c r="I19" s="23">
+        <v>4</v>
+      </c>
+      <c r="J19" s="22">
+        <v>3</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <v>-9</v>
+      </c>
+      <c r="M19" s="23">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="58">
-        <f t="shared" ref="E20:G20" si="15">IFERROR(F19/F21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="57">
+      <c r="F20" s="25">
+        <f t="shared" ref="F20:M20" si="15">F18-F19</f>
+        <v>-146.47299999999998</v>
+      </c>
+      <c r="G20" s="24">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="57">
-        <f t="shared" ref="H20:I20" si="16">IFERROR(H19/H21,0)</f>
-        <v>-0.24225275994332926</v>
-      </c>
-      <c r="I20" s="57">
-        <f t="shared" si="16"/>
-        <v>-0.27456431274480081</v>
-      </c>
-      <c r="J20" s="58">
-        <f t="shared" ref="J20:L20" si="17">IFERROR(J19/J21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="57">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="57">
-        <f t="shared" si="17"/>
-        <v>-0.94203179214553689</v>
-      </c>
-      <c r="M20" s="57">
-        <f t="shared" ref="M20" si="18">IFERROR(M19/M21,0)</f>
-        <v>-8.4156976675118053E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>13</v>
+        <v>-135.26900000000001</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="15"/>
+        <v>-140.53199999999998</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="15"/>
+        <v>-160.54399999999998</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="15"/>
+        <v>-55.966999999999985</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="15"/>
+        <v>-111.52099999999999</v>
+      </c>
+      <c r="L20" s="24">
+        <f t="shared" si="15"/>
+        <v>-74.974000000000018</v>
+      </c>
+      <c r="M20" s="24">
+        <f t="shared" si="15"/>
+        <v>-148.41199999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="49">
-        <v>580.10484599999995</v>
-      </c>
-      <c r="I21" s="49">
-        <v>584.72275000000002</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49">
-        <v>905.46200999999996</v>
-      </c>
-      <c r="M21" s="49">
-        <v>1763.5139220000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="58">
+        <f t="shared" ref="F21:G21" si="16">IFERROR(F20/F22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="57">
+        <f t="shared" ref="H21:I21" si="17">IFERROR(H20/H22,0)</f>
+        <v>-0.24225275994332926</v>
+      </c>
+      <c r="I21" s="57">
+        <f t="shared" si="17"/>
+        <v>-0.27456431274480081</v>
+      </c>
+      <c r="J21" s="58">
+        <f t="shared" ref="J21:L21" si="18">IFERROR(J20/J22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="57">
+        <f t="shared" si="18"/>
+        <v>-8.280192782466933E-2</v>
+      </c>
+      <c r="M21" s="57">
+        <f t="shared" ref="M21" si="19">IFERROR(M20/M22,0)</f>
+        <v>-8.4156976675118053E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="54"/>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="49">
+        <v>580.10484599999995</v>
+      </c>
+      <c r="I22" s="49">
+        <v>584.72275000000002</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49">
+        <v>905.46200999999996</v>
+      </c>
+      <c r="M22" s="49">
+        <v>1763.5139220000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="34">
-        <f>IFERROR(F10/F8,0)</f>
-        <v>0.69379373496610541</v>
-      </c>
-      <c r="G23" s="33">
-        <f>IFERROR(G10/G8,0)</f>
-        <v>0.67905512704174231</v>
-      </c>
-      <c r="H23" s="33">
-        <f>IFERROR(H10/H8,0)</f>
-        <v>0.65848295117586242</v>
-      </c>
-      <c r="I23" s="33">
-        <f>IFERROR(I10/I8,0)</f>
-        <v>0.66906757122053739</v>
-      </c>
-      <c r="J23" s="34">
-        <f>IFERROR(J10/J8,0)</f>
-        <v>0.71964051332812973</v>
-      </c>
-      <c r="K23" s="33">
-        <f>IFERROR(K10/K8,0)</f>
-        <v>0.72841211803611916</v>
-      </c>
-      <c r="L23" s="33">
-        <f>IFERROR(L10/L8,0)</f>
-        <v>0.48390619492269304</v>
-      </c>
-      <c r="M23" s="33">
-        <f>IFERROR(M10/M8,0)</f>
-        <v>0.78110844450791861</v>
-      </c>
+      <c r="F23" s="54"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="36">
-        <f>IFERROR(F15/F8,0)</f>
-        <v>-0.98726902471025568</v>
-      </c>
-      <c r="G24" s="35">
-        <f>IFERROR(G15/G8,0)</f>
-        <v>-0.80120803085299463</v>
-      </c>
-      <c r="H24" s="35">
-        <f>IFERROR(H15/H8,0)</f>
-        <v>-0.7585349084973837</v>
-      </c>
-      <c r="I24" s="35">
-        <f>IFERROR(I15/I8,0)</f>
-        <v>-0.64329127390367891</v>
-      </c>
-      <c r="J24" s="36">
-        <f>IFERROR(J15/J8,0)</f>
-        <v>-0.30945767397646151</v>
-      </c>
-      <c r="K24" s="35">
-        <f>IFERROR(K15/K8,0)</f>
-        <v>-0.3950986347160852</v>
-      </c>
-      <c r="L24" s="35">
-        <f>IFERROR(L15/L8,0)</f>
-        <v>-2.9304548564793378</v>
-      </c>
-      <c r="M24" s="35">
-        <f>IFERROR(M15/M8,0)</f>
-        <v>-0.4856143139671707</v>
+      <c r="F24" s="34">
+        <f t="shared" ref="F24:M24" si="20">IFERROR(F10/F8,0)</f>
+        <v>0.69379373496610541</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="20"/>
+        <v>0.67905512704174231</v>
+      </c>
+      <c r="H24" s="33">
+        <f t="shared" si="20"/>
+        <v>0.65848295117586242</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" si="20"/>
+        <v>0.66906757122053739</v>
+      </c>
+      <c r="J24" s="34">
+        <f t="shared" si="20"/>
+        <v>0.71964051332812973</v>
+      </c>
+      <c r="K24" s="33">
+        <f t="shared" si="20"/>
+        <v>0.72841211803611916</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="20"/>
+        <v>0.48390619492269304</v>
+      </c>
+      <c r="M24" s="33">
+        <f t="shared" si="20"/>
+        <v>0.78110844450791861</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="36">
-        <f>IFERROR(F18/F17,0)</f>
-        <v>-3.5342432831706405E-2</v>
+        <f t="shared" ref="F25:M25" si="21">IFERROR(F16/F8,0)</f>
+        <v>-0.98726902471025568</v>
       </c>
       <c r="G25" s="35">
-        <f>IFERROR(G18/G17,0)</f>
-        <v>-7.4477355160163551E-3</v>
+        <f t="shared" si="21"/>
+        <v>-0.80120803085299463</v>
       </c>
       <c r="H25" s="35">
-        <f>IFERROR(H18/H17,0)</f>
-        <v>-1.4437097565905352E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.7585349084973837</v>
       </c>
       <c r="I25" s="35">
-        <f>IFERROR(I18/I17,0)</f>
-        <v>-2.555192150449714E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.64329127390367891</v>
       </c>
       <c r="J25" s="36">
-        <f>IFERROR(J18/J17,0)</f>
-        <v>-5.6639039401891758E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.30945767397646151</v>
       </c>
       <c r="K25" s="35">
-        <f>IFERROR(K18/K17,0)</f>
-        <v>-9.0480542159408622E-3</v>
+        <f t="shared" si="21"/>
+        <v>-0.3950986347160852</v>
       </c>
       <c r="L25" s="35">
-        <f>IFERROR(L18/L17,0)</f>
-        <v>1.0441150197105713E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.24181832005142284</v>
       </c>
       <c r="M25" s="35">
-        <f>IFERROR(M18/M17,0)</f>
-        <v>5.1146970820653156E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="21"/>
+        <v>-0.4856143139671707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
-      <c r="F26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="N26" s="44">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="F26" s="36">
+        <f t="shared" ref="F26:M26" si="22">IFERROR(F19/F18,0)</f>
+        <v>-3.5342432831706405E-2</v>
+      </c>
+      <c r="G26" s="35">
+        <f t="shared" si="22"/>
+        <v>-7.4477355160163551E-3</v>
+      </c>
+      <c r="H26" s="35">
+        <f t="shared" si="22"/>
+        <v>-1.4437097565905352E-2</v>
+      </c>
+      <c r="I26" s="35">
+        <f t="shared" si="22"/>
+        <v>-2.555192150449714E-2</v>
+      </c>
+      <c r="J26" s="36">
+        <f t="shared" si="22"/>
+        <v>-5.6639039401891758E-2</v>
+      </c>
+      <c r="K26" s="35">
+        <f t="shared" si="22"/>
+        <v>-9.0480542159408622E-3</v>
+      </c>
+      <c r="L26" s="35">
+        <f t="shared" si="22"/>
+        <v>0.10717603067616165</v>
+      </c>
+      <c r="M26" s="35">
+        <f t="shared" si="22"/>
+        <v>5.1146970820653156E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30">
-        <f>IFERROR((J8/F8)-1,0)</f>
-        <v>0.56712633938333679</v>
-      </c>
-      <c r="K27" s="29">
-        <f>IFERROR((K8/G8)-1,0)</f>
-        <v>0.42859006352087126</v>
-      </c>
-      <c r="L27" s="29">
-        <f>IFERROR((L8/H8)-1,0)</f>
-        <v>0.51865477771188351</v>
-      </c>
-      <c r="M27" s="29">
-        <f>IFERROR((M8/I8)-1,0)</f>
-        <v>0.40431552420233863</v>
-      </c>
-      <c r="N27" s="29">
-        <f>IFERROR((N8/J8)-1,0)</f>
-        <v>0.44771439908950983</v>
+      <c r="F27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="N27" s="44">
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>30</v>
+      <c r="A28" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32">
-        <f>J11/F11-1</f>
-        <v>-0.12</v>
-      </c>
-      <c r="K28" s="31">
-        <f>K11/G11-1</f>
-        <v>0.10126582278481022</v>
-      </c>
-      <c r="L28" s="31">
-        <f>L11/H11-1</f>
-        <v>3.1315789473684212</v>
-      </c>
-      <c r="M28" s="31">
-        <f>M11/I11-1</f>
-        <v>0.23684210526315796</v>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30">
+        <f>IFERROR((J8/F8)-1,0)</f>
+        <v>0.56712633938333679</v>
+      </c>
+      <c r="K28" s="29">
+        <f>IFERROR((K8/G8)-1,0)</f>
+        <v>0.42859006352087126</v>
+      </c>
+      <c r="L28" s="29">
+        <f>IFERROR((L8/H8)-1,0)</f>
+        <v>0.51865477771188351</v>
+      </c>
+      <c r="M28" s="29">
+        <f>IFERROR((M8/I8)-1,0)</f>
+        <v>0.40431552420233863</v>
+      </c>
+      <c r="N28" s="29">
+        <f>IFERROR((N8/J8)-1,0)</f>
+        <v>0.44771439908950983</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -9781,25 +9901,25 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="32">
-        <f>J12/F12-1</f>
-        <v>-7.4766355140186924E-2</v>
+        <f>J11/F11-1</f>
+        <v>-0.12</v>
       </c>
       <c r="K29" s="31">
-        <f>K12/G12-1</f>
-        <v>-7.2072072072072113E-2</v>
+        <f>K11/G11-1</f>
+        <v>0.10126582278481022</v>
       </c>
       <c r="L29" s="31">
-        <f>L12/H12-1</f>
-        <v>1.7916666666666665</v>
+        <f>L11/H11-1</f>
+        <v>3.1315789473684212</v>
       </c>
       <c r="M29" s="31">
-        <f>M12/I12-1</f>
-        <v>0.30973451327433632</v>
+        <f>M11/I11-1</f>
+        <v>0.23684210526315796</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -9810,422 +9930,420 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="32">
-        <f>J13/F13-1</f>
-        <v>0.109375</v>
+        <f>J12/F12-1</f>
+        <v>-7.4766355140186924E-2</v>
       </c>
       <c r="K30" s="31">
-        <f>K13/G13-1</f>
-        <v>0.3098591549295775</v>
+        <f>K12/G12-1</f>
+        <v>-7.2072072072072113E-2</v>
       </c>
       <c r="L30" s="31">
-        <f>L13/H13-1</f>
-        <v>3.5810810810810807</v>
+        <f>L12/H12-1</f>
+        <v>1.7916666666666665</v>
       </c>
       <c r="M30" s="31">
-        <f>M13/I13-1</f>
-        <v>0.48214285714285721</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <f>M12/I12-1</f>
+        <v>0.30973451327433632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34">
-        <f>J14/F14-1</f>
-        <v>-4.065040650406504E-2</v>
-      </c>
-      <c r="K31" s="33">
-        <f>K14/G14-1</f>
-        <v>8.4291187739463647E-2</v>
-      </c>
-      <c r="L31" s="33">
-        <f>L14/H14-1</f>
-        <v>2.6592592592592594</v>
-      </c>
-      <c r="M31" s="33">
-        <f>M14/I14-1</f>
-        <v>0.35548172757475083</v>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32">
+        <f>J13/F13-1</f>
+        <v>0.109375</v>
+      </c>
+      <c r="K31" s="31">
+        <f>K13/G13-1</f>
+        <v>0.3098591549295775</v>
+      </c>
+      <c r="L31" s="31">
+        <f>L13/H13-1</f>
+        <v>3.5810810810810807</v>
+      </c>
+      <c r="M31" s="31">
+        <f>M13/I13-1</f>
+        <v>0.48214285714285721</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34">
+        <f t="shared" ref="J32:M32" si="23">J15/F15-1</f>
+        <v>-4.065040650406504E-2</v>
+      </c>
+      <c r="K32" s="33">
+        <f t="shared" si="23"/>
+        <v>8.4291187739463647E-2</v>
+      </c>
+      <c r="L32" s="33">
+        <f t="shared" si="23"/>
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="M32" s="33">
+        <f t="shared" si="23"/>
+        <v>0.35548172757475083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="24">
-        <f t="shared" ref="E33:G33" si="19">E34-E35</f>
-        <v>1126</v>
-      </c>
-      <c r="F33" s="21"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="24">
-        <f t="shared" ref="H33" si="20">H34-H35</f>
-        <v>735</v>
-      </c>
-      <c r="I33" s="24">
-        <f t="shared" ref="I33" si="21">I34-I35</f>
-        <v>735</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="24">
-        <f t="shared" ref="J33:M33" si="22">K34-K35</f>
-        <v>1237</v>
-      </c>
-      <c r="L33" s="24">
-        <f t="shared" si="22"/>
-        <v>1646</v>
-      </c>
-      <c r="M33" s="24">
-        <f t="shared" si="22"/>
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>19</v>
+    </row>
+    <row r="34" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="23">
-        <f>1116+10</f>
+      <c r="E34" s="24">
+        <f t="shared" ref="E34" si="24">E35-E36</f>
         <v>1126</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23">
-        <f>1079+52</f>
-        <v>1131</v>
-      </c>
-      <c r="I34" s="23">
-        <f>1079+52</f>
-        <v>1131</v>
+      <c r="F34" s="21"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="24">
+        <f t="shared" ref="H34" si="25">H35-H36</f>
+        <v>735</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" ref="I34" si="26">I35-I36</f>
+        <v>735</v>
       </c>
       <c r="J34" s="22"/>
-      <c r="K34" s="23">
-        <f>1498+37</f>
-        <v>1535</v>
-      </c>
-      <c r="L34" s="23">
-        <f>1800+44</f>
-        <v>1844</v>
-      </c>
-      <c r="M34" s="23">
-        <f>2011+37</f>
-        <v>2048</v>
+      <c r="K34" s="24">
+        <f t="shared" ref="K34:M34" si="27">K35-K36</f>
+        <v>1237</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="27"/>
+        <v>1646</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="27"/>
+        <v>1850</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="23">
-        <v>0</v>
+        <f>1116+10</f>
+        <v>1126</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23">
-        <v>396</v>
+        <f>1079+52</f>
+        <v>1131</v>
       </c>
       <c r="I35" s="23">
-        <v>396</v>
+        <f>1079+52</f>
+        <v>1131</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23">
-        <v>298</v>
+        <f>1498+37</f>
+        <v>1535</v>
       </c>
       <c r="L35" s="23">
-        <v>198</v>
+        <f>1800+44</f>
+        <v>1844</v>
       </c>
       <c r="M35" s="23">
-        <v>198</v>
+        <f>2011+37</f>
+        <v>2048</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="H36" s="23">
+        <v>396</v>
+      </c>
+      <c r="I36" s="23">
+        <v>396</v>
+      </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="K36" s="23">
+        <v>298</v>
+      </c>
+      <c r="L36" s="23">
+        <v>198</v>
+      </c>
+      <c r="M36" s="23">
+        <v>198</v>
+      </c>
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="59" t="s">
-        <v>44</v>
-      </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="23">
-        <v>23</v>
-      </c>
+      <c r="E37" s="23"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="23">
-        <v>78</v>
-      </c>
-      <c r="I37" s="23">
-        <v>51</v>
-      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="23">
-        <v>55</v>
-      </c>
-      <c r="L37" s="23">
-        <v>94</v>
-      </c>
-      <c r="M37" s="23">
-        <v>217</v>
-      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="23">
-        <v>1431</v>
+        <v>23</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23">
-        <v>1594</v>
+        <v>78</v>
       </c>
       <c r="I38" s="23">
-        <v>1594</v>
+        <v>51</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="23">
-        <v>1892</v>
+        <v>55</v>
       </c>
       <c r="L38" s="23">
-        <v>2604</v>
+        <v>94</v>
       </c>
       <c r="M38" s="23">
-        <v>2691</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="23">
-        <v>923</v>
+        <v>1431</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23">
-        <v>1447</v>
+        <v>1594</v>
       </c>
       <c r="I39" s="23">
-        <v>1447</v>
+        <v>1594</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="23">
-        <v>1163</v>
+        <v>1892</v>
       </c>
       <c r="L39" s="23">
-        <v>1352</v>
+        <v>2604</v>
       </c>
       <c r="M39" s="23">
-        <v>1168</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="23">
+        <v>923</v>
+      </c>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="H40" s="23">
+        <v>1447</v>
+      </c>
+      <c r="I40" s="23">
+        <v>1447</v>
+      </c>
       <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="K40" s="23">
+        <v>1163</v>
+      </c>
+      <c r="L40" s="23">
+        <v>1352</v>
+      </c>
+      <c r="M40" s="23">
+        <v>1168</v>
+      </c>
     </row>
     <row r="41" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="59" t="s">
-        <v>47</v>
-      </c>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="26">
-        <f t="shared" ref="E41:J41" si="23">E38-E34-E37</f>
-        <v>282</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="26">
-        <f t="shared" si="23"/>
-        <v>385</v>
-      </c>
-      <c r="I41" s="26">
-        <f t="shared" si="23"/>
-        <v>412</v>
-      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="22"/>
-      <c r="K41" s="26">
-        <f t="shared" ref="K41:L41" si="24">K38-K34-K37</f>
-        <v>302</v>
-      </c>
-      <c r="L41" s="26">
-        <f t="shared" si="24"/>
-        <v>666</v>
-      </c>
-      <c r="M41" s="26">
-        <f t="shared" ref="M41" si="25">M38-M34-M37</f>
-        <v>426</v>
-      </c>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="26">
-        <f t="shared" ref="E42:G42" si="26">E38-E39</f>
-        <v>508</v>
+        <f t="shared" ref="E42:I42" si="28">E39-E35-E38</f>
+        <v>282</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="44"/>
       <c r="H42" s="26">
-        <f>H38-H39</f>
-        <v>147</v>
+        <f t="shared" si="28"/>
+        <v>385</v>
       </c>
       <c r="I42" s="26">
-        <f>I38-I39</f>
-        <v>147</v>
+        <f t="shared" si="28"/>
+        <v>412</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="26">
-        <f>K38-K39</f>
-        <v>729</v>
+        <f t="shared" ref="K42:L42" si="29">K39-K35-K38</f>
+        <v>302</v>
       </c>
       <c r="L42" s="26">
-        <f>L38-L39</f>
-        <v>1252</v>
+        <f t="shared" si="29"/>
+        <v>666</v>
       </c>
       <c r="M42" s="26">
-        <f>M38-M39</f>
-        <v>1523</v>
+        <f t="shared" ref="M42" si="30">M39-M35-M38</f>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="26">
+        <f t="shared" ref="E43" si="31">E39-E40</f>
+        <v>508</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="44"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="H43" s="26">
+        <f>H39-H40</f>
+        <v>147</v>
+      </c>
+      <c r="I43" s="26">
+        <f>I39-I40</f>
+        <v>147</v>
+      </c>
       <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="60" t="s">
-        <v>49</v>
-      </c>
+      <c r="K43" s="26">
+        <f>K39-K40</f>
+        <v>729</v>
+      </c>
+      <c r="L43" s="26">
+        <f>L39-L40</f>
+        <v>1252</v>
+      </c>
+      <c r="M43" s="26">
+        <f>M39-M40</f>
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="23"/>
       <c r="F44" s="21"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="24">
-        <f t="shared" ref="E44:I44" si="27">SUM(E19:H19)</f>
-        <v>-422.27399999999994</v>
-      </c>
-      <c r="I44" s="24">
-        <f t="shared" si="27"/>
-        <v>-582.81799999999998</v>
-      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="24">
-        <f>SUM(H19:K19)</f>
-        <v>-468.56399999999996</v>
-      </c>
-      <c r="L44" s="24">
-        <f>SUM(I19:L19)</f>
-        <v>-1181.0059999999999</v>
-      </c>
-      <c r="M44" s="24">
-        <f>SUM(J19:M19)</f>
-        <v>-1168.874</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>50</v>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="60" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="23"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="33">
-        <f t="shared" ref="E45:J45" si="28">H44/H42</f>
-        <v>-2.872612244897959</v>
-      </c>
-      <c r="I45" s="33">
-        <f t="shared" si="28"/>
-        <v>-3.9647482993197278</v>
+      <c r="H45" s="24">
+        <f t="shared" ref="H45:I45" si="32">SUM(E20:H20)</f>
+        <v>-422.27399999999994</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" si="32"/>
+        <v>-582.81799999999998</v>
       </c>
       <c r="J45" s="22"/>
-      <c r="K45" s="33">
-        <f t="shared" ref="K45:L45" si="29">K44/K42</f>
-        <v>-0.64274897119341556</v>
-      </c>
-      <c r="L45" s="33">
-        <f t="shared" si="29"/>
-        <v>-0.94329552715654941</v>
-      </c>
-      <c r="M45" s="33">
-        <f t="shared" ref="M45" si="30">M44/M42</f>
-        <v>-0.76748128693368356</v>
+      <c r="K45" s="24">
+        <f>SUM(H20:K20)</f>
+        <v>-468.56399999999996</v>
+      </c>
+      <c r="L45" s="24">
+        <f>SUM(I20:L20)</f>
+        <v>-403.00599999999997</v>
+      </c>
+      <c r="M45" s="24">
+        <f>SUM(J20:M20)</f>
+        <v>-390.87399999999997</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -10233,30 +10351,30 @@
       <c r="E46" s="23"/>
       <c r="G46" s="44"/>
       <c r="H46" s="33">
-        <f t="shared" ref="E46:J46" si="31">H44/H38</f>
-        <v>-0.26491468005018814</v>
+        <f t="shared" ref="H46:I46" si="33">H45/H43</f>
+        <v>-2.872612244897959</v>
       </c>
       <c r="I46" s="33">
-        <f t="shared" si="31"/>
-        <v>-0.3656323713927227</v>
+        <f t="shared" si="33"/>
+        <v>-3.9647482993197278</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="33">
-        <f t="shared" ref="K46:L46" si="32">K44/K38</f>
-        <v>-0.24765539112050738</v>
+        <f t="shared" ref="K46:L46" si="34">K45/K43</f>
+        <v>-0.64274897119341556</v>
       </c>
       <c r="L46" s="33">
-        <f t="shared" si="32"/>
-        <v>-0.45353533026113668</v>
+        <f t="shared" si="34"/>
+        <v>-0.32188977635782745</v>
       </c>
       <c r="M46" s="33">
-        <f t="shared" ref="M46" si="33">M44/M38</f>
-        <v>-0.434364176885916</v>
+        <f t="shared" ref="M46" si="35">M45/M43</f>
+        <v>-0.25664740643466838</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -10264,30 +10382,30 @@
       <c r="E47" s="23"/>
       <c r="G47" s="44"/>
       <c r="H47" s="33">
-        <f t="shared" ref="E47:J47" si="34">H44/(H42-H37)</f>
-        <v>-6.1199130434782605</v>
+        <f t="shared" ref="H47:I47" si="36">H45/H39</f>
+        <v>-0.26491468005018814</v>
       </c>
       <c r="I47" s="33">
-        <f t="shared" si="34"/>
-        <v>-6.0710208333333329</v>
+        <f t="shared" si="36"/>
+        <v>-0.3656323713927227</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="33">
-        <f t="shared" ref="K47:L47" si="35">K44/(K42-K37)</f>
-        <v>-0.69519881305637976</v>
+        <f t="shared" ref="K47:L47" si="37">K45/K39</f>
+        <v>-0.24765539112050738</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" si="35"/>
-        <v>-1.0198670120898099</v>
+        <f t="shared" si="37"/>
+        <v>-0.15476420890937018</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" ref="M47" si="36">M44/(M42-M37)</f>
-        <v>-0.89500306278713626</v>
+        <f t="shared" ref="M47" si="38">M45/M39</f>
+        <v>-0.14525232255667037</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -10295,93 +10413,101 @@
       <c r="E48" s="23"/>
       <c r="G48" s="44"/>
       <c r="H48" s="33">
-        <f t="shared" ref="E48:J48" si="37">H44/H41</f>
-        <v>-1.0968155844155842</v>
+        <f t="shared" ref="H48:I48" si="39">H45/(H43-H38)</f>
+        <v>-6.1199130434782605</v>
       </c>
       <c r="I48" s="33">
-        <f t="shared" si="37"/>
-        <v>-1.4146067961165047</v>
+        <f t="shared" si="39"/>
+        <v>-6.0710208333333329</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="33">
-        <f t="shared" ref="K48:L48" si="38">K44/K41</f>
-        <v>-1.5515364238410594</v>
+        <f t="shared" ref="K48:L48" si="40">K45/(K43-K38)</f>
+        <v>-0.69519881305637976</v>
       </c>
       <c r="L48" s="33">
-        <f t="shared" si="38"/>
-        <v>-1.773282282282282</v>
+        <f t="shared" si="40"/>
+        <v>-0.34801899827288424</v>
       </c>
       <c r="M48" s="33">
-        <f t="shared" ref="M48" si="39">M44/M41</f>
-        <v>-2.7438356807511739</v>
+        <f t="shared" ref="M48" si="41">M45/(M43-M38)</f>
+        <v>-0.29929096477794792</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="23"/>
       <c r="G49" s="44"/>
+      <c r="H49" s="33">
+        <f t="shared" ref="H49:I49" si="42">H45/H42</f>
+        <v>-1.0968155844155842</v>
+      </c>
+      <c r="I49" s="33">
+        <f t="shared" si="42"/>
+        <v>-1.4146067961165047</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="33">
+        <f t="shared" ref="K49:L49" si="43">K45/K42</f>
+        <v>-1.5515364238410594</v>
+      </c>
+      <c r="L49" s="33">
+        <f t="shared" si="43"/>
+        <v>-0.60511411411411409</v>
+      </c>
+      <c r="M49" s="33">
+        <f t="shared" ref="M49" si="44">M45/M42</f>
+        <v>-0.91754460093896706</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="23"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34">
-        <f t="shared" ref="F50:M50" si="40">J6/F6-1</f>
-        <v>0.56712633938333679</v>
-      </c>
-      <c r="K50" s="33">
-        <f t="shared" si="40"/>
-        <v>0.42859006352087126</v>
-      </c>
-      <c r="L50" s="33">
-        <f t="shared" si="40"/>
-        <v>0.51865477771188351</v>
-      </c>
-      <c r="M50" s="33">
-        <f>M6/I6-1</f>
-        <v>0.40431552420233863</v>
-      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
-    </row>
-    <row r="52" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33">
-        <f>L3/H3-1</f>
-        <v>0.67933182508445156</v>
-      </c>
-      <c r="M52" s="33">
-        <f>M3/I3-1</f>
-        <v>0.85365853658536595</v>
-      </c>
+      <c r="E51" s="23"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="34">
+        <f t="shared" ref="J51:L51" si="45">J6/F6-1</f>
+        <v>0.56712633938333679</v>
+      </c>
+      <c r="K51" s="33">
+        <f t="shared" si="45"/>
+        <v>0.42859006352087126</v>
+      </c>
+      <c r="L51" s="33">
+        <f t="shared" si="45"/>
+        <v>0.51865477771188351</v>
+      </c>
+      <c r="M51" s="33">
+        <f>M6/I6-1</f>
+        <v>0.40431552420233863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="33"/>
@@ -10394,29 +10520,50 @@
       <c r="J53" s="34"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33">
+        <f>L3/H3-1</f>
+        <v>0.67933182508445156</v>
+      </c>
+      <c r="M53" s="33">
+        <f>M3/I3-1</f>
+        <v>0.85365853658536595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33">
         <f>L4/H4-1</f>
         <v>0.35273095796885023</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M54" s="33">
         <f>M4/I4-1</f>
         <v>3.937007874015741E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="54"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="M55" s="41"/>
+    <row r="56" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="54"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D123D2F6-F3C9-674B-92C4-482A8373F9C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CABD3-5C69-E546-B173-6EC8AFD81758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="-5940" windowWidth="25640" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51300" yWindow="-5940" windowWidth="25640" windowHeight="26740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -8992,11 +8992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9434,7 +9434,7 @@
         <v>301</v>
       </c>
       <c r="J15" s="27">
-        <f t="shared" ref="J15:L15" si="6">SUM(J11:J13)</f>
+        <f t="shared" ref="J15:K15" si="6">SUM(J11:J13)</f>
         <v>236</v>
       </c>
       <c r="K15" s="26">
@@ -9901,19 +9901,19 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="32">
-        <f>J11/F11-1</f>
+        <f t="shared" ref="J29:M31" si="23">J11/F11-1</f>
         <v>-0.12</v>
       </c>
       <c r="K29" s="31">
-        <f>K11/G11-1</f>
+        <f t="shared" si="23"/>
         <v>0.10126582278481022</v>
       </c>
       <c r="L29" s="31">
-        <f>L11/H11-1</f>
+        <f t="shared" si="23"/>
         <v>3.1315789473684212</v>
       </c>
       <c r="M29" s="31">
-        <f>M11/I11-1</f>
+        <f t="shared" si="23"/>
         <v>0.23684210526315796</v>
       </c>
     </row>
@@ -9930,19 +9930,19 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="32">
-        <f>J12/F12-1</f>
+        <f t="shared" si="23"/>
         <v>-7.4766355140186924E-2</v>
       </c>
       <c r="K30" s="31">
-        <f>K12/G12-1</f>
+        <f t="shared" si="23"/>
         <v>-7.2072072072072113E-2</v>
       </c>
       <c r="L30" s="31">
-        <f>L12/H12-1</f>
+        <f t="shared" si="23"/>
         <v>1.7916666666666665</v>
       </c>
       <c r="M30" s="31">
-        <f>M12/I12-1</f>
+        <f t="shared" si="23"/>
         <v>0.30973451327433632</v>
       </c>
     </row>
@@ -9959,19 +9959,19 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="32">
-        <f>J13/F13-1</f>
+        <f t="shared" si="23"/>
         <v>0.109375</v>
       </c>
       <c r="K31" s="31">
-        <f>K13/G13-1</f>
+        <f t="shared" si="23"/>
         <v>0.3098591549295775</v>
       </c>
       <c r="L31" s="31">
-        <f>L13/H13-1</f>
+        <f t="shared" si="23"/>
         <v>3.5810810810810807</v>
       </c>
       <c r="M31" s="31">
-        <f>M13/I13-1</f>
+        <f t="shared" si="23"/>
         <v>0.48214285714285721</v>
       </c>
     </row>
@@ -9988,19 +9988,19 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="34">
-        <f t="shared" ref="J32:M32" si="23">J15/F15-1</f>
+        <f t="shared" ref="J32:M32" si="24">J15/F15-1</f>
         <v>-4.065040650406504E-2</v>
       </c>
       <c r="K32" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.4291187739463647E-2</v>
       </c>
       <c r="L32" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.22222222222222221</v>
       </c>
       <c r="M32" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.35548172757475083</v>
       </c>
     </row>
@@ -10019,30 +10019,30 @@
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="24">
-        <f t="shared" ref="E34" si="24">E35-E36</f>
+        <f t="shared" ref="E34" si="25">E35-E36</f>
         <v>1126</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="44"/>
       <c r="H34" s="24">
-        <f t="shared" ref="H34" si="25">H35-H36</f>
+        <f t="shared" ref="H34" si="26">H35-H36</f>
         <v>735</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" ref="I34" si="26">I35-I36</f>
+        <f t="shared" ref="I34" si="27">I35-I36</f>
         <v>735</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="24">
-        <f t="shared" ref="K34:M34" si="27">K35-K36</f>
+        <f t="shared" ref="K34:M34" si="28">K35-K36</f>
         <v>1237</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1646</v>
       </c>
       <c r="M34" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1850</v>
       </c>
     </row>
@@ -10233,30 +10233,30 @@
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="26">
-        <f t="shared" ref="E42:I42" si="28">E39-E35-E38</f>
+        <f t="shared" ref="E42:I42" si="29">E39-E35-E38</f>
         <v>282</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="44"/>
       <c r="H42" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>385</v>
       </c>
       <c r="I42" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>412</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="26">
-        <f t="shared" ref="K42:L42" si="29">K39-K35-K38</f>
+        <f t="shared" ref="K42:L42" si="30">K39-K35-K38</f>
         <v>302</v>
       </c>
       <c r="L42" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>666</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" ref="M42" si="30">M39-M35-M38</f>
+        <f t="shared" ref="M42" si="31">M39-M35-M38</f>
         <v>426</v>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="26">
-        <f t="shared" ref="E43" si="31">E39-E40</f>
+        <f t="shared" ref="E43" si="32">E39-E40</f>
         <v>508</v>
       </c>
       <c r="F43" s="21"/>
@@ -10320,11 +10320,11 @@
       <c r="F45" s="21"/>
       <c r="G45" s="44"/>
       <c r="H45" s="24">
-        <f t="shared" ref="H45:I45" si="32">SUM(E20:H20)</f>
+        <f t="shared" ref="H45:I45" si="33">SUM(E20:H20)</f>
         <v>-422.27399999999994</v>
       </c>
       <c r="I45" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-582.81799999999998</v>
       </c>
       <c r="J45" s="22"/>
@@ -10351,24 +10351,24 @@
       <c r="E46" s="23"/>
       <c r="G46" s="44"/>
       <c r="H46" s="33">
-        <f t="shared" ref="H46:I46" si="33">H45/H43</f>
+        <f t="shared" ref="H46:I46" si="34">H45/H43</f>
         <v>-2.872612244897959</v>
       </c>
       <c r="I46" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-3.9647482993197278</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="33">
-        <f t="shared" ref="K46:L46" si="34">K45/K43</f>
+        <f t="shared" ref="K46:L46" si="35">K45/K43</f>
         <v>-0.64274897119341556</v>
       </c>
       <c r="L46" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.32188977635782745</v>
       </c>
       <c r="M46" s="33">
-        <f t="shared" ref="M46" si="35">M45/M43</f>
+        <f t="shared" ref="M46" si="36">M45/M43</f>
         <v>-0.25664740643466838</v>
       </c>
     </row>
@@ -10382,24 +10382,24 @@
       <c r="E47" s="23"/>
       <c r="G47" s="44"/>
       <c r="H47" s="33">
-        <f t="shared" ref="H47:I47" si="36">H45/H39</f>
+        <f t="shared" ref="H47:I47" si="37">H45/H39</f>
         <v>-0.26491468005018814</v>
       </c>
       <c r="I47" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-0.3656323713927227</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="33">
-        <f t="shared" ref="K47:L47" si="37">K45/K39</f>
+        <f t="shared" ref="K47:L47" si="38">K45/K39</f>
         <v>-0.24765539112050738</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.15476420890937018</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" ref="M47" si="38">M45/M39</f>
+        <f t="shared" ref="M47" si="39">M45/M39</f>
         <v>-0.14525232255667037</v>
       </c>
     </row>
@@ -10413,24 +10413,24 @@
       <c r="E48" s="23"/>
       <c r="G48" s="44"/>
       <c r="H48" s="33">
-        <f t="shared" ref="H48:I48" si="39">H45/(H43-H38)</f>
+        <f t="shared" ref="H48:I48" si="40">H45/(H43-H38)</f>
         <v>-6.1199130434782605</v>
       </c>
       <c r="I48" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-6.0710208333333329</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="33">
-        <f t="shared" ref="K48:L48" si="40">K45/(K43-K38)</f>
+        <f t="shared" ref="K48:L48" si="41">K45/(K43-K38)</f>
         <v>-0.69519881305637976</v>
       </c>
       <c r="L48" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.34801899827288424</v>
       </c>
       <c r="M48" s="33">
-        <f t="shared" ref="M48" si="41">M45/(M43-M38)</f>
+        <f t="shared" ref="M48" si="42">M45/(M43-M38)</f>
         <v>-0.29929096477794792</v>
       </c>
     </row>
@@ -10444,24 +10444,24 @@
       <c r="E49" s="23"/>
       <c r="G49" s="44"/>
       <c r="H49" s="33">
-        <f t="shared" ref="H49:I49" si="42">H45/H42</f>
+        <f t="shared" ref="H49:I49" si="43">H45/H42</f>
         <v>-1.0968155844155842</v>
       </c>
       <c r="I49" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.4146067961165047</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="33">
-        <f t="shared" ref="K49:L49" si="43">K45/K42</f>
+        <f t="shared" ref="K49:L49" si="44">K45/K42</f>
         <v>-1.5515364238410594</v>
       </c>
       <c r="L49" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-0.60511411411411409</v>
       </c>
       <c r="M49" s="33">
-        <f t="shared" ref="M49" si="44">M45/M42</f>
+        <f t="shared" ref="M49" si="45">M45/M42</f>
         <v>-0.91754460093896706</v>
       </c>
     </row>
@@ -10484,15 +10484,15 @@
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
       <c r="J51" s="34">
-        <f t="shared" ref="J51:L51" si="45">J6/F6-1</f>
+        <f t="shared" ref="J51:L51" si="46">J6/F6-1</f>
         <v>0.56712633938333679</v>
       </c>
       <c r="K51" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.42859006352087126</v>
       </c>
       <c r="L51" s="33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.51865477771188351</v>
       </c>
       <c r="M51" s="33">

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CABD3-5C69-E546-B173-6EC8AFD81758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D455DCC6-05AC-AB4A-8581-DD1376A91B1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="-5940" windowWidth="25640" windowHeight="26740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52260" yWindow="-5940" windowWidth="26120" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
   <si>
     <t>Revenue</t>
   </si>
@@ -334,7 +334,7 @@
     <t>US Air Force</t>
   </si>
   <si>
-    <t>Stock-based anomaly</t>
+    <t>35%+</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,10 +613,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -650,7 +646,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -706,7 +702,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>239184</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1013,13 +1009,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GS60"/>
+  <dimension ref="A1:GS59"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1043,10 +1039,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="4">
-        <v>28.95</v>
+        <v>23.9</v>
       </c>
       <c r="D2" s="61">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
@@ -1065,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!M22</f>
+        <f>Reports!M21</f>
         <v>1763.5139220000001</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -1091,7 +1087,7 @@
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>51053.728041900002</v>
+        <v>42147.982735799997</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="6" t="s">
@@ -1113,7 +1109,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!M34</f>
+        <f>Reports!M33</f>
         <v>1850</v>
       </c>
       <c r="D5" s="62" t="s">
@@ -1123,8 +1119,8 @@
         <v>24</v>
       </c>
       <c r="F5" s="11">
-        <f>NPV(F4,I27:GS27)</f>
-        <v>100874.29580296055</v>
+        <f>NPV(F4,I26:GS26)</f>
+        <v>142499.56399175106</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>63</v>
@@ -1140,7 +1136,7 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>49203.728041900002</v>
+        <v>40297.982735799997</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="12" t="s">
@@ -1148,7 +1144,7 @@
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>102724.29580296055</v>
+        <v>144349.56399175106</v>
       </c>
       <c r="I6" s="19"/>
     </row>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="C7" s="43">
         <f>C6/C3</f>
-        <v>27.900958097397996</v>
+        <v>22.850958097397996</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="14" t="s">
@@ -1169,11 +1165,11 @@
       </c>
       <c r="F7" s="42">
         <f>F6/C3</f>
-        <v>58.249778763561437</v>
+        <v>81.85337364847355</v>
       </c>
       <c r="G7" s="19">
         <f>F7/C2-1</f>
-        <v>1.0120821679986678</v>
+        <v>2.4248273493085168</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.15">
@@ -1375,24 +1371,24 @@
         <v>610</v>
       </c>
       <c r="I10" s="16">
-        <f>H10*1.6</f>
-        <v>976</v>
+        <f>H10*(1+H58-0.08)</f>
+        <v>1026.6335260115607</v>
       </c>
       <c r="J10" s="16">
-        <f>I10*1.5</f>
-        <v>1464</v>
+        <f t="shared" ref="J10:M10" si="1">I10*(1+I58-0.08)</f>
+        <v>1645.6994764943699</v>
       </c>
       <c r="K10" s="16">
-        <f>J10*1.4</f>
-        <v>2049.6</v>
+        <f t="shared" si="1"/>
+        <v>2506.4098154146623</v>
       </c>
       <c r="L10" s="16">
-        <f>K10*1.35</f>
-        <v>2766.96</v>
+        <f t="shared" si="1"/>
+        <v>3616.7638515613653</v>
       </c>
       <c r="M10" s="16">
-        <f>L10*1.3</f>
-        <v>3597.0480000000002</v>
+        <f t="shared" si="1"/>
+        <v>4929.6700358275712</v>
       </c>
     </row>
     <row r="11" spans="1:118" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -1410,19 +1406,19 @@
         <v>578.4</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" ref="J11:M11" si="1">I11*1.2</f>
+        <f t="shared" ref="J11:M11" si="2">I11*1.2</f>
         <v>694.07999999999993</v>
       </c>
       <c r="K11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>832.89599999999984</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>999.47519999999975</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1199.3702399999997</v>
       </c>
     </row>
@@ -1573,23 +1569,23 @@
         <v>1092.673</v>
       </c>
       <c r="I13" s="37">
-        <f t="shared" ref="I13:M13" si="2">H13*1.4</f>
+        <f>H13*1.4</f>
         <v>1529.7421999999999</v>
       </c>
       <c r="J13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J13:M13" si="3">I13*1.4</f>
         <v>2141.6390799999999</v>
       </c>
       <c r="K13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2998.2947119999999</v>
       </c>
       <c r="L13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4197.6125967999997</v>
       </c>
       <c r="M13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5876.6576355199995</v>
       </c>
       <c r="N13" s="37"/>
@@ -1712,15 +1708,15 @@
         <v>0</v>
       </c>
       <c r="B15" s="24">
-        <f t="shared" ref="B15" si="3">SUM(B13:B13)</f>
+        <f t="shared" ref="B15" si="4">SUM(B13:B13)</f>
         <v>235</v>
       </c>
       <c r="C15" s="24">
-        <f t="shared" ref="C15" si="4">SUM(C13:C13)</f>
+        <f t="shared" ref="C15" si="5">SUM(C13:C13)</f>
         <v>364</v>
       </c>
       <c r="D15" s="24">
-        <f t="shared" ref="D15:F15" si="5">SUM(D13:D13)</f>
+        <f t="shared" ref="D15:F15" si="6">SUM(D13:D13)</f>
         <v>466</v>
       </c>
       <c r="E15" s="24">
@@ -1728,7 +1724,7 @@
         <v>515</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>595.40899999999999</v>
       </c>
       <c r="G15" s="24">
@@ -1740,64 +1736,64 @@
         <v>1092.673</v>
       </c>
       <c r="I15" s="45">
-        <f>SUM(I13)</f>
-        <v>1529.7421999999999</v>
+        <f>SUM(I10:I11)</f>
+        <v>1605.0335260115608</v>
       </c>
       <c r="J15" s="45">
-        <f>SUM(J13)</f>
-        <v>2141.6390799999999</v>
+        <f>SUM(J10:J11)</f>
+        <v>2339.7794764943701</v>
       </c>
       <c r="K15" s="45">
-        <f>SUM(K13)</f>
-        <v>2998.2947119999999</v>
+        <f>SUM(K10:K11)</f>
+        <v>3339.305815414662</v>
       </c>
       <c r="L15" s="45">
-        <f>SUM(L13)</f>
-        <v>4197.6125967999997</v>
+        <f>SUM(L10:L11)</f>
+        <v>4616.2390515613652</v>
       </c>
       <c r="M15" s="45">
-        <f>SUM(M13)</f>
-        <v>5876.6576355199995</v>
+        <f>SUM(M10:M11)</f>
+        <v>6129.0402758275704</v>
       </c>
       <c r="N15" s="45">
         <f>M15*1.2</f>
-        <v>7051.9891626239996</v>
+        <v>7354.8483309930843</v>
       </c>
       <c r="O15" s="45">
-        <f t="shared" ref="O15:R15" si="6">N15*1.2</f>
-        <v>8462.3869951487995</v>
+        <f t="shared" ref="O15:R15" si="7">N15*1.2</f>
+        <v>8825.8179971917016</v>
       </c>
       <c r="P15" s="45">
-        <f t="shared" si="6"/>
-        <v>10154.864394178559</v>
+        <f t="shared" si="7"/>
+        <v>10590.981596630041</v>
       </c>
       <c r="Q15" s="45">
-        <f t="shared" si="6"/>
-        <v>12185.837273014271</v>
+        <f t="shared" si="7"/>
+        <v>12709.177915956048</v>
       </c>
       <c r="R15" s="45">
-        <f t="shared" si="6"/>
-        <v>14623.004727617124</v>
+        <f t="shared" si="7"/>
+        <v>15251.013499147257</v>
       </c>
       <c r="S15" s="45">
-        <f t="shared" ref="S15:W15" si="7">R15*1.1</f>
-        <v>16085.305200378838</v>
+        <f t="shared" ref="S15:W15" si="8">R15*1.1</f>
+        <v>16776.114849061985</v>
       </c>
       <c r="T15" s="45">
-        <f t="shared" si="7"/>
-        <v>17693.835720416722</v>
+        <f t="shared" si="8"/>
+        <v>18453.726333968185</v>
       </c>
       <c r="U15" s="45">
-        <f t="shared" si="7"/>
-        <v>19463.219292458398</v>
+        <f t="shared" si="8"/>
+        <v>20299.098967365004</v>
       </c>
       <c r="V15" s="45">
-        <f t="shared" si="7"/>
-        <v>21409.541221704239</v>
+        <f t="shared" si="8"/>
+        <v>22329.008864101506</v>
       </c>
       <c r="W15" s="45">
-        <f t="shared" si="7"/>
-        <v>23550.495343874667</v>
+        <f t="shared" si="8"/>
+        <v>24561.909750511659</v>
       </c>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -1912,67 +1908,67 @@
       </c>
       <c r="H16" s="37">
         <f>SUM(Reports!J9:M9)</f>
-        <v>352.54699999999997</v>
+        <v>258.18653999999998</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" ref="I16" si="8">I15-I17</f>
-        <v>493.56580000000008</v>
+        <f t="shared" ref="I16" si="9">I15-I17</f>
+        <v>363.20132801418958</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" ref="J16:Q16" si="9">J15-J17</f>
-        <v>690.99212000000011</v>
+        <f t="shared" ref="J16:Q16" si="10">J15-J17</f>
+        <v>506.0684122337625</v>
       </c>
       <c r="K16" s="23">
-        <f t="shared" si="9"/>
-        <v>967.38896799999998</v>
+        <f t="shared" si="10"/>
+        <v>688.86184191097664</v>
       </c>
       <c r="L16" s="23">
         <f>L15-L17</f>
-        <v>1354.3445551999998</v>
+        <v>906.11664936174111</v>
       </c>
       <c r="M16" s="23">
-        <f t="shared" si="9"/>
-        <v>1896.0823772799999</v>
+        <f t="shared" si="10"/>
+        <v>1141.7723885106507</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="9"/>
-        <v>2275.2988527360003</v>
+        <f t="shared" si="10"/>
+        <v>1370.1268662127804</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="9"/>
-        <v>2730.3586232832004</v>
+        <f t="shared" si="10"/>
+        <v>1644.1522394553367</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="9"/>
-        <v>3276.4303479398404</v>
+        <f t="shared" si="10"/>
+        <v>1972.9826873464044</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" si="9"/>
-        <v>3931.7164175278085</v>
+        <f t="shared" si="10"/>
+        <v>2367.5792248156849</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" ref="R16" si="10">R15-R17</f>
-        <v>4718.0597010333695</v>
+        <f t="shared" ref="R16" si="11">R15-R17</f>
+        <v>2841.0950697788212</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" ref="S16:V16" si="11">S15-S17</f>
-        <v>5189.8656711367057</v>
+        <f t="shared" ref="S16:V16" si="12">S15-S17</f>
+        <v>3125.2045767567033</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="11"/>
-        <v>5708.8522382503779</v>
+        <f t="shared" si="12"/>
+        <v>3437.7250344323747</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="11"/>
-        <v>6279.7374620754163</v>
+        <f t="shared" si="12"/>
+        <v>3781.4975378756099</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" si="11"/>
-        <v>6907.711208282959</v>
+        <f t="shared" si="12"/>
+        <v>4159.6472916631719</v>
       </c>
       <c r="W16" s="23">
-        <f t="shared" ref="W16" si="12">W15-W17</f>
-        <v>7598.4823291112552</v>
+        <f t="shared" ref="W16" si="13">W15-W17</f>
+        <v>4575.6120208294924</v>
       </c>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
@@ -2088,67 +2084,67 @@
       </c>
       <c r="H17" s="26">
         <f>H15-H16</f>
-        <v>740.12599999999998</v>
+        <v>834.48646000000008</v>
       </c>
       <c r="I17" s="23">
-        <f>I15*H31</f>
-        <v>1036.1763999999998</v>
+        <f>I15*(H30+0.01)</f>
+        <v>1241.8321979973712</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" ref="J17:W17" si="13">J15*I31</f>
-        <v>1450.6469599999998</v>
+        <f t="shared" ref="J17:M17" si="14">J15*(I30+0.01)</f>
+        <v>1833.7110642606076</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="13"/>
-        <v>2030.9057439999999</v>
+        <f t="shared" si="14"/>
+        <v>2650.4439735036854</v>
       </c>
       <c r="L17" s="23">
-        <f>L15*K31</f>
-        <v>2843.2680415999998</v>
+        <f t="shared" si="14"/>
+        <v>3710.122402199624</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" si="13"/>
-        <v>3980.5752582399996</v>
+        <f t="shared" si="14"/>
+        <v>4987.2678873169198</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="13"/>
-        <v>4776.6903098879993</v>
+        <f>N15*M30</f>
+        <v>5984.7214647803039</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="13"/>
-        <v>5732.0283718655992</v>
+        <f>O15*N30</f>
+        <v>7181.6657577363649</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="13"/>
-        <v>6878.434046238719</v>
+        <f>P15*O30</f>
+        <v>8617.9989092836367</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" si="13"/>
-        <v>8254.1208554864625</v>
+        <f>Q15*P30</f>
+        <v>10341.598691140363</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" si="13"/>
-        <v>9904.945026583755</v>
+        <f>R15*Q30</f>
+        <v>12409.918429368436</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="13"/>
-        <v>10895.439529242132</v>
+        <f>S15*R30</f>
+        <v>13650.910272305282</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="13"/>
-        <v>11984.983482166344</v>
+        <f>T15*S30</f>
+        <v>15016.00129953581</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="13"/>
-        <v>13183.481830382982</v>
+        <f>U15*T30</f>
+        <v>16517.601429489394</v>
       </c>
       <c r="V17" s="23">
-        <f t="shared" si="13"/>
-        <v>14501.83001342128</v>
+        <f>V15*U30</f>
+        <v>18169.361572438334</v>
       </c>
       <c r="W17" s="23">
-        <f t="shared" si="13"/>
-        <v>15952.013014763412</v>
+        <f>W15*V30</f>
+        <v>19986.297729682166</v>
       </c>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
@@ -2263,67 +2259,67 @@
       </c>
       <c r="H18" s="37">
         <f>SUM(Reports!J11:M11)</f>
-        <v>561</v>
+        <v>338.2</v>
       </c>
       <c r="I18" s="23">
-        <f>H18*0.7</f>
-        <v>392.7</v>
+        <f>H18*1.2</f>
+        <v>405.84</v>
       </c>
       <c r="J18" s="23">
-        <f>I18*1.25</f>
-        <v>490.875</v>
+        <f t="shared" ref="J18:M18" si="15">I18*1.2</f>
+        <v>487.00799999999992</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" ref="K18:M18" si="14">J18*1.25</f>
-        <v>613.59375</v>
+        <f t="shared" si="15"/>
+        <v>584.40959999999984</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="14"/>
-        <v>766.9921875</v>
+        <f t="shared" si="15"/>
+        <v>701.29151999999976</v>
       </c>
       <c r="M18" s="23">
-        <f t="shared" si="14"/>
-        <v>958.740234375</v>
+        <f t="shared" si="15"/>
+        <v>841.54982399999972</v>
       </c>
       <c r="N18" s="23">
-        <f>M18*1.2</f>
-        <v>1150.48828125</v>
+        <f>M18*1.15</f>
+        <v>967.78229759999965</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" ref="O18:R18" si="15">N18*1.2</f>
-        <v>1380.5859375</v>
+        <f t="shared" ref="O18:R18" si="16">N18*1.15</f>
+        <v>1112.9496422399995</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="15"/>
-        <v>1656.703125</v>
+        <f t="shared" si="16"/>
+        <v>1279.8920885759994</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" si="15"/>
-        <v>1988.0437499999998</v>
+        <f t="shared" si="16"/>
+        <v>1471.8759018623991</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="15"/>
-        <v>2385.6524999999997</v>
+        <f t="shared" si="16"/>
+        <v>1692.6572871417588</v>
       </c>
       <c r="S18" s="23">
         <f>R18*1.1</f>
-        <v>2624.2177499999998</v>
+        <v>1861.9230158559349</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" ref="T18:W18" si="16">S18*1.1</f>
-        <v>2886.639525</v>
+        <f t="shared" ref="T18:W18" si="17">S18*1.1</f>
+        <v>2048.1153174415285</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="16"/>
-        <v>3175.3034775000001</v>
+        <f t="shared" si="17"/>
+        <v>2252.9268491856815</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="16"/>
-        <v>3492.8338252500002</v>
+        <f t="shared" si="17"/>
+        <v>2478.2195341042498</v>
       </c>
       <c r="W18" s="23">
-        <f t="shared" si="16"/>
-        <v>3842.1172077750007</v>
+        <f t="shared" si="17"/>
+        <v>2726.0414875146748</v>
       </c>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
@@ -2438,67 +2434,67 @@
       </c>
       <c r="H19" s="37">
         <f>SUM(Reports!J12:M12)</f>
-        <v>685</v>
+        <v>488</v>
       </c>
       <c r="I19" s="23">
-        <f>H19*0.7</f>
-        <v>479.49999999999994</v>
+        <f>H19*1.15</f>
+        <v>561.19999999999993</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" ref="J19:M19" si="17">I19*1.2</f>
-        <v>575.39999999999986</v>
+        <f t="shared" ref="J19:M19" si="18">I19*1.15</f>
+        <v>645.37999999999988</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="17"/>
-        <v>690.47999999999979</v>
+        <f t="shared" si="18"/>
+        <v>742.18699999999978</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="17"/>
-        <v>828.57599999999968</v>
+        <f t="shared" si="18"/>
+        <v>853.51504999999963</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" si="17"/>
-        <v>994.29119999999955</v>
+        <f t="shared" si="18"/>
+        <v>981.54230749999954</v>
       </c>
       <c r="N19" s="23">
         <f>M19*1.1</f>
-        <v>1093.7203199999997</v>
+        <v>1079.6965382499995</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" ref="O19:R19" si="18">N19*1.1</f>
-        <v>1203.0923519999997</v>
+        <f t="shared" ref="O19:R19" si="19">N19*1.1</f>
+        <v>1187.6661920749996</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="18"/>
-        <v>1323.4015871999998</v>
+        <f t="shared" si="19"/>
+        <v>1306.4328112824996</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" si="18"/>
-        <v>1455.7417459199999</v>
+        <f t="shared" si="19"/>
+        <v>1437.0760924107497</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="18"/>
-        <v>1601.315920512</v>
+        <f t="shared" si="19"/>
+        <v>1580.7837016518247</v>
       </c>
       <c r="S19" s="23">
         <f>R19*0.95</f>
-        <v>1521.2501244864</v>
+        <v>1501.7445165692334</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" ref="T19:W19" si="19">S19*0.95</f>
-        <v>1445.1876182620799</v>
+        <f t="shared" ref="T19:W19" si="20">S19*0.95</f>
+        <v>1426.6572907407717</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="19"/>
-        <v>1372.9282373489759</v>
+        <f t="shared" si="20"/>
+        <v>1355.3244262037331</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="19"/>
-        <v>1304.281825481527</v>
+        <f t="shared" si="20"/>
+        <v>1287.5582048935464</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" si="19"/>
-        <v>1239.0677342074505</v>
+        <f t="shared" si="20"/>
+        <v>1223.180294648869</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -2613,67 +2609,67 @@
       </c>
       <c r="H20" s="37">
         <f>SUM(Reports!J13:M13)</f>
-        <v>669</v>
+        <v>433.6</v>
       </c>
       <c r="I20" s="23">
-        <f>H20*0.5</f>
-        <v>334.5</v>
+        <f>H20*1.2</f>
+        <v>520.32000000000005</v>
       </c>
       <c r="J20" s="23">
-        <f>I20*1.15</f>
-        <v>384.67499999999995</v>
+        <f t="shared" ref="J20:M20" si="21">I20*1.2</f>
+        <v>624.38400000000001</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" ref="K20:M20" si="20">J20*1.15</f>
-        <v>442.37624999999991</v>
+        <f t="shared" si="21"/>
+        <v>749.26080000000002</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" si="20"/>
-        <v>508.73268749999988</v>
+        <f t="shared" si="21"/>
+        <v>899.11296000000004</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" si="20"/>
-        <v>585.04259062499978</v>
+        <f t="shared" si="21"/>
+        <v>1078.9355519999999</v>
       </c>
       <c r="N20" s="23">
-        <f>M20*1.05</f>
-        <v>614.29472015624981</v>
+        <f>M20*0.95</f>
+        <v>1024.9887743999998</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" ref="O20:R20" si="21">N20*1.05</f>
-        <v>645.00945616406227</v>
+        <f t="shared" ref="O20:R20" si="22">N20*0.95</f>
+        <v>973.73933567999973</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="21"/>
-        <v>677.25992897226547</v>
+        <f t="shared" si="22"/>
+        <v>925.05236889599973</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" si="21"/>
-        <v>711.1229254208788</v>
+        <f t="shared" si="22"/>
+        <v>878.79975045119966</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" si="21"/>
-        <v>746.67907169192279</v>
+        <f t="shared" si="22"/>
+        <v>834.85976292863961</v>
       </c>
       <c r="S20" s="23">
-        <f t="shared" ref="S20:W20" si="22">R20*0.98</f>
-        <v>731.74549025808437</v>
+        <f t="shared" ref="S20:W20" si="23">R20*0.98</f>
+        <v>818.16256767006678</v>
       </c>
       <c r="T20" s="23">
-        <f t="shared" si="22"/>
-        <v>717.1105804529227</v>
+        <f t="shared" si="23"/>
+        <v>801.79931631666545</v>
       </c>
       <c r="U20" s="23">
-        <f t="shared" si="22"/>
-        <v>702.76836884386421</v>
+        <f t="shared" si="23"/>
+        <v>785.76332999033218</v>
       </c>
       <c r="V20" s="23">
-        <f t="shared" si="22"/>
-        <v>688.71300146698695</v>
+        <f t="shared" si="23"/>
+        <v>770.0480633905255</v>
       </c>
       <c r="W20" s="23">
-        <f t="shared" si="22"/>
-        <v>674.9387414376472</v>
+        <f t="shared" si="23"/>
+        <v>754.64710212271495</v>
       </c>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
@@ -2771,210 +2767,261 @@
       <c r="DM20" s="38"/>
       <c r="DN20" s="38"/>
     </row>
-    <row r="21" spans="1:201" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70">
-        <f>SUM(Reports!J14:M14)</f>
-        <v>778</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
-      <c r="BP21" s="68"/>
-      <c r="BQ21" s="68"/>
-      <c r="BR21" s="68"/>
-      <c r="BS21" s="68"/>
-      <c r="BT21" s="68"/>
-      <c r="BU21" s="68"/>
-      <c r="BV21" s="68"/>
-      <c r="BW21" s="68"/>
-      <c r="BX21" s="68"/>
-      <c r="BY21" s="68"/>
-      <c r="BZ21" s="68"/>
-      <c r="CA21" s="68"/>
-      <c r="CB21" s="68"/>
-      <c r="CC21" s="68"/>
-      <c r="CD21" s="68"/>
-      <c r="CE21" s="68"/>
-      <c r="CF21" s="68"/>
-      <c r="CG21" s="68"/>
-      <c r="CH21" s="68"/>
-      <c r="CI21" s="68"/>
-      <c r="CJ21" s="68"/>
-      <c r="CK21" s="68"/>
-      <c r="CL21" s="68"/>
-      <c r="CM21" s="68"/>
-      <c r="CN21" s="68"/>
-      <c r="CO21" s="68"/>
-      <c r="CP21" s="68"/>
-      <c r="CQ21" s="68"/>
-      <c r="CR21" s="68"/>
-      <c r="CS21" s="68"/>
-      <c r="CT21" s="68"/>
-      <c r="CU21" s="68"/>
-      <c r="CV21" s="68"/>
-      <c r="CW21" s="68"/>
-      <c r="CX21" s="68"/>
-      <c r="CY21" s="68"/>
-      <c r="CZ21" s="68"/>
-      <c r="DA21" s="68"/>
-      <c r="DB21" s="68"/>
-      <c r="DC21" s="68"/>
-      <c r="DD21" s="68"/>
-      <c r="DE21" s="68"/>
-      <c r="DF21" s="68"/>
-      <c r="DG21" s="68"/>
-      <c r="DH21" s="68"/>
-      <c r="DI21" s="68"/>
-      <c r="DJ21" s="68"/>
-      <c r="DK21" s="68"/>
-      <c r="DL21" s="68"/>
-      <c r="DM21" s="68"/>
-      <c r="DN21" s="68"/>
+    <row r="21" spans="1:201" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26">
+        <f>SUM(F18:F20)</f>
+        <v>1053</v>
+      </c>
+      <c r="G21" s="26">
+        <f>SUM(G18:G20)</f>
+        <v>1078</v>
+      </c>
+      <c r="H21" s="26">
+        <f>SUM(H18:H20)</f>
+        <v>1259.8000000000002</v>
+      </c>
+      <c r="I21" s="23">
+        <f>SUM(I18:I20)</f>
+        <v>1487.3600000000001</v>
+      </c>
+      <c r="J21" s="23">
+        <f>SUM(J18:J20)</f>
+        <v>1756.7719999999999</v>
+      </c>
+      <c r="K21" s="23">
+        <f>SUM(K18:K20)</f>
+        <v>2075.8573999999999</v>
+      </c>
+      <c r="L21" s="23">
+        <f>SUM(L18:L20)</f>
+        <v>2453.9195299999992</v>
+      </c>
+      <c r="M21" s="23">
+        <f>SUM(M18:M20)</f>
+        <v>2902.0276834999991</v>
+      </c>
+      <c r="N21" s="23">
+        <f>SUM(N18:N20)</f>
+        <v>3072.4676102499989</v>
+      </c>
+      <c r="O21" s="23">
+        <f>SUM(O18:O20)</f>
+        <v>3274.355169994999</v>
+      </c>
+      <c r="P21" s="23">
+        <f>SUM(P18:P20)</f>
+        <v>3511.3772687544988</v>
+      </c>
+      <c r="Q21" s="23">
+        <f>SUM(Q18:Q20)</f>
+        <v>3787.7517447243481</v>
+      </c>
+      <c r="R21" s="23">
+        <f>SUM(R18:R20)</f>
+        <v>4108.3007517222231</v>
+      </c>
+      <c r="S21" s="23">
+        <f>SUM(S18:S20)</f>
+        <v>4181.8301000952351</v>
+      </c>
+      <c r="T21" s="23">
+        <f>SUM(T18:T20)</f>
+        <v>4276.5719244989659</v>
+      </c>
+      <c r="U21" s="23">
+        <f>SUM(U18:U20)</f>
+        <v>4394.0146053797462</v>
+      </c>
+      <c r="V21" s="23">
+        <f>SUM(V18:V20)</f>
+        <v>4535.8258023883218</v>
+      </c>
+      <c r="W21" s="23">
+        <f>SUM(W18:W20)</f>
+        <v>4703.8688842862593</v>
+      </c>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+      <c r="BO21" s="38"/>
+      <c r="BP21" s="38"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="38"/>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="38"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="38"/>
+      <c r="BW21" s="38"/>
+      <c r="BX21" s="38"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="38"/>
+      <c r="CA21" s="38"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="38"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
+      <c r="CJ21" s="38"/>
+      <c r="CK21" s="38"/>
+      <c r="CL21" s="38"/>
+      <c r="CM21" s="38"/>
+      <c r="CN21" s="38"/>
+      <c r="CO21" s="38"/>
+      <c r="CP21" s="38"/>
+      <c r="CQ21" s="38"/>
+      <c r="CR21" s="38"/>
+      <c r="CS21" s="38"/>
+      <c r="CT21" s="38"/>
+      <c r="CU21" s="38"/>
+      <c r="CV21" s="38"/>
+      <c r="CW21" s="38"/>
+      <c r="CX21" s="38"/>
+      <c r="CY21" s="38"/>
+      <c r="CZ21" s="38"/>
+      <c r="DA21" s="38"/>
+      <c r="DB21" s="38"/>
+      <c r="DC21" s="38"/>
+      <c r="DD21" s="38"/>
+      <c r="DE21" s="38"/>
+      <c r="DF21" s="38"/>
+      <c r="DG21" s="38"/>
+      <c r="DH21" s="38"/>
+      <c r="DI21" s="38"/>
+      <c r="DJ21" s="38"/>
+      <c r="DK21" s="38"/>
+      <c r="DL21" s="38"/>
+      <c r="DM21" s="38"/>
+      <c r="DN21" s="38"/>
     </row>
     <row r="22" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26">
-        <f>SUM(F18:F20)</f>
-        <v>1053</v>
+        <f>F17-F21</f>
+        <v>-622.99199999999996</v>
       </c>
       <c r="G22" s="26">
-        <f>SUM(G18:G20)</f>
-        <v>1078</v>
+        <f>G17-G21</f>
+        <v>-577.81799999999998</v>
       </c>
       <c r="H22" s="26">
-        <f>SUM(H18:H20)-H21</f>
-        <v>1137</v>
+        <f>H17-H21</f>
+        <v>-425.3135400000001</v>
       </c>
       <c r="I22" s="23">
-        <f>SUM(I18:I20)</f>
-        <v>1206.6999999999998</v>
+        <f>I17-I21</f>
+        <v>-245.52780200262896</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" ref="J22:Q22" si="23">SUM(J18:J20)</f>
-        <v>1450.9499999999998</v>
+        <f>J17-J21</f>
+        <v>76.939064260607665</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="23"/>
-        <v>1746.4499999999998</v>
+        <f>K17-K21</f>
+        <v>574.58657350368549</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="23"/>
-        <v>2104.3008749999995</v>
+        <f>L17-L21</f>
+        <v>1256.2028721996248</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="23"/>
-        <v>2538.0740249999994</v>
+        <f>M17-M21</f>
+        <v>2085.2402038169207</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="23"/>
-        <v>2858.5033214062491</v>
+        <f>N17-N21</f>
+        <v>2912.253854530305</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="23"/>
-        <v>3228.6877456640618</v>
+        <f>O17-O21</f>
+        <v>3907.3105877413659</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="23"/>
-        <v>3657.3646411722657</v>
+        <f>P17-P21</f>
+        <v>5106.6216405291379</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="23"/>
-        <v>4154.9084213408787</v>
+        <f>Q17-Q21</f>
+        <v>6553.8469464160153</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" ref="R22" si="24">SUM(R18:R20)</f>
-        <v>4733.6474922039224</v>
+        <f>R17-R21</f>
+        <v>8301.6176776462125</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" ref="S22:V22" si="25">SUM(S18:S20)</f>
-        <v>4877.2133647444844</v>
+        <f>S17-S21</f>
+        <v>9469.0801722100477</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="25"/>
-        <v>5048.9377237150029</v>
+        <f>T17-T21</f>
+        <v>10739.429375036845</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="25"/>
-        <v>5251.0000836928411</v>
+        <f>U17-U21</f>
+        <v>12123.586824109647</v>
       </c>
       <c r="V22" s="23">
-        <f t="shared" si="25"/>
-        <v>5485.8286521985137</v>
+        <f>V17-V21</f>
+        <v>13633.535770050014</v>
       </c>
       <c r="W22" s="23">
-        <f t="shared" ref="W22" si="26">SUM(W18:W20)</f>
-        <v>5756.1236834200981</v>
+        <f>W17-W21</f>
+        <v>15282.428845395907</v>
       </c>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
@@ -3074,83 +3121,83 @@
     </row>
     <row r="23" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="26">
-        <f>F17-F22</f>
-        <v>-622.99199999999996</v>
-      </c>
-      <c r="G23" s="26">
-        <f>G17-G22</f>
-        <v>-577.81799999999998</v>
-      </c>
-      <c r="H23" s="26">
-        <f>H17-H22</f>
-        <v>-396.87400000000002</v>
+      <c r="F23" s="23">
+        <f>10-3+48-3</f>
+        <v>52</v>
+      </c>
+      <c r="G23" s="37">
+        <f>SUM(Reports!F16:I16)</f>
+        <v>7</v>
+      </c>
+      <c r="H23" s="37">
+        <f>SUM(Reports!J16:M16)</f>
+        <v>-7</v>
       </c>
       <c r="I23" s="23">
-        <f>I17-I22</f>
-        <v>-170.52359999999999</v>
+        <f t="shared" ref="I23:W23" si="24">H40*$F$3</f>
+        <v>92.5</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" ref="J23:Q23" si="27">J17-J22</f>
-        <v>-0.30304000000000997</v>
+        <f t="shared" si="24"/>
+        <v>84.848609899868563</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="27"/>
-        <v>284.4557440000001</v>
+        <f t="shared" si="24"/>
+        <v>91.724586051688789</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" si="27"/>
-        <v>738.96716660000038</v>
+        <f t="shared" si="24"/>
+        <v>120.0428103327922</v>
       </c>
       <c r="M23" s="23">
-        <f t="shared" si="27"/>
-        <v>1442.5012332400001</v>
+        <f t="shared" si="24"/>
+        <v>178.53325184041992</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" si="27"/>
-        <v>1918.1869884817502</v>
+        <f t="shared" si="24"/>
+        <v>274.74362370585686</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="27"/>
-        <v>2503.3406262015374</v>
+        <f t="shared" si="24"/>
+        <v>410.19101653089376</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" si="27"/>
-        <v>3221.0694050664533</v>
+        <f t="shared" si="24"/>
+        <v>593.68483471246486</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="27"/>
-        <v>4099.2124341455838</v>
+        <f t="shared" si="24"/>
+        <v>835.94785991023298</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" ref="R23" si="28">R17-R22</f>
-        <v>5171.2975343798325</v>
+        <f t="shared" si="24"/>
+        <v>1150.0141391790985</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" ref="S23:V23" si="29">S17-S22</f>
-        <v>6018.2261644976479</v>
+        <f t="shared" si="24"/>
+        <v>1551.7084913941744</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="29"/>
-        <v>6936.0457584513415</v>
+        <f t="shared" si="24"/>
+        <v>2020.092009597354</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="29"/>
-        <v>7932.4817466901404</v>
+        <f t="shared" si="24"/>
+        <v>2562.3716684443079</v>
       </c>
       <c r="V23" s="23">
-        <f t="shared" si="29"/>
-        <v>9016.0013612227667</v>
+        <f t="shared" si="24"/>
+        <v>3186.5249043778508</v>
       </c>
       <c r="W23" s="23">
-        <f t="shared" ref="W23" si="30">W17-W22</f>
-        <v>10195.889331343315</v>
+        <f t="shared" si="24"/>
+        <v>3901.3774830410348</v>
       </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
@@ -3250,83 +3297,83 @@
     </row>
     <row r="24" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="23">
-        <f>10-3+48-3</f>
-        <v>52</v>
-      </c>
-      <c r="G24" s="37">
-        <f>SUM(Reports!F17:I17)</f>
-        <v>7</v>
-      </c>
-      <c r="H24" s="37">
-        <f>SUM(Reports!J17:M17)</f>
-        <v>-7</v>
+      <c r="F24" s="26">
+        <f>F22+F23</f>
+        <v>-570.99199999999996</v>
+      </c>
+      <c r="G24" s="26">
+        <f>G22+G23</f>
+        <v>-570.81799999999998</v>
+      </c>
+      <c r="H24" s="26">
+        <f>H22+H23</f>
+        <v>-432.3135400000001</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" ref="I24:W24" si="31">H41*$F$3</f>
-        <v>92.5</v>
+        <f>I22+I23</f>
+        <v>-153.02780200262896</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" si="31"/>
-        <v>88.598820000000003</v>
+        <f t="shared" ref="J24" si="25">J22+J23</f>
+        <v>161.78767416047623</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="31"/>
-        <v>93.013609000000002</v>
+        <f t="shared" ref="K24" si="26">K22+K23</f>
+        <v>666.31115955537427</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="31"/>
-        <v>111.88707665</v>
+        <f t="shared" ref="L24" si="27">L22+L23</f>
+        <v>1376.245682532417</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" si="31"/>
-        <v>150.17551759625002</v>
+        <f t="shared" ref="M24" si="28">M22+M23</f>
+        <v>2263.7734556573405</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="31"/>
-        <v>221.84597138388128</v>
+        <f t="shared" ref="N24" si="29">N22+N23</f>
+        <v>3186.9974782361619</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="31"/>
-        <v>318.14745457783465</v>
+        <f t="shared" ref="O24" si="30">O22+O23</f>
+        <v>4317.50160427226</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" si="31"/>
-        <v>445.1144182129064</v>
+        <f t="shared" ref="P24" si="31">P22+P23</f>
+        <v>5700.306475241603</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="31"/>
-        <v>610.09269026047753</v>
+        <f t="shared" ref="Q24" si="32">Q22+Q23</f>
+        <v>7389.7948063262484</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="31"/>
-        <v>822.0114208587504</v>
+        <f t="shared" ref="R24" si="33">R22+R23</f>
+        <v>9451.631816825311</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="31"/>
-        <v>1091.7103238444868</v>
+        <f t="shared" ref="S24:V24" si="34">S22+S23</f>
+        <v>11020.788663604222</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="31"/>
-        <v>1411.6574658198829</v>
+        <f t="shared" si="34"/>
+        <v>12759.521384634199</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="31"/>
-        <v>1787.3041109120882</v>
+        <f t="shared" si="34"/>
+        <v>14685.958492553955</v>
       </c>
       <c r="V24" s="23">
-        <f t="shared" si="31"/>
-        <v>2224.6944745041883</v>
+        <f t="shared" si="34"/>
+        <v>16820.060674427863</v>
       </c>
       <c r="W24" s="23">
-        <f t="shared" si="31"/>
-        <v>2730.5257871119011</v>
+        <f t="shared" ref="W24" si="35">W22+W23</f>
+        <v>19183.806328436942</v>
       </c>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
@@ -3426,83 +3473,81 @@
     </row>
     <row r="25" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="26">
-        <f>F23+F24</f>
-        <v>-570.99199999999996</v>
-      </c>
-      <c r="G25" s="26">
-        <f>G23+G24</f>
-        <v>-570.81799999999998</v>
-      </c>
-      <c r="H25" s="26">
-        <f>H23+H24</f>
-        <v>-403.87400000000002</v>
+      <c r="F25" s="23">
+        <v>9</v>
+      </c>
+      <c r="G25" s="37">
+        <f>SUM(Reports!F18:I18)</f>
+        <v>12</v>
+      </c>
+      <c r="H25" s="37">
+        <f>SUM(Reports!J18:M18)</f>
+        <v>-13</v>
       </c>
       <c r="I25" s="23">
-        <f>I23+I24</f>
-        <v>-78.023599999999988</v>
+        <v>0</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" ref="J25" si="32">J23+J24</f>
-        <v>88.295779999999993</v>
+        <f>J24*0.15</f>
+        <v>24.268151124071434</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" ref="K25" si="33">K23+K24</f>
-        <v>377.46935300000007</v>
+        <f t="shared" ref="K25:W25" si="36">K24*0.15</f>
+        <v>99.946673933306144</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" ref="L25" si="34">L23+L24</f>
-        <v>850.85424325000042</v>
+        <f t="shared" si="36"/>
+        <v>206.43685237986256</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" ref="M25" si="35">M23+M24</f>
-        <v>1592.6767508362502</v>
+        <f t="shared" si="36"/>
+        <v>339.56601834860106</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" ref="N25" si="36">N23+N24</f>
-        <v>2140.0329598656313</v>
+        <f t="shared" si="36"/>
+        <v>478.04962173542424</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" ref="O25" si="37">O23+O24</f>
-        <v>2821.488080779372</v>
+        <f t="shared" si="36"/>
+        <v>647.62524064083902</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" ref="P25" si="38">P23+P24</f>
-        <v>3666.1838232793598</v>
+        <f t="shared" si="36"/>
+        <v>855.04597128624039</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" ref="Q25" si="39">Q23+Q24</f>
-        <v>4709.3051244060616</v>
+        <f t="shared" si="36"/>
+        <v>1108.4692209489372</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" ref="R25" si="40">R23+R24</f>
-        <v>5993.3089552385827</v>
+        <f t="shared" si="36"/>
+        <v>1417.7447725237967</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" ref="S25:V25" si="41">S23+S24</f>
-        <v>7109.9364883421349</v>
+        <f t="shared" si="36"/>
+        <v>1653.1182995406332</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" si="41"/>
-        <v>8347.7032242712248</v>
+        <f t="shared" si="36"/>
+        <v>1913.9282076951299</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" si="41"/>
-        <v>9719.7858576022281</v>
+        <f t="shared" si="36"/>
+        <v>2202.8937738830932</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" si="41"/>
-        <v>11240.695835726954</v>
+        <f t="shared" si="36"/>
+        <v>2523.0091011641794</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" ref="W25" si="42">W23+W24</f>
-        <v>12926.415118455216</v>
+        <f t="shared" si="36"/>
+        <v>2877.570949265541</v>
       </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
@@ -3600,1344 +3645,1348 @@
       <c r="DM25" s="38"/>
       <c r="DN25" s="38"/>
     </row>
-    <row r="26" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
+    <row r="26" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="23">
-        <v>9</v>
-      </c>
-      <c r="G26" s="37">
-        <f>SUM(Reports!F19:I19)</f>
+      <c r="F26" s="24">
+        <f>F24-F25</f>
+        <v>-579.99199999999996</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" ref="G26:I26" si="37">G24-G25</f>
+        <v>-582.81799999999998</v>
+      </c>
+      <c r="H26" s="24">
+        <f>H24-H25</f>
+        <v>-419.3135400000001</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="37"/>
+        <v>-153.02780200262896</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" ref="J26:Q26" si="38">J24-J25</f>
+        <v>137.51952303640479</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="38"/>
+        <v>566.36448562206817</v>
+      </c>
+      <c r="L26" s="24">
+        <f t="shared" si="38"/>
+        <v>1169.8088301525545</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="38"/>
+        <v>1924.2074373087394</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="38"/>
+        <v>2708.9478565007375</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="38"/>
+        <v>3669.8763636314211</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="38"/>
+        <v>4845.2605039553628</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" si="38"/>
+        <v>6281.3255853773117</v>
+      </c>
+      <c r="R26" s="24">
+        <f t="shared" ref="R26" si="39">R24-R25</f>
+        <v>8033.8870443015148</v>
+      </c>
+      <c r="S26" s="24">
+        <f t="shared" ref="S26:V26" si="40">S24-S25</f>
+        <v>9367.6703640635897</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="40"/>
+        <v>10845.59317693907</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="40"/>
+        <v>12483.064718670861</v>
+      </c>
+      <c r="V26" s="24">
+        <f t="shared" si="40"/>
+        <v>14297.051573263683</v>
+      </c>
+      <c r="W26" s="24">
+        <f t="shared" ref="W26" si="41">W24-W25</f>
+        <v>16306.235379171401</v>
+      </c>
+      <c r="X26" s="24">
+        <f t="shared" ref="X26:BC26" si="42">W26*($F$2+1)</f>
+        <v>16469.297732963114</v>
+      </c>
+      <c r="Y26" s="24">
+        <f t="shared" si="42"/>
+        <v>16633.990710292746</v>
+      </c>
+      <c r="Z26" s="24">
+        <f t="shared" si="42"/>
+        <v>16800.330617395673</v>
+      </c>
+      <c r="AA26" s="24">
+        <f t="shared" si="42"/>
+        <v>16968.333923569629</v>
+      </c>
+      <c r="AB26" s="24">
+        <f t="shared" si="42"/>
+        <v>17138.017262805326</v>
+      </c>
+      <c r="AC26" s="24">
+        <f t="shared" si="42"/>
+        <v>17309.39743543338</v>
+      </c>
+      <c r="AD26" s="24">
+        <f t="shared" si="42"/>
+        <v>17482.491409787715</v>
+      </c>
+      <c r="AE26" s="24">
+        <f t="shared" si="42"/>
+        <v>17657.316323885592</v>
+      </c>
+      <c r="AF26" s="24">
+        <f t="shared" si="42"/>
+        <v>17833.889487124448</v>
+      </c>
+      <c r="AG26" s="24">
+        <f t="shared" si="42"/>
+        <v>18012.228381995694</v>
+      </c>
+      <c r="AH26" s="24">
+        <f t="shared" si="42"/>
+        <v>18192.350665815651</v>
+      </c>
+      <c r="AI26" s="24">
+        <f t="shared" si="42"/>
+        <v>18374.274172473808</v>
+      </c>
+      <c r="AJ26" s="24">
+        <f t="shared" si="42"/>
+        <v>18558.016914198546</v>
+      </c>
+      <c r="AK26" s="24">
+        <f t="shared" si="42"/>
+        <v>18743.597083340534</v>
+      </c>
+      <c r="AL26" s="24">
+        <f t="shared" si="42"/>
+        <v>18931.033054173939</v>
+      </c>
+      <c r="AM26" s="24">
+        <f t="shared" si="42"/>
+        <v>19120.343384715678</v>
+      </c>
+      <c r="AN26" s="24">
+        <f t="shared" si="42"/>
+        <v>19311.546818562834</v>
+      </c>
+      <c r="AO26" s="24">
+        <f t="shared" si="42"/>
+        <v>19504.662286748462</v>
+      </c>
+      <c r="AP26" s="24">
+        <f t="shared" si="42"/>
+        <v>19699.708909615947</v>
+      </c>
+      <c r="AQ26" s="24">
+        <f t="shared" si="42"/>
+        <v>19896.705998712107</v>
+      </c>
+      <c r="AR26" s="24">
+        <f t="shared" si="42"/>
+        <v>20095.673058699227</v>
+      </c>
+      <c r="AS26" s="24">
+        <f t="shared" si="42"/>
+        <v>20296.62978928622</v>
+      </c>
+      <c r="AT26" s="24">
+        <f t="shared" si="42"/>
+        <v>20499.596087179081</v>
+      </c>
+      <c r="AU26" s="24">
+        <f t="shared" si="42"/>
+        <v>20704.592048050872</v>
+      </c>
+      <c r="AV26" s="24">
+        <f t="shared" si="42"/>
+        <v>20911.63796853138</v>
+      </c>
+      <c r="AW26" s="24">
+        <f t="shared" si="42"/>
+        <v>21120.754348216695</v>
+      </c>
+      <c r="AX26" s="24">
+        <f t="shared" si="42"/>
+        <v>21331.961891698862</v>
+      </c>
+      <c r="AY26" s="24">
+        <f t="shared" si="42"/>
+        <v>21545.281510615852</v>
+      </c>
+      <c r="AZ26" s="24">
+        <f t="shared" si="42"/>
+        <v>21760.734325722013</v>
+      </c>
+      <c r="BA26" s="24">
+        <f t="shared" si="42"/>
+        <v>21978.341668979232</v>
+      </c>
+      <c r="BB26" s="24">
+        <f t="shared" si="42"/>
+        <v>22198.125085669024</v>
+      </c>
+      <c r="BC26" s="24">
+        <f t="shared" si="42"/>
+        <v>22420.106336525714</v>
+      </c>
+      <c r="BD26" s="24">
+        <f t="shared" ref="BD26:CI26" si="43">BC26*($F$2+1)</f>
+        <v>22644.307399890971</v>
+      </c>
+      <c r="BE26" s="24">
+        <f t="shared" si="43"/>
+        <v>22870.750473889882</v>
+      </c>
+      <c r="BF26" s="24">
+        <f t="shared" si="43"/>
+        <v>23099.457978628783</v>
+      </c>
+      <c r="BG26" s="24">
+        <f t="shared" si="43"/>
+        <v>23330.452558415072</v>
+      </c>
+      <c r="BH26" s="24">
+        <f t="shared" si="43"/>
+        <v>23563.757083999222</v>
+      </c>
+      <c r="BI26" s="24">
+        <f t="shared" si="43"/>
+        <v>23799.394654839216</v>
+      </c>
+      <c r="BJ26" s="24">
+        <f t="shared" si="43"/>
+        <v>24037.388601387607</v>
+      </c>
+      <c r="BK26" s="24">
+        <f t="shared" si="43"/>
+        <v>24277.762487401484</v>
+      </c>
+      <c r="BL26" s="24">
+        <f t="shared" si="43"/>
+        <v>24520.540112275499</v>
+      </c>
+      <c r="BM26" s="24">
+        <f t="shared" si="43"/>
+        <v>24765.745513398255</v>
+      </c>
+      <c r="BN26" s="24">
+        <f t="shared" si="43"/>
+        <v>25013.402968532238</v>
+      </c>
+      <c r="BO26" s="24">
+        <f t="shared" si="43"/>
+        <v>25263.536998217562</v>
+      </c>
+      <c r="BP26" s="24">
+        <f t="shared" si="43"/>
+        <v>25516.172368199739</v>
+      </c>
+      <c r="BQ26" s="24">
+        <f t="shared" si="43"/>
+        <v>25771.334091881738</v>
+      </c>
+      <c r="BR26" s="24">
+        <f t="shared" si="43"/>
+        <v>26029.047432800555</v>
+      </c>
+      <c r="BS26" s="24">
+        <f t="shared" si="43"/>
+        <v>26289.33790712856</v>
+      </c>
+      <c r="BT26" s="24">
+        <f t="shared" si="43"/>
+        <v>26552.231286199847</v>
+      </c>
+      <c r="BU26" s="24">
+        <f t="shared" si="43"/>
+        <v>26817.753599061845</v>
+      </c>
+      <c r="BV26" s="24">
+        <f t="shared" si="43"/>
+        <v>27085.931135052462</v>
+      </c>
+      <c r="BW26" s="24">
+        <f t="shared" si="43"/>
+        <v>27356.790446402985</v>
+      </c>
+      <c r="BX26" s="24">
+        <f t="shared" si="43"/>
+        <v>27630.358350867016</v>
+      </c>
+      <c r="BY26" s="24">
+        <f t="shared" si="43"/>
+        <v>27906.661934375687</v>
+      </c>
+      <c r="BZ26" s="24">
+        <f t="shared" si="43"/>
+        <v>28185.728553719444</v>
+      </c>
+      <c r="CA26" s="24">
+        <f t="shared" si="43"/>
+        <v>28467.585839256637</v>
+      </c>
+      <c r="CB26" s="24">
+        <f t="shared" si="43"/>
+        <v>28752.261697649203</v>
+      </c>
+      <c r="CC26" s="24">
+        <f t="shared" si="43"/>
+        <v>29039.784314625696</v>
+      </c>
+      <c r="CD26" s="24">
+        <f t="shared" si="43"/>
+        <v>29330.182157771953</v>
+      </c>
+      <c r="CE26" s="24">
+        <f t="shared" si="43"/>
+        <v>29623.483979349672</v>
+      </c>
+      <c r="CF26" s="24">
+        <f t="shared" si="43"/>
+        <v>29919.718819143171</v>
+      </c>
+      <c r="CG26" s="24">
+        <f t="shared" si="43"/>
+        <v>30218.916007334603</v>
+      </c>
+      <c r="CH26" s="24">
+        <f t="shared" si="43"/>
+        <v>30521.10516740795</v>
+      </c>
+      <c r="CI26" s="24">
+        <f t="shared" si="43"/>
+        <v>30826.316219082029</v>
+      </c>
+      <c r="CJ26" s="24">
+        <f t="shared" ref="CJ26:DO26" si="44">CI26*($F$2+1)</f>
+        <v>31134.579381272852</v>
+      </c>
+      <c r="CK26" s="24">
+        <f t="shared" si="44"/>
+        <v>31445.92517508558</v>
+      </c>
+      <c r="CL26" s="24">
+        <f t="shared" si="44"/>
+        <v>31760.384426836437</v>
+      </c>
+      <c r="CM26" s="24">
+        <f t="shared" si="44"/>
+        <v>32077.988271104801</v>
+      </c>
+      <c r="CN26" s="24">
+        <f t="shared" si="44"/>
+        <v>32398.76815381585</v>
+      </c>
+      <c r="CO26" s="24">
+        <f t="shared" si="44"/>
+        <v>32722.755835354008</v>
+      </c>
+      <c r="CP26" s="24">
+        <f t="shared" si="44"/>
+        <v>33049.983393707545</v>
+      </c>
+      <c r="CQ26" s="24">
+        <f t="shared" si="44"/>
+        <v>33380.483227644618</v>
+      </c>
+      <c r="CR26" s="24">
+        <f t="shared" si="44"/>
+        <v>33714.288059921062</v>
+      </c>
+      <c r="CS26" s="24">
+        <f t="shared" si="44"/>
+        <v>34051.430940520273</v>
+      </c>
+      <c r="CT26" s="24">
+        <f t="shared" si="44"/>
+        <v>34391.945249925477</v>
+      </c>
+      <c r="CU26" s="24">
+        <f t="shared" si="44"/>
+        <v>34735.864702424733</v>
+      </c>
+      <c r="CV26" s="24">
+        <f t="shared" si="44"/>
+        <v>35083.223349448977</v>
+      </c>
+      <c r="CW26" s="24">
+        <f t="shared" si="44"/>
+        <v>35434.055582943467</v>
+      </c>
+      <c r="CX26" s="24">
+        <f t="shared" si="44"/>
+        <v>35788.3961387729</v>
+      </c>
+      <c r="CY26" s="24">
+        <f t="shared" si="44"/>
+        <v>36146.280100160628</v>
+      </c>
+      <c r="CZ26" s="24">
+        <f t="shared" si="44"/>
+        <v>36507.742901162237</v>
+      </c>
+      <c r="DA26" s="24">
+        <f t="shared" si="44"/>
+        <v>36872.820330173861</v>
+      </c>
+      <c r="DB26" s="24">
+        <f t="shared" si="44"/>
+        <v>37241.548533475601</v>
+      </c>
+      <c r="DC26" s="24">
+        <f t="shared" si="44"/>
+        <v>37613.964018810359</v>
+      </c>
+      <c r="DD26" s="24">
+        <f t="shared" si="44"/>
+        <v>37990.103658998465</v>
+      </c>
+      <c r="DE26" s="24">
+        <f t="shared" si="44"/>
+        <v>38370.004695588454</v>
+      </c>
+      <c r="DF26" s="24">
+        <f t="shared" si="44"/>
+        <v>38753.704742544338</v>
+      </c>
+      <c r="DG26" s="24">
+        <f t="shared" si="44"/>
+        <v>39141.241789969783</v>
+      </c>
+      <c r="DH26" s="24">
+        <f t="shared" si="44"/>
+        <v>39532.654207869484</v>
+      </c>
+      <c r="DI26" s="24">
+        <f t="shared" si="44"/>
+        <v>39927.980749948176</v>
+      </c>
+      <c r="DJ26" s="24">
+        <f t="shared" si="44"/>
+        <v>40327.260557447655</v>
+      </c>
+      <c r="DK26" s="24">
+        <f t="shared" si="44"/>
+        <v>40730.533163022134</v>
+      </c>
+      <c r="DL26" s="24">
+        <f t="shared" si="44"/>
+        <v>41137.838494652358</v>
+      </c>
+      <c r="DM26" s="24">
+        <f t="shared" si="44"/>
+        <v>41549.216879598884</v>
+      </c>
+      <c r="DN26" s="24">
+        <f t="shared" si="44"/>
+        <v>41964.70904839487</v>
+      </c>
+      <c r="DO26" s="24">
+        <f t="shared" si="44"/>
+        <v>42384.356138878822</v>
+      </c>
+      <c r="DP26" s="24">
+        <f t="shared" ref="DP26:EU26" si="45">DO26*($F$2+1)</f>
+        <v>42808.199700267607</v>
+      </c>
+      <c r="DQ26" s="24">
+        <f t="shared" si="45"/>
+        <v>43236.281697270286</v>
+      </c>
+      <c r="DR26" s="24">
+        <f t="shared" si="45"/>
+        <v>43668.644514242987</v>
+      </c>
+      <c r="DS26" s="24">
+        <f t="shared" si="45"/>
+        <v>44105.330959385421</v>
+      </c>
+      <c r="DT26" s="24">
+        <f t="shared" si="45"/>
+        <v>44546.384268979273</v>
+      </c>
+      <c r="DU26" s="24">
+        <f t="shared" si="45"/>
+        <v>44991.848111669067</v>
+      </c>
+      <c r="DV26" s="24">
+        <f t="shared" si="45"/>
+        <v>45441.76659278576</v>
+      </c>
+      <c r="DW26" s="24">
+        <f t="shared" si="45"/>
+        <v>45896.18425871362</v>
+      </c>
+      <c r="DX26" s="24">
+        <f t="shared" si="45"/>
+        <v>46355.146101300757</v>
+      </c>
+      <c r="DY26" s="24">
+        <f t="shared" si="45"/>
+        <v>46818.697562313762</v>
+      </c>
+      <c r="DZ26" s="24">
+        <f t="shared" si="45"/>
+        <v>47286.884537936901</v>
+      </c>
+      <c r="EA26" s="24">
+        <f t="shared" si="45"/>
+        <v>47759.753383316274</v>
+      </c>
+      <c r="EB26" s="24">
+        <f t="shared" si="45"/>
+        <v>48237.350917149437</v>
+      </c>
+      <c r="EC26" s="24">
+        <f t="shared" si="45"/>
+        <v>48719.724426320929</v>
+      </c>
+      <c r="ED26" s="24">
+        <f t="shared" si="45"/>
+        <v>49206.921670584139</v>
+      </c>
+      <c r="EE26" s="24">
+        <f t="shared" si="45"/>
+        <v>49698.990887289983</v>
+      </c>
+      <c r="EF26" s="24">
+        <f t="shared" si="45"/>
+        <v>50195.980796162883</v>
+      </c>
+      <c r="EG26" s="24">
+        <f t="shared" si="45"/>
+        <v>50697.940604124509</v>
+      </c>
+      <c r="EH26" s="24">
+        <f t="shared" si="45"/>
+        <v>51204.920010165755</v>
+      </c>
+      <c r="EI26" s="24">
+        <f t="shared" si="45"/>
+        <v>51716.969210267416</v>
+      </c>
+      <c r="EJ26" s="24">
+        <f t="shared" si="45"/>
+        <v>52234.13890237009</v>
+      </c>
+      <c r="EK26" s="24">
+        <f t="shared" si="45"/>
+        <v>52756.480291393789</v>
+      </c>
+      <c r="EL26" s="24">
+        <f t="shared" si="45"/>
+        <v>53284.04509430773</v>
+      </c>
+      <c r="EM26" s="24">
+        <f t="shared" si="45"/>
+        <v>53816.885545250807</v>
+      </c>
+      <c r="EN26" s="24">
+        <f t="shared" si="45"/>
+        <v>54355.054400703317</v>
+      </c>
+      <c r="EO26" s="24">
+        <f t="shared" si="45"/>
+        <v>54898.604944710351</v>
+      </c>
+      <c r="EP26" s="24">
+        <f t="shared" si="45"/>
+        <v>55447.590994157457</v>
+      </c>
+      <c r="EQ26" s="24">
+        <f t="shared" si="45"/>
+        <v>56002.066904099032</v>
+      </c>
+      <c r="ER26" s="24">
+        <f t="shared" si="45"/>
+        <v>56562.087573140023</v>
+      </c>
+      <c r="ES26" s="24">
+        <f t="shared" si="45"/>
+        <v>57127.708448871424</v>
+      </c>
+      <c r="ET26" s="24">
+        <f t="shared" si="45"/>
+        <v>57698.985533360137</v>
+      </c>
+      <c r="EU26" s="24">
+        <f t="shared" si="45"/>
+        <v>58275.97538869374</v>
+      </c>
+      <c r="EV26" s="24">
+        <f t="shared" ref="EV26:GA26" si="46">EU26*($F$2+1)</f>
+        <v>58858.735142580677</v>
+      </c>
+      <c r="EW26" s="24">
+        <f t="shared" si="46"/>
+        <v>59447.322494006483</v>
+      </c>
+      <c r="EX26" s="24">
+        <f t="shared" si="46"/>
+        <v>60041.795718946545</v>
+      </c>
+      <c r="EY26" s="24">
+        <f t="shared" si="46"/>
+        <v>60642.213676136009</v>
+      </c>
+      <c r="EZ26" s="24">
+        <f t="shared" si="46"/>
+        <v>61248.635812897366</v>
+      </c>
+      <c r="FA26" s="24">
+        <f t="shared" si="46"/>
+        <v>61861.122171026342</v>
+      </c>
+      <c r="FB26" s="24">
+        <f t="shared" si="46"/>
+        <v>62479.733392736605</v>
+      </c>
+      <c r="FC26" s="24">
+        <f t="shared" si="46"/>
+        <v>63104.530726663972</v>
+      </c>
+      <c r="FD26" s="24">
+        <f t="shared" si="46"/>
+        <v>63735.576033930614</v>
+      </c>
+      <c r="FE26" s="24">
+        <f t="shared" si="46"/>
+        <v>64372.93179426992</v>
+      </c>
+      <c r="FF26" s="24">
+        <f t="shared" si="46"/>
+        <v>65016.66111221262</v>
+      </c>
+      <c r="FG26" s="24">
+        <f t="shared" si="46"/>
+        <v>65666.827723334747</v>
+      </c>
+      <c r="FH26" s="24">
+        <f t="shared" si="46"/>
+        <v>66323.496000568091</v>
+      </c>
+      <c r="FI26" s="24">
+        <f t="shared" si="46"/>
+        <v>66986.730960573768</v>
+      </c>
+      <c r="FJ26" s="24">
+        <f t="shared" si="46"/>
+        <v>67656.5982701795</v>
+      </c>
+      <c r="FK26" s="24">
+        <f t="shared" si="46"/>
+        <v>68333.164252881295</v>
+      </c>
+      <c r="FL26" s="24">
+        <f t="shared" si="46"/>
+        <v>69016.495895410102</v>
+      </c>
+      <c r="FM26" s="24">
+        <f t="shared" si="46"/>
+        <v>69706.660854364207</v>
+      </c>
+      <c r="FN26" s="24">
+        <f t="shared" si="46"/>
+        <v>70403.727462907846</v>
+      </c>
+      <c r="FO26" s="24">
+        <f t="shared" si="46"/>
+        <v>71107.764737536927</v>
+      </c>
+      <c r="FP26" s="24">
+        <f t="shared" si="46"/>
+        <v>71818.842384912292</v>
+      </c>
+      <c r="FQ26" s="24">
+        <f t="shared" si="46"/>
+        <v>72537.03080876141</v>
+      </c>
+      <c r="FR26" s="24">
+        <f t="shared" si="46"/>
+        <v>73262.401116849025</v>
+      </c>
+      <c r="FS26" s="24">
+        <f t="shared" si="46"/>
+        <v>73995.025128017514</v>
+      </c>
+      <c r="FT26" s="24">
+        <f t="shared" si="46"/>
+        <v>74734.975379297684</v>
+      </c>
+      <c r="FU26" s="24">
+        <f t="shared" si="46"/>
+        <v>75482.325133090664</v>
+      </c>
+      <c r="FV26" s="24">
+        <f t="shared" si="46"/>
+        <v>76237.148384421569</v>
+      </c>
+      <c r="FW26" s="24">
+        <f t="shared" si="46"/>
+        <v>76999.519868265779</v>
+      </c>
+      <c r="FX26" s="24">
+        <f t="shared" si="46"/>
+        <v>77769.515066948443</v>
+      </c>
+      <c r="FY26" s="24">
+        <f t="shared" si="46"/>
+        <v>78547.210217617932</v>
+      </c>
+      <c r="FZ26" s="24">
+        <f t="shared" si="46"/>
+        <v>79332.682319794112</v>
+      </c>
+      <c r="GA26" s="24">
+        <f t="shared" si="46"/>
+        <v>80126.009142992058</v>
+      </c>
+      <c r="GB26" s="24">
+        <f t="shared" ref="GB26:GS26" si="47">GA26*($F$2+1)</f>
+        <v>80927.269234421983</v>
+      </c>
+      <c r="GC26" s="24">
+        <f t="shared" si="47"/>
+        <v>81736.541926766207</v>
+      </c>
+      <c r="GD26" s="24">
+        <f t="shared" si="47"/>
+        <v>82553.90734603387</v>
+      </c>
+      <c r="GE26" s="24">
+        <f t="shared" si="47"/>
+        <v>83379.446419494212</v>
+      </c>
+      <c r="GF26" s="24">
+        <f t="shared" si="47"/>
+        <v>84213.240883689155</v>
+      </c>
+      <c r="GG26" s="24">
+        <f t="shared" si="47"/>
+        <v>85055.373292526041</v>
+      </c>
+      <c r="GH26" s="24">
+        <f t="shared" si="47"/>
+        <v>85905.927025451296</v>
+      </c>
+      <c r="GI26" s="24">
+        <f t="shared" si="47"/>
+        <v>86764.986295705807</v>
+      </c>
+      <c r="GJ26" s="24">
+        <f t="shared" si="47"/>
+        <v>87632.636158662863</v>
+      </c>
+      <c r="GK26" s="24">
+        <f t="shared" si="47"/>
+        <v>88508.962520249494</v>
+      </c>
+      <c r="GL26" s="24">
+        <f t="shared" si="47"/>
+        <v>89394.052145451991</v>
+      </c>
+      <c r="GM26" s="24">
+        <f t="shared" si="47"/>
+        <v>90287.992666906517</v>
+      </c>
+      <c r="GN26" s="24">
+        <f t="shared" si="47"/>
+        <v>91190.872593575579</v>
+      </c>
+      <c r="GO26" s="24">
+        <f t="shared" si="47"/>
+        <v>92102.781319511341</v>
+      </c>
+      <c r="GP26" s="24">
+        <f t="shared" si="47"/>
+        <v>93023.809132706461</v>
+      </c>
+      <c r="GQ26" s="24">
+        <f t="shared" si="47"/>
+        <v>93954.047224033522</v>
+      </c>
+      <c r="GR26" s="24">
+        <f t="shared" si="47"/>
+        <v>94893.587696273855</v>
+      </c>
+      <c r="GS26" s="24">
+        <f t="shared" si="47"/>
+        <v>95842.523573236598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:201" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="37">
-        <f>SUM(Reports!J19:M19)</f>
-        <v>-13</v>
-      </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23">
-        <v>0</v>
-      </c>
-      <c r="K26" s="23">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
-        <f t="shared" ref="L26:Q26" si="43">L25*0.1</f>
-        <v>85.085424325000048</v>
-      </c>
-      <c r="M26" s="23">
-        <f t="shared" si="43"/>
-        <v>159.26767508362502</v>
-      </c>
-      <c r="N26" s="23">
-        <f t="shared" si="43"/>
-        <v>214.00329598656313</v>
-      </c>
-      <c r="O26" s="23">
-        <f t="shared" si="43"/>
-        <v>282.14880807793719</v>
-      </c>
-      <c r="P26" s="23">
-        <f t="shared" si="43"/>
-        <v>366.61838232793599</v>
-      </c>
-      <c r="Q26" s="23">
-        <f t="shared" si="43"/>
-        <v>470.93051244060621</v>
-      </c>
-      <c r="R26" s="23">
-        <f t="shared" ref="R26" si="44">R25*0.1</f>
-        <v>599.33089552385832</v>
-      </c>
-      <c r="S26" s="23">
-        <f t="shared" ref="S26:V26" si="45">S25*0.1</f>
-        <v>710.99364883421356</v>
-      </c>
-      <c r="T26" s="23">
-        <f t="shared" si="45"/>
-        <v>834.77032242712255</v>
-      </c>
-      <c r="U26" s="23">
-        <f t="shared" si="45"/>
-        <v>971.97858576022281</v>
-      </c>
-      <c r="V26" s="23">
-        <f t="shared" si="45"/>
-        <v>1124.0695835726954</v>
-      </c>
-      <c r="W26" s="23">
-        <f t="shared" ref="W26" si="46">W25*0.1</f>
-        <v>1292.6415118455216</v>
-      </c>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="38"/>
-      <c r="BF26" s="38"/>
-      <c r="BG26" s="38"/>
-      <c r="BH26" s="38"/>
-      <c r="BI26" s="38"/>
-      <c r="BJ26" s="38"/>
-      <c r="BK26" s="38"/>
-      <c r="BL26" s="38"/>
-      <c r="BM26" s="38"/>
-      <c r="BN26" s="38"/>
-      <c r="BO26" s="38"/>
-      <c r="BP26" s="38"/>
-      <c r="BQ26" s="38"/>
-      <c r="BR26" s="38"/>
-      <c r="BS26" s="38"/>
-      <c r="BT26" s="38"/>
-      <c r="BU26" s="38"/>
-      <c r="BV26" s="38"/>
-      <c r="BW26" s="38"/>
-      <c r="BX26" s="38"/>
-      <c r="BY26" s="38"/>
-      <c r="BZ26" s="38"/>
-      <c r="CA26" s="38"/>
-      <c r="CB26" s="38"/>
-      <c r="CC26" s="38"/>
-      <c r="CD26" s="38"/>
-      <c r="CE26" s="38"/>
-      <c r="CF26" s="38"/>
-      <c r="CG26" s="38"/>
-      <c r="CH26" s="38"/>
-      <c r="CI26" s="38"/>
-      <c r="CJ26" s="38"/>
-      <c r="CK26" s="38"/>
-      <c r="CL26" s="38"/>
-      <c r="CM26" s="38"/>
-      <c r="CN26" s="38"/>
-      <c r="CO26" s="38"/>
-      <c r="CP26" s="38"/>
-      <c r="CQ26" s="38"/>
-      <c r="CR26" s="38"/>
-      <c r="CS26" s="38"/>
-      <c r="CT26" s="38"/>
-      <c r="CU26" s="38"/>
-      <c r="CV26" s="38"/>
-      <c r="CW26" s="38"/>
-      <c r="CX26" s="38"/>
-      <c r="CY26" s="38"/>
-      <c r="CZ26" s="38"/>
-      <c r="DA26" s="38"/>
-      <c r="DB26" s="38"/>
-      <c r="DC26" s="38"/>
-      <c r="DD26" s="38"/>
-      <c r="DE26" s="38"/>
-      <c r="DF26" s="38"/>
-      <c r="DG26" s="38"/>
-      <c r="DH26" s="38"/>
-      <c r="DI26" s="38"/>
-      <c r="DJ26" s="38"/>
-      <c r="DK26" s="38"/>
-      <c r="DL26" s="38"/>
-      <c r="DM26" s="38"/>
-      <c r="DN26" s="38"/>
-    </row>
-    <row r="27" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24">
-        <f>F25-F26</f>
-        <v>-579.99199999999996</v>
-      </c>
-      <c r="G27" s="24">
-        <f t="shared" ref="G27:I27" si="47">G25-G26</f>
-        <v>-582.81799999999998</v>
-      </c>
-      <c r="H27" s="24">
-        <f>H25-H26</f>
-        <v>-390.87400000000002</v>
-      </c>
-      <c r="I27" s="24">
-        <f t="shared" si="47"/>
-        <v>-78.023599999999988</v>
-      </c>
-      <c r="J27" s="24">
-        <f t="shared" ref="J27:Q27" si="48">J25-J26</f>
-        <v>88.295779999999993</v>
-      </c>
-      <c r="K27" s="24">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="28">
+        <f t="shared" ref="F27:H27" si="48">F26/F28</f>
+        <v>-1.0661335572421149</v>
+      </c>
+      <c r="G27" s="28">
         <f t="shared" si="48"/>
-        <v>377.46935300000007</v>
-      </c>
-      <c r="L27" s="24">
+        <v>-1.0101557380481536</v>
+      </c>
+      <c r="H27" s="46">
         <f t="shared" si="48"/>
-        <v>765.76881892500035</v>
-      </c>
-      <c r="M27" s="24">
-        <f t="shared" si="48"/>
-        <v>1433.4090757526251</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" si="48"/>
-        <v>1926.029663879068</v>
-      </c>
-      <c r="O27" s="24">
-        <f t="shared" si="48"/>
-        <v>2539.3392727014348</v>
-      </c>
-      <c r="P27" s="24">
-        <f t="shared" si="48"/>
-        <v>3299.5654409514236</v>
-      </c>
-      <c r="Q27" s="24">
-        <f t="shared" si="48"/>
-        <v>4238.3746119654552</v>
-      </c>
-      <c r="R27" s="24">
-        <f t="shared" ref="R27" si="49">R25-R26</f>
-        <v>5393.9780597147246</v>
-      </c>
-      <c r="S27" s="24">
-        <f t="shared" ref="S27:V27" si="50">S25-S26</f>
-        <v>6398.9428395079212</v>
-      </c>
-      <c r="T27" s="24">
+        <v>-0.23777160745317896</v>
+      </c>
+      <c r="I27" s="46">
+        <f t="shared" ref="I27" si="49">I26/I28</f>
+        <v>-8.6774365710184029E-2</v>
+      </c>
+      <c r="J27" s="46">
+        <f t="shared" ref="J27:Q27" si="50">J26/J28</f>
+        <v>7.7980401130286509E-2</v>
+      </c>
+      <c r="K27" s="46">
         <f t="shared" si="50"/>
-        <v>7512.9329018441022</v>
-      </c>
-      <c r="U27" s="24">
+        <v>0.3211567986827995</v>
+      </c>
+      <c r="L27" s="46">
         <f t="shared" si="50"/>
-        <v>8747.8072718420044</v>
-      </c>
-      <c r="V27" s="24">
+        <v>0.66333971938586966</v>
+      </c>
+      <c r="M27" s="46">
         <f t="shared" si="50"/>
-        <v>10116.626252154259</v>
-      </c>
-      <c r="W27" s="24">
-        <f t="shared" ref="W27" si="51">W25-W26</f>
-        <v>11633.773606609695</v>
-      </c>
-      <c r="X27" s="24">
-        <f t="shared" ref="X27:BC27" si="52">W27*($F$2+1)</f>
-        <v>11750.111342675793</v>
-      </c>
-      <c r="Y27" s="24">
+        <v>1.0911212059650184</v>
+      </c>
+      <c r="N27" s="46">
+        <f t="shared" si="50"/>
+        <v>1.5361080072611626</v>
+      </c>
+      <c r="O27" s="46">
+        <f t="shared" si="50"/>
+        <v>2.0810022069286624</v>
+      </c>
+      <c r="P27" s="46">
+        <f t="shared" si="50"/>
+        <v>2.7475034041468498</v>
+      </c>
+      <c r="Q27" s="46">
+        <f t="shared" si="50"/>
+        <v>3.5618236448361373</v>
+      </c>
+      <c r="R27" s="46">
+        <f t="shared" ref="R27" si="51">R26/R28</f>
+        <v>4.555613054185752</v>
+      </c>
+      <c r="S27" s="46">
+        <f t="shared" ref="S27:V27" si="52">S26/S28</f>
+        <v>5.3119344549544127</v>
+      </c>
+      <c r="T27" s="46">
         <f t="shared" si="52"/>
-        <v>11867.612456102552</v>
-      </c>
-      <c r="Z27" s="24">
+        <v>6.1499901087478168</v>
+      </c>
+      <c r="U27" s="46">
         <f t="shared" si="52"/>
-        <v>11986.288580663577</v>
-      </c>
-      <c r="AA27" s="24">
+        <v>7.0785178177180619</v>
+      </c>
+      <c r="V27" s="46">
         <f t="shared" si="52"/>
-        <v>12106.151466470214</v>
-      </c>
-      <c r="AB27" s="24">
-        <f t="shared" si="52"/>
-        <v>12227.212981134915</v>
-      </c>
-      <c r="AC27" s="24">
-        <f t="shared" si="52"/>
-        <v>12349.485110946263</v>
-      </c>
-      <c r="AD27" s="24">
-        <f t="shared" si="52"/>
-        <v>12472.979962055726</v>
-      </c>
-      <c r="AE27" s="24">
-        <f t="shared" si="52"/>
-        <v>12597.709761676284</v>
-      </c>
-      <c r="AF27" s="24">
-        <f t="shared" si="52"/>
-        <v>12723.686859293048</v>
-      </c>
-      <c r="AG27" s="24">
-        <f t="shared" si="52"/>
-        <v>12850.923727885978</v>
-      </c>
-      <c r="AH27" s="24">
-        <f t="shared" si="52"/>
-        <v>12979.432965164839</v>
-      </c>
-      <c r="AI27" s="24">
-        <f t="shared" si="52"/>
-        <v>13109.227294816486</v>
-      </c>
-      <c r="AJ27" s="24">
-        <f t="shared" si="52"/>
-        <v>13240.319567764651</v>
-      </c>
-      <c r="AK27" s="24">
-        <f t="shared" si="52"/>
-        <v>13372.722763442298</v>
-      </c>
-      <c r="AL27" s="24">
-        <f t="shared" si="52"/>
-        <v>13506.449991076721</v>
-      </c>
-      <c r="AM27" s="24">
-        <f t="shared" si="52"/>
-        <v>13641.514490987489</v>
-      </c>
-      <c r="AN27" s="24">
-        <f t="shared" si="52"/>
-        <v>13777.929635897364</v>
-      </c>
-      <c r="AO27" s="24">
-        <f t="shared" si="52"/>
-        <v>13915.708932256339</v>
-      </c>
-      <c r="AP27" s="24">
-        <f t="shared" si="52"/>
-        <v>14054.866021578902</v>
-      </c>
-      <c r="AQ27" s="24">
-        <f t="shared" si="52"/>
-        <v>14195.414681794691</v>
-      </c>
-      <c r="AR27" s="24">
-        <f t="shared" si="52"/>
-        <v>14337.368828612638</v>
-      </c>
-      <c r="AS27" s="24">
-        <f t="shared" si="52"/>
-        <v>14480.742516898765</v>
-      </c>
-      <c r="AT27" s="24">
-        <f t="shared" si="52"/>
-        <v>14625.549942067753</v>
-      </c>
-      <c r="AU27" s="24">
-        <f t="shared" si="52"/>
-        <v>14771.805441488432</v>
-      </c>
-      <c r="AV27" s="24">
-        <f t="shared" si="52"/>
-        <v>14919.523495903317</v>
-      </c>
-      <c r="AW27" s="24">
-        <f t="shared" si="52"/>
-        <v>15068.718730862351</v>
-      </c>
-      <c r="AX27" s="24">
-        <f t="shared" si="52"/>
-        <v>15219.405918170974</v>
-      </c>
-      <c r="AY27" s="24">
-        <f t="shared" si="52"/>
-        <v>15371.599977352684</v>
-      </c>
-      <c r="AZ27" s="24">
-        <f t="shared" si="52"/>
-        <v>15525.315977126211</v>
-      </c>
-      <c r="BA27" s="24">
-        <f t="shared" si="52"/>
-        <v>15680.569136897473</v>
-      </c>
-      <c r="BB27" s="24">
-        <f t="shared" si="52"/>
-        <v>15837.374828266447</v>
-      </c>
-      <c r="BC27" s="24">
-        <f t="shared" si="52"/>
-        <v>15995.748576549113</v>
-      </c>
-      <c r="BD27" s="24">
-        <f t="shared" ref="BD27:CI27" si="53">BC27*($F$2+1)</f>
-        <v>16155.706062314604</v>
-      </c>
-      <c r="BE27" s="24">
-        <f t="shared" si="53"/>
-        <v>16317.263122937751</v>
-      </c>
-      <c r="BF27" s="24">
-        <f t="shared" si="53"/>
-        <v>16480.435754167127</v>
-      </c>
-      <c r="BG27" s="24">
-        <f t="shared" si="53"/>
-        <v>16645.240111708797</v>
-      </c>
-      <c r="BH27" s="24">
-        <f t="shared" si="53"/>
-        <v>16811.692512825884</v>
-      </c>
-      <c r="BI27" s="24">
-        <f t="shared" si="53"/>
-        <v>16979.809437954144</v>
-      </c>
-      <c r="BJ27" s="24">
-        <f t="shared" si="53"/>
-        <v>17149.607532333685</v>
-      </c>
-      <c r="BK27" s="24">
-        <f t="shared" si="53"/>
-        <v>17321.10360765702</v>
-      </c>
-      <c r="BL27" s="24">
-        <f t="shared" si="53"/>
-        <v>17494.314643733589</v>
-      </c>
-      <c r="BM27" s="24">
-        <f t="shared" si="53"/>
-        <v>17669.257790170926</v>
-      </c>
-      <c r="BN27" s="24">
-        <f t="shared" si="53"/>
-        <v>17845.950368072638</v>
-      </c>
-      <c r="BO27" s="24">
-        <f t="shared" si="53"/>
-        <v>18024.409871753363</v>
-      </c>
-      <c r="BP27" s="24">
-        <f t="shared" si="53"/>
-        <v>18204.653970470896</v>
-      </c>
-      <c r="BQ27" s="24">
-        <f t="shared" si="53"/>
-        <v>18386.700510175604</v>
-      </c>
-      <c r="BR27" s="24">
-        <f t="shared" si="53"/>
-        <v>18570.567515277362</v>
-      </c>
-      <c r="BS27" s="24">
-        <f t="shared" si="53"/>
-        <v>18756.273190430136</v>
-      </c>
-      <c r="BT27" s="24">
-        <f t="shared" si="53"/>
-        <v>18943.835922334438</v>
-      </c>
-      <c r="BU27" s="24">
-        <f t="shared" si="53"/>
-        <v>19133.274281557784</v>
-      </c>
-      <c r="BV27" s="24">
-        <f t="shared" si="53"/>
-        <v>19324.607024373363</v>
-      </c>
-      <c r="BW27" s="24">
-        <f t="shared" si="53"/>
-        <v>19517.853094617098</v>
-      </c>
-      <c r="BX27" s="24">
-        <f t="shared" si="53"/>
-        <v>19713.031625563268</v>
-      </c>
-      <c r="BY27" s="24">
-        <f t="shared" si="53"/>
-        <v>19910.1619418189</v>
-      </c>
-      <c r="BZ27" s="24">
-        <f t="shared" si="53"/>
-        <v>20109.26356123709</v>
-      </c>
-      <c r="CA27" s="24">
-        <f t="shared" si="53"/>
-        <v>20310.356196849461</v>
-      </c>
-      <c r="CB27" s="24">
-        <f t="shared" si="53"/>
-        <v>20513.459758817957</v>
-      </c>
-      <c r="CC27" s="24">
-        <f t="shared" si="53"/>
-        <v>20718.594356406138</v>
-      </c>
-      <c r="CD27" s="24">
-        <f t="shared" si="53"/>
-        <v>20925.7802999702</v>
-      </c>
-      <c r="CE27" s="24">
-        <f t="shared" si="53"/>
-        <v>21135.038102969902</v>
-      </c>
-      <c r="CF27" s="24">
-        <f t="shared" si="53"/>
-        <v>21346.388483999603</v>
-      </c>
-      <c r="CG27" s="24">
-        <f t="shared" si="53"/>
-        <v>21559.852368839598</v>
-      </c>
-      <c r="CH27" s="24">
-        <f t="shared" si="53"/>
-        <v>21775.450892527995</v>
-      </c>
-      <c r="CI27" s="24">
-        <f t="shared" si="53"/>
-        <v>21993.205401453277</v>
-      </c>
-      <c r="CJ27" s="24">
-        <f t="shared" ref="CJ27:DO27" si="54">CI27*($F$2+1)</f>
-        <v>22213.137455467811</v>
-      </c>
-      <c r="CK27" s="24">
-        <f t="shared" si="54"/>
-        <v>22435.268830022491</v>
-      </c>
-      <c r="CL27" s="24">
-        <f t="shared" si="54"/>
-        <v>22659.621518322718</v>
-      </c>
-      <c r="CM27" s="24">
-        <f t="shared" si="54"/>
-        <v>22886.217733505946</v>
-      </c>
-      <c r="CN27" s="24">
-        <f t="shared" si="54"/>
-        <v>23115.079910841006</v>
-      </c>
-      <c r="CO27" s="24">
-        <f t="shared" si="54"/>
-        <v>23346.230709949417</v>
-      </c>
-      <c r="CP27" s="24">
-        <f t="shared" si="54"/>
-        <v>23579.69301704891</v>
-      </c>
-      <c r="CQ27" s="24">
-        <f t="shared" si="54"/>
-        <v>23815.489947219401</v>
-      </c>
-      <c r="CR27" s="24">
-        <f t="shared" si="54"/>
-        <v>24053.644846691594</v>
-      </c>
-      <c r="CS27" s="24">
-        <f t="shared" si="54"/>
-        <v>24294.181295158509</v>
-      </c>
-      <c r="CT27" s="24">
-        <f t="shared" si="54"/>
-        <v>24537.123108110096</v>
-      </c>
-      <c r="CU27" s="24">
-        <f t="shared" si="54"/>
-        <v>24782.494339191198</v>
-      </c>
-      <c r="CV27" s="24">
-        <f t="shared" si="54"/>
-        <v>25030.31928258311</v>
-      </c>
-      <c r="CW27" s="24">
-        <f t="shared" si="54"/>
-        <v>25280.622475408942</v>
-      </c>
-      <c r="CX27" s="24">
-        <f t="shared" si="54"/>
-        <v>25533.428700163033</v>
-      </c>
-      <c r="CY27" s="24">
-        <f t="shared" si="54"/>
-        <v>25788.762987164664</v>
-      </c>
-      <c r="CZ27" s="24">
-        <f t="shared" si="54"/>
-        <v>26046.65061703631</v>
-      </c>
-      <c r="DA27" s="24">
-        <f t="shared" si="54"/>
-        <v>26307.117123206674</v>
-      </c>
-      <c r="DB27" s="24">
-        <f t="shared" si="54"/>
-        <v>26570.18829443874</v>
-      </c>
-      <c r="DC27" s="24">
-        <f t="shared" si="54"/>
-        <v>26835.890177383128</v>
-      </c>
-      <c r="DD27" s="24">
-        <f t="shared" si="54"/>
-        <v>27104.249079156958</v>
-      </c>
-      <c r="DE27" s="24">
-        <f t="shared" si="54"/>
-        <v>27375.291569948527</v>
-      </c>
-      <c r="DF27" s="24">
-        <f t="shared" si="54"/>
-        <v>27649.044485648014</v>
-      </c>
-      <c r="DG27" s="24">
-        <f t="shared" si="54"/>
-        <v>27925.534930504495</v>
-      </c>
-      <c r="DH27" s="24">
-        <f t="shared" si="54"/>
-        <v>28204.790279809538</v>
-      </c>
-      <c r="DI27" s="24">
-        <f t="shared" si="54"/>
-        <v>28486.838182607633</v>
-      </c>
-      <c r="DJ27" s="24">
-        <f t="shared" si="54"/>
-        <v>28771.706564433709</v>
-      </c>
-      <c r="DK27" s="24">
-        <f t="shared" si="54"/>
-        <v>29059.423630078047</v>
-      </c>
-      <c r="DL27" s="24">
-        <f t="shared" si="54"/>
-        <v>29350.017866378828</v>
-      </c>
-      <c r="DM27" s="24">
-        <f t="shared" si="54"/>
-        <v>29643.518045042616</v>
-      </c>
-      <c r="DN27" s="24">
-        <f t="shared" si="54"/>
-        <v>29939.953225493042</v>
-      </c>
-      <c r="DO27" s="24">
-        <f t="shared" si="54"/>
-        <v>30239.352757747973</v>
-      </c>
-      <c r="DP27" s="24">
-        <f t="shared" ref="DP27:EU27" si="55">DO27*($F$2+1)</f>
-        <v>30541.746285325451</v>
-      </c>
-      <c r="DQ27" s="24">
-        <f t="shared" si="55"/>
-        <v>30847.163748178707</v>
-      </c>
-      <c r="DR27" s="24">
-        <f t="shared" si="55"/>
-        <v>31155.635385660495</v>
-      </c>
-      <c r="DS27" s="24">
-        <f t="shared" si="55"/>
-        <v>31467.1917395171</v>
-      </c>
-      <c r="DT27" s="24">
-        <f t="shared" si="55"/>
-        <v>31781.863656912272</v>
-      </c>
-      <c r="DU27" s="24">
-        <f t="shared" si="55"/>
-        <v>32099.682293481394</v>
-      </c>
-      <c r="DV27" s="24">
-        <f t="shared" si="55"/>
-        <v>32420.67911641621</v>
-      </c>
-      <c r="DW27" s="24">
-        <f t="shared" si="55"/>
-        <v>32744.88590758037</v>
-      </c>
-      <c r="DX27" s="24">
-        <f t="shared" si="55"/>
-        <v>33072.334766656175</v>
-      </c>
-      <c r="DY27" s="24">
-        <f t="shared" si="55"/>
-        <v>33403.058114322739</v>
-      </c>
-      <c r="DZ27" s="24">
-        <f t="shared" si="55"/>
-        <v>33737.088695465965</v>
-      </c>
-      <c r="EA27" s="24">
-        <f t="shared" si="55"/>
-        <v>34074.459582420626</v>
-      </c>
-      <c r="EB27" s="24">
-        <f t="shared" si="55"/>
-        <v>34415.204178244836</v>
-      </c>
-      <c r="EC27" s="24">
-        <f t="shared" si="55"/>
-        <v>34759.356220027286</v>
-      </c>
-      <c r="ED27" s="24">
-        <f t="shared" si="55"/>
-        <v>35106.949782227559</v>
-      </c>
-      <c r="EE27" s="24">
-        <f t="shared" si="55"/>
-        <v>35458.019280049833</v>
-      </c>
-      <c r="EF27" s="24">
-        <f t="shared" si="55"/>
-        <v>35812.599472850336</v>
-      </c>
-      <c r="EG27" s="24">
-        <f t="shared" si="55"/>
-        <v>36170.725467578843</v>
-      </c>
-      <c r="EH27" s="24">
-        <f t="shared" si="55"/>
-        <v>36532.432722254634</v>
-      </c>
-      <c r="EI27" s="24">
-        <f t="shared" si="55"/>
-        <v>36897.757049477179</v>
-      </c>
-      <c r="EJ27" s="24">
-        <f t="shared" si="55"/>
-        <v>37266.734619971954</v>
-      </c>
-      <c r="EK27" s="24">
-        <f t="shared" si="55"/>
-        <v>37639.401966171674</v>
-      </c>
-      <c r="EL27" s="24">
-        <f t="shared" si="55"/>
-        <v>38015.795985833392</v>
-      </c>
-      <c r="EM27" s="24">
-        <f t="shared" si="55"/>
-        <v>38395.953945691726</v>
-      </c>
-      <c r="EN27" s="24">
-        <f t="shared" si="55"/>
-        <v>38779.913485148645</v>
-      </c>
-      <c r="EO27" s="24">
-        <f t="shared" si="55"/>
-        <v>39167.712620000129</v>
-      </c>
-      <c r="EP27" s="24">
-        <f t="shared" si="55"/>
-        <v>39559.389746200133</v>
-      </c>
-      <c r="EQ27" s="24">
-        <f t="shared" si="55"/>
-        <v>39954.983643662134</v>
-      </c>
-      <c r="ER27" s="24">
-        <f t="shared" si="55"/>
-        <v>40354.533480098755</v>
-      </c>
-      <c r="ES27" s="24">
-        <f t="shared" si="55"/>
-        <v>40758.078814899745</v>
-      </c>
-      <c r="ET27" s="24">
-        <f t="shared" si="55"/>
-        <v>41165.659603048742</v>
-      </c>
-      <c r="EU27" s="24">
-        <f t="shared" si="55"/>
-        <v>41577.316199079229</v>
-      </c>
-      <c r="EV27" s="24">
-        <f t="shared" ref="EV27:GA27" si="56">EU27*($F$2+1)</f>
-        <v>41993.089361070022</v>
-      </c>
-      <c r="EW27" s="24">
-        <f t="shared" si="56"/>
-        <v>42413.02025468072</v>
-      </c>
-      <c r="EX27" s="24">
-        <f t="shared" si="56"/>
-        <v>42837.15045722753</v>
-      </c>
-      <c r="EY27" s="24">
-        <f t="shared" si="56"/>
-        <v>43265.521961799808</v>
-      </c>
-      <c r="EZ27" s="24">
-        <f t="shared" si="56"/>
-        <v>43698.177181417806</v>
-      </c>
-      <c r="FA27" s="24">
-        <f t="shared" si="56"/>
-        <v>44135.158953231985</v>
-      </c>
-      <c r="FB27" s="24">
-        <f t="shared" si="56"/>
-        <v>44576.510542764307</v>
-      </c>
-      <c r="FC27" s="24">
-        <f t="shared" si="56"/>
-        <v>45022.27564819195</v>
-      </c>
-      <c r="FD27" s="24">
-        <f t="shared" si="56"/>
-        <v>45472.498404673868</v>
-      </c>
-      <c r="FE27" s="24">
-        <f t="shared" si="56"/>
-        <v>45927.223388720609</v>
-      </c>
-      <c r="FF27" s="24">
-        <f t="shared" si="56"/>
-        <v>46386.495622607814</v>
-      </c>
-      <c r="FG27" s="24">
-        <f t="shared" si="56"/>
-        <v>46850.36057883389</v>
-      </c>
-      <c r="FH27" s="24">
-        <f t="shared" si="56"/>
-        <v>47318.864184622231</v>
-      </c>
-      <c r="FI27" s="24">
-        <f t="shared" si="56"/>
-        <v>47792.052826468454</v>
-      </c>
-      <c r="FJ27" s="24">
-        <f t="shared" si="56"/>
-        <v>48269.973354733142</v>
-      </c>
-      <c r="FK27" s="24">
-        <f t="shared" si="56"/>
-        <v>48752.673088280477</v>
-      </c>
-      <c r="FL27" s="24">
-        <f t="shared" si="56"/>
-        <v>49240.199819163281</v>
-      </c>
-      <c r="FM27" s="24">
-        <f t="shared" si="56"/>
-        <v>49732.601817354916</v>
-      </c>
-      <c r="FN27" s="24">
-        <f t="shared" si="56"/>
-        <v>50229.92783552847</v>
-      </c>
-      <c r="FO27" s="24">
-        <f t="shared" si="56"/>
-        <v>50732.227113883753</v>
-      </c>
-      <c r="FP27" s="24">
-        <f t="shared" si="56"/>
-        <v>51239.54938502259</v>
-      </c>
-      <c r="FQ27" s="24">
-        <f t="shared" si="56"/>
-        <v>51751.944878872819</v>
-      </c>
-      <c r="FR27" s="24">
-        <f t="shared" si="56"/>
-        <v>52269.464327661546</v>
-      </c>
-      <c r="FS27" s="24">
-        <f t="shared" si="56"/>
-        <v>52792.158970938159</v>
-      </c>
-      <c r="FT27" s="24">
-        <f t="shared" si="56"/>
-        <v>53320.080560647541</v>
-      </c>
-      <c r="FU27" s="24">
-        <f t="shared" si="56"/>
-        <v>53853.281366254014</v>
-      </c>
-      <c r="FV27" s="24">
-        <f t="shared" si="56"/>
-        <v>54391.814179916553</v>
-      </c>
-      <c r="FW27" s="24">
-        <f t="shared" si="56"/>
-        <v>54935.732321715717</v>
-      </c>
-      <c r="FX27" s="24">
-        <f t="shared" si="56"/>
-        <v>55485.089644932872</v>
-      </c>
-      <c r="FY27" s="24">
-        <f t="shared" si="56"/>
-        <v>56039.940541382202</v>
-      </c>
-      <c r="FZ27" s="24">
-        <f t="shared" si="56"/>
-        <v>56600.339946796026</v>
-      </c>
-      <c r="GA27" s="24">
-        <f t="shared" si="56"/>
-        <v>57166.343346263988</v>
-      </c>
-      <c r="GB27" s="24">
-        <f t="shared" ref="GB27:GS27" si="57">GA27*($F$2+1)</f>
-        <v>57738.006779726631</v>
-      </c>
-      <c r="GC27" s="24">
-        <f t="shared" si="57"/>
-        <v>58315.3868475239</v>
-      </c>
-      <c r="GD27" s="24">
-        <f t="shared" si="57"/>
-        <v>58898.540715999137</v>
-      </c>
-      <c r="GE27" s="24">
-        <f t="shared" si="57"/>
-        <v>59487.526123159128</v>
-      </c>
-      <c r="GF27" s="24">
-        <f t="shared" si="57"/>
-        <v>60082.401384390723</v>
-      </c>
-      <c r="GG27" s="24">
-        <f t="shared" si="57"/>
-        <v>60683.22539823463</v>
-      </c>
-      <c r="GH27" s="24">
-        <f t="shared" si="57"/>
-        <v>61290.057652216979</v>
-      </c>
-      <c r="GI27" s="24">
-        <f t="shared" si="57"/>
-        <v>61902.958228739153</v>
-      </c>
-      <c r="GJ27" s="24">
-        <f t="shared" si="57"/>
-        <v>62521.987811026542</v>
-      </c>
-      <c r="GK27" s="24">
-        <f t="shared" si="57"/>
-        <v>63147.207689136805</v>
-      </c>
-      <c r="GL27" s="24">
-        <f t="shared" si="57"/>
-        <v>63778.679766028174</v>
-      </c>
-      <c r="GM27" s="24">
-        <f t="shared" si="57"/>
-        <v>64416.466563688453</v>
-      </c>
-      <c r="GN27" s="24">
-        <f t="shared" si="57"/>
-        <v>65060.631229325336</v>
-      </c>
-      <c r="GO27" s="24">
-        <f t="shared" si="57"/>
-        <v>65711.237541618597</v>
-      </c>
-      <c r="GP27" s="24">
-        <f t="shared" si="57"/>
-        <v>66368.349917034779</v>
-      </c>
-      <c r="GQ27" s="24">
-        <f t="shared" si="57"/>
-        <v>67032.033416205129</v>
-      </c>
-      <c r="GR27" s="24">
-        <f t="shared" si="57"/>
-        <v>67702.353750367183</v>
-      </c>
-      <c r="GS27" s="24">
-        <f t="shared" si="57"/>
-        <v>68379.377287870855</v>
-      </c>
-    </row>
-    <row r="28" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="28">
-        <f t="shared" ref="F28:H28" si="58">F27/F29</f>
-        <v>-1.0661335572421149</v>
-      </c>
-      <c r="G28" s="28">
-        <f t="shared" si="58"/>
-        <v>-1.0101557380481536</v>
-      </c>
-      <c r="H28" s="46">
-        <f t="shared" si="58"/>
-        <v>-0.22164497547981366</v>
-      </c>
-      <c r="I28" s="46">
-        <f t="shared" ref="I28" si="59">I27/I29</f>
-        <v>-4.4243257184787894E-2</v>
-      </c>
-      <c r="J28" s="46">
-        <f t="shared" ref="J28:Q28" si="60">J27/J29</f>
-        <v>5.0068093536717762E-2</v>
-      </c>
-      <c r="K28" s="46">
-        <f t="shared" si="60"/>
-        <v>0.21404387472706329</v>
-      </c>
-      <c r="L28" s="46">
-        <f t="shared" si="60"/>
-        <v>0.43422896149101131</v>
-      </c>
-      <c r="M28" s="46">
-        <f t="shared" si="60"/>
-        <v>0.81281415353216868</v>
-      </c>
-      <c r="N28" s="46">
-        <f t="shared" si="60"/>
-        <v>1.0921544989532936</v>
-      </c>
-      <c r="O28" s="46">
-        <f t="shared" si="60"/>
-        <v>1.439931514587405</v>
-      </c>
-      <c r="P28" s="46">
-        <f t="shared" si="60"/>
-        <v>1.8710175178029718</v>
-      </c>
-      <c r="Q28" s="46">
-        <f t="shared" si="60"/>
-        <v>2.403368955068252</v>
-      </c>
-      <c r="R28" s="46">
-        <f t="shared" ref="R28" si="61">R27/R29</f>
-        <v>3.0586535169495104</v>
-      </c>
-      <c r="S28" s="46">
-        <f t="shared" ref="S28:V28" si="62">S27/S29</f>
-        <v>3.6285184708101901</v>
-      </c>
-      <c r="T28" s="46">
+        <v>8.1071384778462114</v>
+      </c>
+      <c r="W27" s="46">
+        <f t="shared" ref="W27" si="53">W26/W28</f>
+        <v>9.2464455061848962</v>
+      </c>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+      <c r="BO27" s="38"/>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="38"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="38"/>
+      <c r="BW27" s="38"/>
+      <c r="BX27" s="38"/>
+      <c r="BY27" s="38"/>
+      <c r="BZ27" s="38"/>
+      <c r="CA27" s="38"/>
+      <c r="CB27" s="38"/>
+      <c r="CC27" s="38"/>
+      <c r="CD27" s="38"/>
+      <c r="CE27" s="38"/>
+      <c r="CF27" s="38"/>
+      <c r="CG27" s="38"/>
+      <c r="CH27" s="38"/>
+      <c r="CI27" s="38"/>
+      <c r="CJ27" s="38"/>
+      <c r="CK27" s="38"/>
+      <c r="CL27" s="38"/>
+      <c r="CM27" s="38"/>
+      <c r="CN27" s="38"/>
+      <c r="CO27" s="38"/>
+      <c r="CP27" s="38"/>
+      <c r="CQ27" s="38"/>
+      <c r="CR27" s="38"/>
+      <c r="CS27" s="38"/>
+      <c r="CT27" s="38"/>
+      <c r="CU27" s="38"/>
+      <c r="CV27" s="38"/>
+      <c r="CW27" s="38"/>
+      <c r="CX27" s="38"/>
+      <c r="CY27" s="38"/>
+      <c r="CZ27" s="38"/>
+      <c r="DA27" s="38"/>
+      <c r="DB27" s="38"/>
+      <c r="DC27" s="38"/>
+      <c r="DD27" s="38"/>
+      <c r="DE27" s="38"/>
+      <c r="DF27" s="38"/>
+      <c r="DG27" s="38"/>
+      <c r="DH27" s="38"/>
+      <c r="DI27" s="38"/>
+      <c r="DJ27" s="38"/>
+      <c r="DK27" s="38"/>
+      <c r="DL27" s="38"/>
+      <c r="DM27" s="38"/>
+      <c r="DN27" s="38"/>
+    </row>
+    <row r="28" spans="1:201" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23">
+        <v>544.01439300000004</v>
+      </c>
+      <c r="G28" s="23">
+        <v>576.95856000000003</v>
+      </c>
+      <c r="H28" s="23">
+        <f>Reports!M21</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" ref="I28" si="54">H28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" ref="J28" si="55">I28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" ref="K28" si="56">J28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" ref="L28" si="57">K28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="M28" s="23">
+        <f t="shared" ref="M28" si="58">L28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="N28" s="23">
+        <f t="shared" ref="N28" si="59">M28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="O28" s="23">
+        <f t="shared" ref="O28" si="60">N28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" ref="P28" si="61">O28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="Q28" s="23">
+        <f t="shared" ref="Q28:W28" si="62">P28</f>
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="R28" s="23">
         <f t="shared" si="62"/>
-        <v>4.2602061759306613</v>
-      </c>
-      <c r="U28" s="46">
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="S28" s="23">
         <f t="shared" si="62"/>
-        <v>4.9604412886750113</v>
-      </c>
-      <c r="V28" s="46">
+        <v>1763.5139220000001</v>
+      </c>
+      <c r="T28" s="23">
         <f t="shared" si="62"/>
-        <v>5.7366296494450122</v>
-      </c>
-      <c r="W28" s="46">
-        <f t="shared" ref="W28" si="63">W27/W29</f>
-        <v>6.596927566875026</v>
-      </c>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
-      <c r="AY28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BA28" s="38"/>
-      <c r="BB28" s="38"/>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="38"/>
-      <c r="BH28" s="38"/>
-      <c r="BI28" s="38"/>
-      <c r="BJ28" s="38"/>
-      <c r="BK28" s="38"/>
-      <c r="BL28" s="38"/>
-      <c r="BM28" s="38"/>
-      <c r="BN28" s="38"/>
-      <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="38"/>
-      <c r="BR28" s="38"/>
-      <c r="BS28" s="38"/>
-      <c r="BT28" s="38"/>
-      <c r="BU28" s="38"/>
-      <c r="BV28" s="38"/>
-      <c r="BW28" s="38"/>
-      <c r="BX28" s="38"/>
-      <c r="BY28" s="38"/>
-      <c r="BZ28" s="38"/>
-      <c r="CA28" s="38"/>
-      <c r="CB28" s="38"/>
-      <c r="CC28" s="38"/>
-      <c r="CD28" s="38"/>
-      <c r="CE28" s="38"/>
-      <c r="CF28" s="38"/>
-      <c r="CG28" s="38"/>
-      <c r="CH28" s="38"/>
-      <c r="CI28" s="38"/>
-      <c r="CJ28" s="38"/>
-      <c r="CK28" s="38"/>
-      <c r="CL28" s="38"/>
-      <c r="CM28" s="38"/>
-      <c r="CN28" s="38"/>
-      <c r="CO28" s="38"/>
-      <c r="CP28" s="38"/>
-      <c r="CQ28" s="38"/>
-      <c r="CR28" s="38"/>
-      <c r="CS28" s="38"/>
-      <c r="CT28" s="38"/>
-      <c r="CU28" s="38"/>
-      <c r="CV28" s="38"/>
-      <c r="CW28" s="38"/>
-      <c r="CX28" s="38"/>
-      <c r="CY28" s="38"/>
-      <c r="CZ28" s="38"/>
-      <c r="DA28" s="38"/>
-      <c r="DB28" s="38"/>
-      <c r="DC28" s="38"/>
-      <c r="DD28" s="38"/>
-      <c r="DE28" s="38"/>
-      <c r="DF28" s="38"/>
-      <c r="DG28" s="38"/>
-      <c r="DH28" s="38"/>
-      <c r="DI28" s="38"/>
-      <c r="DJ28" s="38"/>
-      <c r="DK28" s="38"/>
-      <c r="DL28" s="38"/>
-      <c r="DM28" s="38"/>
-      <c r="DN28" s="38"/>
-    </row>
-    <row r="29" spans="1:201" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23">
-        <v>544.01439300000004</v>
-      </c>
-      <c r="G29" s="23">
-        <v>576.95856000000003</v>
-      </c>
-      <c r="H29" s="23">
-        <f>Reports!M22</f>
         <v>1763.5139220000001</v>
       </c>
-      <c r="I29" s="23">
-        <f t="shared" ref="I29" si="64">H29</f>
+      <c r="U28" s="23">
+        <f t="shared" si="62"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="J29" s="23">
-        <f t="shared" ref="J29" si="65">I29</f>
+      <c r="V28" s="23">
+        <f t="shared" si="62"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="K29" s="23">
-        <f t="shared" ref="K29" si="66">J29</f>
+      <c r="W28" s="23">
+        <f t="shared" si="62"/>
         <v>1763.5139220000001</v>
       </c>
-      <c r="L29" s="23">
-        <f t="shared" ref="L29" si="67">K29</f>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="M29" s="23">
-        <f t="shared" ref="M29" si="68">L29</f>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="N29" s="23">
-        <f t="shared" ref="N29" si="69">M29</f>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="O29" s="23">
-        <f t="shared" ref="O29" si="70">N29</f>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="P29" s="23">
-        <f t="shared" ref="P29" si="71">O29</f>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="Q29" s="23">
-        <f t="shared" ref="Q29:W29" si="72">P29</f>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="R29" s="23">
-        <f t="shared" si="72"/>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="S29" s="23">
-        <f t="shared" si="72"/>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="T29" s="23">
-        <f t="shared" si="72"/>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="U29" s="23">
-        <f t="shared" si="72"/>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="V29" s="23">
-        <f t="shared" si="72"/>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="W29" s="23">
-        <f t="shared" si="72"/>
-        <v>1763.5139220000001</v>
-      </c>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="37"/>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="37"/>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="37"/>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="37"/>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="37"/>
-      <c r="CE29" s="37"/>
-      <c r="CF29" s="37"/>
-      <c r="CG29" s="37"/>
-      <c r="CH29" s="37"/>
-      <c r="CI29" s="37"/>
-      <c r="CJ29" s="37"/>
-      <c r="CK29" s="37"/>
-      <c r="CL29" s="37"/>
-      <c r="CM29" s="37"/>
-      <c r="CN29" s="37"/>
-      <c r="CO29" s="37"/>
-      <c r="CP29" s="37"/>
-      <c r="CQ29" s="37"/>
-      <c r="CR29" s="37"/>
-      <c r="CS29" s="37"/>
-      <c r="CT29" s="37"/>
-      <c r="CU29" s="37"/>
-      <c r="CV29" s="37"/>
-      <c r="CW29" s="37"/>
-      <c r="CX29" s="37"/>
-      <c r="CY29" s="37"/>
-      <c r="CZ29" s="37"/>
-      <c r="DA29" s="37"/>
-      <c r="DB29" s="37"/>
-      <c r="DC29" s="37"/>
-      <c r="DD29" s="37"/>
-      <c r="DE29" s="37"/>
-      <c r="DF29" s="37"/>
-      <c r="DG29" s="37"/>
-      <c r="DH29" s="37"/>
-      <c r="DI29" s="37"/>
-      <c r="DJ29" s="37"/>
-      <c r="DK29" s="37"/>
-      <c r="DL29" s="37"/>
-      <c r="DM29" s="37"/>
-      <c r="DN29" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
+      <c r="BH28" s="37"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="37"/>
+      <c r="BN28" s="37"/>
+      <c r="BO28" s="37"/>
+      <c r="BP28" s="37"/>
+      <c r="BQ28" s="37"/>
+      <c r="BR28" s="37"/>
+      <c r="BS28" s="37"/>
+      <c r="BT28" s="37"/>
+      <c r="BU28" s="37"/>
+      <c r="BV28" s="37"/>
+      <c r="BW28" s="37"/>
+      <c r="BX28" s="37"/>
+      <c r="BY28" s="37"/>
+      <c r="BZ28" s="37"/>
+      <c r="CA28" s="37"/>
+      <c r="CB28" s="37"/>
+      <c r="CC28" s="37"/>
+      <c r="CD28" s="37"/>
+      <c r="CE28" s="37"/>
+      <c r="CF28" s="37"/>
+      <c r="CG28" s="37"/>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="37"/>
+      <c r="CJ28" s="37"/>
+      <c r="CK28" s="37"/>
+      <c r="CL28" s="37"/>
+      <c r="CM28" s="37"/>
+      <c r="CN28" s="37"/>
+      <c r="CO28" s="37"/>
+      <c r="CP28" s="37"/>
+      <c r="CQ28" s="37"/>
+      <c r="CR28" s="37"/>
+      <c r="CS28" s="37"/>
+      <c r="CT28" s="37"/>
+      <c r="CU28" s="37"/>
+      <c r="CV28" s="37"/>
+      <c r="CW28" s="37"/>
+      <c r="CX28" s="37"/>
+      <c r="CY28" s="37"/>
+      <c r="CZ28" s="37"/>
+      <c r="DA28" s="37"/>
+      <c r="DB28" s="37"/>
+      <c r="DC28" s="37"/>
+      <c r="DD28" s="37"/>
+      <c r="DE28" s="37"/>
+      <c r="DF28" s="37"/>
+      <c r="DG28" s="37"/>
+      <c r="DH28" s="37"/>
+      <c r="DI28" s="37"/>
+      <c r="DJ28" s="37"/>
+      <c r="DK28" s="37"/>
+      <c r="DL28" s="37"/>
+      <c r="DM28" s="37"/>
+      <c r="DN28" s="37"/>
+    </row>
+    <row r="29" spans="1:201" x14ac:dyDescent="0.15">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="38"/>
+      <c r="BW29" s="38"/>
+      <c r="BX29" s="38"/>
+      <c r="BY29" s="38"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="38"/>
+      <c r="CB29" s="38"/>
+      <c r="CC29" s="38"/>
+      <c r="CD29" s="38"/>
+      <c r="CE29" s="38"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="38"/>
+      <c r="CI29" s="38"/>
+      <c r="CJ29" s="38"/>
+      <c r="CK29" s="38"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="38"/>
+      <c r="CN29" s="38"/>
+      <c r="CO29" s="38"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="38"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="38"/>
+      <c r="CT29" s="38"/>
+      <c r="CU29" s="38"/>
+      <c r="CV29" s="38"/>
+      <c r="CW29" s="38"/>
+      <c r="CX29" s="38"/>
+      <c r="CY29" s="38"/>
+      <c r="CZ29" s="38"/>
+      <c r="DA29" s="38"/>
+      <c r="DB29" s="38"/>
+      <c r="DC29" s="38"/>
+      <c r="DD29" s="38"/>
+      <c r="DE29" s="38"/>
+      <c r="DF29" s="38"/>
+      <c r="DG29" s="38"/>
+      <c r="DH29" s="38"/>
+      <c r="DI29" s="38"/>
+      <c r="DJ29" s="38"/>
+      <c r="DK29" s="38"/>
+      <c r="DL29" s="38"/>
+      <c r="DM29" s="38"/>
+      <c r="DN29" s="38"/>
     </row>
     <row r="30" spans="1:201" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33">
+        <f>IFERROR(F17/F15,0)</f>
+        <v>0.72220608019025578</v>
+      </c>
+      <c r="G30" s="33">
+        <f>IFERROR(G17/G15,0)</f>
+        <v>0.67359589525355024</v>
+      </c>
+      <c r="H30" s="33">
+        <f>IFERROR(H17/H15,0)</f>
+        <v>0.76371106451792992</v>
+      </c>
+      <c r="I30" s="33">
+        <f>IFERROR(I17/I15,0)</f>
+        <v>0.77371106451792993</v>
+      </c>
+      <c r="J30" s="33">
+        <f>IFERROR(J17/J15,0)</f>
+        <v>0.78371106451792993</v>
+      </c>
+      <c r="K30" s="33">
+        <f>IFERROR(K17/K15,0)</f>
+        <v>0.79371106451792994</v>
+      </c>
+      <c r="L30" s="33">
+        <f>IFERROR(L17/L15,0)</f>
+        <v>0.80371106451792995</v>
+      </c>
+      <c r="M30" s="33">
+        <f>IFERROR(M17/M15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="N30" s="33">
+        <f>IFERROR(N17/N15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="O30" s="33">
+        <f>IFERROR(O17/O15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="P30" s="33">
+        <f>IFERROR(P17/P15,0)</f>
+        <v>0.81371106451792996</v>
+      </c>
+      <c r="Q30" s="33">
+        <f>IFERROR(Q17/Q15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="R30" s="33">
+        <f>IFERROR(R17/R15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="S30" s="33">
+        <f>IFERROR(S17/S15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="T30" s="33">
+        <f>IFERROR(T17/T15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="U30" s="33">
+        <f>IFERROR(U17/U15,0)</f>
+        <v>0.81371106451793018</v>
+      </c>
+      <c r="V30" s="33">
+        <f>IFERROR(V17/V15,0)</f>
+        <v>0.81371106451793007</v>
+      </c>
+      <c r="W30" s="33">
+        <f>IFERROR(W17/W15,0)</f>
+        <v>0.81371106451792996</v>
+      </c>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
@@ -5036,83 +5085,83 @@
     </row>
     <row r="31" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33">
-        <f>IFERROR(F17/F15,0)</f>
-        <v>0.72220608019025578</v>
-      </c>
-      <c r="G31" s="33">
-        <f t="shared" ref="G31:Q31" si="73">IFERROR(G17/G15,0)</f>
-        <v>0.67359589525355024</v>
-      </c>
-      <c r="H31" s="33">
-        <f>IFERROR(H17/H15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="I31" s="33">
-        <f>IFERROR(I17/I15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="J31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="K31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="L31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="M31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="N31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="P31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="Q31" s="33">
-        <f t="shared" si="73"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="R31" s="33">
-        <f t="shared" ref="R31" si="74">IFERROR(R17/R15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="S31" s="33">
-        <f t="shared" ref="S31:V31" si="75">IFERROR(S17/S15,0)</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="T31" s="33">
-        <f t="shared" si="75"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="U31" s="33">
-        <f t="shared" si="75"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="V31" s="33">
-        <f t="shared" si="75"/>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="W31" s="33">
-        <f t="shared" ref="W31" si="76">IFERROR(W17/W15,0)</f>
-        <v>0.67735360899372454</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35">
+        <f>IFERROR(F22/F15,0)</f>
+        <v>-1.0463261388390166</v>
+      </c>
+      <c r="G31" s="35">
+        <f>IFERROR(G22/G15,0)</f>
+        <v>-0.77814841998235817</v>
+      </c>
+      <c r="H31" s="35">
+        <f>IFERROR(H22/H15,0)</f>
+        <v>-0.38924137413480531</v>
+      </c>
+      <c r="I31" s="35">
+        <f>IFERROR(I22/I15,0)</f>
+        <v>-0.15297362829096472</v>
+      </c>
+      <c r="J31" s="35">
+        <f>IFERROR(J22/J15,0)</f>
+        <v>3.2883040916267647E-2</v>
+      </c>
+      <c r="K31" s="35">
+        <f>IFERROR(K22/K15,0)</f>
+        <v>0.17206767072704768</v>
+      </c>
+      <c r="L31" s="35">
+        <f>IFERROR(L22/L15,0)</f>
+        <v>0.27212691070986356</v>
+      </c>
+      <c r="M31" s="35">
+        <f>IFERROR(M22/M15,0)</f>
+        <v>0.34022295660887336</v>
+      </c>
+      <c r="N31" s="35">
+        <f>IFERROR(N22/N15,0)</f>
+        <v>0.39596382188578449</v>
+      </c>
+      <c r="O31" s="35">
+        <f>IFERROR(O22/O15,0)</f>
+        <v>0.44271370528880588</v>
+      </c>
+      <c r="P31" s="35">
+        <f>IFERROR(P22/P15,0)</f>
+        <v>0.48216698272368075</v>
+      </c>
+      <c r="Q31" s="35">
+        <f>IFERROR(Q22/Q15,0)</f>
+        <v>0.51567827516112019</v>
+      </c>
+      <c r="R31" s="35">
+        <f>IFERROR(R22/R15,0)</f>
+        <v>0.54433219655273324</v>
+      </c>
+      <c r="S31" s="35">
+        <f>IFERROR(S22/S15,0)</f>
+        <v>0.56443820618809715</v>
+      </c>
+      <c r="T31" s="35">
+        <f>IFERROR(T22/T15,0)</f>
+        <v>0.58196535380870684</v>
+      </c>
+      <c r="U31" s="35">
+        <f>IFERROR(U22/U15,0)</f>
+        <v>0.59724753515418683</v>
+      </c>
+      <c r="V31" s="35">
+        <f>IFERROR(V22/V15,0)</f>
+        <v>0.6105750529737457</v>
+      </c>
+      <c r="W31" s="35">
+        <f>IFERROR(W22/W15,0)</f>
+        <v>0.62220035007976338</v>
       </c>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
@@ -5212,83 +5261,83 @@
     </row>
     <row r="32" spans="1:201" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35">
-        <f>IFERROR(F23/F15,0)</f>
-        <v>-1.0463261388390166</v>
+        <f>IFERROR(F25/F24,0)</f>
+        <v>-1.5762042200240984E-2</v>
       </c>
       <c r="G32" s="35">
-        <f t="shared" ref="G32:Q32" si="77">IFERROR(G23/G15,0)</f>
-        <v>-0.77814841998235817</v>
+        <f t="shared" ref="G32:Q32" si="63">IFERROR(G25/G24,0)</f>
+        <v>-2.1022462501182514E-2</v>
       </c>
       <c r="H32" s="35">
-        <f>IFERROR(H23/H15,0)</f>
-        <v>-0.36321388009038386</v>
+        <f t="shared" si="63"/>
+        <v>3.0070767619260773E-2</v>
       </c>
       <c r="I32" s="35">
-        <f t="shared" si="77"/>
-        <v>-0.11147211602059484</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="J32" s="35">
-        <f t="shared" si="77"/>
-        <v>-1.4149909890512924E-4</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="77"/>
-        <v>9.4872509650745798E-2</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="L32" s="35">
-        <f t="shared" si="77"/>
-        <v>0.17604463240922788</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" si="77"/>
-        <v>0.2454628672804009</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" si="77"/>
-        <v>0.27200651394194786</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="77"/>
-        <v>0.2958196815669879</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" si="77"/>
-        <v>0.31719472363540213</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="Q32" s="35">
-        <f t="shared" si="77"/>
-        <v>0.33639152914206022</v>
+        <f t="shared" si="63"/>
+        <v>0.15</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" ref="R32" si="78">IFERROR(R23/R15,0)</f>
-        <v>0.35364124068244868</v>
+        <f t="shared" ref="R32" si="64">IFERROR(R25/R24,0)</f>
+        <v>0.15</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" ref="S32:V32" si="79">IFERROR(S23/S15,0)</f>
-        <v>0.37414435657434142</v>
+        <f t="shared" ref="S32:V32" si="65">IFERROR(S25/S24,0)</f>
+        <v>0.15</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" si="79"/>
-        <v>0.39200351286453478</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="U32" s="35">
-        <f t="shared" si="79"/>
-        <v>0.40756267642546762</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" si="79"/>
-        <v>0.42112071752769098</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="W32" s="35">
-        <f t="shared" ref="W32" si="80">IFERROR(W23/W15,0)</f>
-        <v>0.43293736214322132</v>
+        <f t="shared" ref="W32" si="66">IFERROR(W25/W24,0)</f>
+        <v>0.15</v>
       </c>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
@@ -5386,392 +5435,389 @@
       <c r="DM32" s="38"/>
       <c r="DN32" s="38"/>
     </row>
-    <row r="33" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35">
-        <f>IFERROR(F26/F25,0)</f>
-        <v>-1.5762042200240984E-2</v>
-      </c>
-      <c r="G33" s="35">
-        <f t="shared" ref="G33:Q33" si="81">IFERROR(G26/G25,0)</f>
-        <v>-2.1022462501182514E-2</v>
-      </c>
-      <c r="H33" s="35">
-        <f t="shared" si="81"/>
-        <v>3.2188256733535703E-2</v>
-      </c>
-      <c r="I33" s="35">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="35">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="35">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="35">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="M33" s="35">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="N33" s="35">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="O33" s="35">
-        <f t="shared" si="81"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="P33" s="35">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q33" s="35">
-        <f t="shared" si="81"/>
-        <v>0.1</v>
-      </c>
-      <c r="R33" s="35">
-        <f t="shared" ref="R33" si="82">IFERROR(R26/R25,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="S33" s="35">
-        <f t="shared" ref="S33:V33" si="83">IFERROR(S26/S25,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="T33" s="35">
-        <f t="shared" si="83"/>
-        <v>0.1</v>
-      </c>
-      <c r="U33" s="35">
-        <f t="shared" si="83"/>
-        <v>0.1</v>
-      </c>
-      <c r="V33" s="35">
-        <f t="shared" si="83"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="W33" s="35">
-        <f t="shared" ref="W33" si="84">IFERROR(W26/W25,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="38"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
-      <c r="AX33" s="38"/>
-      <c r="AY33" s="38"/>
-      <c r="AZ33" s="38"/>
-      <c r="BA33" s="38"/>
-      <c r="BB33" s="38"/>
-      <c r="BC33" s="38"/>
-      <c r="BD33" s="38"/>
-      <c r="BE33" s="38"/>
-      <c r="BF33" s="38"/>
-      <c r="BG33" s="38"/>
-      <c r="BH33" s="38"/>
-      <c r="BI33" s="38"/>
-      <c r="BJ33" s="38"/>
-      <c r="BK33" s="38"/>
-      <c r="BL33" s="38"/>
-      <c r="BM33" s="38"/>
-      <c r="BN33" s="38"/>
-      <c r="BO33" s="38"/>
-      <c r="BP33" s="38"/>
-      <c r="BQ33" s="38"/>
-      <c r="BR33" s="38"/>
-      <c r="BS33" s="38"/>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="38"/>
-      <c r="BV33" s="38"/>
-      <c r="BW33" s="38"/>
-      <c r="BX33" s="38"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="38"/>
-      <c r="CA33" s="38"/>
-      <c r="CB33" s="38"/>
-      <c r="CC33" s="38"/>
-      <c r="CD33" s="38"/>
-      <c r="CE33" s="38"/>
-      <c r="CF33" s="38"/>
-      <c r="CG33" s="38"/>
-      <c r="CH33" s="38"/>
-      <c r="CI33" s="38"/>
-      <c r="CJ33" s="38"/>
-      <c r="CK33" s="38"/>
-      <c r="CL33" s="38"/>
-      <c r="CM33" s="38"/>
-      <c r="CN33" s="38"/>
-      <c r="CO33" s="38"/>
-      <c r="CP33" s="38"/>
-      <c r="CQ33" s="38"/>
-      <c r="CR33" s="38"/>
-      <c r="CS33" s="38"/>
-      <c r="CT33" s="38"/>
-      <c r="CU33" s="38"/>
-      <c r="CV33" s="38"/>
-      <c r="CW33" s="38"/>
-      <c r="CX33" s="38"/>
-      <c r="CY33" s="38"/>
-      <c r="CZ33" s="38"/>
-      <c r="DA33" s="38"/>
-      <c r="DB33" s="38"/>
-      <c r="DC33" s="38"/>
-      <c r="DD33" s="38"/>
-      <c r="DE33" s="38"/>
-      <c r="DF33" s="38"/>
-      <c r="DG33" s="38"/>
-      <c r="DH33" s="38"/>
-      <c r="DI33" s="38"/>
-      <c r="DJ33" s="38"/>
-      <c r="DK33" s="38"/>
-      <c r="DL33" s="38"/>
-      <c r="DM33" s="38"/>
-      <c r="DN33" s="38"/>
-    </row>
-    <row r="34" spans="1:118" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71">
+    <row r="33" spans="1:118" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71">
         <v>0.44</v>
       </c>
-      <c r="I34" s="71">
-        <v>0.35</v>
-      </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
-      <c r="AR34" s="68"/>
-      <c r="AS34" s="68"/>
-      <c r="AT34" s="68"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="68"/>
-      <c r="BI34" s="68"/>
-      <c r="BJ34" s="68"/>
-      <c r="BK34" s="68"/>
-      <c r="BL34" s="68"/>
-      <c r="BM34" s="68"/>
-      <c r="BN34" s="68"/>
-      <c r="BO34" s="68"/>
-      <c r="BP34" s="68"/>
-      <c r="BQ34" s="68"/>
-      <c r="BR34" s="68"/>
-      <c r="BS34" s="68"/>
-      <c r="BT34" s="68"/>
-      <c r="BU34" s="68"/>
-      <c r="BV34" s="68"/>
-      <c r="BW34" s="68"/>
-      <c r="BX34" s="68"/>
-      <c r="BY34" s="68"/>
-      <c r="BZ34" s="68"/>
-      <c r="CA34" s="68"/>
-      <c r="CB34" s="68"/>
-      <c r="CC34" s="68"/>
-      <c r="CD34" s="68"/>
-      <c r="CE34" s="68"/>
-      <c r="CF34" s="68"/>
-      <c r="CG34" s="68"/>
-      <c r="CH34" s="68"/>
-      <c r="CI34" s="68"/>
-      <c r="CJ34" s="68"/>
-      <c r="CK34" s="68"/>
-      <c r="CL34" s="68"/>
-      <c r="CM34" s="68"/>
-      <c r="CN34" s="68"/>
-      <c r="CO34" s="68"/>
-      <c r="CP34" s="68"/>
-      <c r="CQ34" s="68"/>
-      <c r="CR34" s="68"/>
-      <c r="CS34" s="68"/>
-      <c r="CT34" s="68"/>
-      <c r="CU34" s="68"/>
-      <c r="CV34" s="68"/>
-      <c r="CW34" s="68"/>
-      <c r="CX34" s="68"/>
-      <c r="CY34" s="68"/>
-      <c r="CZ34" s="68"/>
-      <c r="DA34" s="68"/>
-      <c r="DB34" s="68"/>
-      <c r="DC34" s="68"/>
-      <c r="DD34" s="68"/>
-      <c r="DE34" s="68"/>
-      <c r="DF34" s="68"/>
-      <c r="DG34" s="68"/>
-      <c r="DH34" s="68"/>
-      <c r="DI34" s="68"/>
-      <c r="DJ34" s="68"/>
-      <c r="DK34" s="68"/>
-      <c r="DL34" s="68"/>
-      <c r="DM34" s="68"/>
-      <c r="DN34" s="68"/>
-    </row>
-    <row r="35" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="I33" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
+      <c r="AK33" s="68"/>
+      <c r="AL33" s="68"/>
+      <c r="AM33" s="68"/>
+      <c r="AN33" s="68"/>
+      <c r="AO33" s="68"/>
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="68"/>
+      <c r="AT33" s="68"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="68"/>
+      <c r="BG33" s="68"/>
+      <c r="BH33" s="68"/>
+      <c r="BI33" s="68"/>
+      <c r="BJ33" s="68"/>
+      <c r="BK33" s="68"/>
+      <c r="BL33" s="68"/>
+      <c r="BM33" s="68"/>
+      <c r="BN33" s="68"/>
+      <c r="BO33" s="68"/>
+      <c r="BP33" s="68"/>
+      <c r="BQ33" s="68"/>
+      <c r="BR33" s="68"/>
+      <c r="BS33" s="68"/>
+      <c r="BT33" s="68"/>
+      <c r="BU33" s="68"/>
+      <c r="BV33" s="68"/>
+      <c r="BW33" s="68"/>
+      <c r="BX33" s="68"/>
+      <c r="BY33" s="68"/>
+      <c r="BZ33" s="68"/>
+      <c r="CA33" s="68"/>
+      <c r="CB33" s="68"/>
+      <c r="CC33" s="68"/>
+      <c r="CD33" s="68"/>
+      <c r="CE33" s="68"/>
+      <c r="CF33" s="68"/>
+      <c r="CG33" s="68"/>
+      <c r="CH33" s="68"/>
+      <c r="CI33" s="68"/>
+      <c r="CJ33" s="68"/>
+      <c r="CK33" s="68"/>
+      <c r="CL33" s="68"/>
+      <c r="CM33" s="68"/>
+      <c r="CN33" s="68"/>
+      <c r="CO33" s="68"/>
+      <c r="CP33" s="68"/>
+      <c r="CQ33" s="68"/>
+      <c r="CR33" s="68"/>
+      <c r="CS33" s="68"/>
+      <c r="CT33" s="68"/>
+      <c r="CU33" s="68"/>
+      <c r="CV33" s="68"/>
+      <c r="CW33" s="68"/>
+      <c r="CX33" s="68"/>
+      <c r="CY33" s="68"/>
+      <c r="CZ33" s="68"/>
+      <c r="DA33" s="68"/>
+      <c r="DB33" s="68"/>
+      <c r="DC33" s="68"/>
+      <c r="DD33" s="68"/>
+      <c r="DE33" s="68"/>
+      <c r="DF33" s="68"/>
+      <c r="DG33" s="68"/>
+      <c r="DH33" s="68"/>
+      <c r="DI33" s="68"/>
+      <c r="DJ33" s="68"/>
+      <c r="DK33" s="68"/>
+      <c r="DL33" s="68"/>
+      <c r="DM33" s="68"/>
+      <c r="DN33" s="68"/>
+    </row>
+    <row r="34" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="47">
+      <c r="B34" s="35"/>
+      <c r="C34" s="47">
         <f>C15/B15-1</f>
         <v>0.54893617021276597</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D34" s="47">
         <f>D15/C15-1</f>
         <v>0.28021978021978011</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E34" s="47">
         <f>E15/D15-1</f>
         <v>0.10515021459227469</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F34" s="47">
         <f>F15/E15-1</f>
         <v>0.15613398058252415</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G34" s="47">
         <f>G15/F15-1</f>
         <v>0.24713432279323966</v>
       </c>
-      <c r="H35" s="47">
-        <f t="shared" ref="H35:W35" si="85">H15/G15-1</f>
+      <c r="H34" s="47">
+        <f>H15/G15-1</f>
         <v>0.47150446768252841</v>
       </c>
-      <c r="I35" s="47">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J35" s="47">
-        <f t="shared" si="85"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="K35" s="47">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="L35" s="47">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="M35" s="47">
-        <f t="shared" si="85"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="N35" s="47">
-        <f t="shared" si="85"/>
+      <c r="I34" s="47">
+        <f>I15/H15-1</f>
+        <v>0.46890563417560482</v>
+      </c>
+      <c r="J34" s="47">
+        <f>J15/I15-1</f>
+        <v>0.45777607668334586</v>
+      </c>
+      <c r="K34" s="47">
+        <f>K15/J15-1</f>
+        <v>0.42718826665573451</v>
+      </c>
+      <c r="L34" s="47">
+        <f>L15/K15-1</f>
+        <v>0.38239481698627786</v>
+      </c>
+      <c r="M34" s="47">
+        <f>M15/L15-1</f>
+        <v>0.32771292980473476</v>
+      </c>
+      <c r="N34" s="47">
+        <f>N15/M15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="O35" s="47">
-        <f t="shared" si="85"/>
+      <c r="O34" s="47">
+        <f>O15/N15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="P35" s="47">
-        <f t="shared" si="85"/>
+      <c r="P34" s="47">
+        <f>P15/O15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Q35" s="47">
-        <f t="shared" si="85"/>
+      <c r="Q34" s="47">
+        <f>Q15/P15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="R35" s="47">
-        <f t="shared" si="85"/>
+      <c r="R34" s="47">
+        <f>R15/Q15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="S35" s="47">
-        <f t="shared" si="85"/>
+      <c r="S34" s="47">
+        <f>S15/R15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T35" s="47">
-        <f t="shared" si="85"/>
+      <c r="T34" s="47">
+        <f>T15/S15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U35" s="47">
-        <f t="shared" si="85"/>
+      <c r="U34" s="47">
+        <f>U15/T15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V35" s="47">
-        <f t="shared" si="85"/>
+      <c r="V34" s="47">
+        <f>V15/U15-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="W35" s="47">
-        <f t="shared" si="85"/>
+      <c r="W34" s="47">
+        <f>W15/V15-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38"/>
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="38"/>
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="38"/>
+      <c r="BW34" s="38"/>
+      <c r="BX34" s="38"/>
+      <c r="BY34" s="38"/>
+      <c r="BZ34" s="38"/>
+      <c r="CA34" s="38"/>
+      <c r="CB34" s="38"/>
+      <c r="CC34" s="38"/>
+      <c r="CD34" s="38"/>
+      <c r="CE34" s="38"/>
+      <c r="CF34" s="38"/>
+      <c r="CG34" s="38"/>
+      <c r="CH34" s="38"/>
+      <c r="CI34" s="38"/>
+      <c r="CJ34" s="38"/>
+      <c r="CK34" s="38"/>
+      <c r="CL34" s="38"/>
+      <c r="CM34" s="38"/>
+      <c r="CN34" s="38"/>
+      <c r="CO34" s="38"/>
+      <c r="CP34" s="38"/>
+      <c r="CQ34" s="38"/>
+      <c r="CR34" s="38"/>
+      <c r="CS34" s="38"/>
+      <c r="CT34" s="38"/>
+      <c r="CU34" s="38"/>
+      <c r="CV34" s="38"/>
+      <c r="CW34" s="38"/>
+      <c r="CX34" s="38"/>
+      <c r="CY34" s="38"/>
+      <c r="CZ34" s="38"/>
+      <c r="DA34" s="38"/>
+      <c r="DB34" s="38"/>
+      <c r="DC34" s="38"/>
+      <c r="DD34" s="38"/>
+      <c r="DE34" s="38"/>
+      <c r="DF34" s="38"/>
+      <c r="DG34" s="38"/>
+      <c r="DH34" s="38"/>
+      <c r="DI34" s="38"/>
+      <c r="DJ34" s="38"/>
+      <c r="DK34" s="38"/>
+      <c r="DL34" s="38"/>
+      <c r="DM34" s="38"/>
+      <c r="DN34" s="38"/>
+    </row>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35">
+        <f>G18/F18-1</f>
+        <v>7.3684210526315796E-2</v>
+      </c>
+      <c r="H35" s="35">
+        <f>H18/G18-1</f>
+        <v>0.10522875816993471</v>
+      </c>
+      <c r="I35" s="35">
+        <f>I18/H18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J35" s="35">
+        <f>J18/I18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="K35" s="35">
+        <f>K18/J18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L35" s="35">
+        <f>L18/K18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M35" s="35">
+        <f>M18/L18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="N35" s="35">
+        <f>N18/M18-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="O35" s="35">
+        <f>O18/N18-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="P35" s="35">
+        <f>P18/O18-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Q35" s="35">
+        <f>Q18/P18-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="R35" s="35">
+        <f>R18/Q18-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="S35" s="35">
+        <f>S18/R18-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T35" s="35">
+        <f>T18/S18-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U35" s="35">
+        <f>U18/T18-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V35" s="35">
+        <f>V18/U18-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="W35" s="35">
+        <f>W18/V18-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="X35" s="38"/>
@@ -5872,7 +5918,7 @@
     </row>
     <row r="36" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -5880,72 +5926,72 @@
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
-        <f t="shared" ref="G36:W36" si="86">G18/F18-1</f>
-        <v>7.3684210526315796E-2</v>
+        <f>G19/F19-1</f>
+        <v>-2.3809523809523836E-2</v>
       </c>
       <c r="H36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.83333333333333326</v>
+        <f>H19/G19-1</f>
+        <v>8.2039911308203983E-2</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="86"/>
-        <v>-0.30000000000000004</v>
+        <f>I19/H19-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f>J19/I19-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f>K19/J19-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="L36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f>L19/K19-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.25</v>
+        <f>M19/L19-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f>N19/M19-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f>O19/N19-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f>P19/O19-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f>Q19/P19-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.19999999999999996</v>
+        <f>R19/Q19-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.10000000000000009</v>
+        <f>S19/R19-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.10000000000000009</v>
+        <f>T19/S19-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="U36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.10000000000000009</v>
+        <f>U19/T19-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="V36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.10000000000000009</v>
+        <f>V19/U19-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="W36" s="35">
-        <f t="shared" si="86"/>
-        <v>0.10000000000000009</v>
+        <f>W19/V19-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
@@ -6045,7 +6091,7 @@
     </row>
     <row r="37" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -6053,72 +6099,72 @@
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35">
-        <f t="shared" ref="G37:W37" si="87">G19/F19-1</f>
-        <v>-2.3809523809523836E-2</v>
+        <f>G20/F20-1</f>
+        <v>4.9019607843137303E-2</v>
       </c>
       <c r="H37" s="35">
-        <f t="shared" si="87"/>
-        <v>0.51884700665188466</v>
+        <f>H20/G20-1</f>
+        <v>0.35077881619937701</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="87"/>
-        <v>-0.30000000000000004</v>
+        <f>I20/H20-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="87"/>
+        <f>J20/I20-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="K37" s="35">
-        <f t="shared" si="87"/>
+        <f>K20/J20-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="L37" s="35">
-        <f t="shared" si="87"/>
+        <f>L20/K20-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="M37" s="35">
-        <f t="shared" si="87"/>
+        <f>M20/L20-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="N37" s="35">
-        <f t="shared" si="87"/>
-        <v>0.10000000000000009</v>
+        <f>N20/M20-1</f>
+        <v>-5.0000000000000155E-2</v>
       </c>
       <c r="O37" s="35">
-        <f t="shared" si="87"/>
-        <v>0.10000000000000009</v>
+        <f>O20/N20-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="P37" s="35">
-        <f t="shared" si="87"/>
-        <v>0.10000000000000009</v>
+        <f>P20/O20-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="Q37" s="35">
-        <f t="shared" si="87"/>
-        <v>0.10000000000000009</v>
+        <f>Q20/P20-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="R37" s="35">
-        <f t="shared" si="87"/>
-        <v>0.10000000000000009</v>
+        <f>R20/Q20-1</f>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="S37" s="35">
-        <f t="shared" si="87"/>
-        <v>-5.0000000000000044E-2</v>
+        <f>S20/R20-1</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T37" s="35">
-        <f t="shared" si="87"/>
-        <v>-5.0000000000000044E-2</v>
+        <f>T20/S20-1</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U37" s="35">
-        <f t="shared" si="87"/>
-        <v>-5.0000000000000044E-2</v>
+        <f>U20/T20-1</f>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="V37" s="35">
-        <f t="shared" si="87"/>
-        <v>-5.0000000000000044E-2</v>
+        <f>V20/U20-1</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="W37" s="35">
-        <f t="shared" si="87"/>
-        <v>-5.0000000000000155E-2</v>
+        <f>W20/V20-1</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
@@ -6217,81 +6263,81 @@
       <c r="DN37" s="38"/>
     </row>
     <row r="38" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35">
-        <f t="shared" ref="G38:W38" si="88">G20/F20-1</f>
-        <v>4.9019607843137303E-2</v>
-      </c>
-      <c r="H38" s="35">
-        <f t="shared" si="88"/>
-        <v>1.0841121495327104</v>
-      </c>
-      <c r="I38" s="35">
-        <f t="shared" si="88"/>
-        <v>-0.5</v>
-      </c>
-      <c r="J38" s="35">
-        <f t="shared" si="88"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="K38" s="35">
-        <f t="shared" si="88"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="L38" s="35">
-        <f t="shared" si="88"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="M38" s="35">
-        <f t="shared" si="88"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="N38" s="35">
-        <f t="shared" si="88"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="O38" s="35">
-        <f t="shared" si="88"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="P38" s="35">
-        <f t="shared" si="88"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Q38" s="35">
-        <f t="shared" si="88"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="R38" s="35">
-        <f t="shared" si="88"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S38" s="35">
-        <f t="shared" si="88"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="T38" s="35">
-        <f t="shared" si="88"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="U38" s="35">
-        <f t="shared" si="88"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="V38" s="35">
-        <f t="shared" si="88"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="W38" s="35">
-        <f t="shared" si="88"/>
-        <v>-2.0000000000000018E-2</v>
+      <c r="A38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44">
+        <f t="shared" ref="G38:W38" si="67">G21/F21-1</f>
+        <v>2.3741690408357163E-2</v>
+      </c>
+      <c r="H38" s="44">
+        <f t="shared" si="67"/>
+        <v>0.16864564007421157</v>
+      </c>
+      <c r="I38" s="44">
+        <f t="shared" si="67"/>
+        <v>0.18063184632481333</v>
+      </c>
+      <c r="J38" s="44">
+        <f t="shared" si="67"/>
+        <v>0.18113435886402729</v>
+      </c>
+      <c r="K38" s="44">
+        <f t="shared" si="67"/>
+        <v>0.18163165168843753</v>
+      </c>
+      <c r="L38" s="44">
+        <f t="shared" si="67"/>
+        <v>0.18212336261633366</v>
+      </c>
+      <c r="M38" s="44">
+        <f>M21/L21-1</f>
+        <v>0.182609147537939</v>
+      </c>
+      <c r="N38" s="44">
+        <f t="shared" si="67"/>
+        <v>5.8731323522193346E-2</v>
+      </c>
+      <c r="O38" s="44">
+        <f t="shared" si="67"/>
+        <v>6.5708604729139308E-2</v>
+      </c>
+      <c r="P38" s="44">
+        <f t="shared" si="67"/>
+        <v>7.2387412621417457E-2</v>
+      </c>
+      <c r="Q38" s="44">
+        <f t="shared" si="67"/>
+        <v>7.8708283051533323E-2</v>
+      </c>
+      <c r="R38" s="44">
+        <f t="shared" si="67"/>
+        <v>8.4627776211664729E-2</v>
+      </c>
+      <c r="S38" s="44">
+        <f t="shared" si="67"/>
+        <v>1.7897752091832198E-2</v>
+      </c>
+      <c r="T38" s="44">
+        <f t="shared" si="67"/>
+        <v>2.2655589092816841E-2</v>
+      </c>
+      <c r="U38" s="44">
+        <f t="shared" si="67"/>
+        <v>2.7461874359692828E-2</v>
+      </c>
+      <c r="V38" s="44">
+        <f t="shared" si="67"/>
+        <v>3.2273719990586924E-2</v>
+      </c>
+      <c r="W38" s="44">
+        <f t="shared" si="67"/>
+        <v>3.7047957575763846E-2</v>
       </c>
       <c r="X38" s="38"/>
       <c r="Y38" s="38"/>
@@ -6390,82 +6436,28 @@
       <c r="DN38" s="38"/>
     </row>
     <row r="39" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
-      <c r="G39" s="44">
-        <f t="shared" ref="G39:W39" si="89">G22/F22-1</f>
-        <v>2.3741690408357163E-2</v>
-      </c>
-      <c r="H39" s="44">
-        <f t="shared" si="89"/>
-        <v>5.4730983302411884E-2</v>
-      </c>
-      <c r="I39" s="44">
-        <f t="shared" si="89"/>
-        <v>6.1301671064203811E-2</v>
-      </c>
-      <c r="J39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.20241153559293945</v>
-      </c>
-      <c r="K39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.20365967124987083</v>
-      </c>
-      <c r="L39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.20490187236966406</v>
-      </c>
-      <c r="M39" s="44">
-        <f>M22/L22-1</f>
-        <v>0.20613646800864438</v>
-      </c>
-      <c r="N39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.1262489955966708</v>
-      </c>
-      <c r="O39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.12950288407420829</v>
-      </c>
-      <c r="P39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.13277124617699299</v>
-      </c>
-      <c r="Q39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.13603887743857546</v>
-      </c>
-      <c r="R39" s="44">
-        <f t="shared" si="89"/>
-        <v>0.13929045171981724</v>
-      </c>
-      <c r="S39" s="44">
-        <f t="shared" si="89"/>
-        <v>3.0328805171278006E-2</v>
-      </c>
-      <c r="T39" s="44">
-        <f t="shared" si="89"/>
-        <v>3.5209523579970536E-2</v>
-      </c>
-      <c r="U39" s="44">
-        <f t="shared" si="89"/>
-        <v>4.0020766948410946E-2</v>
-      </c>
-      <c r="V39" s="44">
-        <f t="shared" si="89"/>
-        <v>4.4720732196318336E-2</v>
-      </c>
-      <c r="W39" s="44">
-        <f t="shared" si="89"/>
-        <v>4.9271504517965692E-2</v>
-      </c>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
       <c r="X39" s="38"/>
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
@@ -6563,28 +6555,85 @@
       <c r="DN39" s="38"/>
     </row>
     <row r="40" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="24">
+        <f>F41-F42</f>
+        <v>1126</v>
+      </c>
+      <c r="G40" s="24">
+        <f>G41-G42</f>
+        <v>735</v>
+      </c>
+      <c r="H40" s="24">
+        <f>H41-H42</f>
+        <v>1850</v>
+      </c>
+      <c r="I40" s="48">
+        <f>H40+I26</f>
+        <v>1696.972197997371</v>
+      </c>
+      <c r="J40" s="48">
+        <f t="shared" ref="J40:W40" si="68">I40+J26</f>
+        <v>1834.4917210337758</v>
+      </c>
+      <c r="K40" s="48">
+        <f t="shared" si="68"/>
+        <v>2400.8562066558438</v>
+      </c>
+      <c r="L40" s="48">
+        <f t="shared" si="68"/>
+        <v>3570.6650368083983</v>
+      </c>
+      <c r="M40" s="48">
+        <f t="shared" si="68"/>
+        <v>5494.8724741171372</v>
+      </c>
+      <c r="N40" s="48">
+        <f t="shared" si="68"/>
+        <v>8203.8203306178748</v>
+      </c>
+      <c r="O40" s="48">
+        <f t="shared" si="68"/>
+        <v>11873.696694249296</v>
+      </c>
+      <c r="P40" s="48">
+        <f t="shared" si="68"/>
+        <v>16718.957198204658</v>
+      </c>
+      <c r="Q40" s="48">
+        <f t="shared" si="68"/>
+        <v>23000.28278358197</v>
+      </c>
+      <c r="R40" s="48">
+        <f t="shared" si="68"/>
+        <v>31034.169827883485</v>
+      </c>
+      <c r="S40" s="48">
+        <f t="shared" si="68"/>
+        <v>40401.840191947078</v>
+      </c>
+      <c r="T40" s="48">
+        <f t="shared" si="68"/>
+        <v>51247.433368886152</v>
+      </c>
+      <c r="U40" s="48">
+        <f t="shared" si="68"/>
+        <v>63730.498087557011</v>
+      </c>
+      <c r="V40" s="48">
+        <f t="shared" si="68"/>
+        <v>78027.549660820689</v>
+      </c>
+      <c r="W40" s="48">
+        <f t="shared" si="68"/>
+        <v>94333.785039992086</v>
+      </c>
       <c r="X40" s="38"/>
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
@@ -6682,85 +6731,40 @@
       <c r="DN40" s="38"/>
     </row>
     <row r="41" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="24">
-        <f>F42-F43</f>
+      <c r="A41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49">
+        <f>Reports!E34</f>
         <v>1126</v>
       </c>
-      <c r="G41" s="24">
-        <f>G42-G43</f>
-        <v>735</v>
-      </c>
-      <c r="H41" s="24">
-        <f>H42-H43</f>
-        <v>1850</v>
-      </c>
-      <c r="I41" s="48">
-        <f>H41+I27</f>
-        <v>1771.9764</v>
-      </c>
-      <c r="J41" s="48">
-        <f t="shared" ref="J41:W41" si="90">I41+J27</f>
-        <v>1860.2721799999999</v>
-      </c>
-      <c r="K41" s="48">
-        <f t="shared" si="90"/>
-        <v>2237.7415329999999</v>
-      </c>
-      <c r="L41" s="48">
-        <f t="shared" si="90"/>
-        <v>3003.5103519250001</v>
-      </c>
-      <c r="M41" s="48">
-        <f t="shared" si="90"/>
-        <v>4436.9194276776252</v>
-      </c>
-      <c r="N41" s="48">
-        <f t="shared" si="90"/>
-        <v>6362.949091556693</v>
-      </c>
-      <c r="O41" s="48">
-        <f t="shared" si="90"/>
-        <v>8902.2883642581273</v>
-      </c>
-      <c r="P41" s="48">
-        <f t="shared" si="90"/>
-        <v>12201.85380520955</v>
-      </c>
-      <c r="Q41" s="48">
-        <f t="shared" si="90"/>
-        <v>16440.228417175007</v>
-      </c>
-      <c r="R41" s="48">
-        <f t="shared" si="90"/>
-        <v>21834.206476889733</v>
-      </c>
-      <c r="S41" s="48">
-        <f t="shared" si="90"/>
-        <v>28233.149316397656</v>
-      </c>
-      <c r="T41" s="48">
-        <f t="shared" si="90"/>
-        <v>35746.082218241761</v>
-      </c>
-      <c r="U41" s="48">
-        <f t="shared" si="90"/>
-        <v>44493.889490083762</v>
-      </c>
-      <c r="V41" s="48">
-        <f t="shared" si="90"/>
-        <v>54610.515742238022</v>
-      </c>
-      <c r="W41" s="48">
-        <f t="shared" si="90"/>
-        <v>66244.289348847713</v>
-      </c>
+      <c r="G41" s="49">
+        <f>Reports!I34</f>
+        <v>1131</v>
+      </c>
+      <c r="H41" s="49">
+        <f>Reports!M34</f>
+        <v>2048</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
       <c r="X41" s="38"/>
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
@@ -6859,7 +6863,7 @@
     </row>
     <row r="42" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
@@ -6867,15 +6871,15 @@
       <c r="E42" s="49"/>
       <c r="F42" s="49">
         <f>Reports!E35</f>
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="G42" s="49">
         <f>Reports!I35</f>
-        <v>1131</v>
+        <v>396</v>
       </c>
       <c r="H42" s="49">
         <f>Reports!M35</f>
-        <v>2048</v>
+        <v>198</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
@@ -6989,35 +6993,23 @@
       <c r="DN42" s="38"/>
     </row>
     <row r="43" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49">
-        <f>Reports!E36</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="49">
-        <f>Reports!I36</f>
-        <v>396</v>
-      </c>
-      <c r="H43" s="49">
-        <f>Reports!M36</f>
-        <v>198</v>
-      </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
@@ -7120,127 +7112,139 @@
       <c r="DN43" s="38"/>
     </row>
     <row r="44" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="38"/>
-      <c r="AS44" s="38"/>
-      <c r="AT44" s="38"/>
-      <c r="AU44" s="38"/>
-      <c r="AV44" s="38"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="38"/>
-      <c r="AY44" s="38"/>
-      <c r="AZ44" s="38"/>
-      <c r="BA44" s="38"/>
-      <c r="BB44" s="38"/>
-      <c r="BC44" s="38"/>
-      <c r="BD44" s="38"/>
-      <c r="BE44" s="38"/>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="38"/>
-      <c r="BH44" s="38"/>
-      <c r="BI44" s="38"/>
-      <c r="BJ44" s="38"/>
-      <c r="BK44" s="38"/>
-      <c r="BL44" s="38"/>
-      <c r="BM44" s="38"/>
-      <c r="BN44" s="38"/>
-      <c r="BO44" s="38"/>
-      <c r="BP44" s="38"/>
-      <c r="BQ44" s="38"/>
-      <c r="BR44" s="38"/>
-      <c r="BS44" s="38"/>
-      <c r="BT44" s="38"/>
-      <c r="BU44" s="38"/>
-      <c r="BV44" s="38"/>
-      <c r="BW44" s="38"/>
-      <c r="BX44" s="38"/>
-      <c r="BY44" s="38"/>
-      <c r="BZ44" s="38"/>
-      <c r="CA44" s="38"/>
-      <c r="CB44" s="38"/>
-      <c r="CC44" s="38"/>
-      <c r="CD44" s="38"/>
-      <c r="CE44" s="38"/>
-      <c r="CF44" s="38"/>
-      <c r="CG44" s="38"/>
-      <c r="CH44" s="38"/>
-      <c r="CI44" s="38"/>
-      <c r="CJ44" s="38"/>
-      <c r="CK44" s="38"/>
-      <c r="CL44" s="38"/>
-      <c r="CM44" s="38"/>
-      <c r="CN44" s="38"/>
-      <c r="CO44" s="38"/>
-      <c r="CP44" s="38"/>
-      <c r="CQ44" s="38"/>
-      <c r="CR44" s="38"/>
-      <c r="CS44" s="38"/>
-      <c r="CT44" s="38"/>
-      <c r="CU44" s="38"/>
-      <c r="CV44" s="38"/>
-      <c r="CW44" s="38"/>
-      <c r="CX44" s="38"/>
-      <c r="CY44" s="38"/>
-      <c r="CZ44" s="38"/>
-      <c r="DA44" s="38"/>
-      <c r="DB44" s="38"/>
-      <c r="DC44" s="38"/>
-      <c r="DD44" s="38"/>
-      <c r="DE44" s="38"/>
-      <c r="DF44" s="38"/>
-      <c r="DG44" s="38"/>
-      <c r="DH44" s="38"/>
-      <c r="DI44" s="38"/>
-      <c r="DJ44" s="38"/>
-      <c r="DK44" s="38"/>
-      <c r="DL44" s="38"/>
-      <c r="DM44" s="38"/>
-      <c r="DN44" s="38"/>
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="49">
+        <f>Reports!E37</f>
+        <v>23</v>
+      </c>
+      <c r="G44" s="49">
+        <f>Reports!I37</f>
+        <v>51</v>
+      </c>
+      <c r="H44" s="49">
+        <f>Reports!M37</f>
+        <v>217</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="37"/>
+      <c r="BF44" s="37"/>
+      <c r="BG44" s="37"/>
+      <c r="BH44" s="37"/>
+      <c r="BI44" s="37"/>
+      <c r="BJ44" s="37"/>
+      <c r="BK44" s="37"/>
+      <c r="BL44" s="37"/>
+      <c r="BM44" s="37"/>
+      <c r="BN44" s="37"/>
+      <c r="BO44" s="37"/>
+      <c r="BP44" s="37"/>
+      <c r="BQ44" s="37"/>
+      <c r="BR44" s="37"/>
+      <c r="BS44" s="37"/>
+      <c r="BT44" s="37"/>
+      <c r="BU44" s="37"/>
+      <c r="BV44" s="37"/>
+      <c r="BW44" s="37"/>
+      <c r="BX44" s="37"/>
+      <c r="BY44" s="37"/>
+      <c r="BZ44" s="37"/>
+      <c r="CA44" s="37"/>
+      <c r="CB44" s="37"/>
+      <c r="CC44" s="37"/>
+      <c r="CD44" s="37"/>
+      <c r="CE44" s="37"/>
+      <c r="CF44" s="37"/>
+      <c r="CG44" s="37"/>
+      <c r="CH44" s="37"/>
+      <c r="CI44" s="37"/>
+      <c r="CJ44" s="37"/>
+      <c r="CK44" s="37"/>
+      <c r="CL44" s="37"/>
+      <c r="CM44" s="37"/>
+      <c r="CN44" s="37"/>
+      <c r="CO44" s="37"/>
+      <c r="CP44" s="37"/>
+      <c r="CQ44" s="37"/>
+      <c r="CR44" s="37"/>
+      <c r="CS44" s="37"/>
+      <c r="CT44" s="37"/>
+      <c r="CU44" s="37"/>
+      <c r="CV44" s="37"/>
+      <c r="CW44" s="37"/>
+      <c r="CX44" s="37"/>
+      <c r="CY44" s="37"/>
+      <c r="CZ44" s="37"/>
+      <c r="DA44" s="37"/>
+      <c r="DB44" s="37"/>
+      <c r="DC44" s="37"/>
+      <c r="DD44" s="37"/>
+      <c r="DE44" s="37"/>
+      <c r="DF44" s="37"/>
+      <c r="DG44" s="37"/>
+      <c r="DH44" s="37"/>
+      <c r="DI44" s="37"/>
+      <c r="DJ44" s="37"/>
+      <c r="DK44" s="37"/>
+      <c r="DL44" s="37"/>
+      <c r="DM44" s="37"/>
+      <c r="DN44" s="37"/>
     </row>
     <row r="45" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -7248,15 +7252,15 @@
       <c r="E45" s="51"/>
       <c r="F45" s="49">
         <f>Reports!E38</f>
-        <v>23</v>
+        <v>1431</v>
       </c>
       <c r="G45" s="49">
         <f>Reports!I38</f>
-        <v>51</v>
+        <v>1594</v>
       </c>
       <c r="H45" s="49">
         <f>Reports!M38</f>
-        <v>217</v>
+        <v>2691</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
@@ -7371,7 +7375,7 @@
     </row>
     <row r="46" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -7379,15 +7383,15 @@
       <c r="E46" s="51"/>
       <c r="F46" s="49">
         <f>Reports!E39</f>
-        <v>1431</v>
+        <v>923</v>
       </c>
       <c r="G46" s="49">
         <f>Reports!I39</f>
-        <v>1594</v>
+        <v>1447</v>
       </c>
       <c r="H46" s="49">
         <f>Reports!M39</f>
-        <v>2691</v>
+        <v>1168</v>
       </c>
       <c r="I46" s="51"/>
       <c r="J46" s="51"/>
@@ -7501,274 +7505,274 @@
       <c r="DN46" s="37"/>
     </row>
     <row r="47" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="49">
-        <f>Reports!E40</f>
-        <v>923</v>
-      </c>
-      <c r="G47" s="49">
-        <f>Reports!I40</f>
-        <v>1447</v>
-      </c>
-      <c r="H47" s="49">
-        <f>Reports!M40</f>
-        <v>1168</v>
-      </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37"/>
-      <c r="AM47" s="37"/>
-      <c r="AN47" s="37"/>
-      <c r="AO47" s="37"/>
-      <c r="AP47" s="37"/>
-      <c r="AQ47" s="37"/>
-      <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
-      <c r="AT47" s="37"/>
-      <c r="AU47" s="37"/>
-      <c r="AV47" s="37"/>
-      <c r="AW47" s="37"/>
-      <c r="AX47" s="37"/>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37"/>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="37"/>
-      <c r="BF47" s="37"/>
-      <c r="BG47" s="37"/>
-      <c r="BH47" s="37"/>
-      <c r="BI47" s="37"/>
-      <c r="BJ47" s="37"/>
-      <c r="BK47" s="37"/>
-      <c r="BL47" s="37"/>
-      <c r="BM47" s="37"/>
-      <c r="BN47" s="37"/>
-      <c r="BO47" s="37"/>
-      <c r="BP47" s="37"/>
-      <c r="BQ47" s="37"/>
-      <c r="BR47" s="37"/>
-      <c r="BS47" s="37"/>
-      <c r="BT47" s="37"/>
-      <c r="BU47" s="37"/>
-      <c r="BV47" s="37"/>
-      <c r="BW47" s="37"/>
-      <c r="BX47" s="37"/>
-      <c r="BY47" s="37"/>
-      <c r="BZ47" s="37"/>
-      <c r="CA47" s="37"/>
-      <c r="CB47" s="37"/>
-      <c r="CC47" s="37"/>
-      <c r="CD47" s="37"/>
-      <c r="CE47" s="37"/>
-      <c r="CF47" s="37"/>
-      <c r="CG47" s="37"/>
-      <c r="CH47" s="37"/>
-      <c r="CI47" s="37"/>
-      <c r="CJ47" s="37"/>
-      <c r="CK47" s="37"/>
-      <c r="CL47" s="37"/>
-      <c r="CM47" s="37"/>
-      <c r="CN47" s="37"/>
-      <c r="CO47" s="37"/>
-      <c r="CP47" s="37"/>
-      <c r="CQ47" s="37"/>
-      <c r="CR47" s="37"/>
-      <c r="CS47" s="37"/>
-      <c r="CT47" s="37"/>
-      <c r="CU47" s="37"/>
-      <c r="CV47" s="37"/>
-      <c r="CW47" s="37"/>
-      <c r="CX47" s="37"/>
-      <c r="CY47" s="37"/>
-      <c r="CZ47" s="37"/>
-      <c r="DA47" s="37"/>
-      <c r="DB47" s="37"/>
-      <c r="DC47" s="37"/>
-      <c r="DD47" s="37"/>
-      <c r="DE47" s="37"/>
-      <c r="DF47" s="37"/>
-      <c r="DG47" s="37"/>
-      <c r="DH47" s="37"/>
-      <c r="DI47" s="37"/>
-      <c r="DJ47" s="37"/>
-      <c r="DK47" s="37"/>
-      <c r="DL47" s="37"/>
-      <c r="DM47" s="37"/>
-      <c r="DN47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="38"/>
+      <c r="BC47" s="38"/>
+      <c r="BD47" s="38"/>
+      <c r="BE47" s="38"/>
+      <c r="BF47" s="38"/>
+      <c r="BG47" s="38"/>
+      <c r="BH47" s="38"/>
+      <c r="BI47" s="38"/>
+      <c r="BJ47" s="38"/>
+      <c r="BK47" s="38"/>
+      <c r="BL47" s="38"/>
+      <c r="BM47" s="38"/>
+      <c r="BN47" s="38"/>
+      <c r="BO47" s="38"/>
+      <c r="BP47" s="38"/>
+      <c r="BQ47" s="38"/>
+      <c r="BR47" s="38"/>
+      <c r="BS47" s="38"/>
+      <c r="BT47" s="38"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="38"/>
+      <c r="BW47" s="38"/>
+      <c r="BX47" s="38"/>
+      <c r="BY47" s="38"/>
+      <c r="BZ47" s="38"/>
+      <c r="CA47" s="38"/>
+      <c r="CB47" s="38"/>
+      <c r="CC47" s="38"/>
+      <c r="CD47" s="38"/>
+      <c r="CE47" s="38"/>
+      <c r="CF47" s="38"/>
+      <c r="CG47" s="38"/>
+      <c r="CH47" s="38"/>
+      <c r="CI47" s="38"/>
+      <c r="CJ47" s="38"/>
+      <c r="CK47" s="38"/>
+      <c r="CL47" s="38"/>
+      <c r="CM47" s="38"/>
+      <c r="CN47" s="38"/>
+      <c r="CO47" s="38"/>
+      <c r="CP47" s="38"/>
+      <c r="CQ47" s="38"/>
+      <c r="CR47" s="38"/>
+      <c r="CS47" s="38"/>
+      <c r="CT47" s="38"/>
+      <c r="CU47" s="38"/>
+      <c r="CV47" s="38"/>
+      <c r="CW47" s="38"/>
+      <c r="CX47" s="38"/>
+      <c r="CY47" s="38"/>
+      <c r="CZ47" s="38"/>
+      <c r="DA47" s="38"/>
+      <c r="DB47" s="38"/>
+      <c r="DC47" s="38"/>
+      <c r="DD47" s="38"/>
+      <c r="DE47" s="38"/>
+      <c r="DF47" s="38"/>
+      <c r="DG47" s="38"/>
+      <c r="DH47" s="38"/>
+      <c r="DI47" s="38"/>
+      <c r="DJ47" s="38"/>
+      <c r="DK47" s="38"/>
+      <c r="DL47" s="38"/>
+      <c r="DM47" s="38"/>
+      <c r="DN47" s="38"/>
     </row>
     <row r="48" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
-      <c r="AE48" s="38"/>
-      <c r="AF48" s="38"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
-      <c r="AZ48" s="38"/>
-      <c r="BA48" s="38"/>
-      <c r="BB48" s="38"/>
-      <c r="BC48" s="38"/>
-      <c r="BD48" s="38"/>
-      <c r="BE48" s="38"/>
-      <c r="BF48" s="38"/>
-      <c r="BG48" s="38"/>
-      <c r="BH48" s="38"/>
-      <c r="BI48" s="38"/>
-      <c r="BJ48" s="38"/>
-      <c r="BK48" s="38"/>
-      <c r="BL48" s="38"/>
-      <c r="BM48" s="38"/>
-      <c r="BN48" s="38"/>
-      <c r="BO48" s="38"/>
-      <c r="BP48" s="38"/>
-      <c r="BQ48" s="38"/>
-      <c r="BR48" s="38"/>
-      <c r="BS48" s="38"/>
-      <c r="BT48" s="38"/>
-      <c r="BU48" s="38"/>
-      <c r="BV48" s="38"/>
-      <c r="BW48" s="38"/>
-      <c r="BX48" s="38"/>
-      <c r="BY48" s="38"/>
-      <c r="BZ48" s="38"/>
-      <c r="CA48" s="38"/>
-      <c r="CB48" s="38"/>
-      <c r="CC48" s="38"/>
-      <c r="CD48" s="38"/>
-      <c r="CE48" s="38"/>
-      <c r="CF48" s="38"/>
-      <c r="CG48" s="38"/>
-      <c r="CH48" s="38"/>
-      <c r="CI48" s="38"/>
-      <c r="CJ48" s="38"/>
-      <c r="CK48" s="38"/>
-      <c r="CL48" s="38"/>
-      <c r="CM48" s="38"/>
-      <c r="CN48" s="38"/>
-      <c r="CO48" s="38"/>
-      <c r="CP48" s="38"/>
-      <c r="CQ48" s="38"/>
-      <c r="CR48" s="38"/>
-      <c r="CS48" s="38"/>
-      <c r="CT48" s="38"/>
-      <c r="CU48" s="38"/>
-      <c r="CV48" s="38"/>
-      <c r="CW48" s="38"/>
-      <c r="CX48" s="38"/>
-      <c r="CY48" s="38"/>
-      <c r="CZ48" s="38"/>
-      <c r="DA48" s="38"/>
-      <c r="DB48" s="38"/>
-      <c r="DC48" s="38"/>
-      <c r="DD48" s="38"/>
-      <c r="DE48" s="38"/>
-      <c r="DF48" s="38"/>
-      <c r="DG48" s="38"/>
-      <c r="DH48" s="38"/>
-      <c r="DI48" s="38"/>
-      <c r="DJ48" s="38"/>
-      <c r="DK48" s="38"/>
-      <c r="DL48" s="38"/>
-      <c r="DM48" s="38"/>
-      <c r="DN48" s="38"/>
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="52">
+        <f>F45-F44-F41</f>
+        <v>282</v>
+      </c>
+      <c r="G48" s="52">
+        <f>G45-G44-G41</f>
+        <v>412</v>
+      </c>
+      <c r="H48" s="52">
+        <f>H45-H44-H41</f>
+        <v>426</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
+      <c r="AM48" s="37"/>
+      <c r="AN48" s="37"/>
+      <c r="AO48" s="37"/>
+      <c r="AP48" s="37"/>
+      <c r="AQ48" s="37"/>
+      <c r="AR48" s="37"/>
+      <c r="AS48" s="37"/>
+      <c r="AT48" s="37"/>
+      <c r="AU48" s="37"/>
+      <c r="AV48" s="37"/>
+      <c r="AW48" s="37"/>
+      <c r="AX48" s="37"/>
+      <c r="AY48" s="37"/>
+      <c r="AZ48" s="37"/>
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="37"/>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="BI48" s="37"/>
+      <c r="BJ48" s="37"/>
+      <c r="BK48" s="37"/>
+      <c r="BL48" s="37"/>
+      <c r="BM48" s="37"/>
+      <c r="BN48" s="37"/>
+      <c r="BO48" s="37"/>
+      <c r="BP48" s="37"/>
+      <c r="BQ48" s="37"/>
+      <c r="BR48" s="37"/>
+      <c r="BS48" s="37"/>
+      <c r="BT48" s="37"/>
+      <c r="BU48" s="37"/>
+      <c r="BV48" s="37"/>
+      <c r="BW48" s="37"/>
+      <c r="BX48" s="37"/>
+      <c r="BY48" s="37"/>
+      <c r="BZ48" s="37"/>
+      <c r="CA48" s="37"/>
+      <c r="CB48" s="37"/>
+      <c r="CC48" s="37"/>
+      <c r="CD48" s="37"/>
+      <c r="CE48" s="37"/>
+      <c r="CF48" s="37"/>
+      <c r="CG48" s="37"/>
+      <c r="CH48" s="37"/>
+      <c r="CI48" s="37"/>
+      <c r="CJ48" s="37"/>
+      <c r="CK48" s="37"/>
+      <c r="CL48" s="37"/>
+      <c r="CM48" s="37"/>
+      <c r="CN48" s="37"/>
+      <c r="CO48" s="37"/>
+      <c r="CP48" s="37"/>
+      <c r="CQ48" s="37"/>
+      <c r="CR48" s="37"/>
+      <c r="CS48" s="37"/>
+      <c r="CT48" s="37"/>
+      <c r="CU48" s="37"/>
+      <c r="CV48" s="37"/>
+      <c r="CW48" s="37"/>
+      <c r="CX48" s="37"/>
+      <c r="CY48" s="37"/>
+      <c r="CZ48" s="37"/>
+      <c r="DA48" s="37"/>
+      <c r="DB48" s="37"/>
+      <c r="DC48" s="37"/>
+      <c r="DD48" s="37"/>
+      <c r="DE48" s="37"/>
+      <c r="DF48" s="37"/>
+      <c r="DG48" s="37"/>
+      <c r="DH48" s="37"/>
+      <c r="DI48" s="37"/>
+      <c r="DJ48" s="37"/>
+      <c r="DK48" s="37"/>
+      <c r="DL48" s="37"/>
+      <c r="DM48" s="37"/>
+      <c r="DN48" s="37"/>
     </row>
     <row r="49" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="52">
-        <f>F46-F45-F42</f>
-        <v>282</v>
+        <f>F45-F46</f>
+        <v>508</v>
       </c>
       <c r="G49" s="52">
-        <f>G46-G45-G42</f>
-        <v>412</v>
+        <f>G45-G46</f>
+        <v>147</v>
       </c>
       <c r="H49" s="52">
-        <f>H46-H45-H42</f>
-        <v>426</v>
+        <f>H45-H46</f>
+        <v>1523</v>
       </c>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
@@ -7882,144 +7886,144 @@
       <c r="DN49" s="37"/>
     </row>
     <row r="50" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="52">
-        <f>F46-F47</f>
-        <v>508</v>
-      </c>
-      <c r="G50" s="52">
-        <f>G46-G47</f>
-        <v>147</v>
-      </c>
-      <c r="H50" s="52">
-        <f>H46-H47</f>
-        <v>1523</v>
-      </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
-      <c r="AL50" s="37"/>
-      <c r="AM50" s="37"/>
-      <c r="AN50" s="37"/>
-      <c r="AO50" s="37"/>
-      <c r="AP50" s="37"/>
-      <c r="AQ50" s="37"/>
-      <c r="AR50" s="37"/>
-      <c r="AS50" s="37"/>
-      <c r="AT50" s="37"/>
-      <c r="AU50" s="37"/>
-      <c r="AV50" s="37"/>
-      <c r="AW50" s="37"/>
-      <c r="AX50" s="37"/>
-      <c r="AY50" s="37"/>
-      <c r="AZ50" s="37"/>
-      <c r="BA50" s="37"/>
-      <c r="BB50" s="37"/>
-      <c r="BC50" s="37"/>
-      <c r="BD50" s="37"/>
-      <c r="BE50" s="37"/>
-      <c r="BF50" s="37"/>
-      <c r="BG50" s="37"/>
-      <c r="BH50" s="37"/>
-      <c r="BI50" s="37"/>
-      <c r="BJ50" s="37"/>
-      <c r="BK50" s="37"/>
-      <c r="BL50" s="37"/>
-      <c r="BM50" s="37"/>
-      <c r="BN50" s="37"/>
-      <c r="BO50" s="37"/>
-      <c r="BP50" s="37"/>
-      <c r="BQ50" s="37"/>
-      <c r="BR50" s="37"/>
-      <c r="BS50" s="37"/>
-      <c r="BT50" s="37"/>
-      <c r="BU50" s="37"/>
-      <c r="BV50" s="37"/>
-      <c r="BW50" s="37"/>
-      <c r="BX50" s="37"/>
-      <c r="BY50" s="37"/>
-      <c r="BZ50" s="37"/>
-      <c r="CA50" s="37"/>
-      <c r="CB50" s="37"/>
-      <c r="CC50" s="37"/>
-      <c r="CD50" s="37"/>
-      <c r="CE50" s="37"/>
-      <c r="CF50" s="37"/>
-      <c r="CG50" s="37"/>
-      <c r="CH50" s="37"/>
-      <c r="CI50" s="37"/>
-      <c r="CJ50" s="37"/>
-      <c r="CK50" s="37"/>
-      <c r="CL50" s="37"/>
-      <c r="CM50" s="37"/>
-      <c r="CN50" s="37"/>
-      <c r="CO50" s="37"/>
-      <c r="CP50" s="37"/>
-      <c r="CQ50" s="37"/>
-      <c r="CR50" s="37"/>
-      <c r="CS50" s="37"/>
-      <c r="CT50" s="37"/>
-      <c r="CU50" s="37"/>
-      <c r="CV50" s="37"/>
-      <c r="CW50" s="37"/>
-      <c r="CX50" s="37"/>
-      <c r="CY50" s="37"/>
-      <c r="CZ50" s="37"/>
-      <c r="DA50" s="37"/>
-      <c r="DB50" s="37"/>
-      <c r="DC50" s="37"/>
-      <c r="DD50" s="37"/>
-      <c r="DE50" s="37"/>
-      <c r="DF50" s="37"/>
-      <c r="DG50" s="37"/>
-      <c r="DH50" s="37"/>
-      <c r="DI50" s="37"/>
-      <c r="DJ50" s="37"/>
-      <c r="DK50" s="37"/>
-      <c r="DL50" s="37"/>
-      <c r="DM50" s="37"/>
-      <c r="DN50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="38"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
+      <c r="BG50" s="38"/>
+      <c r="BH50" s="38"/>
+      <c r="BI50" s="38"/>
+      <c r="BJ50" s="38"/>
+      <c r="BK50" s="38"/>
+      <c r="BL50" s="38"/>
+      <c r="BM50" s="38"/>
+      <c r="BN50" s="38"/>
+      <c r="BO50" s="38"/>
+      <c r="BP50" s="38"/>
+      <c r="BQ50" s="38"/>
+      <c r="BR50" s="38"/>
+      <c r="BS50" s="38"/>
+      <c r="BT50" s="38"/>
+      <c r="BU50" s="38"/>
+      <c r="BV50" s="38"/>
+      <c r="BW50" s="38"/>
+      <c r="BX50" s="38"/>
+      <c r="BY50" s="38"/>
+      <c r="BZ50" s="38"/>
+      <c r="CA50" s="38"/>
+      <c r="CB50" s="38"/>
+      <c r="CC50" s="38"/>
+      <c r="CD50" s="38"/>
+      <c r="CE50" s="38"/>
+      <c r="CF50" s="38"/>
+      <c r="CG50" s="38"/>
+      <c r="CH50" s="38"/>
+      <c r="CI50" s="38"/>
+      <c r="CJ50" s="38"/>
+      <c r="CK50" s="38"/>
+      <c r="CL50" s="38"/>
+      <c r="CM50" s="38"/>
+      <c r="CN50" s="38"/>
+      <c r="CO50" s="38"/>
+      <c r="CP50" s="38"/>
+      <c r="CQ50" s="38"/>
+      <c r="CR50" s="38"/>
+      <c r="CS50" s="38"/>
+      <c r="CT50" s="38"/>
+      <c r="CU50" s="38"/>
+      <c r="CV50" s="38"/>
+      <c r="CW50" s="38"/>
+      <c r="CX50" s="38"/>
+      <c r="CY50" s="38"/>
+      <c r="CZ50" s="38"/>
+      <c r="DA50" s="38"/>
+      <c r="DB50" s="38"/>
+      <c r="DC50" s="38"/>
+      <c r="DD50" s="38"/>
+      <c r="DE50" s="38"/>
+      <c r="DF50" s="38"/>
+      <c r="DG50" s="38"/>
+      <c r="DH50" s="38"/>
+      <c r="DI50" s="38"/>
+      <c r="DJ50" s="38"/>
+      <c r="DK50" s="38"/>
+      <c r="DL50" s="38"/>
+      <c r="DM50" s="38"/>
+      <c r="DN50" s="38"/>
     </row>
     <row r="51" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="F51" s="53">
+        <f>F26/F49</f>
+        <v>-1.1417165354330707</v>
+      </c>
+      <c r="G51" s="53">
+        <f>G26/G49</f>
+        <v>-3.9647482993197278</v>
+      </c>
+      <c r="H51" s="53">
+        <f>H26/H49</f>
+        <v>-0.27532077478660544</v>
+      </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
@@ -8133,23 +8137,23 @@
     </row>
     <row r="52" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
       <c r="F52" s="53">
-        <f>F27/F50</f>
-        <v>-1.1417165354330707</v>
+        <f>F26/F45</f>
+        <v>-0.40530538085255063</v>
       </c>
       <c r="G52" s="53">
-        <f>G27/G50</f>
-        <v>-3.9647482993197278</v>
+        <f>G26/G45</f>
+        <v>-0.3656323713927227</v>
       </c>
       <c r="H52" s="53">
-        <f>H27/H50</f>
-        <v>-0.25664740643466843</v>
+        <f>H26/H45</f>
+        <v>-0.15582071348940918</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -8264,23 +8268,23 @@
     </row>
     <row r="53" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38"/>
       <c r="F53" s="53">
-        <f>F27/F46</f>
-        <v>-0.40530538085255063</v>
+        <f>F26/(F49-F44)</f>
+        <v>-1.1958597938144329</v>
       </c>
       <c r="G53" s="53">
-        <f>G27/G46</f>
-        <v>-0.3656323713927227</v>
+        <f>G26/(G49-G44)</f>
+        <v>-6.0710208333333329</v>
       </c>
       <c r="H53" s="53">
-        <f>H27/H46</f>
-        <v>-0.14525232255667039</v>
+        <f>H26/(H49-H44)</f>
+        <v>-0.32106702909647789</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -8395,23 +8399,23 @@
     </row>
     <row r="54" spans="1:118" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
       <c r="F54" s="53">
-        <f>F27/(F50-F45)</f>
-        <v>-1.1958597938144329</v>
+        <f>F26/F48</f>
+        <v>-2.0567092198581558</v>
       </c>
       <c r="G54" s="53">
-        <f>G27/(G50-G45)</f>
-        <v>-6.0710208333333329</v>
+        <f>G26/G48</f>
+        <v>-1.4146067961165047</v>
       </c>
       <c r="H54" s="53">
-        <f>H27/(H50-H45)</f>
-        <v>-0.29929096477794798</v>
+        <f>H26/H48</f>
+        <v>-0.98430408450704254</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -8525,25 +8529,13 @@
       <c r="DN54" s="38"/>
     </row>
     <row r="55" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A55" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
-      <c r="F55" s="53">
-        <f>F27/F49</f>
-        <v>-2.0567092198581558</v>
-      </c>
-      <c r="G55" s="53">
-        <f>G27/G49</f>
-        <v>-1.4146067961165047</v>
-      </c>
-      <c r="H55" s="53">
-        <f>H27/H49</f>
-        <v>-0.91754460093896717</v>
-      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
@@ -8656,18 +8648,42 @@
       <c r="DN55" s="38"/>
     </row>
     <row r="56" spans="1:118" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
+        <f t="shared" ref="G56" si="69">G13/F13-1</f>
+        <v>0.24713432279323966</v>
+      </c>
+      <c r="H56" s="53">
+        <f>H13/G13-1</f>
+        <v>0.47150446768252841</v>
+      </c>
+      <c r="I56" s="53">
+        <f t="shared" ref="I56:M56" si="70">I13/H13-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J56" s="53">
+        <f t="shared" si="70"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="K56" s="53">
+        <f t="shared" si="70"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L56" s="53">
+        <f t="shared" si="70"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="M56" s="53">
+        <f t="shared" si="70"/>
+        <v>0.39999999999999991</v>
+      </c>
       <c r="N56" s="38"/>
       <c r="O56" s="38"/>
       <c r="P56" s="38"/>
@@ -8774,204 +8790,61 @@
       <c r="DM56" s="38"/>
       <c r="DN56" s="38"/>
     </row>
-    <row r="57" spans="1:118" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53">
-        <f t="shared" ref="G57" si="91">G13/F13-1</f>
-        <v>0.24713432279323966</v>
-      </c>
-      <c r="H57" s="53">
-        <f>H13/G13-1</f>
-        <v>0.47150446768252841</v>
-      </c>
-      <c r="I57" s="53">
-        <f t="shared" ref="I57:M57" si="92">I13/H13-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J57" s="53">
-        <f t="shared" si="92"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="K57" s="53">
-        <f t="shared" si="92"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="L57" s="53">
-        <f t="shared" si="92"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="M57" s="53">
-        <f t="shared" si="92"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="38"/>
-      <c r="AC57" s="38"/>
-      <c r="AD57" s="38"/>
-      <c r="AE57" s="38"/>
-      <c r="AF57" s="38"/>
-      <c r="AG57" s="38"/>
-      <c r="AH57" s="38"/>
-      <c r="AI57" s="38"/>
-      <c r="AJ57" s="38"/>
-      <c r="AK57" s="38"/>
-      <c r="AL57" s="38"/>
-      <c r="AM57" s="38"/>
-      <c r="AN57" s="38"/>
-      <c r="AO57" s="38"/>
-      <c r="AP57" s="38"/>
-      <c r="AQ57" s="38"/>
-      <c r="AR57" s="38"/>
-      <c r="AS57" s="38"/>
-      <c r="AT57" s="38"/>
-      <c r="AU57" s="38"/>
-      <c r="AV57" s="38"/>
-      <c r="AW57" s="38"/>
-      <c r="AX57" s="38"/>
-      <c r="AY57" s="38"/>
-      <c r="AZ57" s="38"/>
-      <c r="BA57" s="38"/>
-      <c r="BB57" s="38"/>
-      <c r="BC57" s="38"/>
-      <c r="BD57" s="38"/>
-      <c r="BE57" s="38"/>
-      <c r="BF57" s="38"/>
-      <c r="BG57" s="38"/>
-      <c r="BH57" s="38"/>
-      <c r="BI57" s="38"/>
-      <c r="BJ57" s="38"/>
-      <c r="BK57" s="38"/>
-      <c r="BL57" s="38"/>
-      <c r="BM57" s="38"/>
-      <c r="BN57" s="38"/>
-      <c r="BO57" s="38"/>
-      <c r="BP57" s="38"/>
-      <c r="BQ57" s="38"/>
-      <c r="BR57" s="38"/>
-      <c r="BS57" s="38"/>
-      <c r="BT57" s="38"/>
-      <c r="BU57" s="38"/>
-      <c r="BV57" s="38"/>
-      <c r="BW57" s="38"/>
-      <c r="BX57" s="38"/>
-      <c r="BY57" s="38"/>
-      <c r="BZ57" s="38"/>
-      <c r="CA57" s="38"/>
-      <c r="CB57" s="38"/>
-      <c r="CC57" s="38"/>
-      <c r="CD57" s="38"/>
-      <c r="CE57" s="38"/>
-      <c r="CF57" s="38"/>
-      <c r="CG57" s="38"/>
-      <c r="CH57" s="38"/>
-      <c r="CI57" s="38"/>
-      <c r="CJ57" s="38"/>
-      <c r="CK57" s="38"/>
-      <c r="CL57" s="38"/>
-      <c r="CM57" s="38"/>
-      <c r="CN57" s="38"/>
-      <c r="CO57" s="38"/>
-      <c r="CP57" s="38"/>
-      <c r="CQ57" s="38"/>
-      <c r="CR57" s="38"/>
-      <c r="CS57" s="38"/>
-      <c r="CT57" s="38"/>
-      <c r="CU57" s="38"/>
-      <c r="CV57" s="38"/>
-      <c r="CW57" s="38"/>
-      <c r="CX57" s="38"/>
-      <c r="CY57" s="38"/>
-      <c r="CZ57" s="38"/>
-      <c r="DA57" s="38"/>
-      <c r="DB57" s="38"/>
-      <c r="DC57" s="38"/>
-      <c r="DD57" s="38"/>
-      <c r="DE57" s="38"/>
-      <c r="DF57" s="38"/>
-      <c r="DG57" s="38"/>
-      <c r="DH57" s="38"/>
-      <c r="DI57" s="38"/>
-      <c r="DJ57" s="38"/>
-      <c r="DK57" s="38"/>
-      <c r="DL57" s="38"/>
-      <c r="DM57" s="38"/>
-      <c r="DN57" s="38"/>
+    <row r="58" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="19">
+        <f>H10/G10-1</f>
+        <v>0.76300578034682087</v>
+      </c>
+      <c r="I58" s="19">
+        <f>I10/H10-1</f>
+        <v>0.6830057803468208</v>
+      </c>
+      <c r="J58" s="19">
+        <f t="shared" ref="J58:M58" si="71">J10/I10-1</f>
+        <v>0.60300578034682073</v>
+      </c>
+      <c r="K58" s="19">
+        <f t="shared" si="71"/>
+        <v>0.52300578034682066</v>
+      </c>
+      <c r="L58" s="19">
+        <f t="shared" si="71"/>
+        <v>0.44300578034682059</v>
+      </c>
+      <c r="M58" s="19">
+        <f t="shared" si="71"/>
+        <v>0.36300578034682052</v>
+      </c>
     </row>
     <row r="59" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" s="19">
-        <f>H10/G10-1</f>
-        <v>0.76300578034682087</v>
-      </c>
-      <c r="I59" s="19">
-        <f t="shared" ref="I59:M59" si="93">I10/H10-1</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J59" s="19">
-        <f t="shared" si="93"/>
-        <v>0.5</v>
-      </c>
-      <c r="K59" s="19">
-        <f t="shared" si="93"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="L59" s="19">
-        <f t="shared" si="93"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="M59" s="19">
-        <f t="shared" si="93"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="19">
         <f>H11/G11-1</f>
         <v>0.21410579345088165</v>
       </c>
-      <c r="I60" s="19">
-        <f t="shared" ref="I60:M60" si="94">I11/H11-1</f>
+      <c r="I59" s="19">
+        <f t="shared" ref="I59:M59" si="72">I11/H11-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J60" s="19">
-        <f t="shared" si="94"/>
+      <c r="J59" s="19">
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K60" s="19">
-        <f t="shared" si="94"/>
+      <c r="K59" s="19">
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L60" s="19">
-        <f t="shared" si="94"/>
+      <c r="L59" s="19">
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M60" s="19">
-        <f t="shared" si="94"/>
+      <c r="M59" s="19">
+        <f t="shared" si="72"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -8990,13 +8863,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9243,7 +9116,8 @@
         <v>68.41</v>
       </c>
       <c r="L9" s="49">
-        <v>149.34</v>
+        <f>L8-L10</f>
+        <v>54.979539999999986</v>
       </c>
       <c r="M9" s="49">
         <v>70.503</v>
@@ -9282,8 +9156,8 @@
         <v>183.47900000000001</v>
       </c>
       <c r="L10" s="26">
-        <f t="shared" si="2"/>
-        <v>140.02599999999998</v>
+        <f>L8*0.81</f>
+        <v>234.38646</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="2"/>
@@ -9317,7 +9191,8 @@
         <v>87</v>
       </c>
       <c r="L11" s="49">
-        <v>314</v>
+        <f>H11*1.2</f>
+        <v>91.2</v>
       </c>
       <c r="M11" s="49">
         <v>94</v>
@@ -9350,7 +9225,8 @@
         <v>103</v>
       </c>
       <c r="L12" s="49">
-        <v>335</v>
+        <f>H12*1.15</f>
+        <v>138</v>
       </c>
       <c r="M12" s="49">
         <v>148</v>
@@ -9383,514 +9259,524 @@
         <v>93</v>
       </c>
       <c r="L13" s="49">
-        <v>339</v>
+        <f>H13*1.4</f>
+        <v>103.6</v>
       </c>
       <c r="M13" s="49">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73" t="s">
-        <v>98</v>
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74">
-        <f>770+8</f>
-        <v>778</v>
-      </c>
-      <c r="M14" s="74"/>
+      <c r="F14" s="27">
+        <f>SUM(F11:F13)</f>
+        <v>246</v>
+      </c>
+      <c r="G14" s="26">
+        <f>SUM(G11:G13)</f>
+        <v>261</v>
+      </c>
+      <c r="H14" s="26">
+        <f>SUM(H11:H13)</f>
+        <v>270</v>
+      </c>
+      <c r="I14" s="26">
+        <f>SUM(I11:I13)</f>
+        <v>301</v>
+      </c>
+      <c r="J14" s="27">
+        <f>SUM(J11:J13)</f>
+        <v>236</v>
+      </c>
+      <c r="K14" s="26">
+        <f>SUM(K11:K13)</f>
+        <v>283</v>
+      </c>
+      <c r="L14" s="26">
+        <f>SUM(L11:L13)</f>
+        <v>332.79999999999995</v>
+      </c>
+      <c r="M14" s="26">
+        <f>SUM(M11:M13)</f>
+        <v>408</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="27">
-        <f t="shared" ref="F15:G15" si="4">SUM(F11:F13)</f>
-        <v>246</v>
+        <f>F10-F14</f>
+        <v>-144.47299999999998</v>
       </c>
       <c r="G15" s="26">
-        <f t="shared" si="4"/>
-        <v>261</v>
+        <f>G10-G14</f>
+        <v>-141.26900000000001</v>
       </c>
       <c r="H15" s="26">
-        <f t="shared" ref="H15:I15" si="5">SUM(H11:H13)</f>
-        <v>270</v>
+        <f>H10-H14</f>
+        <v>-144.53199999999998</v>
       </c>
       <c r="I15" s="26">
-        <f t="shared" si="5"/>
-        <v>301</v>
+        <f>I10-I14</f>
+        <v>-147.54399999999998</v>
       </c>
       <c r="J15" s="27">
-        <f t="shared" ref="J15:K15" si="6">SUM(J11:J13)</f>
-        <v>236</v>
+        <f>J10-J14</f>
+        <v>-70.966999999999985</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="6"/>
-        <v>283</v>
+        <f>K10-K14</f>
+        <v>-99.520999999999987</v>
       </c>
       <c r="L15" s="26">
-        <f>SUM(L11:L13)-L14</f>
-        <v>210</v>
+        <f>L10-L14</f>
+        <v>-98.413539999999955</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" ref="M15" si="7">SUM(M11:M13)</f>
-        <v>408</v>
+        <f>M10-M14</f>
+        <v>-156.41199999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="27">
-        <f t="shared" ref="F16:G16" si="8">F10-F15</f>
-        <v>-144.47299999999998</v>
-      </c>
-      <c r="G16" s="26">
-        <f t="shared" si="8"/>
-        <v>-141.26900000000001</v>
-      </c>
-      <c r="H16" s="26">
-        <f t="shared" ref="H16:I16" si="9">H10-H15</f>
-        <v>-144.53199999999998</v>
-      </c>
-      <c r="I16" s="26">
-        <f t="shared" si="9"/>
-        <v>-147.54399999999998</v>
-      </c>
-      <c r="J16" s="27">
-        <f t="shared" ref="J16:L16" si="10">J10-J15</f>
-        <v>-70.966999999999985</v>
-      </c>
-      <c r="K16" s="26">
-        <f t="shared" si="10"/>
-        <v>-99.520999999999987</v>
-      </c>
-      <c r="L16" s="26">
-        <f t="shared" si="10"/>
-        <v>-69.974000000000018</v>
-      </c>
-      <c r="M16" s="26">
-        <f t="shared" ref="M16" si="11">M10-M15</f>
-        <v>-156.41199999999998</v>
+      <c r="F16" s="22">
+        <f>5-0-2</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="23">
+        <f>4-0+2+1</f>
+        <v>7</v>
+      </c>
+      <c r="H16" s="49">
+        <f>3+1+2</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="49">
+        <f>2-3-3-5</f>
+        <v>-9</v>
+      </c>
+      <c r="J16" s="22">
+        <f>3-5+14+6</f>
+        <v>18</v>
+      </c>
+      <c r="K16" s="49">
+        <f>1-6-4-2</f>
+        <v>-11</v>
+      </c>
+      <c r="L16" s="49">
+        <f>-2-9-3</f>
+        <v>-14</v>
+      </c>
+      <c r="M16" s="49">
+        <f>0-2+2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="22">
-        <f>5-0-2</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="23">
-        <f>4-0+2+1</f>
-        <v>7</v>
-      </c>
-      <c r="H17" s="49">
-        <f>3+1+2</f>
-        <v>6</v>
-      </c>
-      <c r="I17" s="49">
-        <f>2-3-3-5</f>
-        <v>-9</v>
-      </c>
-      <c r="J17" s="22">
-        <f>3-5+14+6</f>
-        <v>18</v>
-      </c>
-      <c r="K17" s="49">
-        <f>1-6-4-2</f>
-        <v>-11</v>
-      </c>
-      <c r="L17" s="49">
-        <f>-2-9-3</f>
-        <v>-14</v>
-      </c>
-      <c r="M17" s="49">
-        <f>0-2+2</f>
-        <v>0</v>
+      <c r="F17" s="27">
+        <f t="shared" ref="F17:H17" si="4">F15+F16</f>
+        <v>-141.47299999999998</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="4"/>
+        <v>-134.26900000000001</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="4"/>
+        <v>-138.53199999999998</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" ref="I17" si="5">I15+I16</f>
+        <v>-156.54399999999998</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" ref="J17:M17" si="6">J15+J16</f>
+        <v>-52.966999999999985</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" si="6"/>
+        <v>-110.52099999999999</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="6"/>
+        <v>-112.41353999999995</v>
+      </c>
+      <c r="M17" s="26">
+        <f t="shared" si="6"/>
+        <v>-156.41199999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="27">
-        <f t="shared" ref="F18:H18" si="12">F16+F17</f>
-        <v>-141.47299999999998</v>
-      </c>
-      <c r="G18" s="26">
-        <f t="shared" si="12"/>
-        <v>-134.26900000000001</v>
-      </c>
-      <c r="H18" s="26">
-        <f t="shared" si="12"/>
-        <v>-138.53199999999998</v>
-      </c>
-      <c r="I18" s="26">
-        <f t="shared" ref="I18" si="13">I16+I17</f>
-        <v>-156.54399999999998</v>
-      </c>
-      <c r="J18" s="27">
-        <f t="shared" ref="J18:M18" si="14">J16+J17</f>
-        <v>-52.966999999999985</v>
-      </c>
-      <c r="K18" s="26">
-        <f t="shared" si="14"/>
-        <v>-110.52099999999999</v>
-      </c>
-      <c r="L18" s="26">
-        <f t="shared" si="14"/>
-        <v>-83.974000000000018</v>
-      </c>
-      <c r="M18" s="26">
-        <f t="shared" si="14"/>
-        <v>-156.41199999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>10</v>
+      <c r="F18" s="22">
+        <v>5</v>
+      </c>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23">
+        <v>2</v>
+      </c>
+      <c r="I18" s="23">
+        <v>4</v>
+      </c>
+      <c r="J18" s="22">
+        <v>3</v>
+      </c>
+      <c r="K18" s="23">
+        <v>1</v>
+      </c>
+      <c r="L18" s="23">
+        <v>-9</v>
+      </c>
+      <c r="M18" s="23">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="22">
-        <v>5</v>
-      </c>
-      <c r="G19" s="23">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23">
-        <v>2</v>
-      </c>
-      <c r="I19" s="23">
-        <v>4</v>
-      </c>
-      <c r="J19" s="22">
-        <v>3</v>
-      </c>
-      <c r="K19" s="23">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23">
-        <v>-9</v>
-      </c>
-      <c r="M19" s="23">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>11</v>
+      <c r="F19" s="25">
+        <f t="shared" ref="F19:M19" si="7">F17-F18</f>
+        <v>-146.47299999999998</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="7"/>
+        <v>-135.26900000000001</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="7"/>
+        <v>-140.53199999999998</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="7"/>
+        <v>-160.54399999999998</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="7"/>
+        <v>-55.966999999999985</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="7"/>
+        <v>-111.52099999999999</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" si="7"/>
+        <v>-103.41353999999995</v>
+      </c>
+      <c r="M19" s="24">
+        <f t="shared" si="7"/>
+        <v>-148.41199999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="25">
-        <f t="shared" ref="F20:M20" si="15">F18-F19</f>
-        <v>-146.47299999999998</v>
-      </c>
-      <c r="G20" s="24">
-        <f t="shared" si="15"/>
-        <v>-135.26900000000001</v>
-      </c>
-      <c r="H20" s="24">
-        <f t="shared" si="15"/>
-        <v>-140.53199999999998</v>
-      </c>
-      <c r="I20" s="24">
-        <f t="shared" si="15"/>
-        <v>-160.54399999999998</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="15"/>
-        <v>-55.966999999999985</v>
-      </c>
-      <c r="K20" s="24">
-        <f t="shared" si="15"/>
-        <v>-111.52099999999999</v>
-      </c>
-      <c r="L20" s="24">
-        <f t="shared" si="15"/>
-        <v>-74.974000000000018</v>
-      </c>
-      <c r="M20" s="24">
-        <f t="shared" si="15"/>
-        <v>-148.41199999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
+      <c r="F20" s="58">
+        <f t="shared" ref="F20:G20" si="8">IFERROR(F19/F21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="57">
+        <f t="shared" ref="H20:I20" si="9">IFERROR(H19/H21,0)</f>
+        <v>-0.24225275994332926</v>
+      </c>
+      <c r="I20" s="57">
+        <f t="shared" si="9"/>
+        <v>-0.27456431274480081</v>
+      </c>
+      <c r="J20" s="58">
+        <f t="shared" ref="J20:L20" si="10">IFERROR(J19/J21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="57">
+        <f t="shared" si="10"/>
+        <v>-0.11421079941277708</v>
+      </c>
+      <c r="M20" s="57">
+        <f t="shared" ref="M20" si="11">IFERROR(M19/M21,0)</f>
+        <v>-8.4156976675118053E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="58">
-        <f t="shared" ref="F21:G21" si="16">IFERROR(F20/F22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="57">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="57">
-        <f t="shared" ref="H21:I21" si="17">IFERROR(H20/H22,0)</f>
-        <v>-0.24225275994332926</v>
-      </c>
-      <c r="I21" s="57">
-        <f t="shared" si="17"/>
-        <v>-0.27456431274480081</v>
-      </c>
-      <c r="J21" s="58">
-        <f t="shared" ref="J21:L21" si="18">IFERROR(J20/J22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="57">
-        <f t="shared" si="18"/>
-        <v>-8.280192782466933E-2</v>
-      </c>
-      <c r="M21" s="57">
-        <f t="shared" ref="M21" si="19">IFERROR(M20/M22,0)</f>
-        <v>-8.4156976675118053E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="49">
+        <v>580.10484599999995</v>
+      </c>
+      <c r="I21" s="49">
+        <v>584.72275000000002</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49">
+        <v>905.46200999999996</v>
+      </c>
+      <c r="M21" s="49">
+        <v>1763.5139220000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="49">
-        <v>580.10484599999995</v>
-      </c>
-      <c r="I22" s="49">
-        <v>584.72275000000002</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49">
-        <v>905.46200999999996</v>
-      </c>
-      <c r="M22" s="49">
-        <v>1763.5139220000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="54"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="F23" s="34">
+        <f>IFERROR(F10/F8,0)</f>
+        <v>0.69379373496610541</v>
+      </c>
+      <c r="G23" s="33">
+        <f>IFERROR(G10/G8,0)</f>
+        <v>0.67905512704174231</v>
+      </c>
+      <c r="H23" s="33">
+        <f>IFERROR(H10/H8,0)</f>
+        <v>0.65848295117586242</v>
+      </c>
+      <c r="I23" s="33">
+        <f>IFERROR(I10/I8,0)</f>
+        <v>0.66906757122053739</v>
+      </c>
+      <c r="J23" s="34">
+        <f>IFERROR(J10/J8,0)</f>
+        <v>0.71964051332812973</v>
+      </c>
+      <c r="K23" s="33">
+        <f>IFERROR(K10/K8,0)</f>
+        <v>0.72841211803611916</v>
+      </c>
+      <c r="L23" s="33">
+        <f>IFERROR(L10/L8,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M23" s="33">
+        <f>IFERROR(M10/M8,0)</f>
+        <v>0.78110844450791861</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="34">
-        <f t="shared" ref="F24:M24" si="20">IFERROR(F10/F8,0)</f>
-        <v>0.69379373496610541</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="20"/>
-        <v>0.67905512704174231</v>
-      </c>
-      <c r="H24" s="33">
-        <f t="shared" si="20"/>
-        <v>0.65848295117586242</v>
-      </c>
-      <c r="I24" s="33">
-        <f t="shared" si="20"/>
-        <v>0.66906757122053739</v>
-      </c>
-      <c r="J24" s="34">
-        <f t="shared" si="20"/>
-        <v>0.71964051332812973</v>
-      </c>
-      <c r="K24" s="33">
-        <f t="shared" si="20"/>
-        <v>0.72841211803611916</v>
-      </c>
-      <c r="L24" s="33">
-        <f t="shared" si="20"/>
-        <v>0.48390619492269304</v>
-      </c>
-      <c r="M24" s="33">
-        <f t="shared" si="20"/>
-        <v>0.78110844450791861</v>
+      <c r="F24" s="36">
+        <f>IFERROR(F15/F8,0)</f>
+        <v>-0.98726902471025568</v>
+      </c>
+      <c r="G24" s="35">
+        <f>IFERROR(G15/G8,0)</f>
+        <v>-0.80120803085299463</v>
+      </c>
+      <c r="H24" s="35">
+        <f>IFERROR(H15/H8,0)</f>
+        <v>-0.7585349084973837</v>
+      </c>
+      <c r="I24" s="35">
+        <f>IFERROR(I15/I8,0)</f>
+        <v>-0.64329127390367891</v>
+      </c>
+      <c r="J24" s="36">
+        <f>IFERROR(J15/J8,0)</f>
+        <v>-0.30945767397646151</v>
+      </c>
+      <c r="K24" s="35">
+        <f>IFERROR(K15/K8,0)</f>
+        <v>-0.3950986347160852</v>
+      </c>
+      <c r="L24" s="35">
+        <f>IFERROR(L15/L8,0)</f>
+        <v>-0.34010056468278915</v>
+      </c>
+      <c r="M24" s="35">
+        <f>IFERROR(M15/M8,0)</f>
+        <v>-0.4856143139671707</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="36">
-        <f t="shared" ref="F25:M25" si="21">IFERROR(F16/F8,0)</f>
-        <v>-0.98726902471025568</v>
+        <f t="shared" ref="F25:M25" si="12">IFERROR(F18/F17,0)</f>
+        <v>-3.5342432831706405E-2</v>
       </c>
       <c r="G25" s="35">
-        <f t="shared" si="21"/>
-        <v>-0.80120803085299463</v>
+        <f t="shared" si="12"/>
+        <v>-7.4477355160163551E-3</v>
       </c>
       <c r="H25" s="35">
-        <f t="shared" si="21"/>
-        <v>-0.7585349084973837</v>
+        <f t="shared" si="12"/>
+        <v>-1.4437097565905352E-2</v>
       </c>
       <c r="I25" s="35">
-        <f t="shared" si="21"/>
-        <v>-0.64329127390367891</v>
+        <f t="shared" si="12"/>
+        <v>-2.555192150449714E-2</v>
       </c>
       <c r="J25" s="36">
-        <f t="shared" si="21"/>
-        <v>-0.30945767397646151</v>
+        <f t="shared" si="12"/>
+        <v>-5.6639039401891758E-2</v>
       </c>
       <c r="K25" s="35">
-        <f t="shared" si="21"/>
-        <v>-0.3950986347160852</v>
+        <f t="shared" si="12"/>
+        <v>-9.0480542159408622E-3</v>
       </c>
       <c r="L25" s="35">
-        <f t="shared" si="21"/>
-        <v>-0.24181832005142284</v>
+        <f t="shared" si="12"/>
+        <v>8.0061529954487717E-2</v>
       </c>
       <c r="M25" s="35">
-        <f t="shared" si="21"/>
-        <v>-0.4856143139671707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>5.1146970820653156E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
-      <c r="F26" s="36">
-        <f t="shared" ref="F26:M26" si="22">IFERROR(F19/F18,0)</f>
-        <v>-3.5342432831706405E-2</v>
-      </c>
-      <c r="G26" s="35">
-        <f t="shared" si="22"/>
-        <v>-7.4477355160163551E-3</v>
-      </c>
-      <c r="H26" s="35">
-        <f t="shared" si="22"/>
-        <v>-1.4437097565905352E-2</v>
-      </c>
-      <c r="I26" s="35">
-        <f t="shared" si="22"/>
-        <v>-2.555192150449714E-2</v>
-      </c>
-      <c r="J26" s="36">
-        <f t="shared" si="22"/>
-        <v>-5.6639039401891758E-2</v>
-      </c>
-      <c r="K26" s="35">
-        <f t="shared" si="22"/>
-        <v>-9.0480542159408622E-3</v>
-      </c>
-      <c r="L26" s="35">
-        <f t="shared" si="22"/>
-        <v>0.10717603067616165</v>
-      </c>
-      <c r="M26" s="35">
-        <f t="shared" si="22"/>
-        <v>5.1146970820653156E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="N26" s="44">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="N27" s="44">
-        <v>0.45</v>
+      <c r="F27" s="30"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30">
+        <f>IFERROR((J8/F8)-1,0)</f>
+        <v>0.56712633938333679</v>
+      </c>
+      <c r="K27" s="29">
+        <f>IFERROR((K8/G8)-1,0)</f>
+        <v>0.42859006352087126</v>
+      </c>
+      <c r="L27" s="29">
+        <f>IFERROR((L8/H8)-1,0)</f>
+        <v>0.51865477771188351</v>
+      </c>
+      <c r="M27" s="29">
+        <f>IFERROR((M8/I8)-1,0)</f>
+        <v>0.40431552420233863</v>
+      </c>
+      <c r="N27" s="29">
+        <f>IFERROR((N8/J8)-1,0)</f>
+        <v>0.44771439908950983</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>14</v>
+      <c r="A28" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30">
-        <f>IFERROR((J8/F8)-1,0)</f>
-        <v>0.56712633938333679</v>
-      </c>
-      <c r="K28" s="29">
-        <f>IFERROR((K8/G8)-1,0)</f>
-        <v>0.42859006352087126</v>
-      </c>
-      <c r="L28" s="29">
-        <f>IFERROR((L8/H8)-1,0)</f>
-        <v>0.51865477771188351</v>
-      </c>
-      <c r="M28" s="29">
-        <f>IFERROR((M8/I8)-1,0)</f>
-        <v>0.40431552420233863</v>
-      </c>
-      <c r="N28" s="29">
-        <f>IFERROR((N8/J8)-1,0)</f>
-        <v>0.44771439908950983</v>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32">
+        <f>J11/F11-1</f>
+        <v>-0.12</v>
+      </c>
+      <c r="K28" s="31">
+        <f>K11/G11-1</f>
+        <v>0.10126582278481022</v>
+      </c>
+      <c r="L28" s="31">
+        <f>L11/H11-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M28" s="31">
+        <f>M11/I11-1</f>
+        <v>0.23684210526315796</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -9901,25 +9787,25 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="32">
-        <f t="shared" ref="J29:M31" si="23">J11/F11-1</f>
-        <v>-0.12</v>
+        <f>J12/F12-1</f>
+        <v>-7.4766355140186924E-2</v>
       </c>
       <c r="K29" s="31">
-        <f t="shared" si="23"/>
-        <v>0.10126582278481022</v>
+        <f>K12/G12-1</f>
+        <v>-7.2072072072072113E-2</v>
       </c>
       <c r="L29" s="31">
-        <f t="shared" si="23"/>
-        <v>3.1315789473684212</v>
+        <f>L12/H12-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" si="23"/>
-        <v>0.23684210526315796</v>
+        <f>M12/I12-1</f>
+        <v>0.30973451327433632</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -9930,420 +9816,422 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="32">
-        <f t="shared" si="23"/>
-        <v>-7.4766355140186924E-2</v>
+        <f>J13/F13-1</f>
+        <v>0.109375</v>
       </c>
       <c r="K30" s="31">
-        <f t="shared" si="23"/>
-        <v>-7.2072072072072113E-2</v>
+        <f>K13/G13-1</f>
+        <v>0.3098591549295775</v>
       </c>
       <c r="L30" s="31">
-        <f t="shared" si="23"/>
-        <v>1.7916666666666665</v>
+        <f>L13/H13-1</f>
+        <v>0.39999999999999991</v>
       </c>
       <c r="M30" s="31">
-        <f t="shared" si="23"/>
-        <v>0.30973451327433632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
+        <f>M13/I13-1</f>
+        <v>0.48214285714285721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32">
-        <f t="shared" si="23"/>
-        <v>0.109375</v>
-      </c>
-      <c r="K31" s="31">
-        <f t="shared" si="23"/>
-        <v>0.3098591549295775</v>
-      </c>
-      <c r="L31" s="31">
-        <f t="shared" si="23"/>
-        <v>3.5810810810810807</v>
-      </c>
-      <c r="M31" s="31">
-        <f t="shared" si="23"/>
-        <v>0.48214285714285721</v>
+      <c r="F31" s="34"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34">
+        <f t="shared" ref="J31:M31" si="13">J14/F14-1</f>
+        <v>-4.065040650406504E-2</v>
+      </c>
+      <c r="K31" s="33">
+        <f t="shared" si="13"/>
+        <v>8.4291187739463647E-2</v>
+      </c>
+      <c r="L31" s="33">
+        <f t="shared" si="13"/>
+        <v>0.23259259259259246</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="13"/>
+        <v>0.35548172757475083</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34">
-        <f t="shared" ref="J32:M32" si="24">J15/F15-1</f>
-        <v>-4.065040650406504E-2</v>
-      </c>
-      <c r="K32" s="33">
-        <f t="shared" si="24"/>
-        <v>8.4291187739463647E-2</v>
-      </c>
-      <c r="L32" s="33">
-        <f t="shared" si="24"/>
-        <v>-0.22222222222222221</v>
-      </c>
-      <c r="M32" s="33">
-        <f t="shared" si="24"/>
-        <v>0.35548172757475083</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="24">
+        <f t="shared" ref="E33" si="14">E34-E35</f>
+        <v>1126</v>
+      </c>
+      <c r="F33" s="21"/>
       <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
-        <v>18</v>
+      <c r="H33" s="24">
+        <f t="shared" ref="H33" si="15">H34-H35</f>
+        <v>735</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" ref="I33" si="16">I34-I35</f>
+        <v>735</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="24">
+        <f t="shared" ref="K33:M33" si="17">K34-K35</f>
+        <v>1237</v>
+      </c>
+      <c r="L33" s="24">
+        <f t="shared" si="17"/>
+        <v>1646</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="17"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="24">
-        <f t="shared" ref="E34" si="25">E35-E36</f>
+      <c r="E34" s="23">
+        <f>1116+10</f>
         <v>1126</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="24">
-        <f t="shared" ref="H34" si="26">H35-H36</f>
-        <v>735</v>
-      </c>
-      <c r="I34" s="24">
-        <f t="shared" ref="I34" si="27">I35-I36</f>
-        <v>735</v>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23">
+        <f>1079+52</f>
+        <v>1131</v>
+      </c>
+      <c r="I34" s="23">
+        <f>1079+52</f>
+        <v>1131</v>
       </c>
       <c r="J34" s="22"/>
-      <c r="K34" s="24">
-        <f t="shared" ref="K34:M34" si="28">K35-K36</f>
-        <v>1237</v>
-      </c>
-      <c r="L34" s="24">
-        <f t="shared" si="28"/>
-        <v>1646</v>
-      </c>
-      <c r="M34" s="24">
-        <f t="shared" si="28"/>
-        <v>1850</v>
+      <c r="K34" s="23">
+        <f>1498+37</f>
+        <v>1535</v>
+      </c>
+      <c r="L34" s="23">
+        <f>1800+44</f>
+        <v>1844</v>
+      </c>
+      <c r="M34" s="23">
+        <f>2011+37</f>
+        <v>2048</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="23">
-        <f>1116+10</f>
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23">
-        <f>1079+52</f>
-        <v>1131</v>
+        <v>396</v>
       </c>
       <c r="I35" s="23">
-        <f>1079+52</f>
-        <v>1131</v>
+        <v>396</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23">
-        <f>1498+37</f>
-        <v>1535</v>
+        <v>298</v>
       </c>
       <c r="L35" s="23">
-        <f>1800+44</f>
-        <v>1844</v>
+        <v>198</v>
       </c>
       <c r="M35" s="23">
-        <f>2011+37</f>
-        <v>2048</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
+      <c r="E36" s="23"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="23">
-        <v>396</v>
-      </c>
-      <c r="I36" s="23">
-        <v>396</v>
-      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="22"/>
-      <c r="K36" s="23">
-        <v>298</v>
-      </c>
-      <c r="L36" s="23">
-        <v>198</v>
-      </c>
-      <c r="M36" s="23">
-        <v>198</v>
-      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="59" t="s">
+        <v>44</v>
+      </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="23">
+        <v>23</v>
+      </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="H37" s="23">
+        <v>78</v>
+      </c>
+      <c r="I37" s="23">
+        <v>51</v>
+      </c>
       <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="K37" s="23">
+        <v>55</v>
+      </c>
+      <c r="L37" s="23">
+        <v>94</v>
+      </c>
+      <c r="M37" s="23">
+        <v>217</v>
+      </c>
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="23">
-        <v>23</v>
+        <v>1431</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23">
-        <v>78</v>
+        <v>1594</v>
       </c>
       <c r="I38" s="23">
-        <v>51</v>
+        <v>1594</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="23">
-        <v>55</v>
+        <v>1892</v>
       </c>
       <c r="L38" s="23">
-        <v>94</v>
+        <v>2604</v>
       </c>
       <c r="M38" s="23">
-        <v>217</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="23">
-        <v>1431</v>
+        <v>923</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23">
-        <v>1594</v>
+        <v>1447</v>
       </c>
       <c r="I39" s="23">
-        <v>1594</v>
+        <v>1447</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="23">
-        <v>1892</v>
+        <v>1163</v>
       </c>
       <c r="L39" s="23">
-        <v>2604</v>
+        <v>1352</v>
       </c>
       <c r="M39" s="23">
-        <v>2691</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59" t="s">
-        <v>46</v>
-      </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="23">
-        <v>923</v>
-      </c>
+      <c r="E40" s="23"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="23">
-        <v>1447</v>
-      </c>
-      <c r="I40" s="23">
-        <v>1447</v>
-      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="22"/>
-      <c r="K40" s="23">
-        <v>1163</v>
-      </c>
-      <c r="L40" s="23">
-        <v>1352</v>
-      </c>
-      <c r="M40" s="23">
-        <v>1168</v>
-      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="E41" s="26">
+        <f t="shared" ref="E41:I41" si="18">E38-E34-E37</f>
+        <v>282</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="26">
+        <f t="shared" si="18"/>
+        <v>385</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="18"/>
+        <v>412</v>
+      </c>
       <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
+      <c r="K41" s="26">
+        <f t="shared" ref="K41:L41" si="19">K38-K34-K37</f>
+        <v>302</v>
+      </c>
+      <c r="L41" s="26">
+        <f t="shared" si="19"/>
+        <v>666</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" ref="M41" si="20">M38-M34-M37</f>
+        <v>426</v>
+      </c>
     </row>
     <row r="42" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="26">
-        <f t="shared" ref="E42:I42" si="29">E39-E35-E38</f>
-        <v>282</v>
+        <f t="shared" ref="E42" si="21">E38-E39</f>
+        <v>508</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="44"/>
       <c r="H42" s="26">
-        <f t="shared" si="29"/>
-        <v>385</v>
+        <f>H38-H39</f>
+        <v>147</v>
       </c>
       <c r="I42" s="26">
-        <f t="shared" si="29"/>
-        <v>412</v>
+        <f>I38-I39</f>
+        <v>147</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="26">
-        <f t="shared" ref="K42:L42" si="30">K39-K35-K38</f>
-        <v>302</v>
+        <f>K38-K39</f>
+        <v>729</v>
       </c>
       <c r="L42" s="26">
-        <f t="shared" si="30"/>
-        <v>666</v>
+        <f>L38-L39</f>
+        <v>1252</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" ref="M42" si="31">M39-M35-M38</f>
-        <v>426</v>
+        <f>M38-M39</f>
+        <v>1523</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="59" t="s">
-        <v>48</v>
-      </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="26">
-        <f t="shared" ref="E43" si="32">E39-E40</f>
-        <v>508</v>
-      </c>
+      <c r="E43" s="23"/>
       <c r="F43" s="21"/>
       <c r="G43" s="44"/>
-      <c r="H43" s="26">
-        <f>H39-H40</f>
-        <v>147</v>
-      </c>
-      <c r="I43" s="26">
-        <f>I39-I40</f>
-        <v>147</v>
-      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="26">
-        <f>K39-K40</f>
-        <v>729</v>
-      </c>
-      <c r="L43" s="26">
-        <f>L39-L40</f>
-        <v>1252</v>
-      </c>
-      <c r="M43" s="26">
-        <f>M39-M40</f>
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="60" t="s">
+        <v>49</v>
+      </c>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="23"/>
       <c r="F44" s="21"/>
       <c r="G44" s="44"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="H44" s="24">
+        <f t="shared" ref="H44:I44" si="22">SUM(E19:H19)</f>
+        <v>-422.27399999999994</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="22"/>
+        <v>-582.81799999999998</v>
+      </c>
       <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="60" t="s">
-        <v>49</v>
+      <c r="K44" s="24">
+        <f>SUM(H19:K19)</f>
+        <v>-468.56399999999996</v>
+      </c>
+      <c r="L44" s="24">
+        <f>SUM(I19:L19)</f>
+        <v>-431.44553999999988</v>
+      </c>
+      <c r="M44" s="24">
+        <f>SUM(J19:M19)</f>
+        <v>-419.31353999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="23"/>
-      <c r="F45" s="21"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="24">
-        <f t="shared" ref="H45:I45" si="33">SUM(E20:H20)</f>
-        <v>-422.27399999999994</v>
-      </c>
-      <c r="I45" s="24">
-        <f t="shared" si="33"/>
-        <v>-582.81799999999998</v>
+      <c r="H45" s="33">
+        <f t="shared" ref="H45:I45" si="23">H44/H42</f>
+        <v>-2.872612244897959</v>
+      </c>
+      <c r="I45" s="33">
+        <f t="shared" si="23"/>
+        <v>-3.9647482993197278</v>
       </c>
       <c r="J45" s="22"/>
-      <c r="K45" s="24">
-        <f>SUM(H20:K20)</f>
-        <v>-468.56399999999996</v>
-      </c>
-      <c r="L45" s="24">
-        <f>SUM(I20:L20)</f>
-        <v>-403.00599999999997</v>
-      </c>
-      <c r="M45" s="24">
-        <f>SUM(J20:M20)</f>
-        <v>-390.87399999999997</v>
+      <c r="K45" s="33">
+        <f t="shared" ref="K45:L45" si="24">K44/K42</f>
+        <v>-0.64274897119341556</v>
+      </c>
+      <c r="L45" s="33">
+        <f t="shared" si="24"/>
+        <v>-0.34460506389776346</v>
+      </c>
+      <c r="M45" s="33">
+        <f t="shared" ref="M45" si="25">M44/M42</f>
+        <v>-0.27532077478660533</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -10351,30 +10239,30 @@
       <c r="E46" s="23"/>
       <c r="G46" s="44"/>
       <c r="H46" s="33">
-        <f t="shared" ref="H46:I46" si="34">H45/H43</f>
-        <v>-2.872612244897959</v>
+        <f t="shared" ref="H46:I46" si="26">H44/H38</f>
+        <v>-0.26491468005018814</v>
       </c>
       <c r="I46" s="33">
-        <f t="shared" si="34"/>
-        <v>-3.9647482993197278</v>
+        <f t="shared" si="26"/>
+        <v>-0.3656323713927227</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="33">
-        <f t="shared" ref="K46:L46" si="35">K45/K43</f>
-        <v>-0.64274897119341556</v>
+        <f t="shared" ref="K46:L46" si="27">K44/K38</f>
+        <v>-0.24765539112050738</v>
       </c>
       <c r="L46" s="33">
-        <f t="shared" si="35"/>
-        <v>-0.32188977635782745</v>
+        <f t="shared" si="27"/>
+        <v>-0.1656856912442396</v>
       </c>
       <c r="M46" s="33">
-        <f t="shared" ref="M46" si="36">M45/M43</f>
-        <v>-0.25664740643466838</v>
+        <f t="shared" ref="M46" si="28">M44/M38</f>
+        <v>-0.15582071348940912</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -10382,30 +10270,30 @@
       <c r="E47" s="23"/>
       <c r="G47" s="44"/>
       <c r="H47" s="33">
-        <f t="shared" ref="H47:I47" si="37">H45/H39</f>
-        <v>-0.26491468005018814</v>
+        <f t="shared" ref="H47:I47" si="29">H44/(H42-H37)</f>
+        <v>-6.1199130434782605</v>
       </c>
       <c r="I47" s="33">
-        <f t="shared" si="37"/>
-        <v>-0.3656323713927227</v>
+        <f t="shared" si="29"/>
+        <v>-6.0710208333333329</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="33">
-        <f t="shared" ref="K47:L47" si="38">K45/K39</f>
-        <v>-0.24765539112050738</v>
+        <f t="shared" ref="K47:L47" si="30">K44/(K42-K37)</f>
+        <v>-0.69519881305637976</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" si="38"/>
-        <v>-0.15476420890937018</v>
+        <f t="shared" si="30"/>
+        <v>-0.37257818652849728</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" ref="M47" si="39">M45/M39</f>
-        <v>-0.14525232255667037</v>
+        <f t="shared" ref="M47" si="31">M44/(M42-M37)</f>
+        <v>-0.32106702909647772</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -10413,101 +10301,93 @@
       <c r="E48" s="23"/>
       <c r="G48" s="44"/>
       <c r="H48" s="33">
-        <f t="shared" ref="H48:I48" si="40">H45/(H43-H38)</f>
-        <v>-6.1199130434782605</v>
+        <f t="shared" ref="H48:I48" si="32">H44/H41</f>
+        <v>-1.0968155844155842</v>
       </c>
       <c r="I48" s="33">
-        <f t="shared" si="40"/>
-        <v>-6.0710208333333329</v>
+        <f t="shared" si="32"/>
+        <v>-1.4146067961165047</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="33">
-        <f t="shared" ref="K48:L48" si="41">K45/(K43-K38)</f>
-        <v>-0.69519881305637976</v>
+        <f t="shared" ref="K48:L48" si="33">K44/K41</f>
+        <v>-1.5515364238410594</v>
       </c>
       <c r="L48" s="33">
-        <f t="shared" si="41"/>
-        <v>-0.34801899827288424</v>
+        <f t="shared" si="33"/>
+        <v>-0.64781612612612594</v>
       </c>
       <c r="M48" s="33">
-        <f t="shared" ref="M48" si="42">M45/(M43-M38)</f>
-        <v>-0.29929096477794792</v>
+        <f t="shared" ref="M48" si="34">M44/M41</f>
+        <v>-0.9843040845070421</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="23"/>
       <c r="G49" s="44"/>
-      <c r="H49" s="33">
-        <f t="shared" ref="H49:I49" si="43">H45/H42</f>
-        <v>-1.0968155844155842</v>
-      </c>
-      <c r="I49" s="33">
-        <f t="shared" si="43"/>
-        <v>-1.4146067961165047</v>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="33">
-        <f t="shared" ref="K49:L49" si="44">K45/K42</f>
-        <v>-1.5515364238410594</v>
-      </c>
-      <c r="L49" s="33">
-        <f t="shared" si="44"/>
-        <v>-0.60511411411411409</v>
-      </c>
-      <c r="M49" s="33">
-        <f t="shared" ref="M49" si="45">M45/M42</f>
-        <v>-0.91754460093896706</v>
-      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="23"/>
       <c r="G50" s="44"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="34">
+        <f t="shared" ref="J50:L50" si="35">J6/F6-1</f>
+        <v>0.56712633938333679</v>
+      </c>
+      <c r="K50" s="33">
+        <f t="shared" si="35"/>
+        <v>0.42859006352087126</v>
+      </c>
+      <c r="L50" s="33">
+        <f t="shared" si="35"/>
+        <v>0.51865477771188351</v>
+      </c>
+      <c r="M50" s="33">
+        <f>M6/I6-1</f>
+        <v>0.40431552420233863</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="23"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34">
-        <f t="shared" ref="J51:L51" si="46">J6/F6-1</f>
-        <v>0.56712633938333679</v>
-      </c>
-      <c r="K51" s="33">
-        <f t="shared" si="46"/>
-        <v>0.42859006352087126</v>
-      </c>
-      <c r="L51" s="33">
-        <f t="shared" si="46"/>
-        <v>0.51865477771188351</v>
-      </c>
-      <c r="M51" s="33">
-        <f>M6/I6-1</f>
-        <v>0.40431552420233863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+    </row>
+    <row r="52" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33">
+        <f>L3/H3-1</f>
+        <v>0.67933182508445156</v>
+      </c>
+      <c r="M52" s="33">
+        <f>M3/I3-1</f>
+        <v>0.85365853658536595</v>
+      </c>
     </row>
     <row r="53" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="33"/>
@@ -10520,50 +10400,27 @@
       <c r="J53" s="34"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33">
-        <f>L3/H3-1</f>
-        <v>0.67933182508445156</v>
-      </c>
-      <c r="M53" s="33">
-        <f>M3/I3-1</f>
-        <v>0.85365853658536595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33">
         <f>L4/H4-1</f>
         <v>0.35273095796885023</v>
       </c>
-      <c r="M54" s="33">
+      <c r="M53" s="33">
         <f>M4/I4-1</f>
         <v>3.937007874015741E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="54"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="41"/>
+    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="54"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
